--- a/uwwtd website/sites/all/modules/uwwtd/model/2015_register_model_20161018_1.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2015_register_model_20161018_1.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="473">
   <si>
     <t>Sensitive areas reported for reference date</t>
   </si>
@@ -1840,6 +1840,9 @@
   </si>
   <si>
     <t>Article 5 [#previous_year#]*</t>
+  </si>
+  <si>
+    <t>Comparison of suage sludge re-use and disposal routs between [#previous_year#] and [#current_year#] (in t DS/year)</t>
   </si>
 </sst>
 </file>
@@ -3602,7 +3605,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="825">
+  <cellXfs count="822">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4810,11 +4813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="29" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="13" fillId="29" borderId="4" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="29" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="13" fillId="29" borderId="4" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="60" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="60" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4823,9 +4822,6 @@
     <xf numFmtId="3" fontId="60" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="29" borderId="4" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="60" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5230,6 +5226,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="79" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5240,6 +5237,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5276,9 +5315,6 @@
     <xf numFmtId="3" fontId="11" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5327,44 +5363,92 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="19" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5372,97 +5456,22 @@
     <xf numFmtId="3" fontId="32" fillId="12" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="32" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="19" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5474,23 +5483,11 @@
     <xf numFmtId="0" fontId="62" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="64" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5587,9 +5584,51 @@
     <xf numFmtId="3" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5615,49 +5654,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Hyperlink 2" xfId="10"/>
@@ -5930,7 +5926,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1F25BB5-33C6-4718-A6E2-0718D356A092}" type="CELLRANGE">
+                    <a:fld id="{56A37670-5738-459C-917A-7BC817F5438F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -5962,7 +5958,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5E82AF9-0FD3-4AE1-87AA-4DA2D59FCF33}" type="CELLRANGE">
+                    <a:fld id="{478796DB-8347-4F1F-A915-7528FC0D8FEC}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -5995,7 +5991,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DBDA8A4-E0D8-451E-B2A7-AEDE7F9B81B2}" type="CELLRANGE">
+                    <a:fld id="{0A819C2A-B2D0-4E6D-BE4D-5802D7AE1FDE}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6172,7 +6168,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BEFE74B7-F7C3-4B58-93F4-4067777FA2C0}" type="CELLRANGE">
+                    <a:fld id="{60DC0069-0CCC-4312-82D3-9A5D8013DCEB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6204,7 +6200,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40CB190F-9119-44AC-9A1D-537CC29DC401}" type="CELLRANGE">
+                    <a:fld id="{478096CF-6543-4933-B57D-ED4A195FAC08}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6237,7 +6233,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E37A5D16-A348-4D16-BE4F-C2D94FC7E1D3}" type="CELLRANGE">
+                    <a:fld id="{481C84A8-4491-4382-ACAF-DB9E4958B182}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6389,11 +6385,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="290146288"/>
-        <c:axId val="359043120"/>
+        <c:axId val="125268416"/>
+        <c:axId val="125268976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="290146288"/>
+        <c:axId val="125268416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6436,7 +6432,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359043120"/>
+        <c:crossAx val="125268976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6444,7 +6440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359043120"/>
+        <c:axId val="125268976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6537,7 +6533,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290146288"/>
+        <c:crossAx val="125268416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6672,7 +6668,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6924,11 +6919,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="361608800"/>
-        <c:axId val="361609360"/>
+        <c:axId val="239501584"/>
+        <c:axId val="239502144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="361608800"/>
+        <c:axId val="239501584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6960,7 +6955,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7027,7 +7021,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361609360"/>
+        <c:crossAx val="239502144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7035,7 +7029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361609360"/>
+        <c:axId val="239502144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7155,7 +7149,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361608800"/>
+        <c:crossAx val="239501584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7285,7 +7279,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7805,7 +7798,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8041,11 +8033,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="361614400"/>
-        <c:axId val="361614960"/>
+        <c:axId val="239507184"/>
+        <c:axId val="239507744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="361614400"/>
+        <c:axId val="239507184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8082,7 +8074,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8149,7 +8140,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361614960"/>
+        <c:crossAx val="239507744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8157,7 +8148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361614960"/>
+        <c:axId val="239507744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8208,7 +8199,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361614400"/>
+        <c:crossAx val="239507184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8338,7 +8329,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8574,11 +8564,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="361741392"/>
-        <c:axId val="361741952"/>
+        <c:axId val="239511104"/>
+        <c:axId val="239511664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="361741392"/>
+        <c:axId val="239511104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8689,7 +8679,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361741952"/>
+        <c:crossAx val="239511664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8697,7 +8687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361741952"/>
+        <c:axId val="239511664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8743,7 +8733,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8804,7 +8793,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361741392"/>
+        <c:crossAx val="239511104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9174,11 +9163,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="361745312"/>
-        <c:axId val="361745872"/>
+        <c:axId val="239515024"/>
+        <c:axId val="239515584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="361745312"/>
+        <c:axId val="239515024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9289,7 +9278,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361745872"/>
+        <c:crossAx val="239515584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9297,7 +9286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361745872"/>
+        <c:axId val="239515584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9411,7 +9400,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361745312"/>
+        <c:crossAx val="239515024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9893,11 +9882,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="361750912"/>
-        <c:axId val="361751472"/>
+        <c:axId val="243228208"/>
+        <c:axId val="243228768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="361750912"/>
+        <c:axId val="243228208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10003,7 +9992,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361751472"/>
+        <c:crossAx val="243228768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10011,7 +10000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361751472"/>
+        <c:axId val="243228768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10133,7 +10122,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361750912"/>
+        <c:crossAx val="243228208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10268,7 +10257,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10470,11 +10458,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="361754832"/>
-        <c:axId val="361755392"/>
+        <c:axId val="243232128"/>
+        <c:axId val="243232688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="361754832"/>
+        <c:axId val="243232128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10585,7 +10573,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361755392"/>
+        <c:crossAx val="243232688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10593,7 +10581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361755392"/>
+        <c:axId val="243232688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10707,7 +10695,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361754832"/>
+        <c:crossAx val="243232128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10842,7 +10830,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11044,11 +11031,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="361758752"/>
-        <c:axId val="361759312"/>
+        <c:axId val="243236048"/>
+        <c:axId val="243236608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="361758752"/>
+        <c:axId val="243236048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11159,7 +11146,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361759312"/>
+        <c:crossAx val="243236608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11167,7 +11154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361759312"/>
+        <c:axId val="243236608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11281,7 +11268,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361758752"/>
+        <c:crossAx val="243236048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11416,7 +11403,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11663,11 +11649,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="361762672"/>
-        <c:axId val="361763232"/>
+        <c:axId val="243239968"/>
+        <c:axId val="243050224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="361762672"/>
+        <c:axId val="243239968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11699,7 +11685,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11766,7 +11751,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361763232"/>
+        <c:crossAx val="243050224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11774,7 +11759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361763232"/>
+        <c:axId val="243050224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11893,7 +11878,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361762672"/>
+        <c:crossAx val="243239968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11917,6 +11902,665 @@
           <c:h val="0.33618032807381654"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparison of suage sludge re-use and disposal routs between previous year and reference year (in t DS/year)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AA$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>re-used: Soil and agriculture </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$33:$Z$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>[#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[#current_year#] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AA$33:$AA$34</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AB$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>re-used: Others </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$33:$Z$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>[#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[#current_year#] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AB$33:$AB$34</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AC$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>disposed: Landfill </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$33:$Z$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>[#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[#current_year#] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AC$33:$AC$34</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AD$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>disposed: Incineration </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$33:$Z$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>[#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[#current_year#] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AD$33:$AD$34</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AE$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>disposed: Others </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$33:$Z$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>[#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[#current_year#] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AE$33:$AE$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AF$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>not reported</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$33:$Z$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>[#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[#current_year#] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AF$33:$AF$34</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="243055824"/>
+        <c:axId val="243056384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="243055824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243056384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="243056384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>t DS/y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243055824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12111,7 +12755,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA97E827-AF6A-4A7B-ABD1-552E9C0C784E}" type="CELLRANGE">
+                    <a:fld id="{D3717110-A7C6-42AC-A82B-AF72CA3982BB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -12143,7 +12787,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D90B54C-4E04-4925-A4CF-F9CC75461D7E}" type="CELLRANGE">
+                    <a:fld id="{961E1324-1786-4AC3-AC40-84E2D3F4D3AA}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -12176,7 +12820,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D6F44FDD-4F8C-49E8-9EE7-E9C96D8F484A}" type="CELLRANGE">
+                    <a:fld id="{992B03D9-D845-4472-B1D8-6B9CB0135789}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -12353,7 +12997,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EAD17B29-28C6-48D0-A717-F3CEABC355B8}" type="CELLRANGE">
+                    <a:fld id="{67A04A3E-8BED-41A3-BD0C-96C34168DECF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -12385,7 +13029,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1294ACE0-CEFB-44AE-BCA2-40A74D37B235}" type="CELLRANGE">
+                    <a:fld id="{E5752EC0-1ADD-4BB9-A508-66BCEA56F628}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -12418,7 +13062,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45D53DB0-113A-47A4-AF0A-E13F756CED45}" type="CELLRANGE">
+                    <a:fld id="{745328BF-35C2-4153-BA00-1E1BD5AB8AD5}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -12570,11 +13214,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="359044240"/>
-        <c:axId val="359044800"/>
+        <c:axId val="240842160"/>
+        <c:axId val="240842720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359044240"/>
+        <c:axId val="240842160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12673,7 +13317,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359044800"/>
+        <c:crossAx val="240842720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12681,7 +13325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359044800"/>
+        <c:axId val="240842720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12781,7 +13425,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359044240"/>
+        <c:crossAx val="240842160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13703,11 +14347,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="359052080"/>
-        <c:axId val="359052640"/>
+        <c:axId val="240850000"/>
+        <c:axId val="240850560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359052080"/>
+        <c:axId val="240850000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13806,7 +14450,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359052640"/>
+        <c:crossAx val="240850560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13814,7 +14458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359052640"/>
+        <c:axId val="240850560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13921,7 +14565,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359052080"/>
+        <c:crossAx val="240850000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14380,11 +15024,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="245018160"/>
-        <c:axId val="245014240"/>
+        <c:axId val="240854480"/>
+        <c:axId val="240855040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="245018160"/>
+        <c:axId val="240854480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14483,7 +15127,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245014240"/>
+        <c:crossAx val="240855040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14491,7 +15135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245014240"/>
+        <c:axId val="240855040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14591,7 +15235,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245018160"/>
+        <c:crossAx val="240854480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14722,7 +15366,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15050,11 +15693,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="288209136"/>
-        <c:axId val="288226496"/>
+        <c:axId val="241726384"/>
+        <c:axId val="241726944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="288209136"/>
+        <c:axId val="241726384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15086,7 +15729,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15153,7 +15795,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288226496"/>
+        <c:crossAx val="241726944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15161,7 +15803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288226496"/>
+        <c:axId val="241726944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15261,7 +15903,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288209136"/>
+        <c:crossAx val="241726384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15397,7 +16039,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15793,11 +16434,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="246161664"/>
-        <c:axId val="246166144"/>
+        <c:axId val="241730304"/>
+        <c:axId val="241730864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246161664"/>
+        <c:axId val="241730304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15840,7 +16481,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246166144"/>
+        <c:crossAx val="241730864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15848,7 +16489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246166144"/>
+        <c:axId val="241730864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15899,7 +16540,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15960,7 +16600,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246161664"/>
+        <c:crossAx val="241730304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16490,11 +17130,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="361600960"/>
-        <c:axId val="361601520"/>
+        <c:axId val="241734224"/>
+        <c:axId val="241734784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="361600960"/>
+        <c:axId val="241734224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16537,7 +17177,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361601520"/>
+        <c:crossAx val="241734784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16545,7 +17185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361601520"/>
+        <c:axId val="241734784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16664,7 +17304,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361600960"/>
+        <c:crossAx val="241734224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16758,7 +17398,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17005,11 +17644,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="361604880"/>
-        <c:axId val="361605440"/>
+        <c:axId val="241738144"/>
+        <c:axId val="241738704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="361604880"/>
+        <c:axId val="241738144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17038,7 +17677,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17105,7 +17743,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361605440"/>
+        <c:crossAx val="241738704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17113,7 +17751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361605440"/>
+        <c:axId val="241738704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -17233,7 +17871,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361604880"/>
+        <c:crossAx val="241738144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17723,6 +18361,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -23141,6 +23819,511 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -27763,6 +28946,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -28134,54 +29347,54 @@
       <c r="AR3" s="5"/>
     </row>
     <row r="4" spans="1:44" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="679" t="s">
+      <c r="A4" s="677" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="680"/>
-      <c r="C4" s="680"/>
-      <c r="D4" s="680"/>
-      <c r="E4" s="681"/>
-      <c r="F4" s="681"/>
-      <c r="G4" s="681"/>
-      <c r="H4" s="681"/>
-      <c r="I4" s="681"/>
-      <c r="J4" s="681"/>
-      <c r="K4" s="681"/>
-      <c r="L4" s="681"/>
-      <c r="M4" s="681"/>
-      <c r="N4" s="681"/>
-      <c r="O4" s="681"/>
-      <c r="P4" s="681"/>
-      <c r="Q4" s="681"/>
-      <c r="R4" s="681"/>
-      <c r="S4" s="681"/>
-      <c r="T4" s="681"/>
-      <c r="U4" s="681"/>
-      <c r="V4" s="681"/>
-      <c r="W4" s="681"/>
-      <c r="X4" s="681"/>
-      <c r="Y4" s="681"/>
-      <c r="Z4" s="681"/>
-      <c r="AA4" s="681"/>
-      <c r="AB4" s="681"/>
-      <c r="AC4" s="681"/>
-      <c r="AD4" s="681"/>
-      <c r="AE4" s="681"/>
-      <c r="AF4" s="681"/>
-      <c r="AG4" s="681"/>
-      <c r="AH4" s="681"/>
-      <c r="AI4" s="681"/>
-      <c r="AJ4" s="681"/>
-      <c r="AK4" s="681"/>
-      <c r="AL4" s="681"/>
-      <c r="AM4" s="681"/>
-      <c r="AN4" s="681"/>
-      <c r="AO4" s="681"/>
-      <c r="AP4" s="681"/>
-      <c r="AQ4" s="682" t="s">
+      <c r="B4" s="678"/>
+      <c r="C4" s="678"/>
+      <c r="D4" s="678"/>
+      <c r="E4" s="679"/>
+      <c r="F4" s="679"/>
+      <c r="G4" s="679"/>
+      <c r="H4" s="679"/>
+      <c r="I4" s="679"/>
+      <c r="J4" s="679"/>
+      <c r="K4" s="679"/>
+      <c r="L4" s="679"/>
+      <c r="M4" s="679"/>
+      <c r="N4" s="679"/>
+      <c r="O4" s="679"/>
+      <c r="P4" s="679"/>
+      <c r="Q4" s="679"/>
+      <c r="R4" s="679"/>
+      <c r="S4" s="679"/>
+      <c r="T4" s="679"/>
+      <c r="U4" s="679"/>
+      <c r="V4" s="679"/>
+      <c r="W4" s="679"/>
+      <c r="X4" s="679"/>
+      <c r="Y4" s="679"/>
+      <c r="Z4" s="679"/>
+      <c r="AA4" s="679"/>
+      <c r="AB4" s="679"/>
+      <c r="AC4" s="679"/>
+      <c r="AD4" s="679"/>
+      <c r="AE4" s="679"/>
+      <c r="AF4" s="679"/>
+      <c r="AG4" s="679"/>
+      <c r="AH4" s="679"/>
+      <c r="AI4" s="679"/>
+      <c r="AJ4" s="679"/>
+      <c r="AK4" s="679"/>
+      <c r="AL4" s="679"/>
+      <c r="AM4" s="679"/>
+      <c r="AN4" s="679"/>
+      <c r="AO4" s="679"/>
+      <c r="AP4" s="679"/>
+      <c r="AQ4" s="680" t="s">
         <v>3</v>
       </c>
-      <c r="AR4" s="682"/>
+      <c r="AR4" s="680"/>
     </row>
     <row r="5" spans="1:44" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="414" t="s">
@@ -28477,7 +29690,7 @@
       <c r="B21" s="395" t="s">
         <v>324</v>
       </c>
-      <c r="C21" s="623"/>
+      <c r="C21" s="620"/>
     </row>
     <row r="22" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A22" s="394" t="s">
@@ -28486,7 +29699,7 @@
       <c r="B22" s="395" t="s">
         <v>326</v>
       </c>
-      <c r="C22" s="622"/>
+      <c r="C22" s="619"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="383" t="s">
@@ -28531,8 +29744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE43" sqref="AE43"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28557,35 +29770,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="823" t="s">
+      <c r="A1" s="798" t="s">
         <v>467</v>
       </c>
-      <c r="B1" s="822"/>
-      <c r="C1" s="822"/>
+      <c r="B1" s="799"/>
+      <c r="C1" s="799"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="810" t="s">
+      <c r="A3" s="807" t="s">
         <v>345</v>
       </c>
-      <c r="B3" s="812" t="s">
+      <c r="B3" s="809" t="s">
         <v>439</v>
       </c>
-      <c r="C3" s="813"/>
-      <c r="D3" s="820" t="s">
+      <c r="C3" s="810"/>
+      <c r="D3" s="805" t="s">
         <v>468</v>
       </c>
-      <c r="E3" s="821"/>
-      <c r="AA3" s="750" t="s">
+      <c r="E3" s="806"/>
+      <c r="AA3" s="751" t="s">
         <v>359</v>
       </c>
-      <c r="AB3" s="750"/>
-      <c r="AC3" s="750" t="s">
+      <c r="AB3" s="751"/>
+      <c r="AC3" s="751" t="s">
         <v>444</v>
       </c>
-      <c r="AD3" s="750"/>
+      <c r="AD3" s="751"/>
     </row>
     <row r="4" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="811"/>
+      <c r="A4" s="808"/>
       <c r="B4" s="427" t="s">
         <v>443</v>
       </c>
@@ -28601,31 +29814,31 @@
       <c r="Z4" t="s">
         <v>334</v>
       </c>
-      <c r="AA4" s="675" t="str">
+      <c r="AA4" s="672" t="str">
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
-      <c r="AB4" s="675" t="str">
+      <c r="AB4" s="672" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="AC4" s="675" t="str">
+      <c r="AC4" s="672" t="str">
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
-      <c r="AD4" s="675" t="str">
+      <c r="AD4" s="672" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="500" t="s">
+      <c r="A5" s="498" t="s">
         <v>459</v>
       </c>
-      <c r="B5" s="501"/>
-      <c r="C5" s="501"/>
-      <c r="D5" s="509"/>
-      <c r="E5" s="503"/>
+      <c r="B5" s="499"/>
+      <c r="C5" s="499"/>
+      <c r="D5" s="506"/>
+      <c r="E5" s="501"/>
       <c r="Z5" t="str">
         <f>A5</f>
         <v>2000 - 10000</v>
@@ -28638,23 +29851,23 @@
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="AC5" t="e">
+      <c r="AC5" s="675" t="e">
         <f>AA5/AA$8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD5" t="e">
+      <c r="AD5" s="675" t="e">
         <f>AB5/AB$8</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="504" t="s">
+      <c r="A6" s="502" t="s">
         <v>460</v>
       </c>
-      <c r="B6" s="505"/>
-      <c r="C6" s="505"/>
-      <c r="D6" s="514"/>
-      <c r="E6" s="506"/>
+      <c r="B6" s="503"/>
+      <c r="C6" s="503"/>
+      <c r="D6" s="511"/>
+      <c r="E6" s="504"/>
       <c r="Z6" t="str">
         <f>A6</f>
         <v>10001 - 100000</v>
@@ -28667,23 +29880,23 @@
         <f>C6</f>
         <v>0</v>
       </c>
-      <c r="AC6" t="e">
+      <c r="AC6" s="675" t="e">
         <f t="shared" ref="AC6:AC8" si="0">AA6/AA$8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD6" t="e">
+      <c r="AD6" s="675" t="e">
         <f t="shared" ref="AD6:AD8" si="1">AB6/AB$8</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="504" t="s">
+      <c r="A7" s="502" t="s">
         <v>434</v>
       </c>
-      <c r="B7" s="505"/>
-      <c r="C7" s="505"/>
-      <c r="D7" s="514"/>
-      <c r="E7" s="506"/>
+      <c r="B7" s="503"/>
+      <c r="C7" s="503"/>
+      <c r="D7" s="511"/>
+      <c r="E7" s="504"/>
       <c r="Z7" t="str">
         <f t="shared" ref="Z7" si="2">A7</f>
         <v>&gt;100000</v>
@@ -28696,11 +29909,11 @@
         <f>C7</f>
         <v>0</v>
       </c>
-      <c r="AC7" t="e">
+      <c r="AC7" s="675" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD7" t="e">
+      <c r="AD7" s="675" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -28717,43 +29930,43 @@
         <f>SUM(AB5:AB7)</f>
         <v>0</v>
       </c>
-      <c r="AC8" t="e">
+      <c r="AC8" s="675" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" t="e">
+      <c r="AD8" s="675" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z10" s="479"/>
-      <c r="AA10" s="750" t="s">
+      <c r="AA10" s="751" t="s">
         <v>445</v>
       </c>
-      <c r="AB10" s="750"/>
-      <c r="AC10" s="750" t="s">
+      <c r="AB10" s="751"/>
+      <c r="AC10" s="751" t="s">
         <v>446</v>
       </c>
-      <c r="AD10" s="750"/>
+      <c r="AD10" s="751"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z11" s="479" t="s">
         <v>345</v>
       </c>
-      <c r="AA11" s="675" t="str">
+      <c r="AA11" s="672" t="str">
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
-      <c r="AB11" s="675" t="str">
+      <c r="AB11" s="672" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="AC11" s="675" t="str">
+      <c r="AC11" s="672" t="str">
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
-      <c r="AD11" s="675" t="str">
+      <c r="AD11" s="672" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
@@ -28771,24 +29984,24 @@
         <f>B5</f>
         <v>0</v>
       </c>
-      <c r="AC12" t="e">
+      <c r="AC12" s="675" t="e">
         <f>AA12/AA$15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD12" t="e">
+      <c r="AD12" s="675" t="e">
         <f>AB12/AB$15</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="810" t="s">
+      <c r="A13" s="807" t="s">
         <v>346</v>
       </c>
       <c r="B13" s="426" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C13" s="650" t="s">
+      <c r="C13" s="647" t="s">
         <v>437</v>
       </c>
       <c r="Z13" t="str">
@@ -28803,17 +30016,17 @@
         <f>B6</f>
         <v>0</v>
       </c>
-      <c r="AC13" t="e">
+      <c r="AC13" s="675" t="e">
         <f t="shared" ref="AC13:AC14" si="3">AA13/AA$15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD13" t="e">
+      <c r="AD13" s="675" t="e">
         <f t="shared" ref="AD13:AD14" si="4">AB13/AB$15</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="811"/>
+      <c r="A14" s="808"/>
       <c r="B14" s="429" t="s">
         <v>347</v>
       </c>
@@ -28832,11 +30045,11 @@
         <f>B7</f>
         <v>0</v>
       </c>
-      <c r="AC14" t="e">
+      <c r="AC14" s="675" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" t="e">
+      <c r="AD14" s="675" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -28858,11 +30071,11 @@
         <f>SUM(AB12:AB14)</f>
         <v>0</v>
       </c>
-      <c r="AC15" t="e">
+      <c r="AC15" s="675" t="e">
         <f t="shared" ref="AC15" si="5">AA15/AA$15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD15" t="e">
+      <c r="AD15" s="675" t="e">
         <f t="shared" ref="AD15" si="6">AB15/AB$15</f>
         <v>#DIV/0!</v>
       </c>
@@ -28874,28 +30087,28 @@
       <c r="B16" s="435"/>
       <c r="C16" s="435"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="428" t="s">
         <v>349</v>
       </c>
       <c r="B17" s="435"/>
       <c r="C17" s="435"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="430" t="s">
         <v>350</v>
       </c>
       <c r="B18" s="435"/>
       <c r="C18" s="435"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="430" t="s">
         <v>351</v>
       </c>
       <c r="B19" s="435"/>
       <c r="C19" s="435"/>
     </row>
-    <row r="21" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>450</v>
       </c>
@@ -28906,24 +30119,24 @@
       <c r="D21" s="800"/>
       <c r="E21" s="800"/>
     </row>
-    <row r="22" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="431" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="814" t="str">
+      <c r="B22" s="811" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="815"/>
-      <c r="D22" s="814" t="str">
+      <c r="C22" s="812"/>
+      <c r="D22" s="811" t="str">
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
-      <c r="E22" s="815"/>
+      <c r="E22" s="812"/>
     </row>
-    <row r="23" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="432"/>
-      <c r="B23" s="655" t="s">
+      <c r="B23" s="652" t="s">
         <v>313</v>
       </c>
       <c r="C23" s="433" t="s">
@@ -28948,164 +30161,257 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="496" t="s">
         <v>312</v>
       </c>
-      <c r="B24" s="497"/>
-      <c r="C24" s="644"/>
-      <c r="D24" s="435"/>
-      <c r="E24" s="627"/>
+      <c r="B24" s="641"/>
+      <c r="C24" s="641"/>
+      <c r="D24" s="641"/>
+      <c r="E24" s="641"/>
       <c r="Z24" t="str">
         <f t="shared" ref="Z24:Z29" si="7">A25</f>
         <v xml:space="preserve">re-used: Soil and agriculture </v>
       </c>
-      <c r="AA24" s="678">
-        <f>C25/100</f>
+      <c r="AA24" s="675">
+        <f t="shared" ref="AA24:AA29" si="8">C25/100</f>
         <v>0</v>
       </c>
       <c r="AC24" t="str">
-        <f t="shared" ref="AC24:AD29" si="8">A25</f>
+        <f t="shared" ref="AC24:AC29" si="9">A25</f>
         <v xml:space="preserve">re-used: Soil and agriculture </v>
       </c>
       <c r="AD24" s="376">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AD24:AD29" si="10">B25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="507" t="s">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="505" t="s">
         <v>353</v>
       </c>
-      <c r="B25" s="508"/>
-      <c r="C25" s="645"/>
-      <c r="D25" s="435"/>
-      <c r="E25" s="627"/>
+      <c r="B25" s="642"/>
+      <c r="C25" s="642"/>
+      <c r="D25" s="642"/>
+      <c r="E25" s="642"/>
       <c r="Z25" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">re-used: Others </v>
       </c>
-      <c r="AA25" s="678">
-        <f t="shared" ref="AA25:AA29" si="9">C26/100</f>
-        <v>0</v>
-      </c>
-      <c r="AC25" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">re-used: Others </v>
-      </c>
-      <c r="AD25" s="376">
+      <c r="AA25" s="675">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">re-used: Others </v>
+      </c>
+      <c r="AD25" s="376">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="498" t="s">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="497" t="s">
         <v>354</v>
       </c>
-      <c r="B26" s="499"/>
-      <c r="C26" s="646"/>
-      <c r="D26" s="435"/>
-      <c r="E26" s="627"/>
+      <c r="B26" s="643"/>
+      <c r="C26" s="643"/>
+      <c r="D26" s="643"/>
+      <c r="E26" s="643"/>
       <c r="Z26" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">disposed: Landfill </v>
       </c>
-      <c r="AA26" s="678">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">disposed: Landfill </v>
-      </c>
-      <c r="AD26" s="376">
+      <c r="AA26" s="675">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">disposed: Landfill </v>
+      </c>
+      <c r="AD26" s="376">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="498" t="s">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="497" t="s">
         <v>429</v>
       </c>
-      <c r="B27" s="499"/>
-      <c r="C27" s="646"/>
-      <c r="D27" s="435"/>
-      <c r="E27" s="627"/>
+      <c r="B27" s="643"/>
+      <c r="C27" s="643"/>
+      <c r="D27" s="643"/>
+      <c r="E27" s="643"/>
       <c r="Z27" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">disposed: Incineration </v>
       </c>
-      <c r="AA27" s="678">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">disposed: Incineration </v>
-      </c>
-      <c r="AD27" s="376">
+      <c r="AA27" s="675">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">disposed: Incineration </v>
+      </c>
+      <c r="AD27" s="376">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="498" t="s">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="497" t="s">
         <v>355</v>
       </c>
-      <c r="B28" s="499"/>
-      <c r="C28" s="646"/>
-      <c r="D28" s="435"/>
-      <c r="E28" s="627"/>
+      <c r="B28" s="643"/>
+      <c r="C28" s="643"/>
+      <c r="D28" s="643"/>
+      <c r="E28" s="643"/>
       <c r="Z28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">disposed: Others </v>
       </c>
-      <c r="AA28" s="678">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">disposed: Others </v>
-      </c>
-      <c r="AD28" s="376">
+      <c r="AA28" s="675">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AC28" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">disposed: Others </v>
+      </c>
+      <c r="AD28" s="376">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="498" t="s">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="497" t="s">
         <v>356</v>
       </c>
-      <c r="B29" s="499"/>
-      <c r="C29" s="646"/>
-      <c r="D29" s="435"/>
-      <c r="E29" s="627"/>
+      <c r="B29" s="643"/>
+      <c r="C29" s="643"/>
+      <c r="D29" s="643"/>
+      <c r="E29" s="643"/>
       <c r="Z29" t="str">
         <f t="shared" si="7"/>
         <v>not reported</v>
       </c>
-      <c r="AA29" s="678">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" t="str">
-        <f t="shared" si="8"/>
-        <v>not reported</v>
-      </c>
-      <c r="AD29" s="376">
+      <c r="AA29" s="675">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AC29" t="str">
+        <f t="shared" si="9"/>
+        <v>not reported</v>
+      </c>
+      <c r="AD29" s="376">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="516" t="s">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="513" t="s">
         <v>458</v>
       </c>
-      <c r="B30" s="499"/>
-      <c r="C30" s="646"/>
+      <c r="B30" s="643"/>
+      <c r="C30" s="643"/>
       <c r="D30" s="435"/>
-      <c r="E30" s="627"/>
+      <c r="E30" s="435"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z31" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA32" t="str">
+        <f>Z24</f>
+        <v xml:space="preserve">re-used: Soil and agriculture </v>
+      </c>
+      <c r="AB32" t="str">
+        <f>Z25</f>
+        <v xml:space="preserve">re-used: Others </v>
+      </c>
+      <c r="AC32" t="str">
+        <f>Z26</f>
+        <v xml:space="preserve">disposed: Landfill </v>
+      </c>
+      <c r="AD32" t="str">
+        <f>Z27</f>
+        <v xml:space="preserve">disposed: Incineration </v>
+      </c>
+      <c r="AE32" t="str">
+        <f>Z28</f>
+        <v xml:space="preserve">disposed: Others </v>
+      </c>
+      <c r="AF32" t="str">
+        <f>Z29</f>
+        <v>not reported</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z33" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA33" s="480">
+        <f>D25</f>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="480">
+        <f>D26</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="480">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="480">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="480">
+        <f>D29</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="480">
+        <f>D24-D25-D26-D27-D28-D29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z34" t="str">
+        <f>B22</f>
+        <v xml:space="preserve">[#current_year#] </v>
+      </c>
+      <c r="AA34" s="376">
+        <f>B25</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="376">
+        <f>B26</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="376">
+        <f>B27</f>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="376">
+        <f>B28</f>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="480">
+        <f>B29</f>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="376">
+        <f>B24-B25-B26-B27-B28-B29</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="436" t="s">
@@ -29118,9 +30424,36 @@
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="D35" s="824" t="str">
+      <c r="D35" s="676" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
+      </c>
+      <c r="Z35" s="675">
+        <v>20.12</v>
+      </c>
+      <c r="AA35" s="675" t="e">
+        <f t="shared" ref="AA35:AF36" si="11">AA33/SUM($AA33:$AF33)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB35" s="675" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC35" s="675" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD35" s="675" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE35" s="675" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF35" s="675" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
@@ -29130,8 +30463,35 @@
       <c r="B36" s="439" t="s">
         <v>324</v>
       </c>
-      <c r="C36" s="624"/>
-      <c r="D36" s="624"/>
+      <c r="C36" s="621"/>
+      <c r="D36" s="621"/>
+      <c r="Z36" s="675">
+        <v>20.14</v>
+      </c>
+      <c r="AA36" s="675" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB36" s="675" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC36" s="675" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD36" s="675" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE36" s="675" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF36" s="675" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="438" t="s">
@@ -29140,23 +30500,23 @@
       <c r="B37" s="439" t="s">
         <v>326</v>
       </c>
-      <c r="C37" s="643"/>
-      <c r="D37" s="643"/>
+      <c r="C37" s="640"/>
+      <c r="D37" s="640"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="434" t="s">
         <v>357</v>
       </c>
-      <c r="B41" s="816" t="str">
+      <c r="B41" s="801" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="817"/>
-      <c r="D41" s="818" t="str">
+      <c r="C41" s="802"/>
+      <c r="D41" s="803" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="819"/>
+      <c r="E41" s="804"/>
       <c r="AA41" t="s">
         <v>440</v>
       </c>
@@ -29255,54 +30615,54 @@
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="502" t="s">
+      <c r="A44" s="500" t="s">
         <v>361</v>
       </c>
-      <c r="B44" s="509"/>
-      <c r="C44" s="509"/>
-      <c r="D44" s="509"/>
-      <c r="E44" s="509"/>
-      <c r="F44" s="510"/>
+      <c r="B44" s="506"/>
+      <c r="C44" s="506"/>
+      <c r="D44" s="506"/>
+      <c r="E44" s="506"/>
+      <c r="F44" s="507"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A45" s="502" t="s">
+      <c r="A45" s="500" t="s">
         <v>431</v>
       </c>
-      <c r="B45" s="509"/>
-      <c r="C45" s="509"/>
-      <c r="D45" s="509"/>
-      <c r="E45" s="509"/>
-      <c r="F45" s="510"/>
+      <c r="B45" s="506"/>
+      <c r="C45" s="506"/>
+      <c r="D45" s="506"/>
+      <c r="E45" s="506"/>
+      <c r="F45" s="507"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A46" s="502" t="s">
+      <c r="A46" s="500" t="s">
         <v>362</v>
       </c>
-      <c r="B46" s="509"/>
-      <c r="C46" s="509"/>
-      <c r="D46" s="509"/>
-      <c r="E46" s="509"/>
-      <c r="F46" s="510"/>
+      <c r="B46" s="506"/>
+      <c r="C46" s="506"/>
+      <c r="D46" s="506"/>
+      <c r="E46" s="506"/>
+      <c r="F46" s="507"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A47" s="502" t="s">
+      <c r="A47" s="500" t="s">
         <v>363</v>
       </c>
-      <c r="B47" s="509"/>
-      <c r="C47" s="509"/>
-      <c r="D47" s="509"/>
-      <c r="E47" s="509"/>
-      <c r="F47" s="510"/>
+      <c r="B47" s="506"/>
+      <c r="C47" s="506"/>
+      <c r="D47" s="506"/>
+      <c r="E47" s="506"/>
+      <c r="F47" s="507"/>
     </row>
     <row r="48" spans="1:32" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="502" t="s">
+      <c r="A48" s="500" t="s">
         <v>432</v>
       </c>
-      <c r="B48" s="509"/>
-      <c r="C48" s="509"/>
-      <c r="D48" s="509"/>
-      <c r="E48" s="509"/>
-      <c r="F48" s="510"/>
+      <c r="B48" s="506"/>
+      <c r="C48" s="506"/>
+      <c r="D48" s="506"/>
+      <c r="E48" s="506"/>
+      <c r="F48" s="507"/>
       <c r="AA48" t="s">
         <v>450</v>
       </c>
@@ -29313,14 +30673,14 @@
       <c r="AD48" s="800"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="502" t="s">
+      <c r="A49" s="500" t="s">
         <v>364</v>
       </c>
-      <c r="B49" s="509"/>
-      <c r="C49" s="509"/>
-      <c r="D49" s="509"/>
-      <c r="E49" s="509"/>
-      <c r="F49" s="510"/>
+      <c r="B49" s="506"/>
+      <c r="C49" s="506"/>
+      <c r="D49" s="506"/>
+      <c r="E49" s="506"/>
+      <c r="F49" s="507"/>
       <c r="AB49" s="446" t="s">
         <v>366</v>
       </c>
@@ -29332,14 +30692,14 @@
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A50" s="502" t="s">
+      <c r="A50" s="500" t="s">
         <v>365</v>
       </c>
-      <c r="B50" s="509"/>
-      <c r="C50" s="509"/>
-      <c r="D50" s="509"/>
-      <c r="E50" s="509"/>
-      <c r="F50" s="510"/>
+      <c r="B50" s="506"/>
+      <c r="C50" s="506"/>
+      <c r="D50" s="506"/>
+      <c r="E50" s="506"/>
+      <c r="F50" s="507"/>
       <c r="AA50" s="428" t="str">
         <f>AA64</f>
         <v>Article 3 7th reporting</v>
@@ -29349,16 +30709,16 @@
       <c r="AD50" s="428"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A51" s="502" t="s">
+      <c r="A51" s="500" t="s">
         <v>433</v>
       </c>
-      <c r="B51" s="509"/>
-      <c r="C51" s="509"/>
-      <c r="D51" s="509"/>
-      <c r="E51" s="509"/>
-      <c r="F51" s="510"/>
+      <c r="B51" s="506"/>
+      <c r="C51" s="506"/>
+      <c r="D51" s="506"/>
+      <c r="E51" s="506"/>
+      <c r="F51" s="507"/>
       <c r="AA51" s="428" t="str">
-        <f t="shared" ref="AA51:AA58" si="10">AA65</f>
+        <f t="shared" ref="AA51:AA58" si="12">AA65</f>
         <v>Article 3 [#previous_year#]*</v>
       </c>
       <c r="AB51" s="435">
@@ -29376,7 +30736,7 @@
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="AA52" s="428" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Article 3 [#current_year#]</v>
       </c>
       <c r="AB52" s="435">
@@ -29400,7 +30760,7 @@
       <c r="C53" s="442" t="s">
         <v>367</v>
       </c>
-      <c r="D53" s="512" t="s">
+      <c r="D53" s="509" t="s">
         <v>430</v>
       </c>
       <c r="E53" s="442" t="s">
@@ -29409,11 +30769,11 @@
       <c r="F53" s="442" t="s">
         <v>367</v>
       </c>
-      <c r="G53" s="512" t="s">
+      <c r="G53" s="509" t="s">
         <v>430</v>
       </c>
       <c r="AA53" s="428" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Article 4 7th reporting</v>
       </c>
       <c r="AB53" s="428"/>
@@ -29421,17 +30781,17 @@
       <c r="AD53" s="428"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A54" s="511" t="s">
+      <c r="A54" s="508" t="s">
         <v>469</v>
       </c>
-      <c r="B54" s="509"/>
-      <c r="C54" s="509"/>
-      <c r="D54" s="509"/>
-      <c r="E54" s="509"/>
-      <c r="F54" s="509"/>
-      <c r="G54" s="509"/>
+      <c r="B54" s="506"/>
+      <c r="C54" s="506"/>
+      <c r="D54" s="506"/>
+      <c r="E54" s="506"/>
+      <c r="F54" s="506"/>
+      <c r="G54" s="506"/>
       <c r="AA54" s="428" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Article 4 [#previous_year#]*</v>
       </c>
       <c r="AB54" s="435">
@@ -29448,17 +30808,17 @@
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A55" s="511" t="s">
+      <c r="A55" s="508" t="s">
         <v>370</v>
       </c>
-      <c r="B55" s="509"/>
-      <c r="C55" s="509"/>
-      <c r="D55" s="509"/>
-      <c r="E55" s="509"/>
-      <c r="F55" s="509"/>
-      <c r="G55" s="509"/>
+      <c r="B55" s="506"/>
+      <c r="C55" s="506"/>
+      <c r="D55" s="506"/>
+      <c r="E55" s="506"/>
+      <c r="F55" s="506"/>
+      <c r="G55" s="506"/>
       <c r="AA55" s="428" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Article 4 [#current_year#]</v>
       </c>
       <c r="AB55" s="435">
@@ -29475,15 +30835,15 @@
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="511"/>
-      <c r="B56" s="509"/>
-      <c r="C56" s="509"/>
-      <c r="D56" s="509"/>
-      <c r="E56" s="509"/>
-      <c r="F56" s="509"/>
-      <c r="G56" s="509"/>
+      <c r="A56" s="508"/>
+      <c r="B56" s="506"/>
+      <c r="C56" s="506"/>
+      <c r="D56" s="506"/>
+      <c r="E56" s="506"/>
+      <c r="F56" s="506"/>
+      <c r="G56" s="506"/>
       <c r="AA56" s="428" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Article 5 7th reporting</v>
       </c>
       <c r="AB56" s="428"/>
@@ -29491,17 +30851,17 @@
       <c r="AD56" s="428"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="511" t="s">
+      <c r="A57" s="508" t="s">
         <v>470</v>
       </c>
-      <c r="B57" s="509"/>
-      <c r="C57" s="509"/>
-      <c r="D57" s="509"/>
-      <c r="E57" s="509"/>
-      <c r="F57" s="509"/>
-      <c r="G57" s="509"/>
+      <c r="B57" s="506"/>
+      <c r="C57" s="506"/>
+      <c r="D57" s="506"/>
+      <c r="E57" s="506"/>
+      <c r="F57" s="506"/>
+      <c r="G57" s="506"/>
       <c r="AA57" s="428" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Article 5 [#previous_year#]*</v>
       </c>
       <c r="AB57" s="435">
@@ -29518,17 +30878,17 @@
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A58" s="511" t="s">
+      <c r="A58" s="508" t="s">
         <v>369</v>
       </c>
-      <c r="B58" s="509"/>
-      <c r="C58" s="509"/>
-      <c r="D58" s="509"/>
-      <c r="E58" s="509"/>
-      <c r="F58" s="509"/>
-      <c r="G58" s="509"/>
+      <c r="B58" s="506"/>
+      <c r="C58" s="506"/>
+      <c r="D58" s="506"/>
+      <c r="E58" s="506"/>
+      <c r="F58" s="506"/>
+      <c r="G58" s="506"/>
       <c r="AA58" s="428" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Article 5 [#current_year#]</v>
       </c>
       <c r="AB58" s="435">
@@ -29545,35 +30905,35 @@
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A59" s="511"/>
-      <c r="B59" s="509"/>
-      <c r="C59" s="509"/>
-      <c r="D59" s="509"/>
-      <c r="E59" s="509"/>
-      <c r="F59" s="509"/>
-      <c r="G59" s="509"/>
+      <c r="A59" s="508"/>
+      <c r="B59" s="506"/>
+      <c r="C59" s="506"/>
+      <c r="D59" s="506"/>
+      <c r="E59" s="506"/>
+      <c r="F59" s="506"/>
+      <c r="G59" s="506"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A60" s="511" t="s">
+      <c r="A60" s="508" t="s">
         <v>471</v>
       </c>
-      <c r="B60" s="509"/>
-      <c r="C60" s="509"/>
-      <c r="D60" s="509"/>
-      <c r="E60" s="509"/>
-      <c r="F60" s="509"/>
-      <c r="G60" s="509"/>
+      <c r="B60" s="506"/>
+      <c r="C60" s="506"/>
+      <c r="D60" s="506"/>
+      <c r="E60" s="506"/>
+      <c r="F60" s="506"/>
+      <c r="G60" s="506"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A61" s="511" t="s">
+      <c r="A61" s="508" t="s">
         <v>368</v>
       </c>
-      <c r="B61" s="509"/>
-      <c r="C61" s="509"/>
-      <c r="D61" s="509"/>
-      <c r="E61" s="509"/>
-      <c r="F61" s="509"/>
-      <c r="G61" s="509"/>
+      <c r="B61" s="506"/>
+      <c r="C61" s="506"/>
+      <c r="D61" s="506"/>
+      <c r="E61" s="506"/>
+      <c r="F61" s="506"/>
+      <c r="G61" s="506"/>
     </row>
     <row r="62" spans="1:30" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="444"/>
@@ -29598,16 +30958,16 @@
       <c r="C63" s="446" t="s">
         <v>367</v>
       </c>
-      <c r="D63" s="512" t="s">
+      <c r="D63" s="509" t="s">
         <v>430</v>
       </c>
-      <c r="E63" s="513" t="s">
+      <c r="E63" s="510" t="s">
         <v>366</v>
       </c>
-      <c r="F63" s="513" t="s">
+      <c r="F63" s="510" t="s">
         <v>367</v>
       </c>
-      <c r="G63" s="512" t="s">
+      <c r="G63" s="509" t="s">
         <v>430</v>
       </c>
       <c r="AB63" s="446" t="s">
@@ -29624,12 +30984,12 @@
       <c r="A64" s="443" t="s">
         <v>469</v>
       </c>
-      <c r="B64" s="514"/>
-      <c r="C64" s="514"/>
-      <c r="D64" s="514"/>
-      <c r="E64" s="514"/>
-      <c r="F64" s="514"/>
-      <c r="G64" s="509"/>
+      <c r="B64" s="511"/>
+      <c r="C64" s="511"/>
+      <c r="D64" s="511"/>
+      <c r="E64" s="511"/>
+      <c r="F64" s="511"/>
+      <c r="G64" s="506"/>
       <c r="AA64" s="428" t="s">
         <v>451</v>
       </c>
@@ -29641,12 +31001,12 @@
       <c r="A65" s="443" t="s">
         <v>370</v>
       </c>
-      <c r="B65" s="515"/>
-      <c r="C65" s="515"/>
-      <c r="D65" s="514"/>
-      <c r="E65" s="514"/>
-      <c r="F65" s="514"/>
-      <c r="G65" s="509"/>
+      <c r="B65" s="512"/>
+      <c r="C65" s="512"/>
+      <c r="D65" s="511"/>
+      <c r="E65" s="511"/>
+      <c r="F65" s="511"/>
+      <c r="G65" s="506"/>
       <c r="AA65" s="428" t="s">
         <v>469</v>
       </c>
@@ -29655,22 +31015,22 @@
         <v>0</v>
       </c>
       <c r="AC65" s="435">
-        <f t="shared" ref="AC65:AD65" si="11">C64</f>
+        <f t="shared" ref="AC65:AD65" si="13">C64</f>
         <v>0</v>
       </c>
       <c r="AD65" s="435">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="443"/>
-      <c r="B66" s="515"/>
-      <c r="C66" s="515"/>
-      <c r="D66" s="514"/>
-      <c r="E66" s="514"/>
-      <c r="F66" s="514"/>
-      <c r="G66" s="509"/>
+      <c r="B66" s="512"/>
+      <c r="C66" s="512"/>
+      <c r="D66" s="511"/>
+      <c r="E66" s="511"/>
+      <c r="F66" s="511"/>
+      <c r="G66" s="506"/>
       <c r="AA66" s="428" t="s">
         <v>370</v>
       </c>
@@ -29691,12 +31051,12 @@
       <c r="A67" s="443" t="s">
         <v>470</v>
       </c>
-      <c r="B67" s="515"/>
-      <c r="C67" s="515"/>
-      <c r="D67" s="514"/>
-      <c r="E67" s="514"/>
-      <c r="F67" s="514"/>
-      <c r="G67" s="509"/>
+      <c r="B67" s="512"/>
+      <c r="C67" s="512"/>
+      <c r="D67" s="511"/>
+      <c r="E67" s="511"/>
+      <c r="F67" s="511"/>
+      <c r="G67" s="506"/>
       <c r="AA67" s="428" t="s">
         <v>452</v>
       </c>
@@ -29708,12 +31068,12 @@
       <c r="A68" s="443" t="s">
         <v>369</v>
       </c>
-      <c r="B68" s="515"/>
-      <c r="C68" s="515"/>
-      <c r="D68" s="514"/>
-      <c r="E68" s="514"/>
-      <c r="F68" s="514"/>
-      <c r="G68" s="509"/>
+      <c r="B68" s="512"/>
+      <c r="C68" s="512"/>
+      <c r="D68" s="511"/>
+      <c r="E68" s="511"/>
+      <c r="F68" s="511"/>
+      <c r="G68" s="506"/>
       <c r="AA68" s="428" t="s">
         <v>470</v>
       </c>
@@ -29722,22 +31082,22 @@
         <v>0</v>
       </c>
       <c r="AC68" s="435">
-        <f t="shared" ref="AC68:AD68" si="12">C67</f>
+        <f t="shared" ref="AC68:AD68" si="14">C67</f>
         <v>0</v>
       </c>
       <c r="AD68" s="435">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="443"/>
-      <c r="B69" s="515"/>
-      <c r="C69" s="515"/>
-      <c r="D69" s="514"/>
-      <c r="E69" s="514"/>
-      <c r="F69" s="514"/>
-      <c r="G69" s="509"/>
+      <c r="B69" s="512"/>
+      <c r="C69" s="512"/>
+      <c r="D69" s="511"/>
+      <c r="E69" s="511"/>
+      <c r="F69" s="511"/>
+      <c r="G69" s="506"/>
       <c r="AA69" s="428" t="s">
         <v>369</v>
       </c>
@@ -29758,12 +31118,12 @@
       <c r="A70" s="443" t="s">
         <v>471</v>
       </c>
-      <c r="B70" s="515"/>
-      <c r="C70" s="515"/>
-      <c r="D70" s="514"/>
-      <c r="E70" s="514"/>
-      <c r="F70" s="514"/>
-      <c r="G70" s="509"/>
+      <c r="B70" s="512"/>
+      <c r="C70" s="512"/>
+      <c r="D70" s="511"/>
+      <c r="E70" s="511"/>
+      <c r="F70" s="511"/>
+      <c r="G70" s="506"/>
       <c r="AA70" s="428" t="s">
         <v>453</v>
       </c>
@@ -29775,12 +31135,12 @@
       <c r="A71" s="443" t="s">
         <v>368</v>
       </c>
-      <c r="B71" s="515"/>
-      <c r="C71" s="515"/>
-      <c r="D71" s="514"/>
-      <c r="E71" s="514"/>
-      <c r="F71" s="514"/>
-      <c r="G71" s="509"/>
+      <c r="B71" s="512"/>
+      <c r="C71" s="512"/>
+      <c r="D71" s="511"/>
+      <c r="E71" s="511"/>
+      <c r="F71" s="511"/>
+      <c r="G71" s="506"/>
       <c r="AA71" s="428" t="s">
         <v>471</v>
       </c>
@@ -29789,11 +31149,11 @@
         <v>0</v>
       </c>
       <c r="AC71" s="435">
-        <f t="shared" ref="AC71:AD71" si="13">C70</f>
+        <f t="shared" ref="AC71:AD71" si="15">C70</f>
         <v>0</v>
       </c>
       <c r="AD71" s="435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -29820,7 +31180,7 @@
       </c>
     </row>
     <row r="74" spans="1:31" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="669" t="s">
+      <c r="A74" s="666" t="s">
         <v>456</v>
       </c>
       <c r="B74" s="800" t="s">
@@ -29834,11 +31194,11 @@
       <c r="A75" s="449" t="s">
         <v>414</v>
       </c>
-      <c r="B75" s="649" t="s">
+      <c r="B75" s="646" t="s">
         <v>372</v>
       </c>
       <c r="C75" s="450"/>
-      <c r="D75" s="649" t="s">
+      <c r="D75" s="646" t="s">
         <v>372</v>
       </c>
       <c r="E75" s="451"/>
@@ -29873,14 +31233,14 @@
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
-      <c r="G76" s="596" t="s">
+      <c r="G76" s="593" t="s">
         <v>225</v>
       </c>
-      <c r="H76" s="667" t="str">
+      <c r="H76" s="664" t="str">
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
-      <c r="I76" s="668" t="s">
+      <c r="I76" s="665" t="s">
         <v>225</v>
       </c>
       <c r="Z76" s="317" t="s">
@@ -29897,7 +31257,7 @@
       <c r="AC76" s="304" t="s">
         <v>427</v>
       </c>
-      <c r="AD76" s="676" t="s">
+      <c r="AD76" s="673" t="s">
         <v>437</v>
       </c>
       <c r="AE76" s="304" t="str">
@@ -29906,22 +31266,22 @@
       </c>
     </row>
     <row r="77" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="663" t="s">
+      <c r="A77" s="660" t="s">
         <v>267</v>
       </c>
-      <c r="B77" s="666"/>
-      <c r="C77" s="632"/>
-      <c r="D77" s="656"/>
-      <c r="E77" s="632"/>
+      <c r="B77" s="663"/>
+      <c r="C77" s="629"/>
+      <c r="D77" s="653"/>
+      <c r="E77" s="629"/>
       <c r="F77" s="483"/>
-      <c r="G77" s="635"/>
+      <c r="G77" s="632"/>
       <c r="H77" s="484"/>
-      <c r="I77" s="639"/>
+      <c r="I77" s="636"/>
       <c r="Z77" t="s">
         <v>267</v>
       </c>
       <c r="AA77" s="480">
-        <f t="shared" ref="AA77:AA82" si="14">H77</f>
+        <f t="shared" ref="AA77:AA82" si="16">H77</f>
         <v>0</v>
       </c>
       <c r="AB77">
@@ -29932,7 +31292,7 @@
         <v>267</v>
       </c>
       <c r="AD77" s="480">
-        <f t="shared" ref="AD77:AD82" si="15">F77</f>
+        <f t="shared" ref="AD77:AD82" si="17">F77</f>
         <v>0</v>
       </c>
       <c r="AE77">
@@ -29941,177 +31301,177 @@
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A78" s="664" t="s">
+      <c r="A78" s="661" t="s">
         <v>257</v>
       </c>
-      <c r="B78" s="657"/>
-      <c r="C78" s="633"/>
-      <c r="D78" s="658"/>
-      <c r="E78" s="633"/>
+      <c r="B78" s="654"/>
+      <c r="C78" s="630"/>
+      <c r="D78" s="655"/>
+      <c r="E78" s="630"/>
       <c r="F78" s="485"/>
-      <c r="G78" s="636"/>
+      <c r="G78" s="633"/>
       <c r="H78" s="486"/>
-      <c r="I78" s="640"/>
+      <c r="I78" s="637"/>
       <c r="Z78" s="238" t="s">
         <v>257</v>
       </c>
       <c r="AA78" s="480">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB78">
-        <f t="shared" ref="AB78:AB82" si="16">D78</f>
+        <f t="shared" ref="AB78:AB82" si="18">D78</f>
         <v>0</v>
       </c>
       <c r="AC78" s="238" t="s">
         <v>257</v>
       </c>
       <c r="AD78" s="480">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE78">
-        <f t="shared" ref="AE78:AE82" si="17">B78</f>
+        <f t="shared" ref="AE78:AE82" si="19">B78</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A79" s="664" t="s">
+      <c r="A79" s="661" t="s">
         <v>374</v>
       </c>
-      <c r="B79" s="657"/>
-      <c r="C79" s="633"/>
-      <c r="D79" s="658"/>
-      <c r="E79" s="633"/>
+      <c r="B79" s="654"/>
+      <c r="C79" s="630"/>
+      <c r="D79" s="655"/>
+      <c r="E79" s="630"/>
       <c r="F79" s="485"/>
-      <c r="G79" s="636"/>
+      <c r="G79" s="633"/>
       <c r="H79" s="486"/>
-      <c r="I79" s="640"/>
+      <c r="I79" s="637"/>
       <c r="Z79" s="238" t="s">
         <v>374</v>
       </c>
       <c r="AA79" s="480">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB79">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="AB79">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="AC79" s="238" t="s">
         <v>374</v>
       </c>
       <c r="AD79" s="480">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AE79">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
+      <c r="AE79">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A80" s="664" t="s">
+      <c r="A80" s="661" t="s">
         <v>375</v>
       </c>
-      <c r="B80" s="657"/>
-      <c r="C80" s="633"/>
-      <c r="D80" s="658"/>
-      <c r="E80" s="633"/>
+      <c r="B80" s="654"/>
+      <c r="C80" s="630"/>
+      <c r="D80" s="655"/>
+      <c r="E80" s="630"/>
       <c r="F80" s="485"/>
-      <c r="G80" s="636"/>
+      <c r="G80" s="633"/>
       <c r="H80" s="486"/>
-      <c r="I80" s="640"/>
+      <c r="I80" s="637"/>
       <c r="Z80" s="238" t="s">
         <v>375</v>
       </c>
       <c r="AA80" s="480">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB80">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="AB80">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="AC80" s="238" t="s">
         <v>375</v>
       </c>
       <c r="AD80" s="480">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AE80">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
+      <c r="AE80">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A81" s="664" t="s">
+      <c r="A81" s="661" t="s">
         <v>376</v>
       </c>
-      <c r="B81" s="659"/>
-      <c r="C81" s="633"/>
-      <c r="D81" s="660"/>
-      <c r="E81" s="633"/>
+      <c r="B81" s="656"/>
+      <c r="C81" s="630"/>
+      <c r="D81" s="657"/>
+      <c r="E81" s="630"/>
       <c r="F81" s="487"/>
-      <c r="G81" s="637"/>
+      <c r="G81" s="634"/>
       <c r="H81" s="488"/>
-      <c r="I81" s="641"/>
+      <c r="I81" s="638"/>
       <c r="Z81" s="238" t="s">
         <v>376</v>
       </c>
       <c r="AA81" s="480">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB81">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="AB81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="AC81" s="238" t="s">
         <v>376</v>
       </c>
       <c r="AD81" s="480">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AE81">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
+      <c r="AE81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A82" s="665" t="s">
+      <c r="A82" s="662" t="s">
         <v>377</v>
       </c>
-      <c r="B82" s="661"/>
-      <c r="C82" s="634"/>
-      <c r="D82" s="662"/>
-      <c r="E82" s="634"/>
+      <c r="B82" s="658"/>
+      <c r="C82" s="631"/>
+      <c r="D82" s="659"/>
+      <c r="E82" s="631"/>
       <c r="F82" s="489"/>
-      <c r="G82" s="638"/>
+      <c r="G82" s="635"/>
       <c r="H82" s="490"/>
-      <c r="I82" s="642"/>
+      <c r="I82" s="639"/>
       <c r="Z82" s="455" t="s">
         <v>377</v>
       </c>
       <c r="AA82" s="480">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB82">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="AB82">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="AC82" s="455" t="s">
         <v>377</v>
       </c>
       <c r="AD82" s="480">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -30121,46 +31481,46 @@
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B85" s="803" t="str">
+      <c r="B85" s="815" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="804"/>
-      <c r="D85" s="803" t="str">
+      <c r="C85" s="816"/>
+      <c r="D85" s="815" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="804"/>
+      <c r="E85" s="816"/>
       <c r="Z85" t="s">
         <v>428</v>
       </c>
-      <c r="AA85" s="676" t="s">
+      <c r="AA85" s="673" t="s">
         <v>437</v>
       </c>
-      <c r="AB85" s="676" t="str">
+      <c r="AB85" s="673" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="299"/>
-      <c r="B86" s="805" t="s">
+      <c r="B86" s="817" t="s">
         <v>255</v>
       </c>
-      <c r="C86" s="769"/>
-      <c r="D86" s="805" t="s">
+      <c r="C86" s="767"/>
+      <c r="D86" s="817" t="s">
         <v>255</v>
       </c>
-      <c r="E86" s="769"/>
+      <c r="E86" s="767"/>
       <c r="Z86" s="457" t="s">
         <v>256</v>
       </c>
       <c r="AA86" s="493">
-        <f t="shared" ref="AA86:AA93" si="18">D88</f>
+        <f t="shared" ref="AA86:AA93" si="20">D88</f>
         <v>100</v>
       </c>
       <c r="AB86" s="493">
-        <f t="shared" ref="AB86:AB93" si="19">B88</f>
+        <f t="shared" ref="AB86:AB93" si="21">B88</f>
         <v>100</v>
       </c>
     </row>
@@ -30184,11 +31544,11 @@
         <v>379</v>
       </c>
       <c r="AA87" s="493">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AB87" s="493">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -30196,11 +31556,11 @@
       <c r="A88" s="457" t="s">
         <v>256</v>
       </c>
-      <c r="B88" s="629">
+      <c r="B88" s="626">
         <v>100</v>
       </c>
       <c r="C88" s="491"/>
-      <c r="D88" s="629">
+      <c r="D88" s="626">
         <v>100</v>
       </c>
       <c r="E88" s="491"/>
@@ -30208,11 +31568,11 @@
         <v>380</v>
       </c>
       <c r="AA88" s="493">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="AB88" s="493">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
     </row>
@@ -30220,19 +31580,19 @@
       <c r="A89" s="458" t="s">
         <v>379</v>
       </c>
-      <c r="B89" s="629"/>
+      <c r="B89" s="626"/>
       <c r="C89" s="435"/>
-      <c r="D89" s="629"/>
+      <c r="D89" s="626"/>
       <c r="E89" s="435"/>
       <c r="Z89" s="458" t="s">
         <v>381</v>
       </c>
       <c r="AA89" s="493">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AB89" s="493">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -30240,11 +31600,11 @@
       <c r="A90" s="457" t="s">
         <v>380</v>
       </c>
-      <c r="B90" s="629">
+      <c r="B90" s="626">
         <v>100</v>
       </c>
       <c r="C90" s="491"/>
-      <c r="D90" s="629">
+      <c r="D90" s="626">
         <v>100</v>
       </c>
       <c r="E90" s="491"/>
@@ -30252,11 +31612,11 @@
         <v>382</v>
       </c>
       <c r="AA90" s="493">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AB90" s="493">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -30264,19 +31624,19 @@
       <c r="A91" s="458" t="s">
         <v>381</v>
       </c>
-      <c r="B91" s="630"/>
+      <c r="B91" s="627"/>
       <c r="C91" s="435"/>
-      <c r="D91" s="630"/>
+      <c r="D91" s="627"/>
       <c r="E91" s="435"/>
       <c r="Z91" s="459" t="s">
         <v>383</v>
       </c>
       <c r="AA91" s="493">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="AB91" s="493">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
     </row>
@@ -30284,19 +31644,19 @@
       <c r="A92" s="458" t="s">
         <v>382</v>
       </c>
-      <c r="B92" s="630"/>
+      <c r="B92" s="627"/>
       <c r="C92" s="435"/>
-      <c r="D92" s="630"/>
+      <c r="D92" s="627"/>
       <c r="E92" s="435"/>
       <c r="Z92" s="458" t="s">
         <v>384</v>
       </c>
       <c r="AA92" s="493">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AB92" s="493">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -30304,11 +31664,11 @@
       <c r="A93" s="459" t="s">
         <v>383</v>
       </c>
-      <c r="B93" s="631">
+      <c r="B93" s="628">
         <v>100</v>
       </c>
       <c r="C93" s="491"/>
-      <c r="D93" s="631">
+      <c r="D93" s="628">
         <v>100</v>
       </c>
       <c r="E93" s="491">
@@ -30318,11 +31678,11 @@
         <v>385</v>
       </c>
       <c r="AA93" s="493">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AB93" s="493">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -30330,25 +31690,25 @@
       <c r="A94" s="458" t="s">
         <v>384</v>
       </c>
-      <c r="B94" s="630"/>
+      <c r="B94" s="627"/>
       <c r="C94" s="435"/>
-      <c r="D94" s="630"/>
+      <c r="D94" s="627"/>
       <c r="E94" s="435"/>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="458" t="s">
         <v>385</v>
       </c>
-      <c r="B95" s="630"/>
+      <c r="B95" s="627"/>
       <c r="C95" s="435"/>
-      <c r="D95" s="630"/>
+      <c r="D95" s="627"/>
       <c r="E95" s="435"/>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="460"/>
-      <c r="B96" s="627"/>
+      <c r="B96" s="624"/>
       <c r="C96" s="435"/>
-      <c r="D96" s="627"/>
+      <c r="D96" s="624"/>
       <c r="E96" s="435"/>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
@@ -30357,34 +31717,34 @@
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B101" s="803" t="str">
+      <c r="B101" s="815" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="804"/>
-      <c r="D101" s="803" t="str">
+      <c r="C101" s="816"/>
+      <c r="D101" s="815" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="804"/>
+      <c r="E101" s="816"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="299"/>
-      <c r="B102" s="805" t="s">
+      <c r="B102" s="817" t="s">
         <v>255</v>
       </c>
-      <c r="C102" s="769"/>
-      <c r="D102" s="805" t="s">
+      <c r="C102" s="767"/>
+      <c r="D102" s="817" t="s">
         <v>255</v>
       </c>
-      <c r="E102" s="769"/>
+      <c r="E102" s="767"/>
       <c r="Z102" t="s">
         <v>428</v>
       </c>
-      <c r="AA102" s="676" t="s">
+      <c r="AA102" s="673" t="s">
         <v>437</v>
       </c>
-      <c r="AB102" s="676" t="str">
+      <c r="AB102" s="673" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
@@ -30409,11 +31769,11 @@
         <v>256</v>
       </c>
       <c r="AA103" s="493">
-        <f t="shared" ref="AA103:AA110" si="20">D104</f>
+        <f t="shared" ref="AA103:AA110" si="22">D104</f>
         <v>100</v>
       </c>
       <c r="AB103" s="493">
-        <f t="shared" ref="AB103:AB110" si="21">B104</f>
+        <f t="shared" ref="AB103:AB110" si="23">B104</f>
         <v>100</v>
       </c>
     </row>
@@ -30421,11 +31781,11 @@
       <c r="A104" s="457" t="s">
         <v>256</v>
       </c>
-      <c r="B104" s="629">
+      <c r="B104" s="626">
         <v>100</v>
       </c>
       <c r="C104" s="491"/>
-      <c r="D104" s="629">
+      <c r="D104" s="626">
         <v>100</v>
       </c>
       <c r="E104" s="491"/>
@@ -30433,11 +31793,11 @@
         <v>379</v>
       </c>
       <c r="AA104" s="493">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB104" s="493">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -30445,19 +31805,19 @@
       <c r="A105" s="458" t="s">
         <v>379</v>
       </c>
-      <c r="B105" s="629"/>
+      <c r="B105" s="626"/>
       <c r="C105" s="435"/>
-      <c r="D105" s="629"/>
+      <c r="D105" s="626"/>
       <c r="E105" s="435"/>
       <c r="Z105" s="457" t="s">
         <v>380</v>
       </c>
       <c r="AA105" s="493">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="AB105" s="493">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
     </row>
@@ -30465,11 +31825,11 @@
       <c r="A106" s="457" t="s">
         <v>380</v>
       </c>
-      <c r="B106" s="629">
+      <c r="B106" s="626">
         <v>100</v>
       </c>
       <c r="C106" s="491"/>
-      <c r="D106" s="629">
+      <c r="D106" s="626">
         <v>100</v>
       </c>
       <c r="E106" s="491"/>
@@ -30477,11 +31837,11 @@
         <v>381</v>
       </c>
       <c r="AA106" s="493">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB106" s="493">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -30489,19 +31849,19 @@
       <c r="A107" s="458" t="s">
         <v>381</v>
       </c>
-      <c r="B107" s="630"/>
+      <c r="B107" s="627"/>
       <c r="C107" s="435"/>
-      <c r="D107" s="630"/>
+      <c r="D107" s="627"/>
       <c r="E107" s="435"/>
       <c r="Z107" s="458" t="s">
         <v>382</v>
       </c>
       <c r="AA107" s="493">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB107" s="493">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -30509,19 +31869,19 @@
       <c r="A108" s="458" t="s">
         <v>382</v>
       </c>
-      <c r="B108" s="630"/>
+      <c r="B108" s="627"/>
       <c r="C108" s="435"/>
-      <c r="D108" s="630"/>
+      <c r="D108" s="627"/>
       <c r="E108" s="435"/>
       <c r="Z108" s="459" t="s">
         <v>383</v>
       </c>
       <c r="AA108" s="493">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="AB108" s="493">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
     </row>
@@ -30529,11 +31889,11 @@
       <c r="A109" s="459" t="s">
         <v>383</v>
       </c>
-      <c r="B109" s="631">
+      <c r="B109" s="628">
         <v>100</v>
       </c>
       <c r="C109" s="491"/>
-      <c r="D109" s="631">
+      <c r="D109" s="628">
         <v>100</v>
       </c>
       <c r="E109" s="491"/>
@@ -30541,11 +31901,11 @@
         <v>384</v>
       </c>
       <c r="AA109" s="493">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB109" s="493">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -30553,19 +31913,19 @@
       <c r="A110" s="458" t="s">
         <v>384</v>
       </c>
-      <c r="B110" s="630"/>
+      <c r="B110" s="627"/>
       <c r="C110" s="435"/>
-      <c r="D110" s="630"/>
+      <c r="D110" s="627"/>
       <c r="E110" s="435"/>
       <c r="Z110" s="458" t="s">
         <v>385</v>
       </c>
       <c r="AA110" s="493">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB110" s="493">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -30573,16 +31933,16 @@
       <c r="A111" s="458" t="s">
         <v>385</v>
       </c>
-      <c r="B111" s="630"/>
+      <c r="B111" s="627"/>
       <c r="C111" s="435"/>
-      <c r="D111" s="630"/>
+      <c r="D111" s="627"/>
       <c r="E111" s="435"/>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="460"/>
-      <c r="B112" s="627"/>
+      <c r="B112" s="624"/>
       <c r="C112" s="435"/>
-      <c r="D112" s="627"/>
+      <c r="D112" s="624"/>
       <c r="E112" s="435"/>
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.25">
@@ -30591,34 +31951,34 @@
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B116" s="806" t="str">
+      <c r="B116" s="818" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="807"/>
-      <c r="D116" s="806" t="str">
+      <c r="C116" s="819"/>
+      <c r="D116" s="818" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="807"/>
+      <c r="E116" s="819"/>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="462"/>
-      <c r="B117" s="808" t="s">
+      <c r="B117" s="820" t="s">
         <v>255</v>
       </c>
-      <c r="C117" s="809"/>
-      <c r="D117" s="808" t="s">
+      <c r="C117" s="821"/>
+      <c r="D117" s="820" t="s">
         <v>255</v>
       </c>
-      <c r="E117" s="809"/>
+      <c r="E117" s="821"/>
       <c r="Z117" t="s">
         <v>428</v>
       </c>
-      <c r="AA117" s="676" t="s">
+      <c r="AA117" s="673" t="s">
         <v>437</v>
       </c>
-      <c r="AB117" s="676" t="str">
+      <c r="AB117" s="673" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
@@ -30644,11 +32004,11 @@
         <v>256</v>
       </c>
       <c r="AA118" s="493">
-        <f t="shared" ref="AA118:AA125" si="22">E119</f>
+        <f t="shared" ref="AA118:AA125" si="24">E119</f>
         <v>0</v>
       </c>
       <c r="AB118" s="494">
-        <f t="shared" ref="AB118:AB125" si="23">C119</f>
+        <f t="shared" ref="AB118:AB125" si="25">C119</f>
         <v>0</v>
       </c>
     </row>
@@ -30656,11 +32016,11 @@
       <c r="A119" s="457" t="s">
         <v>256</v>
       </c>
-      <c r="B119" s="629">
+      <c r="B119" s="626">
         <v>100</v>
       </c>
       <c r="C119" s="491"/>
-      <c r="D119" s="629">
+      <c r="D119" s="626">
         <v>100</v>
       </c>
       <c r="E119" s="491"/>
@@ -30669,11 +32029,11 @@
         <v>379</v>
       </c>
       <c r="AA119" s="493">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB119" s="494">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -30681,20 +32041,20 @@
       <c r="A120" s="458" t="s">
         <v>379</v>
       </c>
-      <c r="B120" s="629"/>
+      <c r="B120" s="626"/>
       <c r="C120" s="435"/>
-      <c r="D120" s="629"/>
+      <c r="D120" s="626"/>
       <c r="E120" s="435"/>
       <c r="I120" s="492"/>
       <c r="Z120" s="457" t="s">
         <v>380</v>
       </c>
       <c r="AA120" s="493">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB120" s="494">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -30702,11 +32062,11 @@
       <c r="A121" s="457" t="s">
         <v>380</v>
       </c>
-      <c r="B121" s="629">
+      <c r="B121" s="626">
         <v>100</v>
       </c>
       <c r="C121" s="491"/>
-      <c r="D121" s="629">
+      <c r="D121" s="626">
         <v>100</v>
       </c>
       <c r="E121" s="491"/>
@@ -30715,11 +32075,11 @@
         <v>381</v>
       </c>
       <c r="AA121" s="493">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB121" s="494">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -30727,20 +32087,20 @@
       <c r="A122" s="458" t="s">
         <v>381</v>
       </c>
-      <c r="B122" s="630"/>
+      <c r="B122" s="627"/>
       <c r="C122" s="435"/>
-      <c r="D122" s="630"/>
+      <c r="D122" s="627"/>
       <c r="E122" s="435"/>
       <c r="I122" s="492"/>
       <c r="Z122" s="458" t="s">
         <v>382</v>
       </c>
       <c r="AA122" s="480">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB122" s="494">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -30748,20 +32108,20 @@
       <c r="A123" s="458" t="s">
         <v>382</v>
       </c>
-      <c r="B123" s="630"/>
+      <c r="B123" s="627"/>
       <c r="C123" s="435"/>
-      <c r="D123" s="630"/>
+      <c r="D123" s="627"/>
       <c r="E123" s="435"/>
       <c r="I123" s="492"/>
       <c r="Z123" s="459" t="s">
         <v>383</v>
       </c>
       <c r="AA123" s="480">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB123" s="494">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -30769,11 +32129,11 @@
       <c r="A124" s="459" t="s">
         <v>383</v>
       </c>
-      <c r="B124" s="631">
+      <c r="B124" s="628">
         <v>100</v>
       </c>
       <c r="C124" s="491"/>
-      <c r="D124" s="631">
+      <c r="D124" s="628">
         <v>100</v>
       </c>
       <c r="E124" s="491"/>
@@ -30782,11 +32142,11 @@
         <v>384</v>
       </c>
       <c r="AA124" s="480">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB124" s="494">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -30794,20 +32154,20 @@
       <c r="A125" s="458" t="s">
         <v>384</v>
       </c>
-      <c r="B125" s="630"/>
+      <c r="B125" s="627"/>
       <c r="C125" s="435"/>
-      <c r="D125" s="630"/>
+      <c r="D125" s="627"/>
       <c r="E125" s="435"/>
       <c r="I125" s="492"/>
       <c r="Z125" s="458" t="s">
         <v>385</v>
       </c>
       <c r="AA125" s="480">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB125" s="494">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -30815,28 +32175,28 @@
       <c r="A126" s="458" t="s">
         <v>385</v>
       </c>
-      <c r="B126" s="630"/>
+      <c r="B126" s="627"/>
       <c r="C126" s="435"/>
-      <c r="D126" s="630"/>
+      <c r="D126" s="627"/>
       <c r="E126" s="435"/>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="460"/>
-      <c r="B127" s="627"/>
+      <c r="B127" s="624"/>
       <c r="C127" s="435"/>
-      <c r="D127" s="627"/>
+      <c r="D127" s="624"/>
       <c r="E127" s="435"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="466" t="s">
         <v>346</v>
       </c>
-      <c r="B129" s="801" t="str">
+      <c r="B129" s="813" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="802"/>
-      <c r="D129" s="802"/>
+      <c r="C129" s="814"/>
+      <c r="D129" s="814"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="467"/>
@@ -30854,75 +32214,75 @@
       <c r="A131" s="470" t="s">
         <v>388</v>
       </c>
-      <c r="B131" s="627">
+      <c r="B131" s="624">
         <v>100</v>
       </c>
       <c r="C131" s="491"/>
-      <c r="D131" s="625"/>
+      <c r="D131" s="622"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="428" t="s">
         <v>389</v>
       </c>
-      <c r="B132" s="627"/>
+      <c r="B132" s="624"/>
       <c r="C132" s="435"/>
-      <c r="D132" s="515"/>
+      <c r="D132" s="512"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="428" t="s">
         <v>258</v>
       </c>
-      <c r="B133" s="627"/>
+      <c r="B133" s="624"/>
       <c r="C133" s="435"/>
-      <c r="D133" s="515"/>
+      <c r="D133" s="512"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="428" t="s">
         <v>390</v>
       </c>
-      <c r="B134" s="627"/>
+      <c r="B134" s="624"/>
       <c r="C134" s="435"/>
-      <c r="D134" s="515"/>
+      <c r="D134" s="512"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="428" t="s">
         <v>391</v>
       </c>
-      <c r="B135" s="627"/>
+      <c r="B135" s="624"/>
       <c r="C135" s="435"/>
-      <c r="D135" s="515"/>
+      <c r="D135" s="512"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="428" t="s">
         <v>392</v>
       </c>
-      <c r="B136" s="627"/>
+      <c r="B136" s="624"/>
       <c r="C136" s="435"/>
-      <c r="D136" s="515"/>
+      <c r="D136" s="512"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="428" t="s">
         <v>393</v>
       </c>
-      <c r="B137" s="627"/>
+      <c r="B137" s="624"/>
       <c r="C137" s="435"/>
-      <c r="D137" s="515"/>
+      <c r="D137" s="512"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="428" t="s">
         <v>394</v>
       </c>
-      <c r="B138" s="627"/>
+      <c r="B138" s="624"/>
       <c r="C138" s="435"/>
-      <c r="D138" s="515"/>
+      <c r="D138" s="512"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="428" t="s">
         <v>395</v>
       </c>
-      <c r="B139" s="627"/>
+      <c r="B139" s="624"/>
       <c r="C139" s="435"/>
-      <c r="D139" s="515"/>
+      <c r="D139" s="512"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" s="471"/>
@@ -30961,7 +32321,7 @@
         <v>132</v>
       </c>
       <c r="C148" s="435"/>
-      <c r="D148" s="626"/>
+      <c r="D148" s="623"/>
       <c r="Z148" s="476" t="s">
         <v>397</v>
       </c>
@@ -30979,7 +32339,7 @@
         <v>132</v>
       </c>
       <c r="C149" s="435"/>
-      <c r="D149" s="626"/>
+      <c r="D149" s="623"/>
       <c r="Z149" s="476" t="s">
         <v>399</v>
       </c>
@@ -30997,7 +32357,7 @@
         <v>132</v>
       </c>
       <c r="C150" s="435"/>
-      <c r="D150" s="626"/>
+      <c r="D150" s="623"/>
       <c r="Z150" s="476" t="s">
         <v>401</v>
       </c>
@@ -31015,7 +32375,7 @@
         <v>132</v>
       </c>
       <c r="C151" s="435"/>
-      <c r="D151" s="626"/>
+      <c r="D151" s="623"/>
       <c r="Z151" s="476" t="s">
         <v>403</v>
       </c>
@@ -31033,7 +32393,7 @@
         <v>132</v>
       </c>
       <c r="C152" s="435"/>
-      <c r="D152" s="626"/>
+      <c r="D152" s="623"/>
     </row>
     <row r="153" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A153" s="476" t="s">
@@ -31043,7 +32403,7 @@
         <v>132</v>
       </c>
       <c r="C153" s="435"/>
-      <c r="D153" s="626"/>
+      <c r="D153" s="623"/>
       <c r="Z153" s="472" t="s">
         <v>396</v>
       </c>
@@ -31065,7 +32425,7 @@
         <v>132</v>
       </c>
       <c r="C154" s="435"/>
-      <c r="D154" s="626"/>
+      <c r="D154" s="623"/>
       <c r="Z154" s="476" t="s">
         <v>398</v>
       </c>
@@ -31083,7 +32443,7 @@
         <v>132</v>
       </c>
       <c r="C155" s="435"/>
-      <c r="D155" s="626"/>
+      <c r="D155" s="623"/>
       <c r="Z155" s="476" t="s">
         <v>400</v>
       </c>
@@ -31136,8 +32496,8 @@
       <c r="B159" s="476" t="s">
         <v>127</v>
       </c>
-      <c r="C159" s="627"/>
-      <c r="D159" s="628"/>
+      <c r="C159" s="624"/>
+      <c r="D159" s="625"/>
       <c r="Z159" s="472" t="s">
         <v>396</v>
       </c>
@@ -31158,8 +32518,8 @@
       <c r="B160" s="476" t="s">
         <v>127</v>
       </c>
-      <c r="C160" s="627"/>
-      <c r="D160" s="628"/>
+      <c r="C160" s="624"/>
+      <c r="D160" s="625"/>
       <c r="Z160" s="476" t="s">
         <v>105</v>
       </c>
@@ -31182,8 +32542,8 @@
       <c r="B161" s="476" t="s">
         <v>127</v>
       </c>
-      <c r="C161" s="627"/>
-      <c r="D161" s="628"/>
+      <c r="C161" s="624"/>
+      <c r="D161" s="625"/>
       <c r="Z161" s="476" t="s">
         <v>110</v>
       </c>
@@ -31206,8 +32566,8 @@
       <c r="B162" s="476" t="s">
         <v>127</v>
       </c>
-      <c r="C162" s="627"/>
-      <c r="D162" s="628"/>
+      <c r="C162" s="624"/>
+      <c r="D162" s="625"/>
       <c r="Z162" s="476" t="s">
         <v>115</v>
       </c>
@@ -31265,7 +32625,7 @@
         <v>131</v>
       </c>
       <c r="C166" s="435"/>
-      <c r="D166" s="626"/>
+      <c r="D166" s="623"/>
     </row>
     <row r="168" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A168" s="472" t="s">
@@ -31300,8 +32660,8 @@
       <c r="B169" s="476" t="s">
         <v>133</v>
       </c>
-      <c r="C169" s="627"/>
-      <c r="D169" s="628"/>
+      <c r="C169" s="624"/>
+      <c r="D169" s="625"/>
       <c r="Z169" s="476" t="s">
         <v>406</v>
       </c>
@@ -31324,8 +32684,8 @@
       <c r="B170" s="476" t="s">
         <v>133</v>
       </c>
-      <c r="C170" s="627"/>
-      <c r="D170" s="628"/>
+      <c r="C170" s="624"/>
+      <c r="D170" s="625"/>
       <c r="Z170" s="476" t="s">
         <v>408</v>
       </c>
@@ -31348,8 +32708,8 @@
       <c r="B171" s="476" t="s">
         <v>133</v>
       </c>
-      <c r="C171" s="627"/>
-      <c r="D171" s="628"/>
+      <c r="C171" s="624"/>
+      <c r="D171" s="625"/>
       <c r="Z171" s="476" t="s">
         <v>410</v>
       </c>
@@ -31372,8 +32732,8 @@
       <c r="B172" s="476" t="s">
         <v>133</v>
       </c>
-      <c r="C172" s="627"/>
-      <c r="D172" s="628"/>
+      <c r="C172" s="624"/>
+      <c r="D172" s="625"/>
       <c r="Z172" s="476" t="s">
         <v>412</v>
       </c>
@@ -31396,8 +32756,8 @@
       <c r="B173" s="476" t="s">
         <v>133</v>
       </c>
-      <c r="C173" s="627"/>
-      <c r="D173" s="628"/>
+      <c r="C173" s="624"/>
+      <c r="D173" s="625"/>
     </row>
     <row r="174" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A174" s="476" t="s">
@@ -31406,8 +32766,8 @@
       <c r="B174" s="476" t="s">
         <v>133</v>
       </c>
-      <c r="C174" s="627"/>
-      <c r="D174" s="628"/>
+      <c r="C174" s="624"/>
+      <c r="D174" s="625"/>
       <c r="Z174" s="472" t="s">
         <v>396</v>
       </c>
@@ -31428,8 +32788,8 @@
       <c r="B175" s="476" t="s">
         <v>133</v>
       </c>
-      <c r="C175" s="627"/>
-      <c r="D175" s="628"/>
+      <c r="C175" s="624"/>
+      <c r="D175" s="625"/>
       <c r="Z175" s="476" t="s">
         <v>407</v>
       </c>
@@ -31452,8 +32812,8 @@
       <c r="B176" s="476" t="s">
         <v>133</v>
       </c>
-      <c r="C176" s="627"/>
-      <c r="D176" s="628"/>
+      <c r="C176" s="624"/>
+      <c r="D176" s="625"/>
       <c r="Z176" s="476" t="s">
         <v>409</v>
       </c>
@@ -31503,17 +32863,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="AB62:AD62"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AB48:AD48"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
@@ -31527,12 +32882,17 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="AB62:AD62"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
@@ -31639,7 +32999,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="410"/>
       <c r="B6" s="411"/>
-      <c r="C6" s="647"/>
+      <c r="C6" s="644"/>
       <c r="D6" s="412"/>
     </row>
   </sheetData>
@@ -31698,7 +33058,7 @@
       <c r="B5" s="413"/>
       <c r="C5" s="413"/>
       <c r="D5" s="413"/>
-      <c r="E5" s="648"/>
+      <c r="E5" s="645"/>
       <c r="F5" s="412"/>
     </row>
   </sheetData>
@@ -31763,7 +33123,7 @@
       <c r="B6" s="411"/>
       <c r="C6" s="411"/>
       <c r="D6" s="411"/>
-      <c r="E6" s="647"/>
+      <c r="E6" s="644"/>
       <c r="F6" s="412"/>
     </row>
   </sheetData>
@@ -31788,123 +33148,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="712" t="s">
+      <c r="A1" s="681" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="713"/>
-      <c r="C1" s="713"/>
-      <c r="D1" s="713"/>
-      <c r="E1" s="713"/>
-      <c r="F1" s="713"/>
-      <c r="G1" s="713"/>
-      <c r="H1" s="714" t="s">
+      <c r="B1" s="682"/>
+      <c r="C1" s="682"/>
+      <c r="D1" s="682"/>
+      <c r="E1" s="682"/>
+      <c r="F1" s="682"/>
+      <c r="G1" s="682"/>
+      <c r="H1" s="683" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="715"/>
-      <c r="J1" s="715"/>
-      <c r="K1" s="715"/>
-      <c r="L1" s="715"/>
-      <c r="M1" s="716"/>
-      <c r="N1" s="717" t="s">
+      <c r="I1" s="684"/>
+      <c r="J1" s="684"/>
+      <c r="K1" s="684"/>
+      <c r="L1" s="684"/>
+      <c r="M1" s="685"/>
+      <c r="N1" s="686" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="695"/>
-      <c r="P1" s="695"/>
-      <c r="Q1" s="718"/>
-      <c r="R1" s="718"/>
-      <c r="S1" s="695"/>
-      <c r="T1" s="695"/>
-      <c r="U1" s="695"/>
-      <c r="V1" s="719" t="s">
+      <c r="O1" s="687"/>
+      <c r="P1" s="687"/>
+      <c r="Q1" s="688"/>
+      <c r="R1" s="688"/>
+      <c r="S1" s="687"/>
+      <c r="T1" s="687"/>
+      <c r="U1" s="687"/>
+      <c r="V1" s="689" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="720"/>
-      <c r="X1" s="721"/>
-      <c r="Y1" s="721"/>
-      <c r="Z1" s="722"/>
-      <c r="AA1" s="723" t="s">
+      <c r="W1" s="690"/>
+      <c r="X1" s="691"/>
+      <c r="Y1" s="691"/>
+      <c r="Z1" s="692"/>
+      <c r="AA1" s="693" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="724"/>
-      <c r="AC1" s="724"/>
-      <c r="AD1" s="724"/>
-      <c r="AE1" s="724"/>
-      <c r="AF1" s="724"/>
-      <c r="AG1" s="724"/>
-      <c r="AH1" s="724"/>
-      <c r="AI1" s="724"/>
-      <c r="AJ1" s="724"/>
-      <c r="AK1" s="724"/>
-      <c r="AL1" s="724"/>
-      <c r="AM1" s="724"/>
+      <c r="AB1" s="694"/>
+      <c r="AC1" s="694"/>
+      <c r="AD1" s="694"/>
+      <c r="AE1" s="694"/>
+      <c r="AF1" s="694"/>
+      <c r="AG1" s="694"/>
+      <c r="AH1" s="694"/>
+      <c r="AI1" s="694"/>
+      <c r="AJ1" s="694"/>
+      <c r="AK1" s="694"/>
+      <c r="AL1" s="694"/>
+      <c r="AM1" s="694"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="8"/>
-      <c r="AP1" s="694" t="s">
+      <c r="AP1" s="706" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="695"/>
-      <c r="AR1" s="695"/>
-      <c r="AS1" s="695"/>
-      <c r="AT1" s="695"/>
-      <c r="AU1" s="695"/>
-      <c r="AV1" s="695"/>
-      <c r="AW1" s="696"/>
-      <c r="AX1" s="703" t="s">
+      <c r="AQ1" s="687"/>
+      <c r="AR1" s="687"/>
+      <c r="AS1" s="687"/>
+      <c r="AT1" s="687"/>
+      <c r="AU1" s="687"/>
+      <c r="AV1" s="687"/>
+      <c r="AW1" s="707"/>
+      <c r="AX1" s="714" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="704"/>
-      <c r="AZ1" s="704"/>
-      <c r="BA1" s="704"/>
-      <c r="BB1" s="704"/>
-      <c r="BC1" s="705"/>
-      <c r="BD1" s="706" t="s">
+      <c r="AY1" s="715"/>
+      <c r="AZ1" s="715"/>
+      <c r="BA1" s="715"/>
+      <c r="BB1" s="715"/>
+      <c r="BC1" s="716"/>
+      <c r="BD1" s="717" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="707"/>
-      <c r="BF1" s="707"/>
-      <c r="BG1" s="707"/>
-      <c r="BH1" s="707"/>
-      <c r="BI1" s="708"/>
-      <c r="BJ1" s="709" t="s">
+      <c r="BE1" s="718"/>
+      <c r="BF1" s="718"/>
+      <c r="BG1" s="718"/>
+      <c r="BH1" s="718"/>
+      <c r="BI1" s="719"/>
+      <c r="BJ1" s="720" t="s">
         <v>56</v>
       </c>
-      <c r="BK1" s="710"/>
-      <c r="BL1" s="710"/>
-      <c r="BM1" s="710"/>
-      <c r="BN1" s="710"/>
-      <c r="BO1" s="710"/>
-      <c r="BP1" s="711"/>
-      <c r="BQ1" s="683" t="s">
+      <c r="BK1" s="721"/>
+      <c r="BL1" s="721"/>
+      <c r="BM1" s="721"/>
+      <c r="BN1" s="721"/>
+      <c r="BO1" s="721"/>
+      <c r="BP1" s="722"/>
+      <c r="BQ1" s="695" t="s">
         <v>57</v>
       </c>
-      <c r="BR1" s="684"/>
-      <c r="BS1" s="684"/>
-      <c r="BT1" s="684"/>
-      <c r="BU1" s="684"/>
-      <c r="BV1" s="684"/>
+      <c r="BR1" s="696"/>
+      <c r="BS1" s="696"/>
+      <c r="BT1" s="696"/>
+      <c r="BU1" s="696"/>
+      <c r="BV1" s="696"/>
       <c r="BW1" s="8"/>
       <c r="BX1" s="9"/>
-      <c r="BY1" s="685" t="s">
+      <c r="BY1" s="697" t="s">
         <v>58</v>
       </c>
-      <c r="BZ1" s="686"/>
-      <c r="CA1" s="686"/>
-      <c r="CB1" s="686"/>
-      <c r="CC1" s="686"/>
-      <c r="CD1" s="686"/>
-      <c r="CE1" s="686"/>
-      <c r="CF1" s="687"/>
-      <c r="CG1" s="687"/>
-      <c r="CH1" s="687"/>
-      <c r="CI1" s="687"/>
-      <c r="CJ1" s="687"/>
-      <c r="CK1" s="687"/>
-      <c r="CL1" s="687"/>
-      <c r="CM1" s="687"/>
-      <c r="CN1" s="687"/>
-      <c r="CO1" s="687"/>
-      <c r="CP1" s="687"/>
-      <c r="CQ1" s="687"/>
+      <c r="BZ1" s="698"/>
+      <c r="CA1" s="698"/>
+      <c r="CB1" s="698"/>
+      <c r="CC1" s="698"/>
+      <c r="CD1" s="698"/>
+      <c r="CE1" s="698"/>
+      <c r="CF1" s="699"/>
+      <c r="CG1" s="699"/>
+      <c r="CH1" s="699"/>
+      <c r="CI1" s="699"/>
+      <c r="CJ1" s="699"/>
+      <c r="CK1" s="699"/>
+      <c r="CL1" s="699"/>
+      <c r="CM1" s="699"/>
+      <c r="CN1" s="699"/>
+      <c r="CO1" s="699"/>
+      <c r="CP1" s="699"/>
+      <c r="CQ1" s="699"/>
     </row>
     <row r="2" spans="1:95" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -31928,18 +33288,18 @@
       <c r="G2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="688" t="s">
+      <c r="H2" s="700" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="689"/>
-      <c r="J2" s="689" t="s">
+      <c r="I2" s="701"/>
+      <c r="J2" s="701" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="689"/>
-      <c r="L2" s="689" t="s">
+      <c r="K2" s="701"/>
+      <c r="L2" s="701" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="690"/>
+      <c r="M2" s="702"/>
       <c r="N2" s="12" t="s">
         <v>59</v>
       </c>
@@ -32048,36 +33408,36 @@
       <c r="AW2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AX2" s="691" t="s">
+      <c r="AX2" s="703" t="s">
         <v>93</v>
       </c>
-      <c r="AY2" s="692"/>
-      <c r="AZ2" s="692"/>
-      <c r="BA2" s="692" t="s">
+      <c r="AY2" s="704"/>
+      <c r="AZ2" s="704"/>
+      <c r="BA2" s="704" t="s">
         <v>94</v>
       </c>
-      <c r="BB2" s="692"/>
-      <c r="BC2" s="693"/>
-      <c r="BD2" s="697" t="s">
+      <c r="BB2" s="704"/>
+      <c r="BC2" s="705"/>
+      <c r="BD2" s="708" t="s">
         <v>93</v>
       </c>
-      <c r="BE2" s="698"/>
-      <c r="BF2" s="698"/>
-      <c r="BG2" s="698" t="s">
+      <c r="BE2" s="709"/>
+      <c r="BF2" s="709"/>
+      <c r="BG2" s="709" t="s">
         <v>94</v>
       </c>
-      <c r="BH2" s="698"/>
-      <c r="BI2" s="699"/>
-      <c r="BJ2" s="700" t="s">
+      <c r="BH2" s="709"/>
+      <c r="BI2" s="710"/>
+      <c r="BJ2" s="711" t="s">
         <v>93</v>
       </c>
-      <c r="BK2" s="701"/>
-      <c r="BL2" s="701"/>
-      <c r="BM2" s="701" t="s">
+      <c r="BK2" s="712"/>
+      <c r="BL2" s="712"/>
+      <c r="BM2" s="712" t="s">
         <v>94</v>
       </c>
-      <c r="BN2" s="702"/>
-      <c r="BO2" s="702"/>
+      <c r="BN2" s="713"/>
+      <c r="BO2" s="713"/>
       <c r="BP2" s="24" t="s">
         <v>95</v>
       </c>
@@ -32378,25 +33738,25 @@
       <c r="E4" s="65"/>
       <c r="F4" s="66"/>
       <c r="G4" s="66"/>
-      <c r="H4" s="532"/>
+      <c r="H4" s="529"/>
       <c r="I4" s="67"/>
-      <c r="J4" s="532"/>
+      <c r="J4" s="529"/>
       <c r="K4" s="67"/>
-      <c r="L4" s="532"/>
+      <c r="L4" s="529"/>
       <c r="M4" s="67"/>
       <c r="N4" s="68"/>
       <c r="O4" s="68"/>
       <c r="P4" s="68"/>
       <c r="Q4" s="68"/>
-      <c r="R4" s="523"/>
-      <c r="S4" s="531"/>
-      <c r="T4" s="523"/>
-      <c r="U4" s="524"/>
+      <c r="R4" s="520"/>
+      <c r="S4" s="528"/>
+      <c r="T4" s="520"/>
+      <c r="U4" s="521"/>
       <c r="V4" s="68"/>
-      <c r="W4" s="523"/>
-      <c r="X4" s="525"/>
-      <c r="Y4" s="528"/>
-      <c r="Z4" s="531"/>
+      <c r="W4" s="520"/>
+      <c r="X4" s="522"/>
+      <c r="Y4" s="525"/>
+      <c r="Z4" s="528"/>
       <c r="AA4" s="69"/>
       <c r="AB4" s="69"/>
       <c r="AC4" s="69"/>
@@ -32445,42 +33805,42 @@
       <c r="BT4" s="75"/>
       <c r="BU4" s="75"/>
       <c r="BV4" s="77"/>
-      <c r="BW4" s="533"/>
-      <c r="BX4" s="533"/>
-      <c r="BY4" s="533"/>
-      <c r="BZ4" s="534"/>
-      <c r="CA4" s="534"/>
-      <c r="CB4" s="534"/>
-      <c r="CC4" s="533"/>
-      <c r="CD4" s="533"/>
-      <c r="CE4" s="534"/>
-      <c r="CF4" s="534"/>
-      <c r="CG4" s="534"/>
-      <c r="CH4" s="533"/>
-      <c r="CI4" s="533"/>
-      <c r="CJ4" s="534"/>
-      <c r="CK4" s="534"/>
-      <c r="CL4" s="534"/>
-      <c r="CM4" s="533"/>
-      <c r="CN4" s="533"/>
-      <c r="CO4" s="534"/>
-      <c r="CP4" s="534"/>
-      <c r="CQ4" s="534"/>
+      <c r="BW4" s="530"/>
+      <c r="BX4" s="530"/>
+      <c r="BY4" s="530"/>
+      <c r="BZ4" s="531"/>
+      <c r="CA4" s="531"/>
+      <c r="CB4" s="531"/>
+      <c r="CC4" s="530"/>
+      <c r="CD4" s="530"/>
+      <c r="CE4" s="531"/>
+      <c r="CF4" s="531"/>
+      <c r="CG4" s="531"/>
+      <c r="CH4" s="530"/>
+      <c r="CI4" s="530"/>
+      <c r="CJ4" s="531"/>
+      <c r="CK4" s="531"/>
+      <c r="CL4" s="531"/>
+      <c r="CM4" s="530"/>
+      <c r="CN4" s="530"/>
+      <c r="CO4" s="531"/>
+      <c r="CP4" s="531"/>
+      <c r="CQ4" s="531"/>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="H5" s="529"/>
-      <c r="J5" s="529"/>
+      <c r="H5" s="526"/>
+      <c r="J5" s="526"/>
       <c r="K5" s="480"/>
-      <c r="L5" s="529"/>
+      <c r="L5" s="526"/>
       <c r="M5" s="480"/>
       <c r="R5" s="480"/>
-      <c r="S5" s="529"/>
+      <c r="S5" s="526"/>
       <c r="T5" s="480"/>
       <c r="U5" s="480"/>
       <c r="W5" s="480"/>
-      <c r="X5" s="526"/>
-      <c r="Y5" s="529"/>
-      <c r="Z5" s="529"/>
+      <c r="X5" s="523"/>
+      <c r="Y5" s="526"/>
+      <c r="Z5" s="526"/>
       <c r="AA5" s="74"/>
       <c r="AB5" s="74"/>
       <c r="AC5" s="74"/>
@@ -32498,24 +33858,24 @@
       <c r="BW5" s="480"/>
       <c r="BX5" s="480"/>
       <c r="BY5" s="480"/>
-      <c r="BZ5" s="535"/>
-      <c r="CA5" s="535"/>
-      <c r="CB5" s="535"/>
+      <c r="BZ5" s="532"/>
+      <c r="CA5" s="532"/>
+      <c r="CB5" s="532"/>
       <c r="CC5" s="480"/>
       <c r="CD5" s="480"/>
-      <c r="CE5" s="535"/>
-      <c r="CF5" s="535"/>
-      <c r="CG5" s="535"/>
+      <c r="CE5" s="532"/>
+      <c r="CF5" s="532"/>
+      <c r="CG5" s="532"/>
       <c r="CH5" s="480"/>
       <c r="CI5" s="480"/>
-      <c r="CJ5" s="535"/>
-      <c r="CK5" s="535"/>
-      <c r="CL5" s="535"/>
+      <c r="CJ5" s="532"/>
+      <c r="CK5" s="532"/>
+      <c r="CL5" s="532"/>
       <c r="CM5" s="480"/>
       <c r="CN5" s="480"/>
-      <c r="CO5" s="535"/>
-      <c r="CP5" s="535"/>
-      <c r="CQ5" s="535"/>
+      <c r="CO5" s="532"/>
+      <c r="CP5" s="532"/>
+      <c r="CQ5" s="532"/>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
@@ -32527,37 +33887,37 @@
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
-      <c r="H6" s="530"/>
+      <c r="H6" s="527"/>
       <c r="I6" s="80"/>
-      <c r="J6" s="530"/>
-      <c r="K6" s="522"/>
-      <c r="L6" s="530"/>
-      <c r="M6" s="522"/>
+      <c r="J6" s="527"/>
+      <c r="K6" s="519"/>
+      <c r="L6" s="527"/>
+      <c r="M6" s="519"/>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
       <c r="P6" s="80"/>
       <c r="Q6" s="80"/>
-      <c r="R6" s="522"/>
-      <c r="S6" s="530" t="s">
+      <c r="R6" s="519"/>
+      <c r="S6" s="527" t="s">
         <v>135</v>
       </c>
-      <c r="T6" s="522" t="s">
+      <c r="T6" s="519" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="522" t="s">
+      <c r="U6" s="519" t="s">
         <v>135</v>
       </c>
       <c r="V6" s="80"/>
-      <c r="W6" s="522" t="s">
+      <c r="W6" s="519" t="s">
         <v>135</v>
       </c>
-      <c r="X6" s="527" t="s">
+      <c r="X6" s="524" t="s">
         <v>135</v>
       </c>
-      <c r="Y6" s="530" t="s">
+      <c r="Y6" s="527" t="s">
         <v>135</v>
       </c>
-      <c r="Z6" s="530" t="s">
+      <c r="Z6" s="527" t="s">
         <v>135</v>
       </c>
       <c r="AA6" s="81"/>
@@ -32640,37 +34000,37 @@
       <c r="E7" s="80"/>
       <c r="F7" s="80"/>
       <c r="G7" s="80"/>
-      <c r="H7" s="530"/>
+      <c r="H7" s="527"/>
       <c r="I7" s="80"/>
-      <c r="J7" s="530"/>
-      <c r="K7" s="522"/>
-      <c r="L7" s="530"/>
-      <c r="M7" s="522"/>
+      <c r="J7" s="527"/>
+      <c r="K7" s="519"/>
+      <c r="L7" s="527"/>
+      <c r="M7" s="519"/>
       <c r="N7" s="80"/>
       <c r="O7" s="80"/>
       <c r="P7" s="80"/>
       <c r="Q7" s="80"/>
-      <c r="R7" s="522"/>
-      <c r="S7" s="530" t="s">
+      <c r="R7" s="519"/>
+      <c r="S7" s="527" t="s">
         <v>135</v>
       </c>
-      <c r="T7" s="522" t="s">
+      <c r="T7" s="519" t="s">
         <v>135</v>
       </c>
-      <c r="U7" s="522" t="s">
+      <c r="U7" s="519" t="s">
         <v>135</v>
       </c>
       <c r="V7" s="80"/>
-      <c r="W7" s="522" t="s">
+      <c r="W7" s="519" t="s">
         <v>135</v>
       </c>
-      <c r="X7" s="527" t="s">
+      <c r="X7" s="524" t="s">
         <v>135</v>
       </c>
-      <c r="Y7" s="530" t="s">
+      <c r="Y7" s="527" t="s">
         <v>135</v>
       </c>
-      <c r="Z7" s="530" t="s">
+      <c r="Z7" s="527" t="s">
         <v>135</v>
       </c>
       <c r="AA7" s="81"/>
@@ -32753,37 +34113,37 @@
       <c r="E8" s="80"/>
       <c r="F8" s="80"/>
       <c r="G8" s="80"/>
-      <c r="H8" s="530"/>
+      <c r="H8" s="527"/>
       <c r="I8" s="80"/>
-      <c r="J8" s="530"/>
-      <c r="K8" s="522"/>
-      <c r="L8" s="530"/>
-      <c r="M8" s="522"/>
+      <c r="J8" s="527"/>
+      <c r="K8" s="519"/>
+      <c r="L8" s="527"/>
+      <c r="M8" s="519"/>
       <c r="N8" s="80"/>
       <c r="O8" s="80"/>
       <c r="P8" s="80"/>
       <c r="Q8" s="80"/>
-      <c r="R8" s="522"/>
-      <c r="S8" s="530" t="s">
+      <c r="R8" s="519"/>
+      <c r="S8" s="527" t="s">
         <v>135</v>
       </c>
-      <c r="T8" s="522" t="s">
+      <c r="T8" s="519" t="s">
         <v>135</v>
       </c>
-      <c r="U8" s="522" t="s">
+      <c r="U8" s="519" t="s">
         <v>135</v>
       </c>
       <c r="V8" s="80"/>
-      <c r="W8" s="522" t="s">
+      <c r="W8" s="519" t="s">
         <v>135</v>
       </c>
-      <c r="X8" s="527" t="s">
+      <c r="X8" s="524" t="s">
         <v>135</v>
       </c>
-      <c r="Y8" s="530" t="s">
+      <c r="Y8" s="527" t="s">
         <v>135</v>
       </c>
-      <c r="Z8" s="530" t="s">
+      <c r="Z8" s="527" t="s">
         <v>135</v>
       </c>
       <c r="AA8" s="81"/>
@@ -32984,11 +34344,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="BQ1:BV1"/>
     <mergeCell ref="BY1:CQ1"/>
     <mergeCell ref="H2:I2"/>
@@ -33004,6 +34359,11 @@
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <conditionalFormatting sqref="A13:A14 A4:B4">
     <cfRule type="duplicateValues" dxfId="8" priority="1"/>
@@ -33042,124 +34402,124 @@
         <v>138</v>
       </c>
       <c r="L1" s="87"/>
-      <c r="M1" s="751" t="s">
+      <c r="M1" s="727" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="752" t="s">
+      <c r="N1" s="728" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="753"/>
-      <c r="P1" s="753"/>
-      <c r="Q1" s="753"/>
-      <c r="R1" s="754" t="s">
+      <c r="O1" s="729"/>
+      <c r="P1" s="729"/>
+      <c r="Q1" s="729"/>
+      <c r="R1" s="730" t="s">
         <v>141</v>
       </c>
-      <c r="S1" s="746"/>
-      <c r="T1" s="746"/>
-      <c r="U1" s="746"/>
-      <c r="V1" s="746"/>
-      <c r="W1" s="746"/>
-      <c r="X1" s="755"/>
-      <c r="Y1" s="735" t="s">
+      <c r="S1" s="731"/>
+      <c r="T1" s="731"/>
+      <c r="U1" s="731"/>
+      <c r="V1" s="731"/>
+      <c r="W1" s="731"/>
+      <c r="X1" s="732"/>
+      <c r="Y1" s="733" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="707"/>
-      <c r="AA1" s="756" t="s">
+      <c r="Z1" s="718"/>
+      <c r="AA1" s="736" t="s">
         <v>143</v>
       </c>
-      <c r="AB1" s="747" t="s">
+      <c r="AB1" s="738" t="s">
         <v>144</v>
       </c>
-      <c r="AC1" s="742" t="s">
+      <c r="AC1" s="746" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="743"/>
-      <c r="AE1" s="743"/>
-      <c r="AF1" s="744"/>
-      <c r="AG1" s="745" t="s">
+      <c r="AD1" s="747"/>
+      <c r="AE1" s="747"/>
+      <c r="AF1" s="748"/>
+      <c r="AG1" s="749" t="s">
         <v>146</v>
       </c>
-      <c r="AH1" s="746"/>
-      <c r="AI1" s="746"/>
-      <c r="AJ1" s="746"/>
-      <c r="AK1" s="746"/>
-      <c r="AL1" s="746"/>
-      <c r="AM1" s="746"/>
-      <c r="AN1" s="746"/>
-      <c r="AO1" s="747" t="s">
+      <c r="AH1" s="731"/>
+      <c r="AI1" s="731"/>
+      <c r="AJ1" s="731"/>
+      <c r="AK1" s="731"/>
+      <c r="AL1" s="731"/>
+      <c r="AM1" s="731"/>
+      <c r="AN1" s="731"/>
+      <c r="AO1" s="738" t="s">
         <v>147</v>
       </c>
-      <c r="AP1" s="735" t="s">
+      <c r="AP1" s="733" t="s">
         <v>148</v>
       </c>
-      <c r="AQ1" s="707"/>
-      <c r="AR1" s="707"/>
-      <c r="AS1" s="708"/>
-      <c r="AT1" s="749" t="s">
+      <c r="AQ1" s="718"/>
+      <c r="AR1" s="718"/>
+      <c r="AS1" s="719"/>
+      <c r="AT1" s="750" t="s">
         <v>149</v>
       </c>
-      <c r="AU1" s="750"/>
-      <c r="AV1" s="750"/>
-      <c r="AW1" s="750"/>
-      <c r="AX1" s="750"/>
-      <c r="AY1" s="750"/>
-      <c r="AZ1" s="750"/>
-      <c r="BA1" s="750"/>
-      <c r="BB1" s="750"/>
-      <c r="BC1" s="750"/>
-      <c r="BD1" s="750"/>
-      <c r="BE1" s="750"/>
-      <c r="BF1" s="750"/>
-      <c r="BG1" s="750"/>
-      <c r="BH1" s="750"/>
-      <c r="BI1" s="750"/>
-      <c r="BJ1" s="750"/>
-      <c r="BK1" s="750"/>
-      <c r="BL1" s="750"/>
-      <c r="BM1" s="750"/>
-      <c r="BN1" s="750"/>
-      <c r="BO1" s="750"/>
-      <c r="BP1" s="750"/>
-      <c r="BQ1" s="750"/>
-      <c r="BR1" s="750"/>
-      <c r="BS1" s="750"/>
-      <c r="BT1" s="750"/>
-      <c r="BU1" s="750"/>
-      <c r="BV1" s="750"/>
-      <c r="BW1" s="747" t="s">
+      <c r="AU1" s="751"/>
+      <c r="AV1" s="751"/>
+      <c r="AW1" s="751"/>
+      <c r="AX1" s="751"/>
+      <c r="AY1" s="751"/>
+      <c r="AZ1" s="751"/>
+      <c r="BA1" s="751"/>
+      <c r="BB1" s="751"/>
+      <c r="BC1" s="751"/>
+      <c r="BD1" s="751"/>
+      <c r="BE1" s="751"/>
+      <c r="BF1" s="751"/>
+      <c r="BG1" s="751"/>
+      <c r="BH1" s="751"/>
+      <c r="BI1" s="751"/>
+      <c r="BJ1" s="751"/>
+      <c r="BK1" s="751"/>
+      <c r="BL1" s="751"/>
+      <c r="BM1" s="751"/>
+      <c r="BN1" s="751"/>
+      <c r="BO1" s="751"/>
+      <c r="BP1" s="751"/>
+      <c r="BQ1" s="751"/>
+      <c r="BR1" s="751"/>
+      <c r="BS1" s="751"/>
+      <c r="BT1" s="751"/>
+      <c r="BU1" s="751"/>
+      <c r="BV1" s="751"/>
+      <c r="BW1" s="738" t="s">
         <v>150</v>
       </c>
-      <c r="BX1" s="735" t="s">
+      <c r="BX1" s="733" t="s">
         <v>151</v>
       </c>
-      <c r="BY1" s="707"/>
-      <c r="BZ1" s="707"/>
-      <c r="CA1" s="708"/>
-      <c r="CB1" s="736" t="s">
+      <c r="BY1" s="718"/>
+      <c r="BZ1" s="718"/>
+      <c r="CA1" s="719"/>
+      <c r="CB1" s="740" t="s">
         <v>52</v>
       </c>
-      <c r="CC1" s="736"/>
-      <c r="CD1" s="736"/>
-      <c r="CE1" s="736"/>
-      <c r="CF1" s="736"/>
-      <c r="CG1" s="736"/>
-      <c r="CH1" s="736"/>
-      <c r="CI1" s="736"/>
-      <c r="CJ1" s="736"/>
-      <c r="CK1" s="736"/>
-      <c r="CL1" s="736"/>
-      <c r="CM1" s="736"/>
+      <c r="CC1" s="740"/>
+      <c r="CD1" s="740"/>
+      <c r="CE1" s="740"/>
+      <c r="CF1" s="740"/>
+      <c r="CG1" s="740"/>
+      <c r="CH1" s="740"/>
+      <c r="CI1" s="740"/>
+      <c r="CJ1" s="740"/>
+      <c r="CK1" s="740"/>
+      <c r="CL1" s="740"/>
+      <c r="CM1" s="740"/>
       <c r="CN1" s="88"/>
-      <c r="CO1" s="737" t="s">
+      <c r="CO1" s="741" t="s">
         <v>57</v>
       </c>
-      <c r="CP1" s="695"/>
-      <c r="CQ1" s="695"/>
-      <c r="CR1" s="695"/>
-      <c r="CS1" s="695"/>
-      <c r="CT1" s="695"/>
-      <c r="CU1" s="695"/>
-      <c r="CV1" s="696"/>
+      <c r="CP1" s="687"/>
+      <c r="CQ1" s="687"/>
+      <c r="CR1" s="687"/>
+      <c r="CS1" s="687"/>
+      <c r="CT1" s="687"/>
+      <c r="CU1" s="687"/>
+      <c r="CV1" s="707"/>
     </row>
     <row r="2" spans="1:100" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
@@ -33198,7 +34558,7 @@
       <c r="L2" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="751"/>
+      <c r="M2" s="727"/>
       <c r="N2" s="94" t="s">
         <v>156</v>
       </c>
@@ -33214,22 +34574,22 @@
       <c r="R2" s="95" t="s">
         <v>424</v>
       </c>
-      <c r="S2" s="738" t="s">
+      <c r="S2" s="742" t="s">
         <v>159</v>
       </c>
-      <c r="T2" s="702"/>
-      <c r="U2" s="739" t="s">
+      <c r="T2" s="713"/>
+      <c r="U2" s="743" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="739"/>
-      <c r="W2" s="739" t="s">
+      <c r="V2" s="743"/>
+      <c r="W2" s="743" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="740"/>
-      <c r="Y2" s="729"/>
-      <c r="Z2" s="730"/>
-      <c r="AA2" s="757"/>
-      <c r="AB2" s="748"/>
+      <c r="X2" s="744"/>
+      <c r="Y2" s="734"/>
+      <c r="Z2" s="735"/>
+      <c r="AA2" s="737"/>
+      <c r="AB2" s="739"/>
       <c r="AC2" s="96" t="s">
         <v>160</v>
       </c>
@@ -33242,81 +34602,81 @@
       <c r="AF2" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="AG2" s="741" t="s">
+      <c r="AG2" s="745" t="s">
         <v>164</v>
       </c>
-      <c r="AH2" s="727"/>
-      <c r="AI2" s="727" t="s">
+      <c r="AH2" s="725"/>
+      <c r="AI2" s="725" t="s">
         <v>165</v>
       </c>
-      <c r="AJ2" s="727"/>
-      <c r="AK2" s="727" t="s">
+      <c r="AJ2" s="725"/>
+      <c r="AK2" s="725" t="s">
         <v>166</v>
       </c>
-      <c r="AL2" s="727"/>
+      <c r="AL2" s="725"/>
       <c r="AM2" s="97" t="s">
         <v>167</v>
       </c>
       <c r="AN2" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="AO2" s="748"/>
-      <c r="AP2" s="729" t="s">
+      <c r="AO2" s="739"/>
+      <c r="AP2" s="734" t="s">
         <v>169</v>
       </c>
-      <c r="AQ2" s="730"/>
-      <c r="AR2" s="731" t="s">
+      <c r="AQ2" s="735"/>
+      <c r="AR2" s="723" t="s">
         <v>170</v>
       </c>
-      <c r="AS2" s="732"/>
-      <c r="AT2" s="727" t="s">
+      <c r="AS2" s="724"/>
+      <c r="AT2" s="725" t="s">
         <v>171</v>
       </c>
-      <c r="AU2" s="727"/>
-      <c r="AV2" s="728" t="s">
+      <c r="AU2" s="725"/>
+      <c r="AV2" s="726" t="s">
         <v>172</v>
       </c>
-      <c r="AW2" s="728"/>
-      <c r="AX2" s="728" t="s">
+      <c r="AW2" s="726"/>
+      <c r="AX2" s="726" t="s">
         <v>173</v>
       </c>
-      <c r="AY2" s="728"/>
+      <c r="AY2" s="726"/>
       <c r="AZ2" s="97" t="s">
         <v>174</v>
       </c>
       <c r="BA2" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="BB2" s="727" t="s">
+      <c r="BB2" s="725" t="s">
         <v>176</v>
       </c>
-      <c r="BC2" s="727"/>
-      <c r="BD2" s="728" t="s">
+      <c r="BC2" s="725"/>
+      <c r="BD2" s="726" t="s">
         <v>177</v>
       </c>
-      <c r="BE2" s="728"/>
-      <c r="BF2" s="728" t="s">
+      <c r="BE2" s="726"/>
+      <c r="BF2" s="726" t="s">
         <v>178</v>
       </c>
-      <c r="BG2" s="728"/>
+      <c r="BG2" s="726"/>
       <c r="BH2" s="97" t="s">
         <v>179</v>
       </c>
       <c r="BI2" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="BJ2" s="727" t="s">
+      <c r="BJ2" s="725" t="s">
         <v>181</v>
       </c>
-      <c r="BK2" s="727"/>
-      <c r="BL2" s="728" t="s">
+      <c r="BK2" s="725"/>
+      <c r="BL2" s="726" t="s">
         <v>182</v>
       </c>
-      <c r="BM2" s="728"/>
-      <c r="BN2" s="728" t="s">
+      <c r="BM2" s="726"/>
+      <c r="BN2" s="726" t="s">
         <v>183</v>
       </c>
-      <c r="BO2" s="728"/>
+      <c r="BO2" s="726"/>
       <c r="BP2" s="97" t="s">
         <v>184</v>
       </c>
@@ -33338,15 +34698,15 @@
       <c r="BV2" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="BW2" s="748"/>
-      <c r="BX2" s="729" t="s">
+      <c r="BW2" s="739"/>
+      <c r="BX2" s="734" t="s">
         <v>169</v>
       </c>
-      <c r="BY2" s="730"/>
-      <c r="BZ2" s="731" t="s">
+      <c r="BY2" s="735"/>
+      <c r="BZ2" s="723" t="s">
         <v>170</v>
       </c>
-      <c r="CA2" s="732"/>
+      <c r="CA2" s="724"/>
       <c r="CB2" s="20" t="s">
         <v>74</v>
       </c>
@@ -33386,22 +34746,22 @@
       <c r="CN2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="CO2" s="733" t="s">
+      <c r="CO2" s="754" t="s">
         <v>191</v>
       </c>
-      <c r="CP2" s="734"/>
-      <c r="CQ2" s="725" t="s">
+      <c r="CP2" s="755"/>
+      <c r="CQ2" s="752" t="s">
         <v>192</v>
       </c>
-      <c r="CR2" s="725"/>
-      <c r="CS2" s="734" t="s">
+      <c r="CR2" s="752"/>
+      <c r="CS2" s="755" t="s">
         <v>193</v>
       </c>
-      <c r="CT2" s="734"/>
-      <c r="CU2" s="725" t="s">
+      <c r="CT2" s="755"/>
+      <c r="CU2" s="752" t="s">
         <v>194</v>
       </c>
-      <c r="CV2" s="726"/>
+      <c r="CV2" s="753"/>
     </row>
     <row r="3" spans="1:100" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="99" t="s">
@@ -33669,68 +35029,68 @@
       <c r="O4" s="136"/>
       <c r="P4" s="137"/>
       <c r="Q4" s="136"/>
-      <c r="R4" s="536"/>
-      <c r="S4" s="536"/>
-      <c r="T4" s="542"/>
-      <c r="U4" s="536"/>
-      <c r="V4" s="542"/>
-      <c r="W4" s="536"/>
-      <c r="X4" s="542"/>
-      <c r="Y4" s="537"/>
-      <c r="Z4" s="542"/>
+      <c r="R4" s="533"/>
+      <c r="S4" s="533"/>
+      <c r="T4" s="539"/>
+      <c r="U4" s="533"/>
+      <c r="V4" s="539"/>
+      <c r="W4" s="533"/>
+      <c r="X4" s="539"/>
+      <c r="Y4" s="534"/>
+      <c r="Z4" s="539"/>
       <c r="AA4" s="76"/>
       <c r="AB4" s="76"/>
-      <c r="AC4" s="545"/>
+      <c r="AC4" s="542"/>
       <c r="AD4" s="139"/>
-      <c r="AE4" s="545"/>
+      <c r="AE4" s="542"/>
       <c r="AF4" s="139"/>
-      <c r="AG4" s="538"/>
-      <c r="AH4" s="542"/>
-      <c r="AI4" s="538"/>
-      <c r="AJ4" s="542"/>
-      <c r="AK4" s="538"/>
-      <c r="AL4" s="542"/>
+      <c r="AG4" s="535"/>
+      <c r="AH4" s="539"/>
+      <c r="AI4" s="535"/>
+      <c r="AJ4" s="539"/>
+      <c r="AK4" s="535"/>
+      <c r="AL4" s="539"/>
       <c r="AM4" s="140"/>
       <c r="AN4" s="140"/>
       <c r="AO4" s="141"/>
-      <c r="AP4" s="539"/>
-      <c r="AQ4" s="543"/>
-      <c r="AR4" s="539"/>
-      <c r="AS4" s="543"/>
-      <c r="AT4" s="540"/>
-      <c r="AU4" s="544"/>
-      <c r="AV4" s="540"/>
-      <c r="AW4" s="544"/>
-      <c r="AX4" s="540"/>
-      <c r="AY4" s="544"/>
+      <c r="AP4" s="536"/>
+      <c r="AQ4" s="540"/>
+      <c r="AR4" s="536"/>
+      <c r="AS4" s="540"/>
+      <c r="AT4" s="537"/>
+      <c r="AU4" s="541"/>
+      <c r="AV4" s="537"/>
+      <c r="AW4" s="541"/>
+      <c r="AX4" s="537"/>
+      <c r="AY4" s="541"/>
       <c r="AZ4" s="143"/>
       <c r="BA4" s="144"/>
-      <c r="BB4" s="541"/>
-      <c r="BC4" s="544"/>
-      <c r="BD4" s="541"/>
-      <c r="BE4" s="544"/>
-      <c r="BF4" s="541"/>
-      <c r="BG4" s="544"/>
+      <c r="BB4" s="538"/>
+      <c r="BC4" s="541"/>
+      <c r="BD4" s="538"/>
+      <c r="BE4" s="541"/>
+      <c r="BF4" s="538"/>
+      <c r="BG4" s="541"/>
       <c r="BH4" s="143"/>
       <c r="BI4" s="144"/>
-      <c r="BJ4" s="541"/>
-      <c r="BK4" s="544"/>
-      <c r="BL4" s="541"/>
-      <c r="BM4" s="544"/>
-      <c r="BN4" s="541"/>
-      <c r="BO4" s="544"/>
+      <c r="BJ4" s="538"/>
+      <c r="BK4" s="541"/>
+      <c r="BL4" s="538"/>
+      <c r="BM4" s="541"/>
+      <c r="BN4" s="538"/>
+      <c r="BO4" s="541"/>
       <c r="BP4" s="143"/>
       <c r="BQ4" s="144"/>
-      <c r="BR4" s="544"/>
-      <c r="BS4" s="544"/>
-      <c r="BT4" s="544"/>
+      <c r="BR4" s="541"/>
+      <c r="BS4" s="541"/>
+      <c r="BT4" s="541"/>
       <c r="BU4" s="142"/>
       <c r="BV4" s="142"/>
       <c r="BW4" s="138"/>
       <c r="BX4" s="138"/>
-      <c r="BY4" s="542"/>
+      <c r="BY4" s="539"/>
       <c r="BZ4" s="69"/>
-      <c r="CA4" s="543"/>
+      <c r="CA4" s="540"/>
       <c r="CB4" s="145"/>
       <c r="CC4" s="145"/>
       <c r="CD4" s="145"/>
@@ -33744,14 +35104,14 @@
       <c r="CL4" s="146"/>
       <c r="CM4" s="146"/>
       <c r="CN4" s="147"/>
-      <c r="CO4" s="538"/>
-      <c r="CP4" s="542"/>
-      <c r="CQ4" s="538"/>
-      <c r="CR4" s="542"/>
-      <c r="CS4" s="538"/>
-      <c r="CT4" s="542"/>
-      <c r="CU4" s="538"/>
-      <c r="CV4" s="542"/>
+      <c r="CO4" s="535"/>
+      <c r="CP4" s="539"/>
+      <c r="CQ4" s="535"/>
+      <c r="CR4" s="539"/>
+      <c r="CS4" s="535"/>
+      <c r="CT4" s="539"/>
+      <c r="CU4" s="535"/>
+      <c r="CV4" s="539"/>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A5" s="74"/>
@@ -38707,16 +40067,18 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BX2:BY2"/>
+    <mergeCell ref="BZ2:CA2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="CS2:CT2"/>
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CO1:CV1"/>
@@ -38733,18 +40095,16 @@
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BV1"/>
     <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="BD2:BE2"/>
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BL2:BM2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BX2:BY2"/>
-    <mergeCell ref="BZ2:CA2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38797,8 +40157,8 @@
       <c r="B2" s="209" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="765"/>
-      <c r="D2" s="765"/>
+      <c r="C2" s="756"/>
+      <c r="D2" s="756"/>
       <c r="E2" s="207"/>
       <c r="F2" s="207"/>
       <c r="G2" s="207"/>
@@ -38923,32 +40283,32 @@
     </row>
     <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="206"/>
-      <c r="B7" s="766" t="s">
+      <c r="B7" s="757" t="s">
         <v>466</v>
       </c>
-      <c r="C7" s="766"/>
-      <c r="D7" s="766"/>
+      <c r="C7" s="757"/>
+      <c r="D7" s="757"/>
       <c r="E7" s="207"/>
       <c r="F7" s="207"/>
       <c r="G7" s="207"/>
       <c r="H7" s="207"/>
       <c r="I7" s="207"/>
-      <c r="J7" s="766" t="s">
+      <c r="J7" s="757" t="s">
         <v>217</v>
       </c>
-      <c r="K7" s="766"/>
-      <c r="L7" s="766"/>
+      <c r="K7" s="757"/>
+      <c r="L7" s="757"/>
       <c r="M7" s="207"/>
       <c r="N7" s="207"/>
       <c r="O7" s="207"/>
       <c r="P7" s="208" t="s">
         <v>218</v>
       </c>
-      <c r="Q7" s="766" t="s">
+      <c r="Q7" s="757" t="s">
         <v>217</v>
       </c>
-      <c r="R7" s="766"/>
-      <c r="S7" s="766"/>
+      <c r="R7" s="757"/>
+      <c r="S7" s="757"/>
       <c r="T7" s="207"/>
       <c r="U7" s="221" t="s">
         <v>219</v>
@@ -38982,41 +40342,41 @@
       <c r="B9" s="222" t="s">
         <v>463</v>
       </c>
-      <c r="C9" s="761" t="s">
+      <c r="C9" s="758" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="762"/>
-      <c r="E9" s="761" t="s">
+      <c r="D9" s="759"/>
+      <c r="E9" s="758" t="s">
         <v>222</v>
       </c>
-      <c r="F9" s="762"/>
+      <c r="F9" s="759"/>
       <c r="G9" s="207"/>
       <c r="H9" s="207"/>
       <c r="I9" s="207"/>
       <c r="J9" s="222" t="s">
         <v>463</v>
       </c>
-      <c r="K9" s="761" t="s">
+      <c r="K9" s="758" t="s">
         <v>221</v>
       </c>
-      <c r="L9" s="762"/>
-      <c r="M9" s="761" t="s">
+      <c r="L9" s="759"/>
+      <c r="M9" s="758" t="s">
         <v>222</v>
       </c>
-      <c r="N9" s="762"/>
+      <c r="N9" s="759"/>
       <c r="O9" s="207"/>
       <c r="P9" s="207"/>
       <c r="Q9" s="222" t="s">
         <v>220</v>
       </c>
-      <c r="R9" s="761" t="s">
+      <c r="R9" s="758" t="s">
         <v>221</v>
       </c>
-      <c r="S9" s="762"/>
-      <c r="T9" s="761" t="s">
+      <c r="S9" s="759"/>
+      <c r="T9" s="758" t="s">
         <v>222</v>
       </c>
-      <c r="U9" s="762"/>
+      <c r="U9" s="759"/>
     </row>
     <row r="10" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="206"/>
@@ -39078,10 +40438,10 @@
       </c>
       <c r="C11" s="227"/>
       <c r="D11" s="227"/>
-      <c r="E11" s="758" t="s">
+      <c r="E11" s="760" t="s">
         <v>227</v>
       </c>
-      <c r="F11" s="759"/>
+      <c r="F11" s="761"/>
       <c r="G11" s="228"/>
       <c r="H11" s="228"/>
       <c r="I11" s="228"/>
@@ -39101,97 +40461,97 @@
       </c>
       <c r="R11" s="227"/>
       <c r="S11" s="227"/>
-      <c r="T11" s="758" t="s">
+      <c r="T11" s="760" t="s">
         <v>227</v>
       </c>
-      <c r="U11" s="759"/>
+      <c r="U11" s="761"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="206"/>
       <c r="B12" s="230" t="s">
         <v>435</v>
       </c>
-      <c r="C12" s="560"/>
-      <c r="D12" s="517"/>
-      <c r="E12" s="546"/>
-      <c r="F12" s="520"/>
+      <c r="C12" s="557"/>
+      <c r="D12" s="514"/>
+      <c r="E12" s="543"/>
+      <c r="F12" s="517"/>
       <c r="G12" s="228"/>
       <c r="H12" s="228"/>
       <c r="I12" s="228"/>
       <c r="J12" s="230" t="s">
         <v>435</v>
       </c>
-      <c r="K12" s="560"/>
-      <c r="L12" s="517"/>
-      <c r="M12" s="546"/>
-      <c r="N12" s="520"/>
+      <c r="K12" s="557"/>
+      <c r="L12" s="514"/>
+      <c r="M12" s="543"/>
+      <c r="N12" s="517"/>
       <c r="O12" s="228"/>
       <c r="P12" s="228"/>
       <c r="Q12" s="230" t="s">
         <v>435</v>
       </c>
-      <c r="R12" s="560"/>
-      <c r="S12" s="517"/>
-      <c r="T12" s="546"/>
-      <c r="U12" s="520"/>
+      <c r="R12" s="557"/>
+      <c r="S12" s="514"/>
+      <c r="T12" s="543"/>
+      <c r="U12" s="517"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="206"/>
       <c r="B13" s="231" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="561"/>
-      <c r="D13" s="518"/>
-      <c r="E13" s="547"/>
-      <c r="F13" s="521"/>
+      <c r="C13" s="558"/>
+      <c r="D13" s="515"/>
+      <c r="E13" s="544"/>
+      <c r="F13" s="518"/>
       <c r="G13" s="228"/>
       <c r="H13" s="228"/>
       <c r="I13" s="228"/>
       <c r="J13" s="231" t="s">
         <v>436</v>
       </c>
-      <c r="K13" s="561"/>
-      <c r="L13" s="518"/>
-      <c r="M13" s="547"/>
-      <c r="N13" s="521"/>
+      <c r="K13" s="558"/>
+      <c r="L13" s="515"/>
+      <c r="M13" s="544"/>
+      <c r="N13" s="518"/>
       <c r="O13" s="228"/>
       <c r="P13" s="228"/>
       <c r="Q13" s="231" t="s">
         <v>436</v>
       </c>
-      <c r="R13" s="561"/>
-      <c r="S13" s="518"/>
-      <c r="T13" s="547"/>
-      <c r="U13" s="521"/>
+      <c r="R13" s="558"/>
+      <c r="S13" s="515"/>
+      <c r="T13" s="544"/>
+      <c r="U13" s="518"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="206"/>
       <c r="B14" s="231" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="561"/>
-      <c r="D14" s="519"/>
-      <c r="E14" s="547"/>
-      <c r="F14" s="521"/>
+      <c r="C14" s="558"/>
+      <c r="D14" s="516"/>
+      <c r="E14" s="544"/>
+      <c r="F14" s="518"/>
       <c r="G14" s="228"/>
       <c r="H14" s="228"/>
       <c r="I14" s="228"/>
       <c r="J14" s="231" t="s">
         <v>228</v>
       </c>
-      <c r="K14" s="561"/>
-      <c r="L14" s="519"/>
-      <c r="M14" s="547"/>
-      <c r="N14" s="521"/>
+      <c r="K14" s="558"/>
+      <c r="L14" s="516"/>
+      <c r="M14" s="544"/>
+      <c r="N14" s="518"/>
       <c r="O14" s="228"/>
       <c r="P14" s="228"/>
       <c r="Q14" s="231" t="s">
         <v>228</v>
       </c>
-      <c r="R14" s="561"/>
-      <c r="S14" s="519"/>
-      <c r="T14" s="547"/>
-      <c r="U14" s="521"/>
+      <c r="R14" s="558"/>
+      <c r="S14" s="516"/>
+      <c r="T14" s="544"/>
+      <c r="U14" s="518"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="206"/>
@@ -39200,7 +40560,7 @@
       </c>
       <c r="C15" s="233"/>
       <c r="D15" s="234"/>
-      <c r="E15" s="548"/>
+      <c r="E15" s="545"/>
       <c r="F15" s="235"/>
       <c r="G15" s="236"/>
       <c r="H15" s="236"/>
@@ -39210,7 +40570,7 @@
       </c>
       <c r="K15" s="233"/>
       <c r="L15" s="234"/>
-      <c r="M15" s="548"/>
+      <c r="M15" s="545"/>
       <c r="N15" s="235"/>
       <c r="O15" s="207"/>
       <c r="P15" s="207"/>
@@ -39219,7 +40579,7 @@
       </c>
       <c r="R15" s="233"/>
       <c r="S15" s="234"/>
-      <c r="T15" s="548"/>
+      <c r="T15" s="545"/>
       <c r="U15" s="235"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -39229,7 +40589,7 @@
       </c>
       <c r="C16" s="239"/>
       <c r="D16" s="240"/>
-      <c r="E16" s="549"/>
+      <c r="E16" s="546"/>
       <c r="F16" s="241"/>
       <c r="G16" s="236"/>
       <c r="H16" s="236"/>
@@ -39239,7 +40599,7 @@
       </c>
       <c r="K16" s="239"/>
       <c r="L16" s="240"/>
-      <c r="M16" s="556"/>
+      <c r="M16" s="553"/>
       <c r="N16" s="241"/>
       <c r="O16" s="207"/>
       <c r="P16" s="207"/>
@@ -39248,7 +40608,7 @@
       </c>
       <c r="R16" s="239"/>
       <c r="S16" s="240"/>
-      <c r="T16" s="556"/>
+      <c r="T16" s="553"/>
       <c r="U16" s="241"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -39268,7 +40628,7 @@
       </c>
       <c r="K17" s="243"/>
       <c r="L17" s="244"/>
-      <c r="M17" s="548"/>
+      <c r="M17" s="545"/>
       <c r="N17" s="245"/>
       <c r="O17" s="246"/>
       <c r="P17" s="246"/>
@@ -39277,7 +40637,7 @@
       </c>
       <c r="R17" s="243"/>
       <c r="S17" s="244"/>
-      <c r="T17" s="552"/>
+      <c r="T17" s="549"/>
       <c r="U17" s="245"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -39287,7 +40647,7 @@
       </c>
       <c r="C18" s="243"/>
       <c r="D18" s="244"/>
-      <c r="E18" s="552"/>
+      <c r="E18" s="549"/>
       <c r="F18" s="245"/>
       <c r="G18" s="236"/>
       <c r="H18" s="236"/>
@@ -39297,7 +40657,7 @@
       </c>
       <c r="K18" s="248"/>
       <c r="L18" s="249"/>
-      <c r="M18" s="550"/>
+      <c r="M18" s="547"/>
       <c r="N18" s="250"/>
       <c r="O18" s="207"/>
       <c r="P18" s="207"/>
@@ -39306,7 +40666,7 @@
       </c>
       <c r="R18" s="243"/>
       <c r="S18" s="244"/>
-      <c r="T18" s="552"/>
+      <c r="T18" s="549"/>
       <c r="U18" s="245"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -39337,35 +40697,35 @@
       <c r="B20" s="226" t="s">
         <v>233</v>
       </c>
-      <c r="C20" s="562"/>
+      <c r="C20" s="559"/>
       <c r="D20" s="255"/>
-      <c r="E20" s="758" t="s">
+      <c r="E20" s="760" t="s">
         <v>234</v>
       </c>
-      <c r="F20" s="759"/>
+      <c r="F20" s="761"/>
       <c r="G20" s="236"/>
       <c r="H20" s="236"/>
       <c r="I20" s="207"/>
       <c r="J20" s="226" t="s">
         <v>233</v>
       </c>
-      <c r="K20" s="562"/>
+      <c r="K20" s="559"/>
       <c r="L20" s="255"/>
-      <c r="M20" s="758" t="s">
+      <c r="M20" s="760" t="s">
         <v>234</v>
       </c>
-      <c r="N20" s="759"/>
+      <c r="N20" s="761"/>
       <c r="O20" s="246"/>
       <c r="P20" s="246"/>
       <c r="Q20" s="226" t="s">
         <v>233</v>
       </c>
-      <c r="R20" s="562"/>
+      <c r="R20" s="559"/>
       <c r="S20" s="255"/>
-      <c r="T20" s="758" t="s">
+      <c r="T20" s="760" t="s">
         <v>234</v>
       </c>
-      <c r="U20" s="759"/>
+      <c r="U20" s="761"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="206"/>
@@ -39374,7 +40734,7 @@
       </c>
       <c r="C21" s="257"/>
       <c r="D21" s="258"/>
-      <c r="E21" s="551"/>
+      <c r="E21" s="548"/>
       <c r="F21" s="259"/>
       <c r="G21" s="236"/>
       <c r="H21" s="236"/>
@@ -39384,7 +40744,7 @@
       </c>
       <c r="K21" s="257"/>
       <c r="L21" s="258"/>
-      <c r="M21" s="551"/>
+      <c r="M21" s="548"/>
       <c r="N21" s="259"/>
       <c r="O21" s="246"/>
       <c r="P21" s="246"/>
@@ -39393,7 +40753,7 @@
       </c>
       <c r="R21" s="233"/>
       <c r="S21" s="234"/>
-      <c r="T21" s="548"/>
+      <c r="T21" s="545"/>
       <c r="U21" s="235"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -39403,7 +40763,7 @@
       </c>
       <c r="C22" s="239"/>
       <c r="D22" s="240"/>
-      <c r="E22" s="549"/>
+      <c r="E22" s="546"/>
       <c r="F22" s="241"/>
       <c r="G22" s="236"/>
       <c r="H22" s="236"/>
@@ -39413,7 +40773,7 @@
       </c>
       <c r="K22" s="239"/>
       <c r="L22" s="240"/>
-      <c r="M22" s="556"/>
+      <c r="M22" s="553"/>
       <c r="N22" s="241"/>
       <c r="O22" s="246"/>
       <c r="P22" s="246"/>
@@ -39422,7 +40782,7 @@
       </c>
       <c r="R22" s="239"/>
       <c r="S22" s="240"/>
-      <c r="T22" s="556"/>
+      <c r="T22" s="553"/>
       <c r="U22" s="241"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -39432,7 +40792,7 @@
       </c>
       <c r="C23" s="243"/>
       <c r="D23" s="244"/>
-      <c r="E23" s="552"/>
+      <c r="E23" s="549"/>
       <c r="F23" s="245"/>
       <c r="G23" s="236"/>
       <c r="H23" s="236"/>
@@ -39442,7 +40802,7 @@
       </c>
       <c r="K23" s="243"/>
       <c r="L23" s="244"/>
-      <c r="M23" s="548"/>
+      <c r="M23" s="545"/>
       <c r="N23" s="245"/>
       <c r="O23" s="246"/>
       <c r="P23" s="246"/>
@@ -39451,7 +40811,7 @@
       </c>
       <c r="R23" s="243"/>
       <c r="S23" s="244"/>
-      <c r="T23" s="552"/>
+      <c r="T23" s="549"/>
       <c r="U23" s="245"/>
     </row>
     <row r="24" spans="1:21" ht="24" x14ac:dyDescent="0.25">
@@ -39471,7 +40831,7 @@
       </c>
       <c r="K24" s="261"/>
       <c r="L24" s="244"/>
-      <c r="M24" s="557"/>
+      <c r="M24" s="554"/>
       <c r="N24" s="245"/>
       <c r="O24" s="246"/>
       <c r="P24" s="246"/>
@@ -39480,7 +40840,7 @@
       </c>
       <c r="R24" s="261"/>
       <c r="S24" s="244"/>
-      <c r="T24" s="557"/>
+      <c r="T24" s="554"/>
       <c r="U24" s="245"/>
     </row>
     <row r="25" spans="1:21" ht="24" x14ac:dyDescent="0.25">
@@ -39500,7 +40860,7 @@
       </c>
       <c r="K25" s="261"/>
       <c r="L25" s="244"/>
-      <c r="M25" s="557"/>
+      <c r="M25" s="554"/>
       <c r="N25" s="245"/>
       <c r="O25" s="246"/>
       <c r="P25" s="246"/>
@@ -39509,7 +40869,7 @@
       </c>
       <c r="R25" s="261"/>
       <c r="S25" s="244"/>
-      <c r="T25" s="557"/>
+      <c r="T25" s="554"/>
       <c r="U25" s="245"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -39538,7 +40898,7 @@
       </c>
       <c r="R26" s="261"/>
       <c r="S26" s="244"/>
-      <c r="T26" s="557"/>
+      <c r="T26" s="554"/>
       <c r="U26" s="245"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -39567,7 +40927,7 @@
       </c>
       <c r="R27" s="261"/>
       <c r="S27" s="244"/>
-      <c r="T27" s="557"/>
+      <c r="T27" s="554"/>
       <c r="U27" s="245"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -39582,7 +40942,7 @@
       <c r="G28" s="236"/>
       <c r="H28" s="236"/>
       <c r="I28" s="207"/>
-      <c r="J28" s="677" t="s">
+      <c r="J28" s="674" t="s">
         <v>232</v>
       </c>
       <c r="K28" s="248"/>
@@ -39612,7 +40972,7 @@
       <c r="J29" s="264"/>
       <c r="K29" s="265"/>
       <c r="L29" s="266"/>
-      <c r="M29" s="558"/>
+      <c r="M29" s="555"/>
       <c r="N29" s="267"/>
       <c r="O29" s="246"/>
       <c r="P29" s="246"/>
@@ -39627,35 +40987,35 @@
       <c r="B30" s="226" t="s">
         <v>240</v>
       </c>
-      <c r="C30" s="562"/>
+      <c r="C30" s="559"/>
       <c r="D30" s="255"/>
-      <c r="E30" s="758" t="s">
+      <c r="E30" s="760" t="s">
         <v>234</v>
       </c>
-      <c r="F30" s="759"/>
+      <c r="F30" s="761"/>
       <c r="G30" s="236"/>
       <c r="H30" s="236"/>
       <c r="I30" s="207"/>
       <c r="J30" s="226" t="s">
         <v>240</v>
       </c>
-      <c r="K30" s="562"/>
+      <c r="K30" s="559"/>
       <c r="L30" s="255"/>
-      <c r="M30" s="758" t="s">
+      <c r="M30" s="760" t="s">
         <v>234</v>
       </c>
-      <c r="N30" s="759"/>
+      <c r="N30" s="761"/>
       <c r="O30" s="246"/>
       <c r="P30" s="246"/>
       <c r="Q30" s="226" t="s">
         <v>240</v>
       </c>
-      <c r="R30" s="562"/>
+      <c r="R30" s="559"/>
       <c r="S30" s="255"/>
-      <c r="T30" s="758" t="s">
+      <c r="T30" s="760" t="s">
         <v>234</v>
       </c>
-      <c r="U30" s="759"/>
+      <c r="U30" s="761"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="269"/>
@@ -39664,7 +41024,7 @@
       </c>
       <c r="C31" s="270"/>
       <c r="D31" s="271"/>
-      <c r="E31" s="553"/>
+      <c r="E31" s="550"/>
       <c r="F31" s="272"/>
       <c r="G31" s="273"/>
       <c r="H31" s="273"/>
@@ -39674,7 +41034,7 @@
       </c>
       <c r="K31" s="270"/>
       <c r="L31" s="275"/>
-      <c r="M31" s="553"/>
+      <c r="M31" s="550"/>
       <c r="N31" s="272"/>
       <c r="O31" s="276"/>
       <c r="P31" s="276"/>
@@ -39683,7 +41043,7 @@
       </c>
       <c r="R31" s="277"/>
       <c r="S31" s="278"/>
-      <c r="T31" s="559"/>
+      <c r="T31" s="556"/>
       <c r="U31" s="279"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -39693,7 +41053,7 @@
       </c>
       <c r="C32" s="281"/>
       <c r="D32" s="282"/>
-      <c r="E32" s="554"/>
+      <c r="E32" s="551"/>
       <c r="F32" s="283"/>
       <c r="G32" s="236"/>
       <c r="H32" s="284"/>
@@ -39703,7 +41063,7 @@
       </c>
       <c r="K32" s="281"/>
       <c r="L32" s="286"/>
-      <c r="M32" s="554"/>
+      <c r="M32" s="551"/>
       <c r="N32" s="283"/>
       <c r="O32" s="285"/>
       <c r="P32" s="285"/>
@@ -39712,7 +41072,7 @@
       </c>
       <c r="R32" s="281"/>
       <c r="S32" s="286"/>
-      <c r="T32" s="554"/>
+      <c r="T32" s="551"/>
       <c r="U32" s="283"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -39722,7 +41082,7 @@
       </c>
       <c r="C33" s="243"/>
       <c r="D33" s="244"/>
-      <c r="E33" s="552"/>
+      <c r="E33" s="549"/>
       <c r="F33" s="245"/>
       <c r="G33" s="236"/>
       <c r="H33" s="236"/>
@@ -39732,7 +41092,7 @@
       </c>
       <c r="K33" s="243"/>
       <c r="L33" s="244"/>
-      <c r="M33" s="555"/>
+      <c r="M33" s="552"/>
       <c r="N33" s="245"/>
       <c r="O33" s="246"/>
       <c r="P33" s="246"/>
@@ -39741,7 +41101,7 @@
       </c>
       <c r="R33" s="243"/>
       <c r="S33" s="244"/>
-      <c r="T33" s="552"/>
+      <c r="T33" s="549"/>
       <c r="U33" s="245"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -39978,11 +41338,11 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="206"/>
-      <c r="B42" s="760"/>
-      <c r="C42" s="760"/>
-      <c r="D42" s="760"/>
-      <c r="E42" s="760"/>
-      <c r="F42" s="760"/>
+      <c r="B42" s="762"/>
+      <c r="C42" s="762"/>
+      <c r="D42" s="762"/>
+      <c r="E42" s="762"/>
+      <c r="F42" s="762"/>
       <c r="G42" s="246"/>
       <c r="H42" s="207"/>
       <c r="I42" s="246"/>
@@ -40126,15 +41486,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R9:S9"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="T30:U30"/>
@@ -40146,6 +41497,15 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="T20:U20"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40178,8 +41538,8 @@
       <c r="B3" s="292" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="767"/>
-      <c r="D3" s="767"/>
+      <c r="C3" s="765"/>
+      <c r="D3" s="765"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" s="293"/>
@@ -40212,10 +41572,10 @@
       <c r="D10" s="301" t="s">
         <v>254</v>
       </c>
-      <c r="E10" s="768" t="s">
+      <c r="E10" s="766" t="s">
         <v>255</v>
       </c>
-      <c r="F10" s="769"/>
+      <c r="F10" s="767"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="302" t="s">
@@ -40238,105 +41598,105 @@
       <c r="B12" s="307" t="s">
         <v>256</v>
       </c>
-      <c r="C12" s="563"/>
-      <c r="D12" s="571">
+      <c r="C12" s="560"/>
+      <c r="D12" s="568">
         <v>100</v>
       </c>
-      <c r="E12" s="571"/>
-      <c r="F12" s="568"/>
+      <c r="E12" s="568"/>
+      <c r="F12" s="565"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="308" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="564"/>
-      <c r="D13" s="572"/>
-      <c r="E13" s="651"/>
-      <c r="F13" s="652"/>
+      <c r="C13" s="561"/>
+      <c r="D13" s="569"/>
+      <c r="E13" s="648"/>
+      <c r="F13" s="649"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="579" t="s">
+      <c r="B14" s="576" t="s">
         <v>258</v>
       </c>
-      <c r="C14" s="580"/>
-      <c r="D14" s="581"/>
-      <c r="E14" s="653"/>
-      <c r="F14" s="654"/>
+      <c r="C14" s="577"/>
+      <c r="D14" s="578"/>
+      <c r="E14" s="650"/>
+      <c r="F14" s="651"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="309"/>
-      <c r="C15" s="565"/>
-      <c r="D15" s="573"/>
-      <c r="E15" s="574"/>
-      <c r="F15" s="569"/>
+      <c r="C15" s="562"/>
+      <c r="D15" s="570"/>
+      <c r="E15" s="571"/>
+      <c r="F15" s="566"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="310" t="s">
         <v>259</v>
       </c>
-      <c r="C16" s="566"/>
-      <c r="D16" s="575"/>
-      <c r="E16" s="575"/>
-      <c r="F16" s="570"/>
+      <c r="C16" s="563"/>
+      <c r="D16" s="572"/>
+      <c r="E16" s="572"/>
+      <c r="F16" s="567"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="308" t="s">
         <v>260</v>
       </c>
-      <c r="C17" s="564"/>
-      <c r="D17" s="572"/>
-      <c r="E17" s="572"/>
-      <c r="F17" s="569"/>
+      <c r="C17" s="561"/>
+      <c r="D17" s="569"/>
+      <c r="E17" s="569"/>
+      <c r="F17" s="566"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="579" t="s">
+      <c r="B18" s="576" t="s">
         <v>261</v>
       </c>
-      <c r="C18" s="582"/>
-      <c r="D18" s="581"/>
-      <c r="E18" s="581"/>
-      <c r="F18" s="570"/>
+      <c r="C18" s="579"/>
+      <c r="D18" s="578"/>
+      <c r="E18" s="578"/>
+      <c r="F18" s="567"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="311"/>
-      <c r="C19" s="567"/>
-      <c r="D19" s="576"/>
-      <c r="E19" s="576"/>
-      <c r="F19" s="569"/>
+      <c r="C19" s="564"/>
+      <c r="D19" s="573"/>
+      <c r="E19" s="573"/>
+      <c r="F19" s="566"/>
     </row>
     <row r="20" spans="2:6" ht="63" x14ac:dyDescent="0.25">
       <c r="B20" s="312" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="566"/>
-      <c r="D20" s="577"/>
-      <c r="E20" s="577"/>
-      <c r="F20" s="570"/>
+      <c r="C20" s="563"/>
+      <c r="D20" s="574"/>
+      <c r="E20" s="574"/>
+      <c r="F20" s="567"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="308" t="s">
         <v>263</v>
       </c>
-      <c r="C21" s="564"/>
-      <c r="D21" s="572"/>
-      <c r="E21" s="572"/>
-      <c r="F21" s="569"/>
+      <c r="C21" s="561"/>
+      <c r="D21" s="569"/>
+      <c r="E21" s="569"/>
+      <c r="F21" s="566"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="308" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="564"/>
-      <c r="D22" s="572"/>
-      <c r="E22" s="572"/>
-      <c r="F22" s="569"/>
+      <c r="C22" s="561"/>
+      <c r="D22" s="569"/>
+      <c r="E22" s="569"/>
+      <c r="F22" s="566"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="590"/>
-      <c r="C23" s="589"/>
-      <c r="D23" s="588"/>
-      <c r="E23" s="587"/>
-      <c r="F23" s="570"/>
+      <c r="B23" s="587"/>
+      <c r="C23" s="586"/>
+      <c r="D23" s="585"/>
+      <c r="E23" s="584"/>
+      <c r="F23" s="567"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D26" s="294"/>
@@ -40366,10 +41726,10 @@
       <c r="D30" s="313" t="s">
         <v>254</v>
       </c>
-      <c r="E30" s="768" t="s">
+      <c r="E30" s="766" t="s">
         <v>255</v>
       </c>
-      <c r="F30" s="769"/>
+      <c r="F30" s="767"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="302" t="s">
@@ -40392,105 +41752,105 @@
       <c r="B32" s="307" t="s">
         <v>256</v>
       </c>
-      <c r="C32" s="563"/>
-      <c r="D32" s="571">
+      <c r="C32" s="560"/>
+      <c r="D32" s="568">
         <v>100</v>
       </c>
-      <c r="E32" s="571"/>
-      <c r="F32" s="568"/>
+      <c r="E32" s="568"/>
+      <c r="F32" s="565"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="308" t="s">
         <v>257</v>
       </c>
-      <c r="C33" s="564"/>
-      <c r="D33" s="572"/>
-      <c r="E33" s="651"/>
-      <c r="F33" s="652"/>
+      <c r="C33" s="561"/>
+      <c r="D33" s="569"/>
+      <c r="E33" s="648"/>
+      <c r="F33" s="649"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="579" t="s">
+      <c r="B34" s="576" t="s">
         <v>258</v>
       </c>
-      <c r="C34" s="580"/>
-      <c r="D34" s="581"/>
-      <c r="E34" s="653"/>
-      <c r="F34" s="654"/>
+      <c r="C34" s="577"/>
+      <c r="D34" s="578"/>
+      <c r="E34" s="650"/>
+      <c r="F34" s="651"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="309"/>
-      <c r="C35" s="565"/>
-      <c r="D35" s="573"/>
-      <c r="E35" s="574"/>
-      <c r="F35" s="569"/>
+      <c r="C35" s="562"/>
+      <c r="D35" s="570"/>
+      <c r="E35" s="571"/>
+      <c r="F35" s="566"/>
     </row>
     <row r="36" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="310" t="s">
         <v>259</v>
       </c>
-      <c r="C36" s="566"/>
-      <c r="D36" s="575"/>
-      <c r="E36" s="575"/>
-      <c r="F36" s="570"/>
+      <c r="C36" s="563"/>
+      <c r="D36" s="572"/>
+      <c r="E36" s="572"/>
+      <c r="F36" s="567"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="308" t="s">
         <v>260</v>
       </c>
-      <c r="C37" s="564"/>
-      <c r="D37" s="572"/>
-      <c r="E37" s="572"/>
-      <c r="F37" s="569"/>
+      <c r="C37" s="561"/>
+      <c r="D37" s="569"/>
+      <c r="E37" s="569"/>
+      <c r="F37" s="566"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="583" t="s">
+      <c r="B38" s="580" t="s">
         <v>261</v>
       </c>
-      <c r="C38" s="584"/>
-      <c r="D38" s="581"/>
-      <c r="E38" s="581"/>
-      <c r="F38" s="570"/>
+      <c r="C38" s="581"/>
+      <c r="D38" s="578"/>
+      <c r="E38" s="578"/>
+      <c r="F38" s="567"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="311"/>
-      <c r="C39" s="567"/>
-      <c r="D39" s="576"/>
-      <c r="E39" s="576"/>
-      <c r="F39" s="569"/>
+      <c r="C39" s="564"/>
+      <c r="D39" s="573"/>
+      <c r="E39" s="573"/>
+      <c r="F39" s="566"/>
     </row>
     <row r="40" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="312" t="s">
         <v>262</v>
       </c>
-      <c r="C40" s="566"/>
-      <c r="D40" s="577"/>
-      <c r="E40" s="577"/>
-      <c r="F40" s="570"/>
+      <c r="C40" s="563"/>
+      <c r="D40" s="574"/>
+      <c r="E40" s="574"/>
+      <c r="F40" s="567"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="308" t="s">
         <v>263</v>
       </c>
-      <c r="C41" s="564"/>
-      <c r="D41" s="572"/>
-      <c r="E41" s="572"/>
-      <c r="F41" s="569"/>
+      <c r="C41" s="561"/>
+      <c r="D41" s="569"/>
+      <c r="E41" s="569"/>
+      <c r="F41" s="566"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="308" t="s">
         <v>261</v>
       </c>
-      <c r="C42" s="564"/>
-      <c r="D42" s="572"/>
-      <c r="E42" s="572"/>
-      <c r="F42" s="569"/>
+      <c r="C42" s="561"/>
+      <c r="D42" s="569"/>
+      <c r="E42" s="569"/>
+      <c r="F42" s="566"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="315"/>
-      <c r="C43" s="586"/>
-      <c r="D43" s="578"/>
-      <c r="E43" s="585"/>
-      <c r="F43" s="570"/>
+      <c r="C43" s="583"/>
+      <c r="D43" s="575"/>
+      <c r="E43" s="582"/>
+      <c r="F43" s="567"/>
     </row>
     <row r="46" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B46" s="295" t="s">
@@ -40517,10 +41877,10 @@
       <c r="D49" s="313" t="s">
         <v>254</v>
       </c>
-      <c r="E49" s="768" t="s">
+      <c r="E49" s="766" t="s">
         <v>255</v>
       </c>
-      <c r="F49" s="769"/>
+      <c r="F49" s="767"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="302" t="s">
@@ -40543,105 +41903,105 @@
       <c r="B51" s="307" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="563"/>
-      <c r="D51" s="571">
+      <c r="C51" s="560"/>
+      <c r="D51" s="568">
         <v>100</v>
       </c>
-      <c r="E51" s="571"/>
-      <c r="F51" s="568"/>
+      <c r="E51" s="568"/>
+      <c r="F51" s="565"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="308" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="564"/>
-      <c r="D52" s="572"/>
-      <c r="E52" s="651"/>
-      <c r="F52" s="652"/>
+      <c r="C52" s="561"/>
+      <c r="D52" s="569"/>
+      <c r="E52" s="648"/>
+      <c r="F52" s="649"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="579" t="s">
+      <c r="B53" s="576" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="580"/>
-      <c r="D53" s="581"/>
-      <c r="E53" s="653"/>
-      <c r="F53" s="654"/>
+      <c r="C53" s="577"/>
+      <c r="D53" s="578"/>
+      <c r="E53" s="650"/>
+      <c r="F53" s="651"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="309"/>
-      <c r="C54" s="565"/>
-      <c r="D54" s="573"/>
-      <c r="E54" s="574"/>
-      <c r="F54" s="569"/>
+      <c r="C54" s="562"/>
+      <c r="D54" s="570"/>
+      <c r="E54" s="571"/>
+      <c r="F54" s="566"/>
     </row>
     <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="310" t="s">
         <v>259</v>
       </c>
-      <c r="C55" s="566"/>
-      <c r="D55" s="575"/>
-      <c r="E55" s="575"/>
-      <c r="F55" s="570"/>
+      <c r="C55" s="563"/>
+      <c r="D55" s="572"/>
+      <c r="E55" s="572"/>
+      <c r="F55" s="567"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="308" t="s">
         <v>260</v>
       </c>
-      <c r="C56" s="564"/>
-      <c r="D56" s="572"/>
-      <c r="E56" s="572"/>
-      <c r="F56" s="569"/>
+      <c r="C56" s="561"/>
+      <c r="D56" s="569"/>
+      <c r="E56" s="569"/>
+      <c r="F56" s="566"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="579" t="s">
+      <c r="B57" s="576" t="s">
         <v>261</v>
       </c>
-      <c r="C57" s="582"/>
-      <c r="D57" s="581"/>
-      <c r="E57" s="581"/>
-      <c r="F57" s="570"/>
+      <c r="C57" s="579"/>
+      <c r="D57" s="578"/>
+      <c r="E57" s="578"/>
+      <c r="F57" s="567"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="311"/>
-      <c r="C58" s="567"/>
-      <c r="D58" s="576"/>
-      <c r="E58" s="576"/>
-      <c r="F58" s="569"/>
+      <c r="C58" s="564"/>
+      <c r="D58" s="573"/>
+      <c r="E58" s="573"/>
+      <c r="F58" s="566"/>
     </row>
     <row r="59" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="310" t="s">
         <v>262</v>
       </c>
-      <c r="C59" s="566"/>
-      <c r="D59" s="577"/>
-      <c r="E59" s="577"/>
-      <c r="F59" s="570"/>
+      <c r="C59" s="563"/>
+      <c r="D59" s="574"/>
+      <c r="E59" s="574"/>
+      <c r="F59" s="567"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="308" t="s">
         <v>263</v>
       </c>
-      <c r="C60" s="564"/>
-      <c r="D60" s="572"/>
-      <c r="E60" s="572"/>
-      <c r="F60" s="569"/>
+      <c r="C60" s="561"/>
+      <c r="D60" s="569"/>
+      <c r="E60" s="569"/>
+      <c r="F60" s="566"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="308" t="s">
         <v>261</v>
       </c>
-      <c r="C61" s="564"/>
-      <c r="D61" s="572"/>
-      <c r="E61" s="572"/>
-      <c r="F61" s="569"/>
+      <c r="C61" s="561"/>
+      <c r="D61" s="569"/>
+      <c r="E61" s="569"/>
+      <c r="F61" s="566"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="315"/>
-      <c r="C62" s="586"/>
-      <c r="D62" s="591"/>
-      <c r="E62" s="587"/>
-      <c r="F62" s="570"/>
+      <c r="C62" s="583"/>
+      <c r="D62" s="588"/>
+      <c r="E62" s="584"/>
+      <c r="F62" s="567"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -40688,8 +42048,8 @@
       </c>
       <c r="C2" s="209"/>
       <c r="D2" s="209"/>
-      <c r="E2" s="765"/>
-      <c r="F2" s="765"/>
+      <c r="E2" s="756"/>
+      <c r="F2" s="756"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="208"/>
@@ -40721,13 +42081,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="206"/>
-      <c r="B6" s="766" t="s">
+      <c r="B6" s="757" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="766"/>
-      <c r="D6" s="766"/>
-      <c r="E6" s="766"/>
-      <c r="F6" s="766"/>
+      <c r="C6" s="757"/>
+      <c r="D6" s="757"/>
+      <c r="E6" s="757"/>
+      <c r="F6" s="757"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="206"/>
@@ -40739,27 +42099,27 @@
     </row>
     <row r="8" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="206"/>
-      <c r="B8" s="598" t="s">
+      <c r="B8" s="595" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="770" t="s">
+      <c r="C8" s="768" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="771"/>
-      <c r="E8" s="772" t="s">
+      <c r="D8" s="769"/>
+      <c r="E8" s="770" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="771"/>
+      <c r="F8" s="769"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="206"/>
-      <c r="B9" s="599" t="s">
+      <c r="B9" s="596" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="596" t="s">
+      <c r="C9" s="593" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="597" t="s">
+      <c r="D9" s="594" t="s">
         <v>225</v>
       </c>
       <c r="E9" s="317" t="s">
@@ -40771,55 +42131,55 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="319"/>
-      <c r="B10" s="603" t="s">
+      <c r="B10" s="600" t="s">
         <v>267</v>
       </c>
       <c r="C10" s="320"/>
-      <c r="D10" s="609"/>
+      <c r="D10" s="606"/>
       <c r="E10" s="320"/>
-      <c r="F10" s="614"/>
+      <c r="F10" s="611"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="319"/>
-      <c r="B11" s="604" t="s">
+      <c r="B11" s="601" t="s">
         <v>268</v>
       </c>
       <c r="C11" s="324"/>
-      <c r="D11" s="610"/>
-      <c r="E11" s="593"/>
-      <c r="F11" s="615"/>
+      <c r="D11" s="607"/>
+      <c r="E11" s="590"/>
+      <c r="F11" s="612"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="322"/>
-      <c r="B12" s="600" t="s">
+      <c r="B12" s="597" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="595"/>
-      <c r="D12" s="594"/>
-      <c r="E12" s="595"/>
-      <c r="F12" s="594"/>
+      <c r="C12" s="592"/>
+      <c r="D12" s="591"/>
+      <c r="E12" s="592"/>
+      <c r="F12" s="591"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="322"/>
       <c r="B13" s="238"/>
-      <c r="C13" s="605"/>
-      <c r="D13" s="611"/>
+      <c r="C13" s="602"/>
+      <c r="D13" s="608"/>
       <c r="E13" s="327"/>
-      <c r="F13" s="592"/>
+      <c r="F13" s="589"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="319"/>
       <c r="B14" s="326" t="s">
         <v>269</v>
       </c>
-      <c r="C14" s="606"/>
-      <c r="D14" s="612"/>
-      <c r="E14" s="608"/>
-      <c r="F14" s="616"/>
+      <c r="C14" s="603"/>
+      <c r="D14" s="609"/>
+      <c r="E14" s="605"/>
+      <c r="F14" s="613"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="322"/>
-      <c r="B15" s="601" t="s">
+      <c r="B15" s="598" t="s">
         <v>263</v>
       </c>
       <c r="C15" s="321"/>
@@ -40829,35 +42189,35 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="322"/>
-      <c r="B16" s="600" t="s">
+      <c r="B16" s="597" t="s">
         <v>261</v>
       </c>
-      <c r="C16" s="595"/>
-      <c r="D16" s="594"/>
-      <c r="E16" s="595"/>
-      <c r="F16" s="594"/>
+      <c r="C16" s="592"/>
+      <c r="D16" s="591"/>
+      <c r="E16" s="592"/>
+      <c r="F16" s="591"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="322"/>
       <c r="B17" s="329"/>
-      <c r="C17" s="607"/>
-      <c r="D17" s="613"/>
-      <c r="E17" s="607"/>
-      <c r="F17" s="617"/>
+      <c r="C17" s="604"/>
+      <c r="D17" s="610"/>
+      <c r="E17" s="604"/>
+      <c r="F17" s="614"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="319"/>
       <c r="B18" s="326" t="s">
         <v>270</v>
       </c>
-      <c r="C18" s="606"/>
-      <c r="D18" s="612"/>
-      <c r="E18" s="608"/>
-      <c r="F18" s="616"/>
+      <c r="C18" s="603"/>
+      <c r="D18" s="609"/>
+      <c r="E18" s="605"/>
+      <c r="F18" s="613"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="322"/>
-      <c r="B19" s="601" t="s">
+      <c r="B19" s="598" t="s">
         <v>263</v>
       </c>
       <c r="C19" s="321"/>
@@ -40867,7 +42227,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="322"/>
-      <c r="B20" s="602" t="s">
+      <c r="B20" s="599" t="s">
         <v>261</v>
       </c>
       <c r="C20" s="327"/>
@@ -40877,19 +42237,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="322"/>
-      <c r="B21" s="670"/>
-      <c r="C21" s="671"/>
-      <c r="D21" s="672"/>
-      <c r="E21" s="673"/>
-      <c r="F21" s="674"/>
+      <c r="B21" s="667"/>
+      <c r="C21" s="668"/>
+      <c r="D21" s="669"/>
+      <c r="E21" s="670"/>
+      <c r="F21" s="671"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="206"/>
-      <c r="B22" s="760"/>
-      <c r="C22" s="760"/>
-      <c r="D22" s="760"/>
-      <c r="E22" s="760"/>
-      <c r="F22" s="760"/>
+      <c r="B22" s="762"/>
+      <c r="C22" s="762"/>
+      <c r="D22" s="762"/>
+      <c r="E22" s="762"/>
+      <c r="F22" s="762"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="206"/>
@@ -40952,13 +42312,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="B2" s="773" t="s">
+      <c r="B2" s="771" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="774" t="s">
+      <c r="C2" s="772" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="774" t="s">
+      <c r="D2" s="772" t="s">
         <v>154</v>
       </c>
       <c r="E2" s="330" t="s">
@@ -40993,9 +42353,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="773"/>
-      <c r="C3" s="775"/>
-      <c r="D3" s="775"/>
+      <c r="B3" s="771"/>
+      <c r="C3" s="773"/>
+      <c r="D3" s="773"/>
       <c r="E3" s="332" t="s">
         <v>283</v>
       </c>
@@ -41028,7 +42388,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="776" t="s">
+      <c r="B4" s="774" t="s">
         <v>286</v>
       </c>
       <c r="C4" s="334" t="s">
@@ -41047,7 +42407,7 @@
       <c r="N4" s="336"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="776"/>
+      <c r="B5" s="774"/>
       <c r="C5" s="334" t="s">
         <v>62</v>
       </c>
@@ -41064,7 +42424,7 @@
       <c r="N5" s="336"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="777"/>
+      <c r="B6" s="775"/>
       <c r="C6" s="337" t="s">
         <v>276</v>
       </c>
@@ -41125,16 +42485,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="778" t="s">
+      <c r="A1" s="776" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="779"/>
-      <c r="C1" s="780"/>
-      <c r="D1" s="781" t="s">
+      <c r="B1" s="777"/>
+      <c r="C1" s="778"/>
+      <c r="D1" s="779" t="s">
         <v>288</v>
       </c>
-      <c r="E1" s="781"/>
-      <c r="F1" s="782"/>
+      <c r="E1" s="779"/>
+      <c r="F1" s="780"/>
       <c r="G1" s="347" t="s">
         <v>289</v>
       </c>
@@ -41142,7 +42502,7 @@
       <c r="I1" s="417"/>
       <c r="J1" s="417"/>
       <c r="K1" s="348"/>
-      <c r="L1" s="783" t="s">
+      <c r="L1" s="781" t="s">
         <v>290</v>
       </c>
     </row>
@@ -41180,7 +42540,7 @@
       <c r="K2" s="357" t="s">
         <v>294</v>
       </c>
-      <c r="L2" s="784"/>
+      <c r="L2" s="782"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="358"/>
@@ -41188,46 +42548,46 @@
       <c r="C3" s="360" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="785" t="s">
+      <c r="D3" s="783" t="s">
         <v>295</v>
       </c>
-      <c r="E3" s="786"/>
-      <c r="F3" s="787"/>
-      <c r="G3" s="788" t="s">
+      <c r="E3" s="784"/>
+      <c r="F3" s="785"/>
+      <c r="G3" s="786" t="s">
         <v>295</v>
       </c>
-      <c r="H3" s="789"/>
-      <c r="I3" s="789"/>
-      <c r="J3" s="789"/>
-      <c r="K3" s="790"/>
-      <c r="L3" s="784"/>
+      <c r="H3" s="787"/>
+      <c r="I3" s="787"/>
+      <c r="J3" s="787"/>
+      <c r="K3" s="788"/>
+      <c r="L3" s="782"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="418"/>
       <c r="B4" s="419"/>
       <c r="C4" s="420"/>
-      <c r="D4" s="618"/>
-      <c r="E4" s="620"/>
-      <c r="F4" s="620"/>
-      <c r="G4" s="620"/>
-      <c r="H4" s="620"/>
-      <c r="I4" s="620"/>
-      <c r="J4" s="620"/>
-      <c r="K4" s="620"/>
+      <c r="D4" s="615"/>
+      <c r="E4" s="617"/>
+      <c r="F4" s="617"/>
+      <c r="G4" s="617"/>
+      <c r="H4" s="617"/>
+      <c r="I4" s="617"/>
+      <c r="J4" s="617"/>
+      <c r="K4" s="617"/>
       <c r="L4" s="421"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="422"/>
       <c r="B5" s="423"/>
       <c r="C5" s="424"/>
-      <c r="D5" s="619"/>
-      <c r="E5" s="621"/>
-      <c r="F5" s="619"/>
-      <c r="G5" s="621"/>
-      <c r="H5" s="621"/>
-      <c r="I5" s="621"/>
-      <c r="J5" s="621"/>
-      <c r="K5" s="621"/>
+      <c r="D5" s="616"/>
+      <c r="E5" s="618"/>
+      <c r="F5" s="616"/>
+      <c r="G5" s="618"/>
+      <c r="H5" s="618"/>
+      <c r="I5" s="618"/>
+      <c r="J5" s="618"/>
+      <c r="K5" s="618"/>
       <c r="L5" s="425"/>
     </row>
   </sheetData>
@@ -41253,23 +42613,23 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="712" t="s">
+      <c r="A1" s="681" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="713"/>
-      <c r="C1" s="713"/>
-      <c r="D1" s="713"/>
+      <c r="B1" s="682"/>
+      <c r="C1" s="682"/>
+      <c r="D1" s="682"/>
       <c r="E1" s="361"/>
-      <c r="F1" s="796" t="s">
+      <c r="F1" s="794" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="797"/>
-      <c r="H1" s="797"/>
+      <c r="G1" s="795"/>
+      <c r="H1" s="795"/>
       <c r="I1" s="362"/>
       <c r="J1" s="363"/>
       <c r="K1" s="362"/>
       <c r="L1" s="364"/>
-      <c r="M1" s="791" t="s">
+      <c r="M1" s="789" t="s">
         <v>297</v>
       </c>
       <c r="N1" s="365"/>
@@ -41281,19 +42641,19 @@
       <c r="R1" s="363"/>
       <c r="S1" s="362"/>
       <c r="T1" s="364"/>
-      <c r="U1" s="791" t="s">
+      <c r="U1" s="789" t="s">
         <v>299</v>
       </c>
       <c r="V1" s="365"/>
-      <c r="W1" s="798" t="s">
+      <c r="W1" s="796" t="s">
         <v>300</v>
       </c>
-      <c r="X1" s="798"/>
-      <c r="Y1" s="798"/>
-      <c r="Z1" s="798"/>
-      <c r="AA1" s="798"/>
-      <c r="AB1" s="799"/>
-      <c r="AC1" s="791" t="s">
+      <c r="X1" s="796"/>
+      <c r="Y1" s="796"/>
+      <c r="Z1" s="796"/>
+      <c r="AA1" s="796"/>
+      <c r="AB1" s="797"/>
+      <c r="AC1" s="789" t="s">
         <v>301</v>
       </c>
     </row>
@@ -41307,52 +42667,52 @@
       <c r="C2" s="367" t="s">
         <v>303</v>
       </c>
-      <c r="D2" s="793" t="s">
+      <c r="D2" s="791" t="s">
         <v>304</v>
       </c>
-      <c r="E2" s="793"/>
+      <c r="E2" s="791"/>
       <c r="F2" s="368"/>
-      <c r="G2" s="794" t="s">
+      <c r="G2" s="792" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="794"/>
-      <c r="I2" s="794" t="s">
+      <c r="H2" s="792"/>
+      <c r="I2" s="792" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="794"/>
-      <c r="K2" s="794" t="s">
+      <c r="J2" s="792"/>
+      <c r="K2" s="792" t="s">
         <v>166</v>
       </c>
-      <c r="L2" s="795"/>
-      <c r="M2" s="792"/>
+      <c r="L2" s="793"/>
+      <c r="M2" s="790"/>
       <c r="N2" s="369"/>
-      <c r="O2" s="794" t="s">
+      <c r="O2" s="792" t="s">
         <v>164</v>
       </c>
-      <c r="P2" s="794"/>
-      <c r="Q2" s="794" t="s">
+      <c r="P2" s="792"/>
+      <c r="Q2" s="792" t="s">
         <v>165</v>
       </c>
-      <c r="R2" s="794"/>
-      <c r="S2" s="794" t="s">
+      <c r="R2" s="792"/>
+      <c r="S2" s="792" t="s">
         <v>166</v>
       </c>
-      <c r="T2" s="795"/>
-      <c r="U2" s="792"/>
+      <c r="T2" s="793"/>
+      <c r="U2" s="790"/>
       <c r="V2" s="369"/>
-      <c r="W2" s="794" t="s">
+      <c r="W2" s="792" t="s">
         <v>164</v>
       </c>
-      <c r="X2" s="794"/>
-      <c r="Y2" s="794" t="s">
+      <c r="X2" s="792"/>
+      <c r="Y2" s="792" t="s">
         <v>165</v>
       </c>
-      <c r="Z2" s="794"/>
-      <c r="AA2" s="794" t="s">
+      <c r="Z2" s="792"/>
+      <c r="AA2" s="792" t="s">
         <v>166</v>
       </c>
-      <c r="AB2" s="795"/>
-      <c r="AC2" s="792"/>
+      <c r="AB2" s="793"/>
+      <c r="AC2" s="790"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -41448,7 +42808,7 @@
       <c r="B4" s="480"/>
       <c r="C4" s="480"/>
       <c r="D4" s="480"/>
-      <c r="E4" s="535"/>
+      <c r="E4" s="532"/>
       <c r="F4" s="480"/>
       <c r="G4" s="480"/>
       <c r="H4" s="480"/>
@@ -41456,7 +42816,7 @@
       <c r="J4" s="480"/>
       <c r="K4" s="480"/>
       <c r="L4" s="480"/>
-      <c r="M4" s="535"/>
+      <c r="M4" s="532"/>
       <c r="N4" s="480"/>
       <c r="O4" s="480"/>
       <c r="P4" s="480"/>
@@ -41464,7 +42824,7 @@
       <c r="R4" s="480"/>
       <c r="S4" s="480"/>
       <c r="T4" s="480"/>
-      <c r="U4" s="535"/>
+      <c r="U4" s="532"/>
       <c r="V4" s="480"/>
       <c r="W4" s="480"/>
       <c r="X4" s="480"/>
@@ -41472,10 +42832,10 @@
       <c r="Z4" s="480"/>
       <c r="AA4" s="480"/>
       <c r="AB4" s="480"/>
-      <c r="AC4" s="535"/>
+      <c r="AC4" s="532"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E5" s="535"/>
+      <c r="E5" s="532"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/uwwtd website/sites/all/modules/uwwtd/model/2015_register_model_20161018_1.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2015_register_model_20161018_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C9AEF~1.NAS\AppData\Local\Temp\scp50685\var\www\html\cn_uwwtd_git\uwwtd website\sites\all\modules\uwwtd\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C9AEF~1.NAS\AppData\Local\Temp\scp13669\var\www\html\cn_uwwtd_git\uwwtd website\sites\all\modules\uwwtd\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="476">
   <si>
     <t>Sensitive areas reported for reference date</t>
   </si>
@@ -1782,14 +1782,6 @@
     <t>Article 5 7th reporting</t>
   </si>
   <si>
-    <t>Comparison of compliance between 7th report, [#previous_year#] and [#current_year#]
-Load in population equivalent (p.e.)</t>
-  </si>
-  <si>
-    <t>Comparison of compliance between 7th report, [#previous_year#] and [#current_year#]
-Number of agglomerations</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -1843,6 +1835,23 @@
   </si>
   <si>
     <t>Comparison of suage sludge re-use and disposal routs between [#previous_year#] and [#current_year#] (in t DS/year)</t>
+  </si>
+  <si>
+    <t>Comparison of compliance between 7th reporting, [#previous_year#] and [#current_year#]
+Load in population equivalent (p.e.)</t>
+  </si>
+  <si>
+    <t>Comparison of compliance between 7th reporting, [#previous_year#] and [#current_year#]
+Number of agglomerations</t>
+  </si>
+  <si>
+    <t>Article 3 [#previous_year#]</t>
+  </si>
+  <si>
+    <t>Article 4 [#previous_year#]</t>
+  </si>
+  <si>
+    <t>Article 5 [#previous_year#]</t>
   </si>
 </sst>
 </file>
@@ -5843,7 +5852,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5899,7 +5907,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>[#previous_year#]*</c:v>
+                  <c:v>[#previous_year#]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5920,7 +5928,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5944,7 +5951,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -5952,13 +5958,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{478796DB-8347-4F1F-A915-7528FC0D8FEC}" type="CELLRANGE">
+                    <a:fld id="{E97B0F82-FD64-4B3C-8883-18C997CBA94A}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -5976,7 +5981,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -5985,13 +5989,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A819C2A-B2D0-4E6D-BE4D-5802D7AE1FDE}" type="CELLRANGE">
+                    <a:fld id="{8FA00B84-1FEF-4357-B1D0-5EF544B9A252}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6009,7 +6012,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -6055,7 +6057,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6162,7 +6163,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -6186,7 +6186,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -6194,13 +6193,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{478096CF-6543-4933-B57D-ED4A195FAC08}" type="CELLRANGE">
+                    <a:fld id="{99183CF9-B9C6-44EB-B622-BF7B3349A151}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6218,7 +6216,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -6227,13 +6224,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{481C84A8-4491-4382-ACAF-DB9E4958B182}" type="CELLRANGE">
+                    <a:fld id="{930ACBD8-10AC-4C6C-A797-8991D0363131}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6251,7 +6247,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -6297,7 +6292,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6385,11 +6379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="125268416"/>
-        <c:axId val="125268976"/>
+        <c:axId val="237814704"/>
+        <c:axId val="237812464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="125268416"/>
+        <c:axId val="237814704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6432,7 +6426,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125268976"/>
+        <c:crossAx val="237812464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6440,7 +6434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125268976"/>
+        <c:axId val="237812464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6472,7 +6466,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6533,7 +6526,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125268416"/>
+        <c:crossAx val="237814704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6668,6 +6661,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6919,11 +6913,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="239501584"/>
-        <c:axId val="239502144"/>
+        <c:axId val="383336112"/>
+        <c:axId val="383336672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="239501584"/>
+        <c:axId val="383336112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6955,6 +6949,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7021,7 +7016,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239502144"/>
+        <c:crossAx val="383336672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7029,7 +7024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="239502144"/>
+        <c:axId val="383336672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7149,7 +7144,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239501584"/>
+        <c:crossAx val="383336112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8033,11 +8028,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="239507184"/>
-        <c:axId val="239507744"/>
+        <c:axId val="383341712"/>
+        <c:axId val="383342272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="239507184"/>
+        <c:axId val="383341712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8140,7 +8135,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239507744"/>
+        <c:crossAx val="383342272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8148,7 +8143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="239507744"/>
+        <c:axId val="383342272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8199,7 +8194,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239507184"/>
+        <c:crossAx val="383341712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8564,11 +8559,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="239511104"/>
-        <c:axId val="239511664"/>
+        <c:axId val="383345632"/>
+        <c:axId val="383346192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="239511104"/>
+        <c:axId val="383345632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8679,7 +8674,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239511664"/>
+        <c:crossAx val="383346192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8687,7 +8682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="239511664"/>
+        <c:axId val="383346192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8793,7 +8788,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239511104"/>
+        <c:crossAx val="383345632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9163,11 +9158,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="239515024"/>
-        <c:axId val="239515584"/>
+        <c:axId val="383349552"/>
+        <c:axId val="383350112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="239515024"/>
+        <c:axId val="383349552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9278,7 +9273,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239515584"/>
+        <c:crossAx val="383350112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9286,7 +9281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="239515584"/>
+        <c:axId val="383350112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9400,7 +9395,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239515024"/>
+        <c:crossAx val="383349552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9535,7 +9530,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9882,11 +9876,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="243228208"/>
-        <c:axId val="243228768"/>
+        <c:axId val="433655680"/>
+        <c:axId val="433656240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243228208"/>
+        <c:axId val="433655680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9992,7 +9986,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243228768"/>
+        <c:crossAx val="433656240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10000,7 +9994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243228768"/>
+        <c:axId val="433656240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10122,7 +10116,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243228208"/>
+        <c:crossAx val="433655680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10458,11 +10452,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="243232128"/>
-        <c:axId val="243232688"/>
+        <c:axId val="433659600"/>
+        <c:axId val="433660160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243232128"/>
+        <c:axId val="433659600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10573,7 +10567,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243232688"/>
+        <c:crossAx val="433660160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10581,7 +10575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243232688"/>
+        <c:axId val="433660160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10695,7 +10689,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243232128"/>
+        <c:crossAx val="433659600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11031,11 +11025,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="243236048"/>
-        <c:axId val="243236608"/>
+        <c:axId val="433663520"/>
+        <c:axId val="433664080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243236048"/>
+        <c:axId val="433663520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11146,7 +11140,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243236608"/>
+        <c:crossAx val="433664080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11154,7 +11148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243236608"/>
+        <c:axId val="433664080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11268,7 +11262,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243236048"/>
+        <c:crossAx val="433663520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11649,11 +11643,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="243239968"/>
-        <c:axId val="243050224"/>
+        <c:axId val="433667440"/>
+        <c:axId val="433668000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243239968"/>
+        <c:axId val="433667440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11751,7 +11745,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243050224"/>
+        <c:crossAx val="433668000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11759,7 +11753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243050224"/>
+        <c:axId val="433668000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11878,7 +11872,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243239968"/>
+        <c:crossAx val="433667440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12384,11 +12378,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="243055824"/>
-        <c:axId val="243056384"/>
+        <c:axId val="433673600"/>
+        <c:axId val="433674160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243055824"/>
+        <c:axId val="433673600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12431,7 +12425,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243056384"/>
+        <c:crossAx val="433674160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12439,7 +12433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243056384"/>
+        <c:axId val="433674160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12546,7 +12540,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243055824"/>
+        <c:crossAx val="433673600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12787,7 +12781,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{961E1324-1786-4AC3-AC40-84E2D3F4D3AA}" type="CELLRANGE">
+                    <a:fld id="{DC9B0542-7D95-41CD-9783-23FF60821444}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -12820,7 +12814,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{992B03D9-D845-4472-B1D8-6B9CB0135789}" type="CELLRANGE">
+                    <a:fld id="{2A3C7A8C-2A6A-4CC4-A546-1753E81D8B76}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13029,7 +13023,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5752EC0-1ADD-4BB9-A508-66BCEA56F628}" type="CELLRANGE">
+                    <a:fld id="{B72E93FD-AD04-4E47-A1A5-15431C351633}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13062,7 +13056,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{745328BF-35C2-4153-BA00-1E1BD5AB8AD5}" type="CELLRANGE">
+                    <a:fld id="{0CD49B2E-4B2E-42EF-B2A9-F907A149CECC}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13214,11 +13208,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="240842160"/>
-        <c:axId val="240842720"/>
+        <c:axId val="278503680"/>
+        <c:axId val="278504240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="240842160"/>
+        <c:axId val="278503680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13317,7 +13311,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240842720"/>
+        <c:crossAx val="278504240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13325,7 +13319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240842720"/>
+        <c:axId val="278504240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13425,7 +13419,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240842160"/>
+        <c:crossAx val="278503680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14347,11 +14341,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="240850000"/>
-        <c:axId val="240850560"/>
+        <c:axId val="278511520"/>
+        <c:axId val="278512080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="240850000"/>
+        <c:axId val="278511520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14450,7 +14444,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240850560"/>
+        <c:crossAx val="278512080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14458,7 +14452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240850560"/>
+        <c:axId val="278512080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14565,7 +14559,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240850000"/>
+        <c:crossAx val="278511520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14776,7 +14770,7 @@
                   <c:v>Article 3 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Article 3 [#previous_year#]*</c:v>
+                  <c:v>Article 3 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Article 3 [#current_year#]</c:v>
@@ -14785,7 +14779,7 @@
                   <c:v>Article 4 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Article 4 [#previous_year#]*</c:v>
+                  <c:v>Article 4 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Article 4 [#current_year#]</c:v>
@@ -14794,7 +14788,7 @@
                   <c:v>Article 5 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Article 5 [#previous_year#]*</c:v>
+                  <c:v>Article 5 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Article 5 [#current_year#]</c:v>
@@ -14868,7 +14862,7 @@
                   <c:v>Article 3 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Article 3 [#previous_year#]*</c:v>
+                  <c:v>Article 3 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Article 3 [#current_year#]</c:v>
@@ -14877,7 +14871,7 @@
                   <c:v>Article 4 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Article 4 [#previous_year#]*</c:v>
+                  <c:v>Article 4 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Article 4 [#current_year#]</c:v>
@@ -14886,7 +14880,7 @@
                   <c:v>Article 5 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Article 5 [#previous_year#]*</c:v>
+                  <c:v>Article 5 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Article 5 [#current_year#]</c:v>
@@ -14960,7 +14954,7 @@
                   <c:v>Article 3 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Article 3 [#previous_year#]*</c:v>
+                  <c:v>Article 3 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Article 3 [#current_year#]</c:v>
@@ -14969,7 +14963,7 @@
                   <c:v>Article 4 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Article 4 [#previous_year#]*</c:v>
+                  <c:v>Article 4 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Article 4 [#current_year#]</c:v>
@@ -14978,7 +14972,7 @@
                   <c:v>Article 5 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Article 5 [#previous_year#]*</c:v>
+                  <c:v>Article 5 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Article 5 [#current_year#]</c:v>
@@ -15024,11 +15018,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="240854480"/>
-        <c:axId val="240855040"/>
+        <c:axId val="278516000"/>
+        <c:axId val="278516560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="240854480"/>
+        <c:axId val="278516000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15127,7 +15121,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240855040"/>
+        <c:crossAx val="278516560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15135,7 +15129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240855040"/>
+        <c:axId val="278516560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15235,7 +15229,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240854480"/>
+        <c:crossAx val="278516000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15366,6 +15360,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15445,7 +15440,7 @@
                   <c:v>Article 3 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Article 3 [#previous_year#]*</c:v>
+                  <c:v>Article 3 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Article 3 [#current_year#]</c:v>
@@ -15454,7 +15449,7 @@
                   <c:v>Article 4 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Article 4 [#previous_year#]*</c:v>
+                  <c:v>Article 4 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Article 4 [#current_year#]</c:v>
@@ -15463,7 +15458,7 @@
                   <c:v>Article 5 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Article 5 [#previous_year#]*</c:v>
+                  <c:v>Article 5 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Article 5 [#current_year#]</c:v>
@@ -15537,7 +15532,7 @@
                   <c:v>Article 3 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Article 3 [#previous_year#]*</c:v>
+                  <c:v>Article 3 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Article 3 [#current_year#]</c:v>
@@ -15546,7 +15541,7 @@
                   <c:v>Article 4 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Article 4 [#previous_year#]*</c:v>
+                  <c:v>Article 4 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Article 4 [#current_year#]</c:v>
@@ -15555,7 +15550,7 @@
                   <c:v>Article 5 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Article 5 [#previous_year#]*</c:v>
+                  <c:v>Article 5 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Article 5 [#current_year#]</c:v>
@@ -15629,7 +15624,7 @@
                   <c:v>Article 3 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Article 3 [#previous_year#]*</c:v>
+                  <c:v>Article 3 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Article 3 [#current_year#]</c:v>
@@ -15638,7 +15633,7 @@
                   <c:v>Article 4 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Article 4 [#previous_year#]*</c:v>
+                  <c:v>Article 4 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Article 4 [#current_year#]</c:v>
@@ -15647,7 +15642,7 @@
                   <c:v>Article 5 7th reporting</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Article 5 [#previous_year#]*</c:v>
+                  <c:v>Article 5 [#previous_year#]</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Article 5 [#current_year#]</c:v>
@@ -15693,11 +15688,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="241726384"/>
-        <c:axId val="241726944"/>
+        <c:axId val="383320432"/>
+        <c:axId val="383320992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="241726384"/>
+        <c:axId val="383320432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15729,6 +15724,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15795,7 +15791,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241726944"/>
+        <c:crossAx val="383320992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15803,7 +15799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241726944"/>
+        <c:axId val="383320992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15903,7 +15899,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241726384"/>
+        <c:crossAx val="383320432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16039,6 +16035,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16434,11 +16431,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="241730304"/>
-        <c:axId val="241730864"/>
+        <c:axId val="383324352"/>
+        <c:axId val="383324912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="241730304"/>
+        <c:axId val="383324352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16481,7 +16478,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241730864"/>
+        <c:crossAx val="383324912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16489,7 +16486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241730864"/>
+        <c:axId val="383324912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16540,6 +16537,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16600,7 +16598,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241730304"/>
+        <c:crossAx val="383324352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17130,11 +17128,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="241734224"/>
-        <c:axId val="241734784"/>
+        <c:axId val="383328272"/>
+        <c:axId val="383328832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="241734224"/>
+        <c:axId val="383328272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17177,7 +17175,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241734784"/>
+        <c:crossAx val="383328832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17185,7 +17183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241734784"/>
+        <c:axId val="383328832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17304,7 +17302,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241734224"/>
+        <c:crossAx val="383328272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17398,6 +17396,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17644,11 +17643,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="241738144"/>
-        <c:axId val="241738704"/>
+        <c:axId val="383332192"/>
+        <c:axId val="383332752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="241738144"/>
+        <c:axId val="383332192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17677,6 +17676,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17743,7 +17743,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241738704"/>
+        <c:crossAx val="383332752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17751,7 +17751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241738704"/>
+        <c:axId val="383332752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -17871,7 +17871,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241738144"/>
+        <c:crossAx val="383332192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29744,8 +29744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29771,7 +29771,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="798" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1" s="799"/>
       <c r="C1" s="799"/>
@@ -29785,7 +29785,7 @@
       </c>
       <c r="C3" s="810"/>
       <c r="D3" s="805" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E3" s="806"/>
       <c r="AA3" s="751" t="s">
@@ -29833,7 +29833,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="498" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B5" s="499"/>
       <c r="C5" s="499"/>
@@ -29862,7 +29862,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="502" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B6" s="503"/>
       <c r="C6" s="503"/>
@@ -29954,9 +29954,8 @@
       <c r="Z11" s="479" t="s">
         <v>345</v>
       </c>
-      <c r="AA11" s="672" t="str">
-        <f>D3</f>
-        <v>[#previous_year#]*</v>
+      <c r="AA11" s="672" t="s">
+        <v>437</v>
       </c>
       <c r="AB11" s="672" t="str">
         <f>B3</f>
@@ -30113,7 +30112,7 @@
         <v>450</v>
       </c>
       <c r="B21" s="800" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C21" s="800"/>
       <c r="D21" s="800"/>
@@ -30313,7 +30312,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="513" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B30" s="643"/>
       <c r="C30" s="643"/>
@@ -30322,10 +30321,10 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="Z31" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AA31" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
@@ -30667,7 +30666,7 @@
         <v>450</v>
       </c>
       <c r="AB48" s="800" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="AC48" s="800"/>
       <c r="AD48" s="800"/>
@@ -30719,7 +30718,7 @@
       <c r="F51" s="507"/>
       <c r="AA51" s="428" t="str">
         <f t="shared" ref="AA51:AA58" si="12">AA65</f>
-        <v>Article 3 [#previous_year#]*</v>
+        <v>Article 3 [#previous_year#]</v>
       </c>
       <c r="AB51" s="435">
         <f>B54</f>
@@ -30782,7 +30781,7 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="508" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B54" s="506"/>
       <c r="C54" s="506"/>
@@ -30792,7 +30791,7 @@
       <c r="G54" s="506"/>
       <c r="AA54" s="428" t="str">
         <f t="shared" si="12"/>
-        <v>Article 4 [#previous_year#]*</v>
+        <v>Article 4 [#previous_year#]</v>
       </c>
       <c r="AB54" s="435">
         <f>B57</f>
@@ -30852,7 +30851,7 @@
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="508" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B57" s="506"/>
       <c r="C57" s="506"/>
@@ -30862,7 +30861,7 @@
       <c r="G57" s="506"/>
       <c r="AA57" s="428" t="str">
         <f t="shared" si="12"/>
-        <v>Article 5 [#previous_year#]*</v>
+        <v>Article 5 [#previous_year#]</v>
       </c>
       <c r="AB57" s="435">
         <f>B60</f>
@@ -30915,7 +30914,7 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="508" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B60" s="506"/>
       <c r="C60" s="506"/>
@@ -30945,7 +30944,7 @@
         <v>450</v>
       </c>
       <c r="AB62" s="800" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="AC62" s="800"/>
       <c r="AD62" s="800"/>
@@ -30982,7 +30981,7 @@
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="443" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B64" s="511"/>
       <c r="C64" s="511"/>
@@ -31008,7 +31007,7 @@
       <c r="F65" s="511"/>
       <c r="G65" s="506"/>
       <c r="AA65" s="428" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AB65" s="435">
         <f>B64</f>
@@ -31049,7 +31048,7 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="443" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B67" s="512"/>
       <c r="C67" s="512"/>
@@ -31075,7 +31074,7 @@
       <c r="F68" s="511"/>
       <c r="G68" s="506"/>
       <c r="AA68" s="428" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AB68" s="435">
         <f>B67</f>
@@ -31116,7 +31115,7 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="443" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B70" s="512"/>
       <c r="C70" s="512"/>
@@ -31142,7 +31141,7 @@
       <c r="F71" s="511"/>
       <c r="G71" s="506"/>
       <c r="AA71" s="428" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AB71" s="435">
         <f>B70</f>
@@ -31181,10 +31180,10 @@
     </row>
     <row r="74" spans="1:31" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="666" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B74" s="800" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C74" s="800"/>
       <c r="D74" s="800"/>
@@ -40284,7 +40283,7 @@
     <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="206"/>
       <c r="B7" s="757" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C7" s="757"/>
       <c r="D7" s="757"/>
@@ -40340,7 +40339,7 @@
     <row r="9" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="206"/>
       <c r="B9" s="222" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C9" s="758" t="s">
         <v>221</v>
@@ -40354,7 +40353,7 @@
       <c r="H9" s="207"/>
       <c r="I9" s="207"/>
       <c r="J9" s="222" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K9" s="758" t="s">
         <v>221</v>
@@ -41585,10 +41584,10 @@
         <v>123</v>
       </c>
       <c r="D11" s="314" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E11" s="314" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F11" s="306" t="s">
         <v>126</v>
@@ -41739,10 +41738,10 @@
         <v>123</v>
       </c>
       <c r="D31" s="314" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E31" s="305" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F31" s="306" t="s">
         <v>126</v>
@@ -41890,10 +41889,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="314" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E50" s="314" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F50" s="306" t="s">
         <v>126</v>
@@ -42082,7 +42081,7 @@
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="206"/>
       <c r="B6" s="757" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C6" s="757"/>
       <c r="D6" s="757"/>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2015_register_model_20161018_1.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2015_register_model_20161018_1.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C9AEF~1.NAS\AppData\Local\Temp\scp13669\var\www\html\cn_uwwtd_git\uwwtd website\sites\all\modules\uwwtd\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b.bondier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sensitive Areas_reference 2012" sheetId="1" r:id="rId1"/>
+    <sheet name="Sensitive Areas_reference" sheetId="1" r:id="rId1"/>
     <sheet name="UWWTP Level" sheetId="2" r:id="rId2"/>
     <sheet name="agglomeration level" sheetId="3" r:id="rId3"/>
     <sheet name="Summary_legal_compliance" sheetId="4" r:id="rId4"/>
@@ -5248,48 +5248,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -5324,6 +5282,9 @@
     <xf numFmtId="3" fontId="11" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5372,17 +5333,122 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="12" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="32" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="19" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5396,107 +5462,41 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="19" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="12" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="64" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5593,15 +5593,40 @@
     <xf numFmtId="3" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="69" fillId="32" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="69" fillId="39" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5638,31 +5663,6 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="69" fillId="32" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="69" fillId="39" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Hyperlink 2" xfId="10"/>
@@ -5963,7 +5963,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E97B0F82-FD64-4B3C-8883-18C997CBA94A}" type="CELLRANGE">
+                    <a:fld id="{B583940F-99FB-4CC8-9396-3C21C135FAFD}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -5994,7 +5994,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FA00B84-1FEF-4357-B1D0-5EF544B9A252}" type="CELLRANGE">
+                    <a:fld id="{CE4D9916-DCF8-4CBF-959C-2218832F84EB}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6198,7 +6198,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99183CF9-B9C6-44EB-B622-BF7B3349A151}" type="CELLRANGE">
+                    <a:fld id="{3AFAD917-90F9-44A2-AF89-FC09E00A67BB}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6229,7 +6229,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{930ACBD8-10AC-4C6C-A797-8991D0363131}" type="CELLRANGE">
+                    <a:fld id="{65502C44-8B62-46BF-A56B-748CC9B0BF2D}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6379,11 +6379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="237814704"/>
-        <c:axId val="237812464"/>
+        <c:axId val="225856496"/>
+        <c:axId val="225857056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="237814704"/>
+        <c:axId val="225856496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6426,7 +6426,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237812464"/>
+        <c:crossAx val="225857056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6434,7 +6434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237812464"/>
+        <c:axId val="225857056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6526,7 +6526,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237814704"/>
+        <c:crossAx val="225856496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6661,7 +6661,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6913,11 +6912,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="383336112"/>
-        <c:axId val="383336672"/>
+        <c:axId val="228569808"/>
+        <c:axId val="228570368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="383336112"/>
+        <c:axId val="228569808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6949,7 +6948,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7016,7 +7014,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383336672"/>
+        <c:crossAx val="228570368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7024,7 +7022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="383336672"/>
+        <c:axId val="228570368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7144,7 +7142,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383336112"/>
+        <c:crossAx val="228569808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7623,7 +7621,7 @@
             <c:numRef>
               <c:f>Graphs!$B$132:$B$139</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
+                <c:formatCode>#\ ##0.0</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -8028,11 +8026,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="383341712"/>
-        <c:axId val="383342272"/>
+        <c:axId val="228789600"/>
+        <c:axId val="228790160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="383341712"/>
+        <c:axId val="228789600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8135,7 +8133,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383342272"/>
+        <c:crossAx val="228790160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8143,7 +8141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="383342272"/>
+        <c:axId val="228790160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8194,7 +8192,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383341712"/>
+        <c:crossAx val="228789600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8559,11 +8557,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="383345632"/>
-        <c:axId val="383346192"/>
+        <c:axId val="228793520"/>
+        <c:axId val="228794080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="383345632"/>
+        <c:axId val="228793520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8674,7 +8672,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383346192"/>
+        <c:crossAx val="228794080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8682,7 +8680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="383346192"/>
+        <c:axId val="228794080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8788,7 +8786,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383345632"/>
+        <c:crossAx val="228793520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9158,11 +9156,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="383349552"/>
-        <c:axId val="383350112"/>
+        <c:axId val="228797440"/>
+        <c:axId val="228798000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="383349552"/>
+        <c:axId val="228797440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9273,7 +9271,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383350112"/>
+        <c:crossAx val="228798000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9281,7 +9279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="383350112"/>
+        <c:axId val="228798000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9395,7 +9393,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383349552"/>
+        <c:crossAx val="228797440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9876,11 +9874,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="433655680"/>
-        <c:axId val="433656240"/>
+        <c:axId val="229571936"/>
+        <c:axId val="229572496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433655680"/>
+        <c:axId val="229571936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9986,7 +9984,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433656240"/>
+        <c:crossAx val="229572496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9994,7 +9992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433656240"/>
+        <c:axId val="229572496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10116,7 +10114,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433655680"/>
+        <c:crossAx val="229571936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10452,11 +10450,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="433659600"/>
-        <c:axId val="433660160"/>
+        <c:axId val="229575856"/>
+        <c:axId val="229576416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433659600"/>
+        <c:axId val="229575856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10567,7 +10565,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433660160"/>
+        <c:crossAx val="229576416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10575,7 +10573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433660160"/>
+        <c:axId val="229576416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10689,7 +10687,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433659600"/>
+        <c:crossAx val="229575856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11025,11 +11023,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="433663520"/>
-        <c:axId val="433664080"/>
+        <c:axId val="229579776"/>
+        <c:axId val="229580336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433663520"/>
+        <c:axId val="229579776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11140,7 +11138,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433664080"/>
+        <c:crossAx val="229580336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11148,7 +11146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433664080"/>
+        <c:axId val="229580336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11262,7 +11260,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433663520"/>
+        <c:crossAx val="229579776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11643,11 +11641,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="433667440"/>
-        <c:axId val="433668000"/>
+        <c:axId val="229583696"/>
+        <c:axId val="229584256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433667440"/>
+        <c:axId val="229583696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11745,7 +11743,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433668000"/>
+        <c:crossAx val="229584256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11753,7 +11751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433668000"/>
+        <c:axId val="229584256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11872,7 +11870,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433667440"/>
+        <c:crossAx val="229583696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12007,7 +12005,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12378,11 +12375,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="433673600"/>
-        <c:axId val="433674160"/>
+        <c:axId val="230021520"/>
+        <c:axId val="230022080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433673600"/>
+        <c:axId val="230021520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12425,7 +12422,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433674160"/>
+        <c:crossAx val="230022080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12433,7 +12430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433674160"/>
+        <c:axId val="230022080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12479,7 +12476,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12540,7 +12536,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433673600"/>
+        <c:crossAx val="230021520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12554,7 +12550,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12666,7 +12661,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12743,7 +12737,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -12767,7 +12760,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -12775,13 +12767,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC9B0542-7D95-41CD-9783-23FF60821444}" type="CELLRANGE">
+                    <a:fld id="{D5ECDFF4-15EB-4A31-96AB-2ABB6168FB7C}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -12799,7 +12790,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -12808,13 +12798,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A3C7A8C-2A6A-4CC4-A546-1753E81D8B76}" type="CELLRANGE">
+                    <a:fld id="{80C8E48A-A3D2-4EE6-AB8F-82CC26FE38D5}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -12832,7 +12821,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -12878,7 +12866,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12985,7 +12972,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -13009,7 +12995,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -13017,13 +13002,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B72E93FD-AD04-4E47-A1A5-15431C351633}" type="CELLRANGE">
+                    <a:fld id="{1C79ECD4-5BF7-4DF2-B661-59C6C00A1086}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13041,7 +13025,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -13050,13 +13033,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0CD49B2E-4B2E-42EF-B2A9-F907A149CECC}" type="CELLRANGE">
+                    <a:fld id="{AD2FB538-DAFE-465B-B570-6EB9B3C8F23D}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13074,7 +13056,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -13120,7 +13101,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13208,11 +13188,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="278503680"/>
-        <c:axId val="278504240"/>
+        <c:axId val="164924752"/>
+        <c:axId val="164925312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="278503680"/>
+        <c:axId val="164924752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13244,7 +13224,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13311,7 +13290,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278504240"/>
+        <c:crossAx val="164925312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13319,7 +13298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278504240"/>
+        <c:axId val="164925312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13419,7 +13398,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278503680"/>
+        <c:crossAx val="164924752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13549,7 +13528,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13780,9 +13758,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -13986,7 +13962,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14341,11 +14316,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="278511520"/>
-        <c:axId val="278512080"/>
+        <c:axId val="228130096"/>
+        <c:axId val="228130656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="278511520"/>
+        <c:axId val="228130096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14377,7 +14352,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14444,7 +14418,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278512080"/>
+        <c:crossAx val="228130656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14452,7 +14426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278512080"/>
+        <c:axId val="228130656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14498,7 +14472,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14559,7 +14532,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278511520"/>
+        <c:crossAx val="228130096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14690,7 +14663,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15018,11 +14990,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="278516000"/>
-        <c:axId val="278516560"/>
+        <c:axId val="228134576"/>
+        <c:axId val="228135136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="278516000"/>
+        <c:axId val="228134576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15054,7 +15026,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15121,7 +15092,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278516560"/>
+        <c:crossAx val="228135136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15129,7 +15100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278516560"/>
+        <c:axId val="228135136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15229,7 +15200,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278516000"/>
+        <c:crossAx val="228134576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15360,7 +15331,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15688,11 +15658,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="383320432"/>
-        <c:axId val="383320992"/>
+        <c:axId val="228139056"/>
+        <c:axId val="228139616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="383320432"/>
+        <c:axId val="228139056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15724,7 +15694,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15791,7 +15760,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383320992"/>
+        <c:crossAx val="228139616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15799,7 +15768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="383320992"/>
+        <c:axId val="228139616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15899,7 +15868,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383320432"/>
+        <c:crossAx val="228139056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16035,7 +16004,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16431,11 +16399,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="383324352"/>
-        <c:axId val="383324912"/>
+        <c:axId val="228558048"/>
+        <c:axId val="228558608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="383324352"/>
+        <c:axId val="228558048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16478,7 +16446,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383324912"/>
+        <c:crossAx val="228558608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16486,7 +16454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="383324912"/>
+        <c:axId val="228558608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16537,7 +16505,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16598,7 +16565,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383324352"/>
+        <c:crossAx val="228558048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17128,11 +17095,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="383328272"/>
-        <c:axId val="383328832"/>
+        <c:axId val="228561968"/>
+        <c:axId val="228562528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="383328272"/>
+        <c:axId val="228561968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17175,7 +17142,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383328832"/>
+        <c:crossAx val="228562528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17183,7 +17150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="383328832"/>
+        <c:axId val="228562528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17302,7 +17269,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383328272"/>
+        <c:crossAx val="228561968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17396,7 +17363,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17643,11 +17609,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="383332192"/>
-        <c:axId val="383332752"/>
+        <c:axId val="228565888"/>
+        <c:axId val="228566448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="383332192"/>
+        <c:axId val="228565888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17676,7 +17642,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17743,7 +17708,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383332752"/>
+        <c:crossAx val="228566448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17751,7 +17716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="383332752"/>
+        <c:axId val="228566448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -17871,7 +17836,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383332192"/>
+        <c:crossAx val="228565888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29244,8 +29209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="R19" workbookViewId="0">
+      <selection activeCell="V47" sqref="V47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29396,7 +29361,7 @@
       </c>
       <c r="AR4" s="680"/>
     </row>
-    <row r="5" spans="1:44" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="414" t="s">
         <v>4</v>
       </c>
@@ -29530,7 +29495,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -29744,7 +29709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
@@ -29770,35 +29735,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="798" t="s">
+      <c r="A1" s="808" t="s">
         <v>465</v>
       </c>
-      <c r="B1" s="799"/>
-      <c r="C1" s="799"/>
+      <c r="B1" s="809"/>
+      <c r="C1" s="809"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="807" t="s">
+      <c r="A3" s="816" t="s">
         <v>345</v>
       </c>
-      <c r="B3" s="809" t="s">
+      <c r="B3" s="818" t="s">
         <v>439</v>
       </c>
-      <c r="C3" s="810"/>
-      <c r="D3" s="805" t="s">
+      <c r="C3" s="819"/>
+      <c r="D3" s="814" t="s">
         <v>466</v>
       </c>
-      <c r="E3" s="806"/>
-      <c r="AA3" s="751" t="s">
+      <c r="E3" s="815"/>
+      <c r="AA3" s="748" t="s">
         <v>359</v>
       </c>
-      <c r="AB3" s="751"/>
-      <c r="AC3" s="751" t="s">
+      <c r="AB3" s="748"/>
+      <c r="AC3" s="748" t="s">
         <v>444</v>
       </c>
-      <c r="AD3" s="751"/>
+      <c r="AD3" s="748"/>
     </row>
     <row r="4" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="808"/>
+      <c r="A4" s="817"/>
       <c r="B4" s="427" t="s">
         <v>443</v>
       </c>
@@ -29941,14 +29906,14 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z10" s="479"/>
-      <c r="AA10" s="751" t="s">
+      <c r="AA10" s="748" t="s">
         <v>445</v>
       </c>
-      <c r="AB10" s="751"/>
-      <c r="AC10" s="751" t="s">
+      <c r="AB10" s="748"/>
+      <c r="AC10" s="748" t="s">
         <v>446</v>
       </c>
-      <c r="AD10" s="751"/>
+      <c r="AD10" s="748"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z11" s="479" t="s">
@@ -29993,7 +29958,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="807" t="s">
+      <c r="A13" s="816" t="s">
         <v>346</v>
       </c>
       <c r="B13" s="426" t="str">
@@ -30025,7 +29990,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="808"/>
+      <c r="A14" s="817"/>
       <c r="B14" s="429" t="s">
         <v>347</v>
       </c>
@@ -30111,27 +30076,27 @@
       <c r="A21" t="s">
         <v>450</v>
       </c>
-      <c r="B21" s="800" t="s">
+      <c r="B21" s="798" t="s">
         <v>459</v>
       </c>
-      <c r="C21" s="800"/>
-      <c r="D21" s="800"/>
-      <c r="E21" s="800"/>
+      <c r="C21" s="798"/>
+      <c r="D21" s="798"/>
+      <c r="E21" s="798"/>
     </row>
     <row r="22" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="431" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="811" t="str">
+      <c r="B22" s="820" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="812"/>
-      <c r="D22" s="811" t="str">
+      <c r="C22" s="821"/>
+      <c r="D22" s="820" t="str">
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
-      <c r="E22" s="812"/>
+      <c r="E22" s="821"/>
     </row>
     <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="432"/>
@@ -30506,16 +30471,16 @@
       <c r="A41" s="434" t="s">
         <v>357</v>
       </c>
-      <c r="B41" s="801" t="str">
+      <c r="B41" s="810" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="802"/>
-      <c r="D41" s="803" t="str">
+      <c r="C41" s="811"/>
+      <c r="D41" s="812" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="804"/>
+      <c r="E41" s="813"/>
       <c r="AA41" t="s">
         <v>440</v>
       </c>
@@ -30665,11 +30630,11 @@
       <c r="AA48" t="s">
         <v>450</v>
       </c>
-      <c r="AB48" s="800" t="s">
+      <c r="AB48" s="798" t="s">
         <v>471</v>
       </c>
-      <c r="AC48" s="800"/>
-      <c r="AD48" s="800"/>
+      <c r="AC48" s="798"/>
+      <c r="AD48" s="798"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="500" t="s">
@@ -30943,11 +30908,11 @@
       <c r="AA62" t="s">
         <v>450</v>
       </c>
-      <c r="AB62" s="800" t="s">
+      <c r="AB62" s="798" t="s">
         <v>472</v>
       </c>
-      <c r="AC62" s="800"/>
-      <c r="AD62" s="800"/>
+      <c r="AC62" s="798"/>
+      <c r="AD62" s="798"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="428"/>
@@ -31182,12 +31147,12 @@
       <c r="A74" s="666" t="s">
         <v>454</v>
       </c>
-      <c r="B74" s="800" t="s">
+      <c r="B74" s="798" t="s">
         <v>455</v>
       </c>
-      <c r="C74" s="800"/>
-      <c r="D74" s="800"/>
-      <c r="E74" s="800"/>
+      <c r="C74" s="798"/>
+      <c r="D74" s="798"/>
+      <c r="E74" s="798"/>
     </row>
     <row r="75" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="449" t="s">
@@ -31480,16 +31445,16 @@
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B85" s="815" t="str">
+      <c r="B85" s="801" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="816"/>
-      <c r="D85" s="815" t="str">
+      <c r="C85" s="802"/>
+      <c r="D85" s="801" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="816"/>
+      <c r="E85" s="802"/>
       <c r="Z85" t="s">
         <v>428</v>
       </c>
@@ -31503,11 +31468,11 @@
     </row>
     <row r="86" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="299"/>
-      <c r="B86" s="817" t="s">
+      <c r="B86" s="803" t="s">
         <v>255</v>
       </c>
       <c r="C86" s="767"/>
-      <c r="D86" s="817" t="s">
+      <c r="D86" s="803" t="s">
         <v>255</v>
       </c>
       <c r="E86" s="767"/>
@@ -31716,24 +31681,24 @@
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B101" s="815" t="str">
+      <c r="B101" s="801" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="816"/>
-      <c r="D101" s="815" t="str">
+      <c r="C101" s="802"/>
+      <c r="D101" s="801" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="816"/>
+      <c r="E101" s="802"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="299"/>
-      <c r="B102" s="817" t="s">
+      <c r="B102" s="803" t="s">
         <v>255</v>
       </c>
       <c r="C102" s="767"/>
-      <c r="D102" s="817" t="s">
+      <c r="D102" s="803" t="s">
         <v>255</v>
       </c>
       <c r="E102" s="767"/>
@@ -31950,27 +31915,27 @@
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B116" s="818" t="str">
+      <c r="B116" s="804" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="819"/>
-      <c r="D116" s="818" t="str">
+      <c r="C116" s="805"/>
+      <c r="D116" s="804" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="819"/>
+      <c r="E116" s="805"/>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="462"/>
-      <c r="B117" s="820" t="s">
+      <c r="B117" s="806" t="s">
         <v>255</v>
       </c>
-      <c r="C117" s="821"/>
-      <c r="D117" s="820" t="s">
+      <c r="C117" s="807"/>
+      <c r="D117" s="806" t="s">
         <v>255</v>
       </c>
-      <c r="E117" s="821"/>
+      <c r="E117" s="807"/>
       <c r="Z117" t="s">
         <v>428</v>
       </c>
@@ -32190,12 +32155,12 @@
       <c r="A129" s="466" t="s">
         <v>346</v>
       </c>
-      <c r="B129" s="813" t="str">
+      <c r="B129" s="799" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="814"/>
-      <c r="D129" s="814"/>
+      <c r="C129" s="800"/>
+      <c r="D129" s="800"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="467"/>
@@ -32862,12 +32827,17 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AB62:AD62"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
@@ -32881,17 +32851,12 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="AB62:AD62"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AB48:AD48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
@@ -32925,7 +32890,7 @@
       <c r="C4" s="402"/>
       <c r="D4" s="403"/>
     </row>
-    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="404" t="s">
         <v>332</v>
       </c>
@@ -32981,7 +32946,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="409"/>
     </row>
-    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="404" t="s">
         <v>332</v>
       </c>
@@ -33032,7 +32997,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="404" t="s">
         <v>339</v>
       </c>
@@ -33097,7 +33062,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="400"/>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="404" t="s">
         <v>339</v>
       </c>
@@ -33147,123 +33112,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="681" t="s">
+      <c r="A1" s="710" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="682"/>
-      <c r="C1" s="682"/>
-      <c r="D1" s="682"/>
-      <c r="E1" s="682"/>
-      <c r="F1" s="682"/>
-      <c r="G1" s="682"/>
-      <c r="H1" s="683" t="s">
+      <c r="B1" s="711"/>
+      <c r="C1" s="711"/>
+      <c r="D1" s="711"/>
+      <c r="E1" s="711"/>
+      <c r="F1" s="711"/>
+      <c r="G1" s="711"/>
+      <c r="H1" s="712" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="684"/>
-      <c r="J1" s="684"/>
-      <c r="K1" s="684"/>
-      <c r="L1" s="684"/>
-      <c r="M1" s="685"/>
-      <c r="N1" s="686" t="s">
+      <c r="I1" s="713"/>
+      <c r="J1" s="713"/>
+      <c r="K1" s="713"/>
+      <c r="L1" s="713"/>
+      <c r="M1" s="714"/>
+      <c r="N1" s="715" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="687"/>
-      <c r="P1" s="687"/>
-      <c r="Q1" s="688"/>
-      <c r="R1" s="688"/>
-      <c r="S1" s="687"/>
-      <c r="T1" s="687"/>
-      <c r="U1" s="687"/>
-      <c r="V1" s="689" t="s">
+      <c r="O1" s="693"/>
+      <c r="P1" s="693"/>
+      <c r="Q1" s="716"/>
+      <c r="R1" s="716"/>
+      <c r="S1" s="693"/>
+      <c r="T1" s="693"/>
+      <c r="U1" s="693"/>
+      <c r="V1" s="717" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="690"/>
-      <c r="X1" s="691"/>
-      <c r="Y1" s="691"/>
-      <c r="Z1" s="692"/>
-      <c r="AA1" s="693" t="s">
+      <c r="W1" s="718"/>
+      <c r="X1" s="719"/>
+      <c r="Y1" s="719"/>
+      <c r="Z1" s="720"/>
+      <c r="AA1" s="721" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="694"/>
-      <c r="AC1" s="694"/>
-      <c r="AD1" s="694"/>
-      <c r="AE1" s="694"/>
-      <c r="AF1" s="694"/>
-      <c r="AG1" s="694"/>
-      <c r="AH1" s="694"/>
-      <c r="AI1" s="694"/>
-      <c r="AJ1" s="694"/>
-      <c r="AK1" s="694"/>
-      <c r="AL1" s="694"/>
-      <c r="AM1" s="694"/>
+      <c r="AB1" s="722"/>
+      <c r="AC1" s="722"/>
+      <c r="AD1" s="722"/>
+      <c r="AE1" s="722"/>
+      <c r="AF1" s="722"/>
+      <c r="AG1" s="722"/>
+      <c r="AH1" s="722"/>
+      <c r="AI1" s="722"/>
+      <c r="AJ1" s="722"/>
+      <c r="AK1" s="722"/>
+      <c r="AL1" s="722"/>
+      <c r="AM1" s="722"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="8"/>
-      <c r="AP1" s="706" t="s">
+      <c r="AP1" s="692" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="687"/>
-      <c r="AR1" s="687"/>
-      <c r="AS1" s="687"/>
-      <c r="AT1" s="687"/>
-      <c r="AU1" s="687"/>
-      <c r="AV1" s="687"/>
-      <c r="AW1" s="707"/>
-      <c r="AX1" s="714" t="s">
+      <c r="AQ1" s="693"/>
+      <c r="AR1" s="693"/>
+      <c r="AS1" s="693"/>
+      <c r="AT1" s="693"/>
+      <c r="AU1" s="693"/>
+      <c r="AV1" s="693"/>
+      <c r="AW1" s="694"/>
+      <c r="AX1" s="701" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="715"/>
-      <c r="AZ1" s="715"/>
-      <c r="BA1" s="715"/>
-      <c r="BB1" s="715"/>
-      <c r="BC1" s="716"/>
-      <c r="BD1" s="717" t="s">
+      <c r="AY1" s="702"/>
+      <c r="AZ1" s="702"/>
+      <c r="BA1" s="702"/>
+      <c r="BB1" s="702"/>
+      <c r="BC1" s="703"/>
+      <c r="BD1" s="704" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="718"/>
-      <c r="BF1" s="718"/>
-      <c r="BG1" s="718"/>
-      <c r="BH1" s="718"/>
-      <c r="BI1" s="719"/>
-      <c r="BJ1" s="720" t="s">
+      <c r="BE1" s="705"/>
+      <c r="BF1" s="705"/>
+      <c r="BG1" s="705"/>
+      <c r="BH1" s="705"/>
+      <c r="BI1" s="706"/>
+      <c r="BJ1" s="707" t="s">
         <v>56</v>
       </c>
-      <c r="BK1" s="721"/>
-      <c r="BL1" s="721"/>
-      <c r="BM1" s="721"/>
-      <c r="BN1" s="721"/>
-      <c r="BO1" s="721"/>
-      <c r="BP1" s="722"/>
-      <c r="BQ1" s="695" t="s">
+      <c r="BK1" s="708"/>
+      <c r="BL1" s="708"/>
+      <c r="BM1" s="708"/>
+      <c r="BN1" s="708"/>
+      <c r="BO1" s="708"/>
+      <c r="BP1" s="709"/>
+      <c r="BQ1" s="681" t="s">
         <v>57</v>
       </c>
-      <c r="BR1" s="696"/>
-      <c r="BS1" s="696"/>
-      <c r="BT1" s="696"/>
-      <c r="BU1" s="696"/>
-      <c r="BV1" s="696"/>
+      <c r="BR1" s="682"/>
+      <c r="BS1" s="682"/>
+      <c r="BT1" s="682"/>
+      <c r="BU1" s="682"/>
+      <c r="BV1" s="682"/>
       <c r="BW1" s="8"/>
       <c r="BX1" s="9"/>
-      <c r="BY1" s="697" t="s">
+      <c r="BY1" s="683" t="s">
         <v>58</v>
       </c>
-      <c r="BZ1" s="698"/>
-      <c r="CA1" s="698"/>
-      <c r="CB1" s="698"/>
-      <c r="CC1" s="698"/>
-      <c r="CD1" s="698"/>
-      <c r="CE1" s="698"/>
-      <c r="CF1" s="699"/>
-      <c r="CG1" s="699"/>
-      <c r="CH1" s="699"/>
-      <c r="CI1" s="699"/>
-      <c r="CJ1" s="699"/>
-      <c r="CK1" s="699"/>
-      <c r="CL1" s="699"/>
-      <c r="CM1" s="699"/>
-      <c r="CN1" s="699"/>
-      <c r="CO1" s="699"/>
-      <c r="CP1" s="699"/>
-      <c r="CQ1" s="699"/>
+      <c r="BZ1" s="684"/>
+      <c r="CA1" s="684"/>
+      <c r="CB1" s="684"/>
+      <c r="CC1" s="684"/>
+      <c r="CD1" s="684"/>
+      <c r="CE1" s="684"/>
+      <c r="CF1" s="685"/>
+      <c r="CG1" s="685"/>
+      <c r="CH1" s="685"/>
+      <c r="CI1" s="685"/>
+      <c r="CJ1" s="685"/>
+      <c r="CK1" s="685"/>
+      <c r="CL1" s="685"/>
+      <c r="CM1" s="685"/>
+      <c r="CN1" s="685"/>
+      <c r="CO1" s="685"/>
+      <c r="CP1" s="685"/>
+      <c r="CQ1" s="685"/>
     </row>
     <row r="2" spans="1:95" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -33287,18 +33252,18 @@
       <c r="G2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="700" t="s">
+      <c r="H2" s="686" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="701"/>
-      <c r="J2" s="701" t="s">
+      <c r="I2" s="687"/>
+      <c r="J2" s="687" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="701"/>
-      <c r="L2" s="701" t="s">
+      <c r="K2" s="687"/>
+      <c r="L2" s="687" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="702"/>
+      <c r="M2" s="688"/>
       <c r="N2" s="12" t="s">
         <v>59</v>
       </c>
@@ -33407,36 +33372,36 @@
       <c r="AW2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AX2" s="703" t="s">
+      <c r="AX2" s="689" t="s">
         <v>93</v>
       </c>
-      <c r="AY2" s="704"/>
-      <c r="AZ2" s="704"/>
-      <c r="BA2" s="704" t="s">
+      <c r="AY2" s="690"/>
+      <c r="AZ2" s="690"/>
+      <c r="BA2" s="690" t="s">
         <v>94</v>
       </c>
-      <c r="BB2" s="704"/>
-      <c r="BC2" s="705"/>
-      <c r="BD2" s="708" t="s">
+      <c r="BB2" s="690"/>
+      <c r="BC2" s="691"/>
+      <c r="BD2" s="695" t="s">
         <v>93</v>
       </c>
-      <c r="BE2" s="709"/>
-      <c r="BF2" s="709"/>
-      <c r="BG2" s="709" t="s">
+      <c r="BE2" s="696"/>
+      <c r="BF2" s="696"/>
+      <c r="BG2" s="696" t="s">
         <v>94</v>
       </c>
-      <c r="BH2" s="709"/>
-      <c r="BI2" s="710"/>
-      <c r="BJ2" s="711" t="s">
+      <c r="BH2" s="696"/>
+      <c r="BI2" s="697"/>
+      <c r="BJ2" s="698" t="s">
         <v>93</v>
       </c>
-      <c r="BK2" s="712"/>
-      <c r="BL2" s="712"/>
-      <c r="BM2" s="712" t="s">
+      <c r="BK2" s="699"/>
+      <c r="BL2" s="699"/>
+      <c r="BM2" s="699" t="s">
         <v>94</v>
       </c>
-      <c r="BN2" s="713"/>
-      <c r="BO2" s="713"/>
+      <c r="BN2" s="700"/>
+      <c r="BO2" s="700"/>
       <c r="BP2" s="24" t="s">
         <v>95</v>
       </c>
@@ -34343,6 +34308,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="BQ1:BV1"/>
     <mergeCell ref="BY1:CQ1"/>
     <mergeCell ref="H2:I2"/>
@@ -34358,11 +34328,6 @@
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <conditionalFormatting sqref="A13:A14 A4:B4">
     <cfRule type="duplicateValues" dxfId="8" priority="1"/>
@@ -34401,124 +34366,124 @@
         <v>138</v>
       </c>
       <c r="L1" s="87"/>
-      <c r="M1" s="727" t="s">
+      <c r="M1" s="749" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="728" t="s">
+      <c r="N1" s="750" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="729"/>
-      <c r="P1" s="729"/>
-      <c r="Q1" s="729"/>
-      <c r="R1" s="730" t="s">
+      <c r="O1" s="751"/>
+      <c r="P1" s="751"/>
+      <c r="Q1" s="751"/>
+      <c r="R1" s="752" t="s">
         <v>141</v>
       </c>
-      <c r="S1" s="731"/>
-      <c r="T1" s="731"/>
-      <c r="U1" s="731"/>
-      <c r="V1" s="731"/>
-      <c r="W1" s="731"/>
-      <c r="X1" s="732"/>
+      <c r="S1" s="744"/>
+      <c r="T1" s="744"/>
+      <c r="U1" s="744"/>
+      <c r="V1" s="744"/>
+      <c r="W1" s="744"/>
+      <c r="X1" s="753"/>
       <c r="Y1" s="733" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="718"/>
-      <c r="AA1" s="736" t="s">
+      <c r="Z1" s="705"/>
+      <c r="AA1" s="754" t="s">
         <v>143</v>
       </c>
-      <c r="AB1" s="738" t="s">
+      <c r="AB1" s="745" t="s">
         <v>144</v>
       </c>
-      <c r="AC1" s="746" t="s">
+      <c r="AC1" s="740" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="747"/>
-      <c r="AE1" s="747"/>
-      <c r="AF1" s="748"/>
-      <c r="AG1" s="749" t="s">
+      <c r="AD1" s="741"/>
+      <c r="AE1" s="741"/>
+      <c r="AF1" s="742"/>
+      <c r="AG1" s="743" t="s">
         <v>146</v>
       </c>
-      <c r="AH1" s="731"/>
-      <c r="AI1" s="731"/>
-      <c r="AJ1" s="731"/>
-      <c r="AK1" s="731"/>
-      <c r="AL1" s="731"/>
-      <c r="AM1" s="731"/>
-      <c r="AN1" s="731"/>
-      <c r="AO1" s="738" t="s">
+      <c r="AH1" s="744"/>
+      <c r="AI1" s="744"/>
+      <c r="AJ1" s="744"/>
+      <c r="AK1" s="744"/>
+      <c r="AL1" s="744"/>
+      <c r="AM1" s="744"/>
+      <c r="AN1" s="744"/>
+      <c r="AO1" s="745" t="s">
         <v>147</v>
       </c>
       <c r="AP1" s="733" t="s">
         <v>148</v>
       </c>
-      <c r="AQ1" s="718"/>
-      <c r="AR1" s="718"/>
-      <c r="AS1" s="719"/>
-      <c r="AT1" s="750" t="s">
+      <c r="AQ1" s="705"/>
+      <c r="AR1" s="705"/>
+      <c r="AS1" s="706"/>
+      <c r="AT1" s="747" t="s">
         <v>149</v>
       </c>
-      <c r="AU1" s="751"/>
-      <c r="AV1" s="751"/>
-      <c r="AW1" s="751"/>
-      <c r="AX1" s="751"/>
-      <c r="AY1" s="751"/>
-      <c r="AZ1" s="751"/>
-      <c r="BA1" s="751"/>
-      <c r="BB1" s="751"/>
-      <c r="BC1" s="751"/>
-      <c r="BD1" s="751"/>
-      <c r="BE1" s="751"/>
-      <c r="BF1" s="751"/>
-      <c r="BG1" s="751"/>
-      <c r="BH1" s="751"/>
-      <c r="BI1" s="751"/>
-      <c r="BJ1" s="751"/>
-      <c r="BK1" s="751"/>
-      <c r="BL1" s="751"/>
-      <c r="BM1" s="751"/>
-      <c r="BN1" s="751"/>
-      <c r="BO1" s="751"/>
-      <c r="BP1" s="751"/>
-      <c r="BQ1" s="751"/>
-      <c r="BR1" s="751"/>
-      <c r="BS1" s="751"/>
-      <c r="BT1" s="751"/>
-      <c r="BU1" s="751"/>
-      <c r="BV1" s="751"/>
-      <c r="BW1" s="738" t="s">
+      <c r="AU1" s="748"/>
+      <c r="AV1" s="748"/>
+      <c r="AW1" s="748"/>
+      <c r="AX1" s="748"/>
+      <c r="AY1" s="748"/>
+      <c r="AZ1" s="748"/>
+      <c r="BA1" s="748"/>
+      <c r="BB1" s="748"/>
+      <c r="BC1" s="748"/>
+      <c r="BD1" s="748"/>
+      <c r="BE1" s="748"/>
+      <c r="BF1" s="748"/>
+      <c r="BG1" s="748"/>
+      <c r="BH1" s="748"/>
+      <c r="BI1" s="748"/>
+      <c r="BJ1" s="748"/>
+      <c r="BK1" s="748"/>
+      <c r="BL1" s="748"/>
+      <c r="BM1" s="748"/>
+      <c r="BN1" s="748"/>
+      <c r="BO1" s="748"/>
+      <c r="BP1" s="748"/>
+      <c r="BQ1" s="748"/>
+      <c r="BR1" s="748"/>
+      <c r="BS1" s="748"/>
+      <c r="BT1" s="748"/>
+      <c r="BU1" s="748"/>
+      <c r="BV1" s="748"/>
+      <c r="BW1" s="745" t="s">
         <v>150</v>
       </c>
       <c r="BX1" s="733" t="s">
         <v>151</v>
       </c>
-      <c r="BY1" s="718"/>
-      <c r="BZ1" s="718"/>
-      <c r="CA1" s="719"/>
-      <c r="CB1" s="740" t="s">
+      <c r="BY1" s="705"/>
+      <c r="BZ1" s="705"/>
+      <c r="CA1" s="706"/>
+      <c r="CB1" s="734" t="s">
         <v>52</v>
       </c>
-      <c r="CC1" s="740"/>
-      <c r="CD1" s="740"/>
-      <c r="CE1" s="740"/>
-      <c r="CF1" s="740"/>
-      <c r="CG1" s="740"/>
-      <c r="CH1" s="740"/>
-      <c r="CI1" s="740"/>
-      <c r="CJ1" s="740"/>
-      <c r="CK1" s="740"/>
-      <c r="CL1" s="740"/>
-      <c r="CM1" s="740"/>
+      <c r="CC1" s="734"/>
+      <c r="CD1" s="734"/>
+      <c r="CE1" s="734"/>
+      <c r="CF1" s="734"/>
+      <c r="CG1" s="734"/>
+      <c r="CH1" s="734"/>
+      <c r="CI1" s="734"/>
+      <c r="CJ1" s="734"/>
+      <c r="CK1" s="734"/>
+      <c r="CL1" s="734"/>
+      <c r="CM1" s="734"/>
       <c r="CN1" s="88"/>
-      <c r="CO1" s="741" t="s">
+      <c r="CO1" s="735" t="s">
         <v>57</v>
       </c>
-      <c r="CP1" s="687"/>
-      <c r="CQ1" s="687"/>
-      <c r="CR1" s="687"/>
-      <c r="CS1" s="687"/>
-      <c r="CT1" s="687"/>
-      <c r="CU1" s="687"/>
-      <c r="CV1" s="707"/>
+      <c r="CP1" s="693"/>
+      <c r="CQ1" s="693"/>
+      <c r="CR1" s="693"/>
+      <c r="CS1" s="693"/>
+      <c r="CT1" s="693"/>
+      <c r="CU1" s="693"/>
+      <c r="CV1" s="694"/>
     </row>
     <row r="2" spans="1:100" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
@@ -34557,7 +34522,7 @@
       <c r="L2" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="727"/>
+      <c r="M2" s="749"/>
       <c r="N2" s="94" t="s">
         <v>156</v>
       </c>
@@ -34573,22 +34538,22 @@
       <c r="R2" s="95" t="s">
         <v>424</v>
       </c>
-      <c r="S2" s="742" t="s">
+      <c r="S2" s="736" t="s">
         <v>159</v>
       </c>
-      <c r="T2" s="713"/>
-      <c r="U2" s="743" t="s">
+      <c r="T2" s="700"/>
+      <c r="U2" s="737" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="743"/>
-      <c r="W2" s="743" t="s">
+      <c r="V2" s="737"/>
+      <c r="W2" s="737" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="744"/>
-      <c r="Y2" s="734"/>
-      <c r="Z2" s="735"/>
-      <c r="AA2" s="737"/>
-      <c r="AB2" s="739"/>
+      <c r="X2" s="738"/>
+      <c r="Y2" s="727"/>
+      <c r="Z2" s="728"/>
+      <c r="AA2" s="755"/>
+      <c r="AB2" s="746"/>
       <c r="AC2" s="96" t="s">
         <v>160</v>
       </c>
@@ -34601,7 +34566,7 @@
       <c r="AF2" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="AG2" s="745" t="s">
+      <c r="AG2" s="739" t="s">
         <v>164</v>
       </c>
       <c r="AH2" s="725"/>
@@ -34619,15 +34584,15 @@
       <c r="AN2" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="AO2" s="739"/>
-      <c r="AP2" s="734" t="s">
+      <c r="AO2" s="746"/>
+      <c r="AP2" s="727" t="s">
         <v>169</v>
       </c>
-      <c r="AQ2" s="735"/>
-      <c r="AR2" s="723" t="s">
+      <c r="AQ2" s="728"/>
+      <c r="AR2" s="729" t="s">
         <v>170</v>
       </c>
-      <c r="AS2" s="724"/>
+      <c r="AS2" s="730"/>
       <c r="AT2" s="725" t="s">
         <v>171</v>
       </c>
@@ -34697,15 +34662,15 @@
       <c r="BV2" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="BW2" s="739"/>
-      <c r="BX2" s="734" t="s">
+      <c r="BW2" s="746"/>
+      <c r="BX2" s="727" t="s">
         <v>169</v>
       </c>
-      <c r="BY2" s="735"/>
-      <c r="BZ2" s="723" t="s">
+      <c r="BY2" s="728"/>
+      <c r="BZ2" s="729" t="s">
         <v>170</v>
       </c>
-      <c r="CA2" s="724"/>
+      <c r="CA2" s="730"/>
       <c r="CB2" s="20" t="s">
         <v>74</v>
       </c>
@@ -34745,22 +34710,22 @@
       <c r="CN2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="CO2" s="754" t="s">
+      <c r="CO2" s="731" t="s">
         <v>191</v>
       </c>
-      <c r="CP2" s="755"/>
-      <c r="CQ2" s="752" t="s">
+      <c r="CP2" s="732"/>
+      <c r="CQ2" s="723" t="s">
         <v>192</v>
       </c>
-      <c r="CR2" s="752"/>
-      <c r="CS2" s="755" t="s">
+      <c r="CR2" s="723"/>
+      <c r="CS2" s="732" t="s">
         <v>193</v>
       </c>
-      <c r="CT2" s="755"/>
-      <c r="CU2" s="752" t="s">
+      <c r="CT2" s="732"/>
+      <c r="CU2" s="723" t="s">
         <v>194</v>
       </c>
-      <c r="CV2" s="753"/>
+      <c r="CV2" s="724"/>
     </row>
     <row r="3" spans="1:100" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="99" t="s">
@@ -40066,18 +40031,16 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="BD2:BE2"/>
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BL2:BM2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BX2:BY2"/>
-    <mergeCell ref="BZ2:CA2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CO1:CV1"/>
@@ -40094,16 +40057,18 @@
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BV1"/>
     <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BX2:BY2"/>
+    <mergeCell ref="BZ2:CA2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="CS2:CT2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40151,13 +40116,13 @@
       <c r="T1" s="207"/>
       <c r="U1" s="207"/>
     </row>
-    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="206"/>
       <c r="B2" s="209" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="756"/>
-      <c r="D2" s="756"/>
+      <c r="C2" s="763"/>
+      <c r="D2" s="763"/>
       <c r="E2" s="207"/>
       <c r="F2" s="207"/>
       <c r="G2" s="207"/>
@@ -40282,32 +40247,32 @@
     </row>
     <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="206"/>
-      <c r="B7" s="757" t="s">
+      <c r="B7" s="764" t="s">
         <v>464</v>
       </c>
-      <c r="C7" s="757"/>
-      <c r="D7" s="757"/>
+      <c r="C7" s="764"/>
+      <c r="D7" s="764"/>
       <c r="E7" s="207"/>
       <c r="F7" s="207"/>
       <c r="G7" s="207"/>
       <c r="H7" s="207"/>
       <c r="I7" s="207"/>
-      <c r="J7" s="757" t="s">
+      <c r="J7" s="764" t="s">
         <v>217</v>
       </c>
-      <c r="K7" s="757"/>
-      <c r="L7" s="757"/>
+      <c r="K7" s="764"/>
+      <c r="L7" s="764"/>
       <c r="M7" s="207"/>
       <c r="N7" s="207"/>
       <c r="O7" s="207"/>
       <c r="P7" s="208" t="s">
         <v>218</v>
       </c>
-      <c r="Q7" s="757" t="s">
+      <c r="Q7" s="764" t="s">
         <v>217</v>
       </c>
-      <c r="R7" s="757"/>
-      <c r="S7" s="757"/>
+      <c r="R7" s="764"/>
+      <c r="S7" s="764"/>
       <c r="T7" s="207"/>
       <c r="U7" s="221" t="s">
         <v>219</v>
@@ -40341,41 +40306,41 @@
       <c r="B9" s="222" t="s">
         <v>461</v>
       </c>
-      <c r="C9" s="758" t="s">
+      <c r="C9" s="759" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="759"/>
-      <c r="E9" s="758" t="s">
+      <c r="D9" s="760"/>
+      <c r="E9" s="759" t="s">
         <v>222</v>
       </c>
-      <c r="F9" s="759"/>
+      <c r="F9" s="760"/>
       <c r="G9" s="207"/>
       <c r="H9" s="207"/>
       <c r="I9" s="207"/>
       <c r="J9" s="222" t="s">
         <v>461</v>
       </c>
-      <c r="K9" s="758" t="s">
+      <c r="K9" s="759" t="s">
         <v>221</v>
       </c>
-      <c r="L9" s="759"/>
-      <c r="M9" s="758" t="s">
+      <c r="L9" s="760"/>
+      <c r="M9" s="759" t="s">
         <v>222</v>
       </c>
-      <c r="N9" s="759"/>
+      <c r="N9" s="760"/>
       <c r="O9" s="207"/>
       <c r="P9" s="207"/>
       <c r="Q9" s="222" t="s">
         <v>220</v>
       </c>
-      <c r="R9" s="758" t="s">
+      <c r="R9" s="759" t="s">
         <v>221</v>
       </c>
-      <c r="S9" s="759"/>
-      <c r="T9" s="758" t="s">
+      <c r="S9" s="760"/>
+      <c r="T9" s="759" t="s">
         <v>222</v>
       </c>
-      <c r="U9" s="759"/>
+      <c r="U9" s="760"/>
     </row>
     <row r="10" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="206"/>
@@ -40437,10 +40402,10 @@
       </c>
       <c r="C11" s="227"/>
       <c r="D11" s="227"/>
-      <c r="E11" s="760" t="s">
+      <c r="E11" s="756" t="s">
         <v>227</v>
       </c>
-      <c r="F11" s="761"/>
+      <c r="F11" s="757"/>
       <c r="G11" s="228"/>
       <c r="H11" s="228"/>
       <c r="I11" s="228"/>
@@ -40449,10 +40414,10 @@
       </c>
       <c r="K11" s="207"/>
       <c r="L11" s="207"/>
-      <c r="M11" s="763" t="s">
+      <c r="M11" s="761" t="s">
         <v>227</v>
       </c>
-      <c r="N11" s="764"/>
+      <c r="N11" s="762"/>
       <c r="O11" s="228"/>
       <c r="P11" s="228"/>
       <c r="Q11" s="226" t="s">
@@ -40460,10 +40425,10 @@
       </c>
       <c r="R11" s="227"/>
       <c r="S11" s="227"/>
-      <c r="T11" s="760" t="s">
+      <c r="T11" s="756" t="s">
         <v>227</v>
       </c>
-      <c r="U11" s="761"/>
+      <c r="U11" s="757"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="206"/>
@@ -40698,10 +40663,10 @@
       </c>
       <c r="C20" s="559"/>
       <c r="D20" s="255"/>
-      <c r="E20" s="760" t="s">
+      <c r="E20" s="756" t="s">
         <v>234</v>
       </c>
-      <c r="F20" s="761"/>
+      <c r="F20" s="757"/>
       <c r="G20" s="236"/>
       <c r="H20" s="236"/>
       <c r="I20" s="207"/>
@@ -40710,10 +40675,10 @@
       </c>
       <c r="K20" s="559"/>
       <c r="L20" s="255"/>
-      <c r="M20" s="760" t="s">
+      <c r="M20" s="756" t="s">
         <v>234</v>
       </c>
-      <c r="N20" s="761"/>
+      <c r="N20" s="757"/>
       <c r="O20" s="246"/>
       <c r="P20" s="246"/>
       <c r="Q20" s="226" t="s">
@@ -40721,10 +40686,10 @@
       </c>
       <c r="R20" s="559"/>
       <c r="S20" s="255"/>
-      <c r="T20" s="760" t="s">
+      <c r="T20" s="756" t="s">
         <v>234</v>
       </c>
-      <c r="U20" s="761"/>
+      <c r="U20" s="757"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="206"/>
@@ -40988,10 +40953,10 @@
       </c>
       <c r="C30" s="559"/>
       <c r="D30" s="255"/>
-      <c r="E30" s="760" t="s">
+      <c r="E30" s="756" t="s">
         <v>234</v>
       </c>
-      <c r="F30" s="761"/>
+      <c r="F30" s="757"/>
       <c r="G30" s="236"/>
       <c r="H30" s="236"/>
       <c r="I30" s="207"/>
@@ -41000,10 +40965,10 @@
       </c>
       <c r="K30" s="559"/>
       <c r="L30" s="255"/>
-      <c r="M30" s="760" t="s">
+      <c r="M30" s="756" t="s">
         <v>234</v>
       </c>
-      <c r="N30" s="761"/>
+      <c r="N30" s="757"/>
       <c r="O30" s="246"/>
       <c r="P30" s="246"/>
       <c r="Q30" s="226" t="s">
@@ -41011,10 +40976,10 @@
       </c>
       <c r="R30" s="559"/>
       <c r="S30" s="255"/>
-      <c r="T30" s="760" t="s">
+      <c r="T30" s="756" t="s">
         <v>234</v>
       </c>
-      <c r="U30" s="761"/>
+      <c r="U30" s="757"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="269"/>
@@ -41337,11 +41302,11 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="206"/>
-      <c r="B42" s="762"/>
-      <c r="C42" s="762"/>
-      <c r="D42" s="762"/>
-      <c r="E42" s="762"/>
-      <c r="F42" s="762"/>
+      <c r="B42" s="758"/>
+      <c r="C42" s="758"/>
+      <c r="D42" s="758"/>
+      <c r="E42" s="758"/>
+      <c r="F42" s="758"/>
       <c r="G42" s="246"/>
       <c r="H42" s="207"/>
       <c r="I42" s="246"/>
@@ -41485,6 +41450,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R9:S9"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="T30:U30"/>
@@ -41496,15 +41470,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="T20:U20"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42047,8 +42012,8 @@
       </c>
       <c r="C2" s="209"/>
       <c r="D2" s="209"/>
-      <c r="E2" s="756"/>
-      <c r="F2" s="756"/>
+      <c r="E2" s="763"/>
+      <c r="F2" s="763"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="208"/>
@@ -42080,13 +42045,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="206"/>
-      <c r="B6" s="757" t="s">
+      <c r="B6" s="764" t="s">
         <v>460</v>
       </c>
-      <c r="C6" s="757"/>
-      <c r="D6" s="757"/>
-      <c r="E6" s="757"/>
-      <c r="F6" s="757"/>
+      <c r="C6" s="764"/>
+      <c r="D6" s="764"/>
+      <c r="E6" s="764"/>
+      <c r="F6" s="764"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="206"/>
@@ -42244,11 +42209,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="206"/>
-      <c r="B22" s="762"/>
-      <c r="C22" s="762"/>
-      <c r="D22" s="762"/>
-      <c r="E22" s="762"/>
-      <c r="F22" s="762"/>
+      <c r="B22" s="758"/>
+      <c r="C22" s="758"/>
+      <c r="D22" s="758"/>
+      <c r="E22" s="758"/>
+      <c r="F22" s="758"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="206"/>
@@ -42612,12 +42577,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="681" t="s">
+      <c r="A1" s="710" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="682"/>
-      <c r="C1" s="682"/>
-      <c r="D1" s="682"/>
+      <c r="B1" s="711"/>
+      <c r="C1" s="711"/>
+      <c r="D1" s="711"/>
       <c r="E1" s="361"/>
       <c r="F1" s="794" t="s">
         <v>143</v>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2015_register_model_20161018_1.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2015_register_model_20161018_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitive Areas_reference" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="476">
   <si>
     <t>Sensitive areas reported for reference date</t>
   </si>
@@ -5248,6 +5248,48 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -5282,9 +5324,6 @@
     <xf numFmtId="3" fontId="11" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5333,44 +5372,92 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="19" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5378,97 +5465,22 @@
     <xf numFmtId="3" fontId="32" fillId="12" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="32" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="19" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5480,23 +5492,11 @@
     <xf numFmtId="0" fontId="62" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="64" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5593,9 +5593,51 @@
     <xf numFmtId="3" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5621,48 +5663,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Hyperlink 2" xfId="10"/>
@@ -5963,7 +5963,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B583940F-99FB-4CC8-9396-3C21C135FAFD}" type="CELLRANGE">
+                    <a:fld id="{CF3385FD-841C-4BC7-9745-452C5BA68D31}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -5994,7 +5994,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE4D9916-DCF8-4CBF-959C-2218832F84EB}" type="CELLRANGE">
+                    <a:fld id="{33E0B08C-FDAB-43A7-B795-5E38B2E180FB}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6198,7 +6198,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AFAD917-90F9-44A2-AF89-FC09E00A67BB}" type="CELLRANGE">
+                    <a:fld id="{5E7F6CDD-6319-43D3-8F25-D0ABDE58DC60}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6229,7 +6229,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65502C44-8B62-46BF-A56B-748CC9B0BF2D}" type="CELLRANGE">
+                    <a:fld id="{194FD52F-17C4-48A4-8485-624F09F05187}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6379,11 +6379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="225856496"/>
-        <c:axId val="225857056"/>
+        <c:axId val="143959664"/>
+        <c:axId val="178046832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="225856496"/>
+        <c:axId val="143959664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6426,7 +6426,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225857056"/>
+        <c:crossAx val="178046832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6434,7 +6434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225857056"/>
+        <c:axId val="178046832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6526,7 +6526,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225856496"/>
+        <c:crossAx val="143959664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6912,11 +6912,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="228569808"/>
-        <c:axId val="228570368"/>
+        <c:axId val="182586208"/>
+        <c:axId val="182586768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228569808"/>
+        <c:axId val="182586208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7014,7 +7014,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228570368"/>
+        <c:crossAx val="182586768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7022,7 +7022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228570368"/>
+        <c:axId val="182586768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7142,7 +7142,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228569808"/>
+        <c:crossAx val="182586208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8026,11 +8026,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="228789600"/>
-        <c:axId val="228790160"/>
+        <c:axId val="182831472"/>
+        <c:axId val="182832032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228789600"/>
+        <c:axId val="182831472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8133,7 +8133,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228790160"/>
+        <c:crossAx val="182832032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8141,7 +8141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228790160"/>
+        <c:axId val="182832032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8192,7 +8192,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228789600"/>
+        <c:crossAx val="182831472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8557,11 +8557,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="228793520"/>
-        <c:axId val="228794080"/>
+        <c:axId val="182835392"/>
+        <c:axId val="182835952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228793520"/>
+        <c:axId val="182835392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8672,7 +8672,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228794080"/>
+        <c:crossAx val="182835952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8680,7 +8680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228794080"/>
+        <c:axId val="182835952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8786,7 +8786,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228793520"/>
+        <c:crossAx val="182835392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9156,11 +9156,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="228797440"/>
-        <c:axId val="228798000"/>
+        <c:axId val="183078608"/>
+        <c:axId val="183079168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228797440"/>
+        <c:axId val="183078608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9271,7 +9271,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228798000"/>
+        <c:crossAx val="183079168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9279,7 +9279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228798000"/>
+        <c:axId val="183079168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9393,7 +9393,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228797440"/>
+        <c:crossAx val="183078608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9874,11 +9874,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="229571936"/>
-        <c:axId val="229572496"/>
+        <c:axId val="183084208"/>
+        <c:axId val="183084768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229571936"/>
+        <c:axId val="183084208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9984,7 +9984,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229572496"/>
+        <c:crossAx val="183084768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9992,7 +9992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229572496"/>
+        <c:axId val="183084768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10114,7 +10114,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229571936"/>
+        <c:crossAx val="183084208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10450,11 +10450,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="229575856"/>
-        <c:axId val="229576416"/>
+        <c:axId val="183186784"/>
+        <c:axId val="183187344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229575856"/>
+        <c:axId val="183186784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10565,7 +10565,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229576416"/>
+        <c:crossAx val="183187344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10573,7 +10573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229576416"/>
+        <c:axId val="183187344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10687,7 +10687,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229575856"/>
+        <c:crossAx val="183186784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11023,11 +11023,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="229579776"/>
-        <c:axId val="229580336"/>
+        <c:axId val="183190704"/>
+        <c:axId val="183191264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229579776"/>
+        <c:axId val="183190704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11138,7 +11138,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229580336"/>
+        <c:crossAx val="183191264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11146,7 +11146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229580336"/>
+        <c:axId val="183191264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11260,7 +11260,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229579776"/>
+        <c:crossAx val="183190704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11641,11 +11641,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="229583696"/>
-        <c:axId val="229584256"/>
+        <c:axId val="183440752"/>
+        <c:axId val="183441312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229583696"/>
+        <c:axId val="183440752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11743,7 +11743,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229584256"/>
+        <c:crossAx val="183441312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11751,7 +11751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229584256"/>
+        <c:axId val="183441312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11870,7 +11870,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229583696"/>
+        <c:crossAx val="183440752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12375,11 +12375,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="230021520"/>
-        <c:axId val="230022080"/>
+        <c:axId val="183624944"/>
+        <c:axId val="183625504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="230021520"/>
+        <c:axId val="183624944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12422,7 +12422,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230022080"/>
+        <c:crossAx val="183625504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12430,7 +12430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230022080"/>
+        <c:axId val="183625504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12536,7 +12536,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230021520"/>
+        <c:crossAx val="183624944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12772,7 +12772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5ECDFF4-15EB-4A31-96AB-2ABB6168FB7C}" type="CELLRANGE">
+                    <a:fld id="{335844A2-97EA-41F0-A340-BDC15362A40D}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -12803,7 +12803,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80C8E48A-A3D2-4EE6-AB8F-82CC26FE38D5}" type="CELLRANGE">
+                    <a:fld id="{8B7666B6-017E-4C5D-95F7-8EC3159FF9F9}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13007,7 +13007,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C79ECD4-5BF7-4DF2-B661-59C6C00A1086}" type="CELLRANGE">
+                    <a:fld id="{B040B28D-2EAB-46D4-9A20-BFCF5B710314}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13038,7 +13038,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD2FB538-DAFE-465B-B570-6EB9B3C8F23D}" type="CELLRANGE">
+                    <a:fld id="{EAC706E3-0778-47F3-B544-4876708C0E69}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13188,11 +13188,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="164924752"/>
-        <c:axId val="164925312"/>
+        <c:axId val="178050192"/>
+        <c:axId val="178050752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="164924752"/>
+        <c:axId val="178050192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13290,7 +13290,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164925312"/>
+        <c:crossAx val="178050752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13298,7 +13298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164925312"/>
+        <c:axId val="178050752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13398,7 +13398,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164924752"/>
+        <c:crossAx val="178050192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14316,11 +14316,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="228130096"/>
-        <c:axId val="228130656"/>
+        <c:axId val="178058032"/>
+        <c:axId val="178058592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228130096"/>
+        <c:axId val="178058032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14418,7 +14418,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228130656"/>
+        <c:crossAx val="178058592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14426,7 +14426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228130656"/>
+        <c:axId val="178058592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14532,7 +14532,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228130096"/>
+        <c:crossAx val="178058032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14990,11 +14990,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="228134576"/>
-        <c:axId val="228135136"/>
+        <c:axId val="181884448"/>
+        <c:axId val="181885008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228134576"/>
+        <c:axId val="181884448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15092,7 +15092,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228135136"/>
+        <c:crossAx val="181885008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15100,7 +15100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228135136"/>
+        <c:axId val="181885008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15200,7 +15200,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228134576"/>
+        <c:crossAx val="181884448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15658,11 +15658,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="228139056"/>
-        <c:axId val="228139616"/>
+        <c:axId val="181888928"/>
+        <c:axId val="181889488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228139056"/>
+        <c:axId val="181888928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15760,7 +15760,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228139616"/>
+        <c:crossAx val="181889488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15768,7 +15768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228139616"/>
+        <c:axId val="181889488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15868,7 +15868,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228139056"/>
+        <c:crossAx val="181888928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16399,11 +16399,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="228558048"/>
-        <c:axId val="228558608"/>
+        <c:axId val="182007408"/>
+        <c:axId val="182007968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228558048"/>
+        <c:axId val="182007408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16446,7 +16446,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228558608"/>
+        <c:crossAx val="182007968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16454,7 +16454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228558608"/>
+        <c:axId val="182007968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16565,7 +16565,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228558048"/>
+        <c:crossAx val="182007408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17095,11 +17095,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="228561968"/>
-        <c:axId val="228562528"/>
+        <c:axId val="182102672"/>
+        <c:axId val="182103232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228561968"/>
+        <c:axId val="182102672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17142,7 +17142,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228562528"/>
+        <c:crossAx val="182103232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17150,7 +17150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228562528"/>
+        <c:axId val="182103232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17269,7 +17269,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228561968"/>
+        <c:crossAx val="182102672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17609,11 +17609,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="228565888"/>
-        <c:axId val="228566448"/>
+        <c:axId val="182582288"/>
+        <c:axId val="182582848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228565888"/>
+        <c:axId val="182582288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17708,7 +17708,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228566448"/>
+        <c:crossAx val="182582848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17716,7 +17716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228566448"/>
+        <c:axId val="182582848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -17836,7 +17836,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228565888"/>
+        <c:crossAx val="182582288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29209,7 +29209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R19" workbookViewId="0">
+    <sheetView topLeftCell="R19" workbookViewId="0">
       <selection activeCell="V47" sqref="V47"/>
     </sheetView>
   </sheetViews>
@@ -29735,35 +29735,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="808" t="s">
+      <c r="A1" s="798" t="s">
         <v>465</v>
       </c>
-      <c r="B1" s="809"/>
-      <c r="C1" s="809"/>
+      <c r="B1" s="799"/>
+      <c r="C1" s="799"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="816" t="s">
+      <c r="A3" s="807" t="s">
         <v>345</v>
       </c>
-      <c r="B3" s="818" t="s">
+      <c r="B3" s="809" t="s">
         <v>439</v>
       </c>
-      <c r="C3" s="819"/>
-      <c r="D3" s="814" t="s">
+      <c r="C3" s="810"/>
+      <c r="D3" s="805" t="s">
         <v>466</v>
       </c>
-      <c r="E3" s="815"/>
-      <c r="AA3" s="748" t="s">
+      <c r="E3" s="806"/>
+      <c r="AA3" s="751" t="s">
         <v>359</v>
       </c>
-      <c r="AB3" s="748"/>
-      <c r="AC3" s="748" t="s">
+      <c r="AB3" s="751"/>
+      <c r="AC3" s="751" t="s">
         <v>444</v>
       </c>
-      <c r="AD3" s="748"/>
+      <c r="AD3" s="751"/>
     </row>
     <row r="4" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="817"/>
+      <c r="A4" s="808"/>
       <c r="B4" s="427" t="s">
         <v>443</v>
       </c>
@@ -29906,14 +29906,14 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z10" s="479"/>
-      <c r="AA10" s="748" t="s">
+      <c r="AA10" s="751" t="s">
         <v>445</v>
       </c>
-      <c r="AB10" s="748"/>
-      <c r="AC10" s="748" t="s">
+      <c r="AB10" s="751"/>
+      <c r="AC10" s="751" t="s">
         <v>446</v>
       </c>
-      <c r="AD10" s="748"/>
+      <c r="AD10" s="751"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z11" s="479" t="s">
@@ -29958,7 +29958,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="816" t="s">
+      <c r="A13" s="807" t="s">
         <v>346</v>
       </c>
       <c r="B13" s="426" t="str">
@@ -29990,7 +29990,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="817"/>
+      <c r="A14" s="808"/>
       <c r="B14" s="429" t="s">
         <v>347</v>
       </c>
@@ -30076,27 +30076,27 @@
       <c r="A21" t="s">
         <v>450</v>
       </c>
-      <c r="B21" s="798" t="s">
+      <c r="B21" s="800" t="s">
         <v>459</v>
       </c>
-      <c r="C21" s="798"/>
-      <c r="D21" s="798"/>
-      <c r="E21" s="798"/>
+      <c r="C21" s="800"/>
+      <c r="D21" s="800"/>
+      <c r="E21" s="800"/>
     </row>
     <row r="22" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="431" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="820" t="str">
+      <c r="B22" s="811" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="821"/>
-      <c r="D22" s="820" t="str">
+      <c r="C22" s="812"/>
+      <c r="D22" s="811" t="str">
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
-      <c r="E22" s="821"/>
+      <c r="E22" s="812"/>
     </row>
     <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="432"/>
@@ -30471,16 +30471,16 @@
       <c r="A41" s="434" t="s">
         <v>357</v>
       </c>
-      <c r="B41" s="810" t="str">
+      <c r="B41" s="801" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="811"/>
-      <c r="D41" s="812" t="str">
+      <c r="C41" s="802"/>
+      <c r="D41" s="803" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="813"/>
+      <c r="E41" s="804"/>
       <c r="AA41" t="s">
         <v>440</v>
       </c>
@@ -30630,11 +30630,11 @@
       <c r="AA48" t="s">
         <v>450</v>
       </c>
-      <c r="AB48" s="798" t="s">
+      <c r="AB48" s="800" t="s">
         <v>471</v>
       </c>
-      <c r="AC48" s="798"/>
-      <c r="AD48" s="798"/>
+      <c r="AC48" s="800"/>
+      <c r="AD48" s="800"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="500" t="s">
@@ -30908,11 +30908,11 @@
       <c r="AA62" t="s">
         <v>450</v>
       </c>
-      <c r="AB62" s="798" t="s">
+      <c r="AB62" s="800" t="s">
         <v>472</v>
       </c>
-      <c r="AC62" s="798"/>
-      <c r="AD62" s="798"/>
+      <c r="AC62" s="800"/>
+      <c r="AD62" s="800"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="428"/>
@@ -31147,12 +31147,12 @@
       <c r="A74" s="666" t="s">
         <v>454</v>
       </c>
-      <c r="B74" s="798" t="s">
+      <c r="B74" s="800" t="s">
         <v>455</v>
       </c>
-      <c r="C74" s="798"/>
-      <c r="D74" s="798"/>
-      <c r="E74" s="798"/>
+      <c r="C74" s="800"/>
+      <c r="D74" s="800"/>
+      <c r="E74" s="800"/>
     </row>
     <row r="75" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="449" t="s">
@@ -31445,16 +31445,16 @@
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B85" s="801" t="str">
+      <c r="B85" s="815" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="802"/>
-      <c r="D85" s="801" t="str">
+      <c r="C85" s="816"/>
+      <c r="D85" s="815" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="802"/>
+      <c r="E85" s="816"/>
       <c r="Z85" t="s">
         <v>428</v>
       </c>
@@ -31468,11 +31468,11 @@
     </row>
     <row r="86" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="299"/>
-      <c r="B86" s="803" t="s">
+      <c r="B86" s="817" t="s">
         <v>255</v>
       </c>
       <c r="C86" s="767"/>
-      <c r="D86" s="803" t="s">
+      <c r="D86" s="817" t="s">
         <v>255</v>
       </c>
       <c r="E86" s="767"/>
@@ -31681,24 +31681,24 @@
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B101" s="801" t="str">
+      <c r="B101" s="815" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="802"/>
-      <c r="D101" s="801" t="str">
+      <c r="C101" s="816"/>
+      <c r="D101" s="815" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="802"/>
+      <c r="E101" s="816"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="299"/>
-      <c r="B102" s="803" t="s">
+      <c r="B102" s="817" t="s">
         <v>255</v>
       </c>
       <c r="C102" s="767"/>
-      <c r="D102" s="803" t="s">
+      <c r="D102" s="817" t="s">
         <v>255</v>
       </c>
       <c r="E102" s="767"/>
@@ -31915,27 +31915,27 @@
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B116" s="804" t="str">
+      <c r="B116" s="818" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="805"/>
-      <c r="D116" s="804" t="str">
+      <c r="C116" s="819"/>
+      <c r="D116" s="818" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="805"/>
+      <c r="E116" s="819"/>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="462"/>
-      <c r="B117" s="806" t="s">
+      <c r="B117" s="820" t="s">
         <v>255</v>
       </c>
-      <c r="C117" s="807"/>
-      <c r="D117" s="806" t="s">
+      <c r="C117" s="821"/>
+      <c r="D117" s="820" t="s">
         <v>255</v>
       </c>
-      <c r="E117" s="807"/>
+      <c r="E117" s="821"/>
       <c r="Z117" t="s">
         <v>428</v>
       </c>
@@ -32155,12 +32155,12 @@
       <c r="A129" s="466" t="s">
         <v>346</v>
       </c>
-      <c r="B129" s="799" t="str">
+      <c r="B129" s="813" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="800"/>
-      <c r="D129" s="800"/>
+      <c r="C129" s="814"/>
+      <c r="D129" s="814"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="467"/>
@@ -32827,17 +32827,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="AB62:AD62"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AB48:AD48"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
@@ -32851,12 +32846,17 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="AB62:AD62"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
@@ -33112,123 +33112,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="681" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="711"/>
-      <c r="C1" s="711"/>
-      <c r="D1" s="711"/>
-      <c r="E1" s="711"/>
-      <c r="F1" s="711"/>
-      <c r="G1" s="711"/>
-      <c r="H1" s="712" t="s">
+      <c r="B1" s="682"/>
+      <c r="C1" s="682"/>
+      <c r="D1" s="682"/>
+      <c r="E1" s="682"/>
+      <c r="F1" s="682"/>
+      <c r="G1" s="682"/>
+      <c r="H1" s="683" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="713"/>
-      <c r="J1" s="713"/>
-      <c r="K1" s="713"/>
-      <c r="L1" s="713"/>
-      <c r="M1" s="714"/>
-      <c r="N1" s="715" t="s">
+      <c r="I1" s="684"/>
+      <c r="J1" s="684"/>
+      <c r="K1" s="684"/>
+      <c r="L1" s="684"/>
+      <c r="M1" s="685"/>
+      <c r="N1" s="686" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="693"/>
-      <c r="P1" s="693"/>
-      <c r="Q1" s="716"/>
-      <c r="R1" s="716"/>
-      <c r="S1" s="693"/>
-      <c r="T1" s="693"/>
-      <c r="U1" s="693"/>
-      <c r="V1" s="717" t="s">
+      <c r="O1" s="687"/>
+      <c r="P1" s="687"/>
+      <c r="Q1" s="688"/>
+      <c r="R1" s="688"/>
+      <c r="S1" s="687"/>
+      <c r="T1" s="687"/>
+      <c r="U1" s="687"/>
+      <c r="V1" s="689" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="718"/>
-      <c r="X1" s="719"/>
-      <c r="Y1" s="719"/>
-      <c r="Z1" s="720"/>
-      <c r="AA1" s="721" t="s">
+      <c r="W1" s="690"/>
+      <c r="X1" s="691"/>
+      <c r="Y1" s="691"/>
+      <c r="Z1" s="692"/>
+      <c r="AA1" s="693" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="722"/>
-      <c r="AC1" s="722"/>
-      <c r="AD1" s="722"/>
-      <c r="AE1" s="722"/>
-      <c r="AF1" s="722"/>
-      <c r="AG1" s="722"/>
-      <c r="AH1" s="722"/>
-      <c r="AI1" s="722"/>
-      <c r="AJ1" s="722"/>
-      <c r="AK1" s="722"/>
-      <c r="AL1" s="722"/>
-      <c r="AM1" s="722"/>
+      <c r="AB1" s="694"/>
+      <c r="AC1" s="694"/>
+      <c r="AD1" s="694"/>
+      <c r="AE1" s="694"/>
+      <c r="AF1" s="694"/>
+      <c r="AG1" s="694"/>
+      <c r="AH1" s="694"/>
+      <c r="AI1" s="694"/>
+      <c r="AJ1" s="694"/>
+      <c r="AK1" s="694"/>
+      <c r="AL1" s="694"/>
+      <c r="AM1" s="694"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="8"/>
-      <c r="AP1" s="692" t="s">
+      <c r="AP1" s="706" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="693"/>
-      <c r="AR1" s="693"/>
-      <c r="AS1" s="693"/>
-      <c r="AT1" s="693"/>
-      <c r="AU1" s="693"/>
-      <c r="AV1" s="693"/>
-      <c r="AW1" s="694"/>
-      <c r="AX1" s="701" t="s">
+      <c r="AQ1" s="687"/>
+      <c r="AR1" s="687"/>
+      <c r="AS1" s="687"/>
+      <c r="AT1" s="687"/>
+      <c r="AU1" s="687"/>
+      <c r="AV1" s="687"/>
+      <c r="AW1" s="707"/>
+      <c r="AX1" s="714" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="702"/>
-      <c r="AZ1" s="702"/>
-      <c r="BA1" s="702"/>
-      <c r="BB1" s="702"/>
-      <c r="BC1" s="703"/>
-      <c r="BD1" s="704" t="s">
+      <c r="AY1" s="715"/>
+      <c r="AZ1" s="715"/>
+      <c r="BA1" s="715"/>
+      <c r="BB1" s="715"/>
+      <c r="BC1" s="716"/>
+      <c r="BD1" s="717" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="705"/>
-      <c r="BF1" s="705"/>
-      <c r="BG1" s="705"/>
-      <c r="BH1" s="705"/>
-      <c r="BI1" s="706"/>
-      <c r="BJ1" s="707" t="s">
+      <c r="BE1" s="718"/>
+      <c r="BF1" s="718"/>
+      <c r="BG1" s="718"/>
+      <c r="BH1" s="718"/>
+      <c r="BI1" s="719"/>
+      <c r="BJ1" s="720" t="s">
         <v>56</v>
       </c>
-      <c r="BK1" s="708"/>
-      <c r="BL1" s="708"/>
-      <c r="BM1" s="708"/>
-      <c r="BN1" s="708"/>
-      <c r="BO1" s="708"/>
-      <c r="BP1" s="709"/>
-      <c r="BQ1" s="681" t="s">
+      <c r="BK1" s="721"/>
+      <c r="BL1" s="721"/>
+      <c r="BM1" s="721"/>
+      <c r="BN1" s="721"/>
+      <c r="BO1" s="721"/>
+      <c r="BP1" s="722"/>
+      <c r="BQ1" s="695" t="s">
         <v>57</v>
       </c>
-      <c r="BR1" s="682"/>
-      <c r="BS1" s="682"/>
-      <c r="BT1" s="682"/>
-      <c r="BU1" s="682"/>
-      <c r="BV1" s="682"/>
+      <c r="BR1" s="696"/>
+      <c r="BS1" s="696"/>
+      <c r="BT1" s="696"/>
+      <c r="BU1" s="696"/>
+      <c r="BV1" s="696"/>
       <c r="BW1" s="8"/>
       <c r="BX1" s="9"/>
-      <c r="BY1" s="683" t="s">
+      <c r="BY1" s="697" t="s">
         <v>58</v>
       </c>
-      <c r="BZ1" s="684"/>
-      <c r="CA1" s="684"/>
-      <c r="CB1" s="684"/>
-      <c r="CC1" s="684"/>
-      <c r="CD1" s="684"/>
-      <c r="CE1" s="684"/>
-      <c r="CF1" s="685"/>
-      <c r="CG1" s="685"/>
-      <c r="CH1" s="685"/>
-      <c r="CI1" s="685"/>
-      <c r="CJ1" s="685"/>
-      <c r="CK1" s="685"/>
-      <c r="CL1" s="685"/>
-      <c r="CM1" s="685"/>
-      <c r="CN1" s="685"/>
-      <c r="CO1" s="685"/>
-      <c r="CP1" s="685"/>
-      <c r="CQ1" s="685"/>
+      <c r="BZ1" s="698"/>
+      <c r="CA1" s="698"/>
+      <c r="CB1" s="698"/>
+      <c r="CC1" s="698"/>
+      <c r="CD1" s="698"/>
+      <c r="CE1" s="698"/>
+      <c r="CF1" s="699"/>
+      <c r="CG1" s="699"/>
+      <c r="CH1" s="699"/>
+      <c r="CI1" s="699"/>
+      <c r="CJ1" s="699"/>
+      <c r="CK1" s="699"/>
+      <c r="CL1" s="699"/>
+      <c r="CM1" s="699"/>
+      <c r="CN1" s="699"/>
+      <c r="CO1" s="699"/>
+      <c r="CP1" s="699"/>
+      <c r="CQ1" s="699"/>
     </row>
     <row r="2" spans="1:95" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -33252,18 +33252,18 @@
       <c r="G2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="686" t="s">
+      <c r="H2" s="700" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="687"/>
-      <c r="J2" s="687" t="s">
+      <c r="I2" s="701"/>
+      <c r="J2" s="701" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="687"/>
-      <c r="L2" s="687" t="s">
+      <c r="K2" s="701"/>
+      <c r="L2" s="701" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="688"/>
+      <c r="M2" s="702"/>
       <c r="N2" s="12" t="s">
         <v>59</v>
       </c>
@@ -33372,36 +33372,36 @@
       <c r="AW2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AX2" s="689" t="s">
+      <c r="AX2" s="703" t="s">
         <v>93</v>
       </c>
-      <c r="AY2" s="690"/>
-      <c r="AZ2" s="690"/>
-      <c r="BA2" s="690" t="s">
+      <c r="AY2" s="704"/>
+      <c r="AZ2" s="704"/>
+      <c r="BA2" s="704" t="s">
         <v>94</v>
       </c>
-      <c r="BB2" s="690"/>
-      <c r="BC2" s="691"/>
-      <c r="BD2" s="695" t="s">
+      <c r="BB2" s="704"/>
+      <c r="BC2" s="705"/>
+      <c r="BD2" s="708" t="s">
         <v>93</v>
       </c>
-      <c r="BE2" s="696"/>
-      <c r="BF2" s="696"/>
-      <c r="BG2" s="696" t="s">
+      <c r="BE2" s="709"/>
+      <c r="BF2" s="709"/>
+      <c r="BG2" s="709" t="s">
         <v>94</v>
       </c>
-      <c r="BH2" s="696"/>
-      <c r="BI2" s="697"/>
-      <c r="BJ2" s="698" t="s">
+      <c r="BH2" s="709"/>
+      <c r="BI2" s="710"/>
+      <c r="BJ2" s="711" t="s">
         <v>93</v>
       </c>
-      <c r="BK2" s="699"/>
-      <c r="BL2" s="699"/>
-      <c r="BM2" s="699" t="s">
+      <c r="BK2" s="712"/>
+      <c r="BL2" s="712"/>
+      <c r="BM2" s="712" t="s">
         <v>94</v>
       </c>
-      <c r="BN2" s="700"/>
-      <c r="BO2" s="700"/>
+      <c r="BN2" s="713"/>
+      <c r="BO2" s="713"/>
       <c r="BP2" s="24" t="s">
         <v>95</v>
       </c>
@@ -34308,11 +34308,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="BQ1:BV1"/>
     <mergeCell ref="BY1:CQ1"/>
     <mergeCell ref="H2:I2"/>
@@ -34328,6 +34323,11 @@
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <conditionalFormatting sqref="A13:A14 A4:B4">
     <cfRule type="duplicateValues" dxfId="8" priority="1"/>
@@ -34343,8 +34343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV50"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34366,124 +34366,124 @@
         <v>138</v>
       </c>
       <c r="L1" s="87"/>
-      <c r="M1" s="749" t="s">
+      <c r="M1" s="727" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="750" t="s">
+      <c r="N1" s="728" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="751"/>
-      <c r="P1" s="751"/>
-      <c r="Q1" s="751"/>
-      <c r="R1" s="752" t="s">
+      <c r="O1" s="729"/>
+      <c r="P1" s="729"/>
+      <c r="Q1" s="729"/>
+      <c r="R1" s="730" t="s">
         <v>141</v>
       </c>
-      <c r="S1" s="744"/>
-      <c r="T1" s="744"/>
-      <c r="U1" s="744"/>
-      <c r="V1" s="744"/>
-      <c r="W1" s="744"/>
-      <c r="X1" s="753"/>
+      <c r="S1" s="731"/>
+      <c r="T1" s="731"/>
+      <c r="U1" s="731"/>
+      <c r="V1" s="731"/>
+      <c r="W1" s="731"/>
+      <c r="X1" s="732"/>
       <c r="Y1" s="733" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="705"/>
-      <c r="AA1" s="754" t="s">
+      <c r="Z1" s="718"/>
+      <c r="AA1" s="736" t="s">
         <v>143</v>
       </c>
-      <c r="AB1" s="745" t="s">
+      <c r="AB1" s="738" t="s">
         <v>144</v>
       </c>
-      <c r="AC1" s="740" t="s">
+      <c r="AC1" s="746" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="741"/>
-      <c r="AE1" s="741"/>
-      <c r="AF1" s="742"/>
-      <c r="AG1" s="743" t="s">
+      <c r="AD1" s="747"/>
+      <c r="AE1" s="747"/>
+      <c r="AF1" s="748"/>
+      <c r="AG1" s="749" t="s">
         <v>146</v>
       </c>
-      <c r="AH1" s="744"/>
-      <c r="AI1" s="744"/>
-      <c r="AJ1" s="744"/>
-      <c r="AK1" s="744"/>
-      <c r="AL1" s="744"/>
-      <c r="AM1" s="744"/>
-      <c r="AN1" s="744"/>
-      <c r="AO1" s="745" t="s">
+      <c r="AH1" s="731"/>
+      <c r="AI1" s="731"/>
+      <c r="AJ1" s="731"/>
+      <c r="AK1" s="731"/>
+      <c r="AL1" s="731"/>
+      <c r="AM1" s="731"/>
+      <c r="AN1" s="731"/>
+      <c r="AO1" s="738" t="s">
         <v>147</v>
       </c>
       <c r="AP1" s="733" t="s">
         <v>148</v>
       </c>
-      <c r="AQ1" s="705"/>
-      <c r="AR1" s="705"/>
-      <c r="AS1" s="706"/>
-      <c r="AT1" s="747" t="s">
+      <c r="AQ1" s="718"/>
+      <c r="AR1" s="718"/>
+      <c r="AS1" s="719"/>
+      <c r="AT1" s="750" t="s">
         <v>149</v>
       </c>
-      <c r="AU1" s="748"/>
-      <c r="AV1" s="748"/>
-      <c r="AW1" s="748"/>
-      <c r="AX1" s="748"/>
-      <c r="AY1" s="748"/>
-      <c r="AZ1" s="748"/>
-      <c r="BA1" s="748"/>
-      <c r="BB1" s="748"/>
-      <c r="BC1" s="748"/>
-      <c r="BD1" s="748"/>
-      <c r="BE1" s="748"/>
-      <c r="BF1" s="748"/>
-      <c r="BG1" s="748"/>
-      <c r="BH1" s="748"/>
-      <c r="BI1" s="748"/>
-      <c r="BJ1" s="748"/>
-      <c r="BK1" s="748"/>
-      <c r="BL1" s="748"/>
-      <c r="BM1" s="748"/>
-      <c r="BN1" s="748"/>
-      <c r="BO1" s="748"/>
-      <c r="BP1" s="748"/>
-      <c r="BQ1" s="748"/>
-      <c r="BR1" s="748"/>
-      <c r="BS1" s="748"/>
-      <c r="BT1" s="748"/>
-      <c r="BU1" s="748"/>
-      <c r="BV1" s="748"/>
-      <c r="BW1" s="745" t="s">
+      <c r="AU1" s="751"/>
+      <c r="AV1" s="751"/>
+      <c r="AW1" s="751"/>
+      <c r="AX1" s="751"/>
+      <c r="AY1" s="751"/>
+      <c r="AZ1" s="751"/>
+      <c r="BA1" s="751"/>
+      <c r="BB1" s="751"/>
+      <c r="BC1" s="751"/>
+      <c r="BD1" s="751"/>
+      <c r="BE1" s="751"/>
+      <c r="BF1" s="751"/>
+      <c r="BG1" s="751"/>
+      <c r="BH1" s="751"/>
+      <c r="BI1" s="751"/>
+      <c r="BJ1" s="751"/>
+      <c r="BK1" s="751"/>
+      <c r="BL1" s="751"/>
+      <c r="BM1" s="751"/>
+      <c r="BN1" s="751"/>
+      <c r="BO1" s="751"/>
+      <c r="BP1" s="751"/>
+      <c r="BQ1" s="751"/>
+      <c r="BR1" s="751"/>
+      <c r="BS1" s="751"/>
+      <c r="BT1" s="751"/>
+      <c r="BU1" s="751"/>
+      <c r="BV1" s="751"/>
+      <c r="BW1" s="738" t="s">
         <v>150</v>
       </c>
       <c r="BX1" s="733" t="s">
         <v>151</v>
       </c>
-      <c r="BY1" s="705"/>
-      <c r="BZ1" s="705"/>
-      <c r="CA1" s="706"/>
-      <c r="CB1" s="734" t="s">
+      <c r="BY1" s="718"/>
+      <c r="BZ1" s="718"/>
+      <c r="CA1" s="719"/>
+      <c r="CB1" s="740" t="s">
         <v>52</v>
       </c>
-      <c r="CC1" s="734"/>
-      <c r="CD1" s="734"/>
-      <c r="CE1" s="734"/>
-      <c r="CF1" s="734"/>
-      <c r="CG1" s="734"/>
-      <c r="CH1" s="734"/>
-      <c r="CI1" s="734"/>
-      <c r="CJ1" s="734"/>
-      <c r="CK1" s="734"/>
-      <c r="CL1" s="734"/>
-      <c r="CM1" s="734"/>
+      <c r="CC1" s="740"/>
+      <c r="CD1" s="740"/>
+      <c r="CE1" s="740"/>
+      <c r="CF1" s="740"/>
+      <c r="CG1" s="740"/>
+      <c r="CH1" s="740"/>
+      <c r="CI1" s="740"/>
+      <c r="CJ1" s="740"/>
+      <c r="CK1" s="740"/>
+      <c r="CL1" s="740"/>
+      <c r="CM1" s="740"/>
       <c r="CN1" s="88"/>
-      <c r="CO1" s="735" t="s">
+      <c r="CO1" s="741" t="s">
         <v>57</v>
       </c>
-      <c r="CP1" s="693"/>
-      <c r="CQ1" s="693"/>
-      <c r="CR1" s="693"/>
-      <c r="CS1" s="693"/>
-      <c r="CT1" s="693"/>
-      <c r="CU1" s="693"/>
-      <c r="CV1" s="694"/>
+      <c r="CP1" s="687"/>
+      <c r="CQ1" s="687"/>
+      <c r="CR1" s="687"/>
+      <c r="CS1" s="687"/>
+      <c r="CT1" s="687"/>
+      <c r="CU1" s="687"/>
+      <c r="CV1" s="707"/>
     </row>
     <row r="2" spans="1:100" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
@@ -34522,7 +34522,7 @@
       <c r="L2" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="749"/>
+      <c r="M2" s="727"/>
       <c r="N2" s="94" t="s">
         <v>156</v>
       </c>
@@ -34538,22 +34538,22 @@
       <c r="R2" s="95" t="s">
         <v>424</v>
       </c>
-      <c r="S2" s="736" t="s">
+      <c r="S2" s="742" t="s">
         <v>159</v>
       </c>
-      <c r="T2" s="700"/>
-      <c r="U2" s="737" t="s">
+      <c r="T2" s="713"/>
+      <c r="U2" s="743" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="737"/>
-      <c r="W2" s="737" t="s">
+      <c r="V2" s="743"/>
+      <c r="W2" s="743" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="738"/>
-      <c r="Y2" s="727"/>
-      <c r="Z2" s="728"/>
-      <c r="AA2" s="755"/>
-      <c r="AB2" s="746"/>
+      <c r="X2" s="744"/>
+      <c r="Y2" s="734"/>
+      <c r="Z2" s="735"/>
+      <c r="AA2" s="737"/>
+      <c r="AB2" s="739"/>
       <c r="AC2" s="96" t="s">
         <v>160</v>
       </c>
@@ -34566,7 +34566,7 @@
       <c r="AF2" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="AG2" s="739" t="s">
+      <c r="AG2" s="745" t="s">
         <v>164</v>
       </c>
       <c r="AH2" s="725"/>
@@ -34584,15 +34584,15 @@
       <c r="AN2" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="AO2" s="746"/>
-      <c r="AP2" s="727" t="s">
+      <c r="AO2" s="739"/>
+      <c r="AP2" s="734" t="s">
         <v>169</v>
       </c>
-      <c r="AQ2" s="728"/>
-      <c r="AR2" s="729" t="s">
+      <c r="AQ2" s="735"/>
+      <c r="AR2" s="723" t="s">
         <v>170</v>
       </c>
-      <c r="AS2" s="730"/>
+      <c r="AS2" s="724"/>
       <c r="AT2" s="725" t="s">
         <v>171</v>
       </c>
@@ -34662,15 +34662,15 @@
       <c r="BV2" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="BW2" s="746"/>
-      <c r="BX2" s="727" t="s">
+      <c r="BW2" s="739"/>
+      <c r="BX2" s="734" t="s">
         <v>169</v>
       </c>
-      <c r="BY2" s="728"/>
-      <c r="BZ2" s="729" t="s">
+      <c r="BY2" s="735"/>
+      <c r="BZ2" s="723" t="s">
         <v>170</v>
       </c>
-      <c r="CA2" s="730"/>
+      <c r="CA2" s="724"/>
       <c r="CB2" s="20" t="s">
         <v>74</v>
       </c>
@@ -34710,22 +34710,22 @@
       <c r="CN2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="CO2" s="731" t="s">
+      <c r="CO2" s="754" t="s">
         <v>191</v>
       </c>
-      <c r="CP2" s="732"/>
-      <c r="CQ2" s="723" t="s">
+      <c r="CP2" s="755"/>
+      <c r="CQ2" s="752" t="s">
         <v>192</v>
       </c>
-      <c r="CR2" s="723"/>
-      <c r="CS2" s="732" t="s">
+      <c r="CR2" s="752"/>
+      <c r="CS2" s="755" t="s">
         <v>193</v>
       </c>
-      <c r="CT2" s="732"/>
-      <c r="CU2" s="723" t="s">
+      <c r="CT2" s="755"/>
+      <c r="CU2" s="752" t="s">
         <v>194</v>
       </c>
-      <c r="CV2" s="724"/>
+      <c r="CV2" s="753"/>
     </row>
     <row r="3" spans="1:100" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="99" t="s">
@@ -35184,9 +35184,7 @@
         <v>134</v>
       </c>
       <c r="B6" s="74"/>
-      <c r="C6" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="C6" s="148"/>
       <c r="D6" s="148"/>
       <c r="E6" s="148"/>
       <c r="F6" s="148"/>
@@ -35199,84 +35197,36 @@
       <c r="M6" s="148"/>
       <c r="N6" s="148"/>
       <c r="O6" s="148"/>
-      <c r="P6" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="P6" s="148"/>
       <c r="Q6" s="148"/>
-      <c r="R6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="S6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="T6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="U6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="V6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="W6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="X6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y6" s="149" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z6" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="R6" s="148"/>
+      <c r="S6" s="148"/>
+      <c r="T6" s="148"/>
+      <c r="U6" s="148"/>
+      <c r="V6" s="148"/>
+      <c r="W6" s="148"/>
+      <c r="X6" s="148"/>
+      <c r="Y6" s="149"/>
+      <c r="Z6" s="148"/>
       <c r="AA6" s="74"/>
       <c r="AB6" s="74"/>
-      <c r="AC6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL6" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="AC6" s="148"/>
+      <c r="AD6" s="148"/>
+      <c r="AE6" s="148"/>
+      <c r="AF6" s="148"/>
+      <c r="AG6" s="148"/>
+      <c r="AH6" s="148"/>
+      <c r="AI6" s="148"/>
+      <c r="AJ6" s="148"/>
+      <c r="AK6" s="148"/>
+      <c r="AL6" s="148"/>
       <c r="AM6" s="74"/>
       <c r="AN6" s="74"/>
       <c r="AO6" s="74"/>
-      <c r="AP6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS6" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="AP6" s="148"/>
+      <c r="AQ6" s="148"/>
+      <c r="AR6" s="148"/>
+      <c r="AS6" s="148"/>
       <c r="AT6" s="74"/>
       <c r="AU6" s="74"/>
       <c r="AV6" s="74"/>
@@ -35307,18 +35257,10 @@
       <c r="BU6" s="74"/>
       <c r="BV6" s="74"/>
       <c r="BW6" s="74"/>
-      <c r="BX6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="BY6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="BZ6" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="CA6" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="BX6" s="148"/>
+      <c r="BY6" s="148"/>
+      <c r="BZ6" s="148"/>
+      <c r="CA6" s="148"/>
       <c r="CB6" s="74"/>
       <c r="CC6" s="74"/>
       <c r="CD6" s="74"/>
@@ -35333,30 +35275,20 @@
       <c r="CM6" s="74"/>
       <c r="CN6" s="74"/>
       <c r="CO6" s="74"/>
-      <c r="CP6" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="CP6" s="148"/>
       <c r="CQ6" s="74"/>
-      <c r="CR6" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="CR6" s="148"/>
       <c r="CS6" s="74"/>
-      <c r="CT6" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="CT6" s="148"/>
       <c r="CU6" s="74"/>
-      <c r="CV6" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="CV6" s="148"/>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>136</v>
       </c>
       <c r="B7" s="74"/>
-      <c r="C7" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="C7" s="148"/>
       <c r="D7" s="148"/>
       <c r="E7" s="148"/>
       <c r="F7" s="148"/>
@@ -35369,84 +35301,36 @@
       <c r="M7" s="148"/>
       <c r="N7" s="148"/>
       <c r="O7" s="148"/>
-      <c r="P7" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="P7" s="148"/>
       <c r="Q7" s="148"/>
-      <c r="R7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="S7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="T7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="U7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="V7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="W7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="X7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y7" s="149" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z7" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="R7" s="148"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="148"/>
+      <c r="U7" s="148"/>
+      <c r="V7" s="148"/>
+      <c r="W7" s="148"/>
+      <c r="X7" s="148"/>
+      <c r="Y7" s="149"/>
+      <c r="Z7" s="148"/>
       <c r="AA7" s="74"/>
       <c r="AB7" s="74"/>
-      <c r="AC7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL7" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="148"/>
+      <c r="AF7" s="148"/>
+      <c r="AG7" s="148"/>
+      <c r="AH7" s="148"/>
+      <c r="AI7" s="148"/>
+      <c r="AJ7" s="148"/>
+      <c r="AK7" s="148"/>
+      <c r="AL7" s="148"/>
       <c r="AM7" s="74"/>
       <c r="AN7" s="74"/>
       <c r="AO7" s="74"/>
-      <c r="AP7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS7" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="AP7" s="148"/>
+      <c r="AQ7" s="148"/>
+      <c r="AR7" s="148"/>
+      <c r="AS7" s="148"/>
       <c r="AT7" s="74"/>
       <c r="AU7" s="74"/>
       <c r="AV7" s="74"/>
@@ -35477,18 +35361,10 @@
       <c r="BU7" s="74"/>
       <c r="BV7" s="74"/>
       <c r="BW7" s="74"/>
-      <c r="BX7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="BY7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="BZ7" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="CA7" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="BX7" s="148"/>
+      <c r="BY7" s="148"/>
+      <c r="BZ7" s="148"/>
+      <c r="CA7" s="148"/>
       <c r="CB7" s="74"/>
       <c r="CC7" s="74"/>
       <c r="CD7" s="74"/>
@@ -35503,30 +35379,20 @@
       <c r="CM7" s="74"/>
       <c r="CN7" s="74"/>
       <c r="CO7" s="74"/>
-      <c r="CP7" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="CP7" s="148"/>
       <c r="CQ7" s="74"/>
-      <c r="CR7" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="CR7" s="148"/>
       <c r="CS7" s="74"/>
-      <c r="CT7" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="CT7" s="148"/>
       <c r="CU7" s="74"/>
-      <c r="CV7" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="CV7" s="148"/>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A8" s="150" t="s">
         <v>200</v>
       </c>
       <c r="B8" s="74"/>
-      <c r="C8" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="C8" s="148"/>
       <c r="D8" s="148"/>
       <c r="E8" s="148"/>
       <c r="F8" s="148"/>
@@ -35539,84 +35405,36 @@
       <c r="M8" s="148"/>
       <c r="N8" s="148"/>
       <c r="O8" s="148"/>
-      <c r="P8" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="P8" s="148"/>
       <c r="Q8" s="148"/>
-      <c r="R8" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="S8" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="T8" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="U8" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="V8" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="W8" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="X8" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y8" s="149" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z8" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="R8" s="148"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="148"/>
+      <c r="U8" s="148"/>
+      <c r="V8" s="148"/>
+      <c r="W8" s="148"/>
+      <c r="X8" s="148"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="148"/>
       <c r="AA8" s="74"/>
       <c r="AB8" s="74"/>
-      <c r="AC8" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD8" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE8" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF8" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG8" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH8" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI8" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ8" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK8" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL8" s="151" t="s">
-        <v>135</v>
-      </c>
+      <c r="AC8" s="151"/>
+      <c r="AD8" s="151"/>
+      <c r="AE8" s="151"/>
+      <c r="AF8" s="151"/>
+      <c r="AG8" s="151"/>
+      <c r="AH8" s="151"/>
+      <c r="AI8" s="151"/>
+      <c r="AJ8" s="151"/>
+      <c r="AK8" s="151"/>
+      <c r="AL8" s="151"/>
       <c r="AM8" s="74"/>
       <c r="AN8" s="74"/>
       <c r="AO8" s="74"/>
-      <c r="AP8" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ8" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR8" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS8" s="151" t="s">
-        <v>135</v>
-      </c>
+      <c r="AP8" s="151"/>
+      <c r="AQ8" s="151"/>
+      <c r="AR8" s="151"/>
+      <c r="AS8" s="151"/>
       <c r="AT8" s="74"/>
       <c r="AU8" s="74"/>
       <c r="AV8" s="74"/>
@@ -35647,18 +35465,10 @@
       <c r="BU8" s="74"/>
       <c r="BV8" s="74"/>
       <c r="BW8" s="74"/>
-      <c r="BX8" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="BY8" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="BZ8" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="CA8" s="151" t="s">
-        <v>135</v>
-      </c>
+      <c r="BX8" s="148"/>
+      <c r="BY8" s="151"/>
+      <c r="BZ8" s="151"/>
+      <c r="CA8" s="151"/>
       <c r="CB8" s="74"/>
       <c r="CC8" s="74"/>
       <c r="CD8" s="74"/>
@@ -35673,21 +35483,13 @@
       <c r="CM8" s="74"/>
       <c r="CN8" s="74"/>
       <c r="CO8" s="74"/>
-      <c r="CP8" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="CP8" s="148"/>
       <c r="CQ8" s="74"/>
-      <c r="CR8" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="CR8" s="148"/>
       <c r="CS8" s="74"/>
-      <c r="CT8" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="CT8" s="148"/>
       <c r="CU8" s="74"/>
-      <c r="CV8" s="148" t="s">
-        <v>135</v>
-      </c>
+      <c r="CV8" s="148"/>
     </row>
     <row r="9" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A9" s="74"/>
@@ -40031,16 +39833,18 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BX2:BY2"/>
+    <mergeCell ref="BZ2:CA2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="CS2:CT2"/>
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CO1:CV1"/>
@@ -40057,18 +39861,16 @@
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BV1"/>
     <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="BD2:BE2"/>
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BL2:BM2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BX2:BY2"/>
-    <mergeCell ref="BZ2:CA2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40121,8 +39923,8 @@
       <c r="B2" s="209" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="763"/>
-      <c r="D2" s="763"/>
+      <c r="C2" s="756"/>
+      <c r="D2" s="756"/>
       <c r="E2" s="207"/>
       <c r="F2" s="207"/>
       <c r="G2" s="207"/>
@@ -40247,32 +40049,32 @@
     </row>
     <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="206"/>
-      <c r="B7" s="764" t="s">
+      <c r="B7" s="757" t="s">
         <v>464</v>
       </c>
-      <c r="C7" s="764"/>
-      <c r="D7" s="764"/>
+      <c r="C7" s="757"/>
+      <c r="D7" s="757"/>
       <c r="E7" s="207"/>
       <c r="F7" s="207"/>
       <c r="G7" s="207"/>
       <c r="H7" s="207"/>
       <c r="I7" s="207"/>
-      <c r="J7" s="764" t="s">
+      <c r="J7" s="757" t="s">
         <v>217</v>
       </c>
-      <c r="K7" s="764"/>
-      <c r="L7" s="764"/>
+      <c r="K7" s="757"/>
+      <c r="L7" s="757"/>
       <c r="M7" s="207"/>
       <c r="N7" s="207"/>
       <c r="O7" s="207"/>
       <c r="P7" s="208" t="s">
         <v>218</v>
       </c>
-      <c r="Q7" s="764" t="s">
+      <c r="Q7" s="757" t="s">
         <v>217</v>
       </c>
-      <c r="R7" s="764"/>
-      <c r="S7" s="764"/>
+      <c r="R7" s="757"/>
+      <c r="S7" s="757"/>
       <c r="T7" s="207"/>
       <c r="U7" s="221" t="s">
         <v>219</v>
@@ -40306,41 +40108,41 @@
       <c r="B9" s="222" t="s">
         <v>461</v>
       </c>
-      <c r="C9" s="759" t="s">
+      <c r="C9" s="758" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="760"/>
-      <c r="E9" s="759" t="s">
+      <c r="D9" s="759"/>
+      <c r="E9" s="758" t="s">
         <v>222</v>
       </c>
-      <c r="F9" s="760"/>
+      <c r="F9" s="759"/>
       <c r="G9" s="207"/>
       <c r="H9" s="207"/>
       <c r="I9" s="207"/>
       <c r="J9" s="222" t="s">
         <v>461</v>
       </c>
-      <c r="K9" s="759" t="s">
+      <c r="K9" s="758" t="s">
         <v>221</v>
       </c>
-      <c r="L9" s="760"/>
-      <c r="M9" s="759" t="s">
+      <c r="L9" s="759"/>
+      <c r="M9" s="758" t="s">
         <v>222</v>
       </c>
-      <c r="N9" s="760"/>
+      <c r="N9" s="759"/>
       <c r="O9" s="207"/>
       <c r="P9" s="207"/>
       <c r="Q9" s="222" t="s">
         <v>220</v>
       </c>
-      <c r="R9" s="759" t="s">
+      <c r="R9" s="758" t="s">
         <v>221</v>
       </c>
-      <c r="S9" s="760"/>
-      <c r="T9" s="759" t="s">
+      <c r="S9" s="759"/>
+      <c r="T9" s="758" t="s">
         <v>222</v>
       </c>
-      <c r="U9" s="760"/>
+      <c r="U9" s="759"/>
     </row>
     <row r="10" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="206"/>
@@ -40402,10 +40204,10 @@
       </c>
       <c r="C11" s="227"/>
       <c r="D11" s="227"/>
-      <c r="E11" s="756" t="s">
+      <c r="E11" s="760" t="s">
         <v>227</v>
       </c>
-      <c r="F11" s="757"/>
+      <c r="F11" s="761"/>
       <c r="G11" s="228"/>
       <c r="H11" s="228"/>
       <c r="I11" s="228"/>
@@ -40414,10 +40216,10 @@
       </c>
       <c r="K11" s="207"/>
       <c r="L11" s="207"/>
-      <c r="M11" s="761" t="s">
+      <c r="M11" s="763" t="s">
         <v>227</v>
       </c>
-      <c r="N11" s="762"/>
+      <c r="N11" s="764"/>
       <c r="O11" s="228"/>
       <c r="P11" s="228"/>
       <c r="Q11" s="226" t="s">
@@ -40425,10 +40227,10 @@
       </c>
       <c r="R11" s="227"/>
       <c r="S11" s="227"/>
-      <c r="T11" s="756" t="s">
+      <c r="T11" s="760" t="s">
         <v>227</v>
       </c>
-      <c r="U11" s="757"/>
+      <c r="U11" s="761"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="206"/>
@@ -40663,10 +40465,10 @@
       </c>
       <c r="C20" s="559"/>
       <c r="D20" s="255"/>
-      <c r="E20" s="756" t="s">
+      <c r="E20" s="760" t="s">
         <v>234</v>
       </c>
-      <c r="F20" s="757"/>
+      <c r="F20" s="761"/>
       <c r="G20" s="236"/>
       <c r="H20" s="236"/>
       <c r="I20" s="207"/>
@@ -40675,10 +40477,10 @@
       </c>
       <c r="K20" s="559"/>
       <c r="L20" s="255"/>
-      <c r="M20" s="756" t="s">
+      <c r="M20" s="760" t="s">
         <v>234</v>
       </c>
-      <c r="N20" s="757"/>
+      <c r="N20" s="761"/>
       <c r="O20" s="246"/>
       <c r="P20" s="246"/>
       <c r="Q20" s="226" t="s">
@@ -40686,10 +40488,10 @@
       </c>
       <c r="R20" s="559"/>
       <c r="S20" s="255"/>
-      <c r="T20" s="756" t="s">
+      <c r="T20" s="760" t="s">
         <v>234</v>
       </c>
-      <c r="U20" s="757"/>
+      <c r="U20" s="761"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="206"/>
@@ -40953,10 +40755,10 @@
       </c>
       <c r="C30" s="559"/>
       <c r="D30" s="255"/>
-      <c r="E30" s="756" t="s">
+      <c r="E30" s="760" t="s">
         <v>234</v>
       </c>
-      <c r="F30" s="757"/>
+      <c r="F30" s="761"/>
       <c r="G30" s="236"/>
       <c r="H30" s="236"/>
       <c r="I30" s="207"/>
@@ -40965,10 +40767,10 @@
       </c>
       <c r="K30" s="559"/>
       <c r="L30" s="255"/>
-      <c r="M30" s="756" t="s">
+      <c r="M30" s="760" t="s">
         <v>234</v>
       </c>
-      <c r="N30" s="757"/>
+      <c r="N30" s="761"/>
       <c r="O30" s="246"/>
       <c r="P30" s="246"/>
       <c r="Q30" s="226" t="s">
@@ -40976,10 +40778,10 @@
       </c>
       <c r="R30" s="559"/>
       <c r="S30" s="255"/>
-      <c r="T30" s="756" t="s">
+      <c r="T30" s="760" t="s">
         <v>234</v>
       </c>
-      <c r="U30" s="757"/>
+      <c r="U30" s="761"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="269"/>
@@ -41302,11 +41104,11 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="206"/>
-      <c r="B42" s="758"/>
-      <c r="C42" s="758"/>
-      <c r="D42" s="758"/>
-      <c r="E42" s="758"/>
-      <c r="F42" s="758"/>
+      <c r="B42" s="762"/>
+      <c r="C42" s="762"/>
+      <c r="D42" s="762"/>
+      <c r="E42" s="762"/>
+      <c r="F42" s="762"/>
       <c r="G42" s="246"/>
       <c r="H42" s="207"/>
       <c r="I42" s="246"/>
@@ -41450,15 +41252,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R9:S9"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="T30:U30"/>
@@ -41470,6 +41263,15 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="T20:U20"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42012,8 +41814,8 @@
       </c>
       <c r="C2" s="209"/>
       <c r="D2" s="209"/>
-      <c r="E2" s="763"/>
-      <c r="F2" s="763"/>
+      <c r="E2" s="756"/>
+      <c r="F2" s="756"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="208"/>
@@ -42045,13 +41847,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="206"/>
-      <c r="B6" s="764" t="s">
+      <c r="B6" s="757" t="s">
         <v>460</v>
       </c>
-      <c r="C6" s="764"/>
-      <c r="D6" s="764"/>
-      <c r="E6" s="764"/>
-      <c r="F6" s="764"/>
+      <c r="C6" s="757"/>
+      <c r="D6" s="757"/>
+      <c r="E6" s="757"/>
+      <c r="F6" s="757"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="206"/>
@@ -42209,11 +42011,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="206"/>
-      <c r="B22" s="758"/>
-      <c r="C22" s="758"/>
-      <c r="D22" s="758"/>
-      <c r="E22" s="758"/>
-      <c r="F22" s="758"/>
+      <c r="B22" s="762"/>
+      <c r="C22" s="762"/>
+      <c r="D22" s="762"/>
+      <c r="E22" s="762"/>
+      <c r="F22" s="762"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="206"/>
@@ -42577,12 +42379,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="681" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="711"/>
-      <c r="C1" s="711"/>
-      <c r="D1" s="711"/>
+      <c r="B1" s="682"/>
+      <c r="C1" s="682"/>
+      <c r="D1" s="682"/>
       <c r="E1" s="361"/>
       <c r="F1" s="794" t="s">
         <v>143</v>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2015_register_model_20161018_1.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2015_register_model_20161018_1.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sensitive Areas_reference" sheetId="1" r:id="rId1"/>
+    <sheet name="Information on sensitive area" sheetId="1" r:id="rId1"/>
     <sheet name="UWWTP Level" sheetId="2" r:id="rId2"/>
     <sheet name="agglomeration level" sheetId="3" r:id="rId3"/>
     <sheet name="Summary_legal_compliance" sheetId="4" r:id="rId4"/>
@@ -5248,48 +5248,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -5324,6 +5282,9 @@
     <xf numFmtId="3" fontId="11" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5372,17 +5333,122 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="12" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="32" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="19" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5396,107 +5462,41 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="19" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="12" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="64" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5593,15 +5593,40 @@
     <xf numFmtId="3" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="69" fillId="32" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="69" fillId="39" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5638,31 +5663,6 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="69" fillId="32" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="69" fillId="39" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Hyperlink 2" xfId="10"/>
@@ -5963,7 +5963,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF3385FD-841C-4BC7-9745-452C5BA68D31}" type="CELLRANGE">
+                    <a:fld id="{8263355B-0ACD-460F-97BB-35A5196A991D}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -5994,7 +5994,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33E0B08C-FDAB-43A7-B795-5E38B2E180FB}" type="CELLRANGE">
+                    <a:fld id="{F4CF9640-FAE5-4246-B591-E80D65D21D6F}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6198,7 +6198,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E7F6CDD-6319-43D3-8F25-D0ABDE58DC60}" type="CELLRANGE">
+                    <a:fld id="{B02CF3F3-D3E8-4EE0-953F-0E09C3BEF8CC}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6229,7 +6229,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{194FD52F-17C4-48A4-8485-624F09F05187}" type="CELLRANGE">
+                    <a:fld id="{B7EB4CA1-37CB-4C29-9F35-6A5909A58960}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6379,11 +6379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143959664"/>
-        <c:axId val="178046832"/>
+        <c:axId val="171808624"/>
+        <c:axId val="171809184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143959664"/>
+        <c:axId val="171808624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6426,7 +6426,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178046832"/>
+        <c:crossAx val="171809184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6434,7 +6434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178046832"/>
+        <c:axId val="171809184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6526,7 +6526,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143959664"/>
+        <c:crossAx val="171808624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6912,11 +6912,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="182586208"/>
-        <c:axId val="182586768"/>
+        <c:axId val="173730064"/>
+        <c:axId val="173730624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182586208"/>
+        <c:axId val="173730064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7014,7 +7014,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182586768"/>
+        <c:crossAx val="173730624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7022,7 +7022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182586768"/>
+        <c:axId val="173730624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7142,7 +7142,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182586208"/>
+        <c:crossAx val="173730064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8026,11 +8026,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="182831472"/>
-        <c:axId val="182832032"/>
+        <c:axId val="173735664"/>
+        <c:axId val="173736224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182831472"/>
+        <c:axId val="173735664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8133,7 +8133,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182832032"/>
+        <c:crossAx val="173736224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8141,7 +8141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182832032"/>
+        <c:axId val="173736224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8192,7 +8192,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182831472"/>
+        <c:crossAx val="173735664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8557,11 +8557,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="182835392"/>
-        <c:axId val="182835952"/>
+        <c:axId val="173832224"/>
+        <c:axId val="173832784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182835392"/>
+        <c:axId val="173832224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8672,7 +8672,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182835952"/>
+        <c:crossAx val="173832784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8680,7 +8680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182835952"/>
+        <c:axId val="173832784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8786,7 +8786,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182835392"/>
+        <c:crossAx val="173832224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9156,11 +9156,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="183078608"/>
-        <c:axId val="183079168"/>
+        <c:axId val="173836144"/>
+        <c:axId val="173836704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183078608"/>
+        <c:axId val="173836144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9271,7 +9271,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183079168"/>
+        <c:crossAx val="173836704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9279,7 +9279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183079168"/>
+        <c:axId val="173836704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9393,7 +9393,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183078608"/>
+        <c:crossAx val="173836144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9874,11 +9874,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="183084208"/>
-        <c:axId val="183084768"/>
+        <c:axId val="173361712"/>
+        <c:axId val="173362272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183084208"/>
+        <c:axId val="173361712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9984,7 +9984,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183084768"/>
+        <c:crossAx val="173362272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9992,7 +9992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183084768"/>
+        <c:axId val="173362272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10114,7 +10114,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183084208"/>
+        <c:crossAx val="173361712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10450,11 +10450,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="183186784"/>
-        <c:axId val="183187344"/>
+        <c:axId val="173365632"/>
+        <c:axId val="174103392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183186784"/>
+        <c:axId val="173365632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10565,7 +10565,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183187344"/>
+        <c:crossAx val="174103392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10573,7 +10573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183187344"/>
+        <c:axId val="174103392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10687,7 +10687,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183186784"/>
+        <c:crossAx val="173365632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11023,11 +11023,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="183190704"/>
-        <c:axId val="183191264"/>
+        <c:axId val="174106752"/>
+        <c:axId val="174107312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183190704"/>
+        <c:axId val="174106752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11138,7 +11138,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183191264"/>
+        <c:crossAx val="174107312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11146,7 +11146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183191264"/>
+        <c:axId val="174107312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11260,7 +11260,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183190704"/>
+        <c:crossAx val="174106752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11641,11 +11641,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="183440752"/>
-        <c:axId val="183441312"/>
+        <c:axId val="174110672"/>
+        <c:axId val="174338960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183440752"/>
+        <c:axId val="174110672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11743,7 +11743,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183441312"/>
+        <c:crossAx val="174338960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11751,7 +11751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183441312"/>
+        <c:axId val="174338960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11870,7 +11870,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183440752"/>
+        <c:crossAx val="174110672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12375,11 +12375,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="183624944"/>
-        <c:axId val="183625504"/>
+        <c:axId val="174344560"/>
+        <c:axId val="174345120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183624944"/>
+        <c:axId val="174344560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12422,7 +12422,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183625504"/>
+        <c:crossAx val="174345120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12430,7 +12430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183625504"/>
+        <c:axId val="174345120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12536,7 +12536,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183624944"/>
+        <c:crossAx val="174344560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12772,7 +12772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{335844A2-97EA-41F0-A340-BDC15362A40D}" type="CELLRANGE">
+                    <a:fld id="{7BD50273-EA47-490D-9B5A-622EB22234BE}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -12803,7 +12803,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B7666B6-017E-4C5D-95F7-8EC3159FF9F9}" type="CELLRANGE">
+                    <a:fld id="{A392ACD2-BB7C-4F55-92B9-807048C0E301}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13007,7 +13007,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B040B28D-2EAB-46D4-9A20-BFCF5B710314}" type="CELLRANGE">
+                    <a:fld id="{1E4F3C6A-E537-43C9-BB1C-8883028DEA69}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13038,7 +13038,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EAC706E3-0778-47F3-B544-4876708C0E69}" type="CELLRANGE">
+                    <a:fld id="{C1A3EB1E-0D5D-4C29-BE25-0AD65AF41F73}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13188,11 +13188,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="178050192"/>
-        <c:axId val="178050752"/>
+        <c:axId val="171812544"/>
+        <c:axId val="171813104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178050192"/>
+        <c:axId val="171812544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13290,7 +13290,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178050752"/>
+        <c:crossAx val="171813104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13298,7 +13298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178050752"/>
+        <c:axId val="171813104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13398,7 +13398,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178050192"/>
+        <c:crossAx val="171812544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14316,11 +14316,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="178058032"/>
-        <c:axId val="178058592"/>
+        <c:axId val="172306064"/>
+        <c:axId val="172306624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178058032"/>
+        <c:axId val="172306064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14418,7 +14418,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178058592"/>
+        <c:crossAx val="172306624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14426,7 +14426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178058592"/>
+        <c:axId val="172306624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14532,7 +14532,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178058032"/>
+        <c:crossAx val="172306064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14990,11 +14990,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="181884448"/>
-        <c:axId val="181885008"/>
+        <c:axId val="172821120"/>
+        <c:axId val="172821680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181884448"/>
+        <c:axId val="172821120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15092,7 +15092,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181885008"/>
+        <c:crossAx val="172821680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15100,7 +15100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181885008"/>
+        <c:axId val="172821680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15200,7 +15200,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181884448"/>
+        <c:crossAx val="172821120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15658,11 +15658,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="181888928"/>
-        <c:axId val="181889488"/>
+        <c:axId val="173223296"/>
+        <c:axId val="173223856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181888928"/>
+        <c:axId val="173223296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15760,7 +15760,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181889488"/>
+        <c:crossAx val="173223856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15768,7 +15768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181889488"/>
+        <c:axId val="173223856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15868,7 +15868,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181888928"/>
+        <c:crossAx val="173223296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16399,11 +16399,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="182007408"/>
-        <c:axId val="182007968"/>
+        <c:axId val="173227216"/>
+        <c:axId val="173227776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182007408"/>
+        <c:axId val="173227216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16446,7 +16446,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182007968"/>
+        <c:crossAx val="173227776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16454,7 +16454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182007968"/>
+        <c:axId val="173227776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16565,7 +16565,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182007408"/>
+        <c:crossAx val="173227216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17095,11 +17095,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="182102672"/>
-        <c:axId val="182103232"/>
+        <c:axId val="173109296"/>
+        <c:axId val="173109856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182102672"/>
+        <c:axId val="173109296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17142,7 +17142,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182103232"/>
+        <c:crossAx val="173109856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17150,7 +17150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182103232"/>
+        <c:axId val="173109856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17269,7 +17269,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182102672"/>
+        <c:crossAx val="173109296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17609,11 +17609,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="182582288"/>
-        <c:axId val="182582848"/>
+        <c:axId val="173113216"/>
+        <c:axId val="173113776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182582288"/>
+        <c:axId val="173113216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17708,7 +17708,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182582848"/>
+        <c:crossAx val="173113776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17716,7 +17716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182582848"/>
+        <c:axId val="173113776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -17836,7 +17836,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182582288"/>
+        <c:crossAx val="173113216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29209,8 +29209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR8"/>
   <sheetViews>
-    <sheetView topLeftCell="R19" workbookViewId="0">
-      <selection activeCell="V47" sqref="V47"/>
+    <sheetView tabSelected="1" topLeftCell="R19" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29735,35 +29735,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="798" t="s">
+      <c r="A1" s="808" t="s">
         <v>465</v>
       </c>
-      <c r="B1" s="799"/>
-      <c r="C1" s="799"/>
+      <c r="B1" s="809"/>
+      <c r="C1" s="809"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="807" t="s">
+      <c r="A3" s="816" t="s">
         <v>345</v>
       </c>
-      <c r="B3" s="809" t="s">
+      <c r="B3" s="818" t="s">
         <v>439</v>
       </c>
-      <c r="C3" s="810"/>
-      <c r="D3" s="805" t="s">
+      <c r="C3" s="819"/>
+      <c r="D3" s="814" t="s">
         <v>466</v>
       </c>
-      <c r="E3" s="806"/>
-      <c r="AA3" s="751" t="s">
+      <c r="E3" s="815"/>
+      <c r="AA3" s="748" t="s">
         <v>359</v>
       </c>
-      <c r="AB3" s="751"/>
-      <c r="AC3" s="751" t="s">
+      <c r="AB3" s="748"/>
+      <c r="AC3" s="748" t="s">
         <v>444</v>
       </c>
-      <c r="AD3" s="751"/>
+      <c r="AD3" s="748"/>
     </row>
     <row r="4" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="808"/>
+      <c r="A4" s="817"/>
       <c r="B4" s="427" t="s">
         <v>443</v>
       </c>
@@ -29906,14 +29906,14 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z10" s="479"/>
-      <c r="AA10" s="751" t="s">
+      <c r="AA10" s="748" t="s">
         <v>445</v>
       </c>
-      <c r="AB10" s="751"/>
-      <c r="AC10" s="751" t="s">
+      <c r="AB10" s="748"/>
+      <c r="AC10" s="748" t="s">
         <v>446</v>
       </c>
-      <c r="AD10" s="751"/>
+      <c r="AD10" s="748"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z11" s="479" t="s">
@@ -29958,7 +29958,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="807" t="s">
+      <c r="A13" s="816" t="s">
         <v>346</v>
       </c>
       <c r="B13" s="426" t="str">
@@ -29990,7 +29990,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="808"/>
+      <c r="A14" s="817"/>
       <c r="B14" s="429" t="s">
         <v>347</v>
       </c>
@@ -30076,27 +30076,27 @@
       <c r="A21" t="s">
         <v>450</v>
       </c>
-      <c r="B21" s="800" t="s">
+      <c r="B21" s="798" t="s">
         <v>459</v>
       </c>
-      <c r="C21" s="800"/>
-      <c r="D21" s="800"/>
-      <c r="E21" s="800"/>
+      <c r="C21" s="798"/>
+      <c r="D21" s="798"/>
+      <c r="E21" s="798"/>
     </row>
     <row r="22" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="431" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="811" t="str">
+      <c r="B22" s="820" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="812"/>
-      <c r="D22" s="811" t="str">
+      <c r="C22" s="821"/>
+      <c r="D22" s="820" t="str">
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
-      <c r="E22" s="812"/>
+      <c r="E22" s="821"/>
     </row>
     <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="432"/>
@@ -30471,16 +30471,16 @@
       <c r="A41" s="434" t="s">
         <v>357</v>
       </c>
-      <c r="B41" s="801" t="str">
+      <c r="B41" s="810" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="802"/>
-      <c r="D41" s="803" t="str">
+      <c r="C41" s="811"/>
+      <c r="D41" s="812" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="804"/>
+      <c r="E41" s="813"/>
       <c r="AA41" t="s">
         <v>440</v>
       </c>
@@ -30630,11 +30630,11 @@
       <c r="AA48" t="s">
         <v>450</v>
       </c>
-      <c r="AB48" s="800" t="s">
+      <c r="AB48" s="798" t="s">
         <v>471</v>
       </c>
-      <c r="AC48" s="800"/>
-      <c r="AD48" s="800"/>
+      <c r="AC48" s="798"/>
+      <c r="AD48" s="798"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="500" t="s">
@@ -30908,11 +30908,11 @@
       <c r="AA62" t="s">
         <v>450</v>
       </c>
-      <c r="AB62" s="800" t="s">
+      <c r="AB62" s="798" t="s">
         <v>472</v>
       </c>
-      <c r="AC62" s="800"/>
-      <c r="AD62" s="800"/>
+      <c r="AC62" s="798"/>
+      <c r="AD62" s="798"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="428"/>
@@ -31147,12 +31147,12 @@
       <c r="A74" s="666" t="s">
         <v>454</v>
       </c>
-      <c r="B74" s="800" t="s">
+      <c r="B74" s="798" t="s">
         <v>455</v>
       </c>
-      <c r="C74" s="800"/>
-      <c r="D74" s="800"/>
-      <c r="E74" s="800"/>
+      <c r="C74" s="798"/>
+      <c r="D74" s="798"/>
+      <c r="E74" s="798"/>
     </row>
     <row r="75" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="449" t="s">
@@ -31445,16 +31445,16 @@
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B85" s="815" t="str">
+      <c r="B85" s="801" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="816"/>
-      <c r="D85" s="815" t="str">
+      <c r="C85" s="802"/>
+      <c r="D85" s="801" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="816"/>
+      <c r="E85" s="802"/>
       <c r="Z85" t="s">
         <v>428</v>
       </c>
@@ -31468,11 +31468,11 @@
     </row>
     <row r="86" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="299"/>
-      <c r="B86" s="817" t="s">
+      <c r="B86" s="803" t="s">
         <v>255</v>
       </c>
       <c r="C86" s="767"/>
-      <c r="D86" s="817" t="s">
+      <c r="D86" s="803" t="s">
         <v>255</v>
       </c>
       <c r="E86" s="767"/>
@@ -31681,24 +31681,24 @@
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B101" s="815" t="str">
+      <c r="B101" s="801" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="816"/>
-      <c r="D101" s="815" t="str">
+      <c r="C101" s="802"/>
+      <c r="D101" s="801" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="816"/>
+      <c r="E101" s="802"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="299"/>
-      <c r="B102" s="817" t="s">
+      <c r="B102" s="803" t="s">
         <v>255</v>
       </c>
       <c r="C102" s="767"/>
-      <c r="D102" s="817" t="s">
+      <c r="D102" s="803" t="s">
         <v>255</v>
       </c>
       <c r="E102" s="767"/>
@@ -31915,27 +31915,27 @@
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B116" s="818" t="str">
+      <c r="B116" s="804" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="819"/>
-      <c r="D116" s="818" t="str">
+      <c r="C116" s="805"/>
+      <c r="D116" s="804" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="819"/>
+      <c r="E116" s="805"/>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="462"/>
-      <c r="B117" s="820" t="s">
+      <c r="B117" s="806" t="s">
         <v>255</v>
       </c>
-      <c r="C117" s="821"/>
-      <c r="D117" s="820" t="s">
+      <c r="C117" s="807"/>
+      <c r="D117" s="806" t="s">
         <v>255</v>
       </c>
-      <c r="E117" s="821"/>
+      <c r="E117" s="807"/>
       <c r="Z117" t="s">
         <v>428</v>
       </c>
@@ -32155,12 +32155,12 @@
       <c r="A129" s="466" t="s">
         <v>346</v>
       </c>
-      <c r="B129" s="813" t="str">
+      <c r="B129" s="799" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="814"/>
-      <c r="D129" s="814"/>
+      <c r="C129" s="800"/>
+      <c r="D129" s="800"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="467"/>
@@ -32827,12 +32827,17 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AB62:AD62"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
@@ -32846,17 +32851,12 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="AB62:AD62"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AB48:AD48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
@@ -33112,123 +33112,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="681" t="s">
+      <c r="A1" s="710" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="682"/>
-      <c r="C1" s="682"/>
-      <c r="D1" s="682"/>
-      <c r="E1" s="682"/>
-      <c r="F1" s="682"/>
-      <c r="G1" s="682"/>
-      <c r="H1" s="683" t="s">
+      <c r="B1" s="711"/>
+      <c r="C1" s="711"/>
+      <c r="D1" s="711"/>
+      <c r="E1" s="711"/>
+      <c r="F1" s="711"/>
+      <c r="G1" s="711"/>
+      <c r="H1" s="712" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="684"/>
-      <c r="J1" s="684"/>
-      <c r="K1" s="684"/>
-      <c r="L1" s="684"/>
-      <c r="M1" s="685"/>
-      <c r="N1" s="686" t="s">
+      <c r="I1" s="713"/>
+      <c r="J1" s="713"/>
+      <c r="K1" s="713"/>
+      <c r="L1" s="713"/>
+      <c r="M1" s="714"/>
+      <c r="N1" s="715" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="687"/>
-      <c r="P1" s="687"/>
-      <c r="Q1" s="688"/>
-      <c r="R1" s="688"/>
-      <c r="S1" s="687"/>
-      <c r="T1" s="687"/>
-      <c r="U1" s="687"/>
-      <c r="V1" s="689" t="s">
+      <c r="O1" s="693"/>
+      <c r="P1" s="693"/>
+      <c r="Q1" s="716"/>
+      <c r="R1" s="716"/>
+      <c r="S1" s="693"/>
+      <c r="T1" s="693"/>
+      <c r="U1" s="693"/>
+      <c r="V1" s="717" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="690"/>
-      <c r="X1" s="691"/>
-      <c r="Y1" s="691"/>
-      <c r="Z1" s="692"/>
-      <c r="AA1" s="693" t="s">
+      <c r="W1" s="718"/>
+      <c r="X1" s="719"/>
+      <c r="Y1" s="719"/>
+      <c r="Z1" s="720"/>
+      <c r="AA1" s="721" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="694"/>
-      <c r="AC1" s="694"/>
-      <c r="AD1" s="694"/>
-      <c r="AE1" s="694"/>
-      <c r="AF1" s="694"/>
-      <c r="AG1" s="694"/>
-      <c r="AH1" s="694"/>
-      <c r="AI1" s="694"/>
-      <c r="AJ1" s="694"/>
-      <c r="AK1" s="694"/>
-      <c r="AL1" s="694"/>
-      <c r="AM1" s="694"/>
+      <c r="AB1" s="722"/>
+      <c r="AC1" s="722"/>
+      <c r="AD1" s="722"/>
+      <c r="AE1" s="722"/>
+      <c r="AF1" s="722"/>
+      <c r="AG1" s="722"/>
+      <c r="AH1" s="722"/>
+      <c r="AI1" s="722"/>
+      <c r="AJ1" s="722"/>
+      <c r="AK1" s="722"/>
+      <c r="AL1" s="722"/>
+      <c r="AM1" s="722"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="8"/>
-      <c r="AP1" s="706" t="s">
+      <c r="AP1" s="692" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="687"/>
-      <c r="AR1" s="687"/>
-      <c r="AS1" s="687"/>
-      <c r="AT1" s="687"/>
-      <c r="AU1" s="687"/>
-      <c r="AV1" s="687"/>
-      <c r="AW1" s="707"/>
-      <c r="AX1" s="714" t="s">
+      <c r="AQ1" s="693"/>
+      <c r="AR1" s="693"/>
+      <c r="AS1" s="693"/>
+      <c r="AT1" s="693"/>
+      <c r="AU1" s="693"/>
+      <c r="AV1" s="693"/>
+      <c r="AW1" s="694"/>
+      <c r="AX1" s="701" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="715"/>
-      <c r="AZ1" s="715"/>
-      <c r="BA1" s="715"/>
-      <c r="BB1" s="715"/>
-      <c r="BC1" s="716"/>
-      <c r="BD1" s="717" t="s">
+      <c r="AY1" s="702"/>
+      <c r="AZ1" s="702"/>
+      <c r="BA1" s="702"/>
+      <c r="BB1" s="702"/>
+      <c r="BC1" s="703"/>
+      <c r="BD1" s="704" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="718"/>
-      <c r="BF1" s="718"/>
-      <c r="BG1" s="718"/>
-      <c r="BH1" s="718"/>
-      <c r="BI1" s="719"/>
-      <c r="BJ1" s="720" t="s">
+      <c r="BE1" s="705"/>
+      <c r="BF1" s="705"/>
+      <c r="BG1" s="705"/>
+      <c r="BH1" s="705"/>
+      <c r="BI1" s="706"/>
+      <c r="BJ1" s="707" t="s">
         <v>56</v>
       </c>
-      <c r="BK1" s="721"/>
-      <c r="BL1" s="721"/>
-      <c r="BM1" s="721"/>
-      <c r="BN1" s="721"/>
-      <c r="BO1" s="721"/>
-      <c r="BP1" s="722"/>
-      <c r="BQ1" s="695" t="s">
+      <c r="BK1" s="708"/>
+      <c r="BL1" s="708"/>
+      <c r="BM1" s="708"/>
+      <c r="BN1" s="708"/>
+      <c r="BO1" s="708"/>
+      <c r="BP1" s="709"/>
+      <c r="BQ1" s="681" t="s">
         <v>57</v>
       </c>
-      <c r="BR1" s="696"/>
-      <c r="BS1" s="696"/>
-      <c r="BT1" s="696"/>
-      <c r="BU1" s="696"/>
-      <c r="BV1" s="696"/>
+      <c r="BR1" s="682"/>
+      <c r="BS1" s="682"/>
+      <c r="BT1" s="682"/>
+      <c r="BU1" s="682"/>
+      <c r="BV1" s="682"/>
       <c r="BW1" s="8"/>
       <c r="BX1" s="9"/>
-      <c r="BY1" s="697" t="s">
+      <c r="BY1" s="683" t="s">
         <v>58</v>
       </c>
-      <c r="BZ1" s="698"/>
-      <c r="CA1" s="698"/>
-      <c r="CB1" s="698"/>
-      <c r="CC1" s="698"/>
-      <c r="CD1" s="698"/>
-      <c r="CE1" s="698"/>
-      <c r="CF1" s="699"/>
-      <c r="CG1" s="699"/>
-      <c r="CH1" s="699"/>
-      <c r="CI1" s="699"/>
-      <c r="CJ1" s="699"/>
-      <c r="CK1" s="699"/>
-      <c r="CL1" s="699"/>
-      <c r="CM1" s="699"/>
-      <c r="CN1" s="699"/>
-      <c r="CO1" s="699"/>
-      <c r="CP1" s="699"/>
-      <c r="CQ1" s="699"/>
+      <c r="BZ1" s="684"/>
+      <c r="CA1" s="684"/>
+      <c r="CB1" s="684"/>
+      <c r="CC1" s="684"/>
+      <c r="CD1" s="684"/>
+      <c r="CE1" s="684"/>
+      <c r="CF1" s="685"/>
+      <c r="CG1" s="685"/>
+      <c r="CH1" s="685"/>
+      <c r="CI1" s="685"/>
+      <c r="CJ1" s="685"/>
+      <c r="CK1" s="685"/>
+      <c r="CL1" s="685"/>
+      <c r="CM1" s="685"/>
+      <c r="CN1" s="685"/>
+      <c r="CO1" s="685"/>
+      <c r="CP1" s="685"/>
+      <c r="CQ1" s="685"/>
     </row>
     <row r="2" spans="1:95" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -33252,18 +33252,18 @@
       <c r="G2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="700" t="s">
+      <c r="H2" s="686" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="701"/>
-      <c r="J2" s="701" t="s">
+      <c r="I2" s="687"/>
+      <c r="J2" s="687" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="701"/>
-      <c r="L2" s="701" t="s">
+      <c r="K2" s="687"/>
+      <c r="L2" s="687" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="702"/>
+      <c r="M2" s="688"/>
       <c r="N2" s="12" t="s">
         <v>59</v>
       </c>
@@ -33372,36 +33372,36 @@
       <c r="AW2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AX2" s="703" t="s">
+      <c r="AX2" s="689" t="s">
         <v>93</v>
       </c>
-      <c r="AY2" s="704"/>
-      <c r="AZ2" s="704"/>
-      <c r="BA2" s="704" t="s">
+      <c r="AY2" s="690"/>
+      <c r="AZ2" s="690"/>
+      <c r="BA2" s="690" t="s">
         <v>94</v>
       </c>
-      <c r="BB2" s="704"/>
-      <c r="BC2" s="705"/>
-      <c r="BD2" s="708" t="s">
+      <c r="BB2" s="690"/>
+      <c r="BC2" s="691"/>
+      <c r="BD2" s="695" t="s">
         <v>93</v>
       </c>
-      <c r="BE2" s="709"/>
-      <c r="BF2" s="709"/>
-      <c r="BG2" s="709" t="s">
+      <c r="BE2" s="696"/>
+      <c r="BF2" s="696"/>
+      <c r="BG2" s="696" t="s">
         <v>94</v>
       </c>
-      <c r="BH2" s="709"/>
-      <c r="BI2" s="710"/>
-      <c r="BJ2" s="711" t="s">
+      <c r="BH2" s="696"/>
+      <c r="BI2" s="697"/>
+      <c r="BJ2" s="698" t="s">
         <v>93</v>
       </c>
-      <c r="BK2" s="712"/>
-      <c r="BL2" s="712"/>
-      <c r="BM2" s="712" t="s">
+      <c r="BK2" s="699"/>
+      <c r="BL2" s="699"/>
+      <c r="BM2" s="699" t="s">
         <v>94</v>
       </c>
-      <c r="BN2" s="713"/>
-      <c r="BO2" s="713"/>
+      <c r="BN2" s="700"/>
+      <c r="BO2" s="700"/>
       <c r="BP2" s="24" t="s">
         <v>95</v>
       </c>
@@ -34308,6 +34308,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="BQ1:BV1"/>
     <mergeCell ref="BY1:CQ1"/>
     <mergeCell ref="H2:I2"/>
@@ -34323,11 +34328,6 @@
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <conditionalFormatting sqref="A13:A14 A4:B4">
     <cfRule type="duplicateValues" dxfId="8" priority="1"/>
@@ -34343,7 +34343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -34366,124 +34366,124 @@
         <v>138</v>
       </c>
       <c r="L1" s="87"/>
-      <c r="M1" s="727" t="s">
+      <c r="M1" s="749" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="728" t="s">
+      <c r="N1" s="750" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="729"/>
-      <c r="P1" s="729"/>
-      <c r="Q1" s="729"/>
-      <c r="R1" s="730" t="s">
+      <c r="O1" s="751"/>
+      <c r="P1" s="751"/>
+      <c r="Q1" s="751"/>
+      <c r="R1" s="752" t="s">
         <v>141</v>
       </c>
-      <c r="S1" s="731"/>
-      <c r="T1" s="731"/>
-      <c r="U1" s="731"/>
-      <c r="V1" s="731"/>
-      <c r="W1" s="731"/>
-      <c r="X1" s="732"/>
+      <c r="S1" s="744"/>
+      <c r="T1" s="744"/>
+      <c r="U1" s="744"/>
+      <c r="V1" s="744"/>
+      <c r="W1" s="744"/>
+      <c r="X1" s="753"/>
       <c r="Y1" s="733" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="718"/>
-      <c r="AA1" s="736" t="s">
+      <c r="Z1" s="705"/>
+      <c r="AA1" s="754" t="s">
         <v>143</v>
       </c>
-      <c r="AB1" s="738" t="s">
+      <c r="AB1" s="745" t="s">
         <v>144</v>
       </c>
-      <c r="AC1" s="746" t="s">
+      <c r="AC1" s="740" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="747"/>
-      <c r="AE1" s="747"/>
-      <c r="AF1" s="748"/>
-      <c r="AG1" s="749" t="s">
+      <c r="AD1" s="741"/>
+      <c r="AE1" s="741"/>
+      <c r="AF1" s="742"/>
+      <c r="AG1" s="743" t="s">
         <v>146</v>
       </c>
-      <c r="AH1" s="731"/>
-      <c r="AI1" s="731"/>
-      <c r="AJ1" s="731"/>
-      <c r="AK1" s="731"/>
-      <c r="AL1" s="731"/>
-      <c r="AM1" s="731"/>
-      <c r="AN1" s="731"/>
-      <c r="AO1" s="738" t="s">
+      <c r="AH1" s="744"/>
+      <c r="AI1" s="744"/>
+      <c r="AJ1" s="744"/>
+      <c r="AK1" s="744"/>
+      <c r="AL1" s="744"/>
+      <c r="AM1" s="744"/>
+      <c r="AN1" s="744"/>
+      <c r="AO1" s="745" t="s">
         <v>147</v>
       </c>
       <c r="AP1" s="733" t="s">
         <v>148</v>
       </c>
-      <c r="AQ1" s="718"/>
-      <c r="AR1" s="718"/>
-      <c r="AS1" s="719"/>
-      <c r="AT1" s="750" t="s">
+      <c r="AQ1" s="705"/>
+      <c r="AR1" s="705"/>
+      <c r="AS1" s="706"/>
+      <c r="AT1" s="747" t="s">
         <v>149</v>
       </c>
-      <c r="AU1" s="751"/>
-      <c r="AV1" s="751"/>
-      <c r="AW1" s="751"/>
-      <c r="AX1" s="751"/>
-      <c r="AY1" s="751"/>
-      <c r="AZ1" s="751"/>
-      <c r="BA1" s="751"/>
-      <c r="BB1" s="751"/>
-      <c r="BC1" s="751"/>
-      <c r="BD1" s="751"/>
-      <c r="BE1" s="751"/>
-      <c r="BF1" s="751"/>
-      <c r="BG1" s="751"/>
-      <c r="BH1" s="751"/>
-      <c r="BI1" s="751"/>
-      <c r="BJ1" s="751"/>
-      <c r="BK1" s="751"/>
-      <c r="BL1" s="751"/>
-      <c r="BM1" s="751"/>
-      <c r="BN1" s="751"/>
-      <c r="BO1" s="751"/>
-      <c r="BP1" s="751"/>
-      <c r="BQ1" s="751"/>
-      <c r="BR1" s="751"/>
-      <c r="BS1" s="751"/>
-      <c r="BT1" s="751"/>
-      <c r="BU1" s="751"/>
-      <c r="BV1" s="751"/>
-      <c r="BW1" s="738" t="s">
+      <c r="AU1" s="748"/>
+      <c r="AV1" s="748"/>
+      <c r="AW1" s="748"/>
+      <c r="AX1" s="748"/>
+      <c r="AY1" s="748"/>
+      <c r="AZ1" s="748"/>
+      <c r="BA1" s="748"/>
+      <c r="BB1" s="748"/>
+      <c r="BC1" s="748"/>
+      <c r="BD1" s="748"/>
+      <c r="BE1" s="748"/>
+      <c r="BF1" s="748"/>
+      <c r="BG1" s="748"/>
+      <c r="BH1" s="748"/>
+      <c r="BI1" s="748"/>
+      <c r="BJ1" s="748"/>
+      <c r="BK1" s="748"/>
+      <c r="BL1" s="748"/>
+      <c r="BM1" s="748"/>
+      <c r="BN1" s="748"/>
+      <c r="BO1" s="748"/>
+      <c r="BP1" s="748"/>
+      <c r="BQ1" s="748"/>
+      <c r="BR1" s="748"/>
+      <c r="BS1" s="748"/>
+      <c r="BT1" s="748"/>
+      <c r="BU1" s="748"/>
+      <c r="BV1" s="748"/>
+      <c r="BW1" s="745" t="s">
         <v>150</v>
       </c>
       <c r="BX1" s="733" t="s">
         <v>151</v>
       </c>
-      <c r="BY1" s="718"/>
-      <c r="BZ1" s="718"/>
-      <c r="CA1" s="719"/>
-      <c r="CB1" s="740" t="s">
+      <c r="BY1" s="705"/>
+      <c r="BZ1" s="705"/>
+      <c r="CA1" s="706"/>
+      <c r="CB1" s="734" t="s">
         <v>52</v>
       </c>
-      <c r="CC1" s="740"/>
-      <c r="CD1" s="740"/>
-      <c r="CE1" s="740"/>
-      <c r="CF1" s="740"/>
-      <c r="CG1" s="740"/>
-      <c r="CH1" s="740"/>
-      <c r="CI1" s="740"/>
-      <c r="CJ1" s="740"/>
-      <c r="CK1" s="740"/>
-      <c r="CL1" s="740"/>
-      <c r="CM1" s="740"/>
+      <c r="CC1" s="734"/>
+      <c r="CD1" s="734"/>
+      <c r="CE1" s="734"/>
+      <c r="CF1" s="734"/>
+      <c r="CG1" s="734"/>
+      <c r="CH1" s="734"/>
+      <c r="CI1" s="734"/>
+      <c r="CJ1" s="734"/>
+      <c r="CK1" s="734"/>
+      <c r="CL1" s="734"/>
+      <c r="CM1" s="734"/>
       <c r="CN1" s="88"/>
-      <c r="CO1" s="741" t="s">
+      <c r="CO1" s="735" t="s">
         <v>57</v>
       </c>
-      <c r="CP1" s="687"/>
-      <c r="CQ1" s="687"/>
-      <c r="CR1" s="687"/>
-      <c r="CS1" s="687"/>
-      <c r="CT1" s="687"/>
-      <c r="CU1" s="687"/>
-      <c r="CV1" s="707"/>
+      <c r="CP1" s="693"/>
+      <c r="CQ1" s="693"/>
+      <c r="CR1" s="693"/>
+      <c r="CS1" s="693"/>
+      <c r="CT1" s="693"/>
+      <c r="CU1" s="693"/>
+      <c r="CV1" s="694"/>
     </row>
     <row r="2" spans="1:100" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
@@ -34522,7 +34522,7 @@
       <c r="L2" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="727"/>
+      <c r="M2" s="749"/>
       <c r="N2" s="94" t="s">
         <v>156</v>
       </c>
@@ -34538,22 +34538,22 @@
       <c r="R2" s="95" t="s">
         <v>424</v>
       </c>
-      <c r="S2" s="742" t="s">
+      <c r="S2" s="736" t="s">
         <v>159</v>
       </c>
-      <c r="T2" s="713"/>
-      <c r="U2" s="743" t="s">
+      <c r="T2" s="700"/>
+      <c r="U2" s="737" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="743"/>
-      <c r="W2" s="743" t="s">
+      <c r="V2" s="737"/>
+      <c r="W2" s="737" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="744"/>
-      <c r="Y2" s="734"/>
-      <c r="Z2" s="735"/>
-      <c r="AA2" s="737"/>
-      <c r="AB2" s="739"/>
+      <c r="X2" s="738"/>
+      <c r="Y2" s="727"/>
+      <c r="Z2" s="728"/>
+      <c r="AA2" s="755"/>
+      <c r="AB2" s="746"/>
       <c r="AC2" s="96" t="s">
         <v>160</v>
       </c>
@@ -34566,7 +34566,7 @@
       <c r="AF2" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="AG2" s="745" t="s">
+      <c r="AG2" s="739" t="s">
         <v>164</v>
       </c>
       <c r="AH2" s="725"/>
@@ -34584,15 +34584,15 @@
       <c r="AN2" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="AO2" s="739"/>
-      <c r="AP2" s="734" t="s">
+      <c r="AO2" s="746"/>
+      <c r="AP2" s="727" t="s">
         <v>169</v>
       </c>
-      <c r="AQ2" s="735"/>
-      <c r="AR2" s="723" t="s">
+      <c r="AQ2" s="728"/>
+      <c r="AR2" s="729" t="s">
         <v>170</v>
       </c>
-      <c r="AS2" s="724"/>
+      <c r="AS2" s="730"/>
       <c r="AT2" s="725" t="s">
         <v>171</v>
       </c>
@@ -34662,15 +34662,15 @@
       <c r="BV2" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="BW2" s="739"/>
-      <c r="BX2" s="734" t="s">
+      <c r="BW2" s="746"/>
+      <c r="BX2" s="727" t="s">
         <v>169</v>
       </c>
-      <c r="BY2" s="735"/>
-      <c r="BZ2" s="723" t="s">
+      <c r="BY2" s="728"/>
+      <c r="BZ2" s="729" t="s">
         <v>170</v>
       </c>
-      <c r="CA2" s="724"/>
+      <c r="CA2" s="730"/>
       <c r="CB2" s="20" t="s">
         <v>74</v>
       </c>
@@ -34710,22 +34710,22 @@
       <c r="CN2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="CO2" s="754" t="s">
+      <c r="CO2" s="731" t="s">
         <v>191</v>
       </c>
-      <c r="CP2" s="755"/>
-      <c r="CQ2" s="752" t="s">
+      <c r="CP2" s="732"/>
+      <c r="CQ2" s="723" t="s">
         <v>192</v>
       </c>
-      <c r="CR2" s="752"/>
-      <c r="CS2" s="755" t="s">
+      <c r="CR2" s="723"/>
+      <c r="CS2" s="732" t="s">
         <v>193</v>
       </c>
-      <c r="CT2" s="755"/>
-      <c r="CU2" s="752" t="s">
+      <c r="CT2" s="732"/>
+      <c r="CU2" s="723" t="s">
         <v>194</v>
       </c>
-      <c r="CV2" s="753"/>
+      <c r="CV2" s="724"/>
     </row>
     <row r="3" spans="1:100" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="99" t="s">
@@ -39833,18 +39833,16 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="BD2:BE2"/>
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BL2:BM2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BX2:BY2"/>
-    <mergeCell ref="BZ2:CA2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CO1:CV1"/>
@@ -39861,16 +39859,18 @@
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BV1"/>
     <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BX2:BY2"/>
+    <mergeCell ref="BZ2:CA2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="CS2:CT2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39923,8 +39923,8 @@
       <c r="B2" s="209" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="756"/>
-      <c r="D2" s="756"/>
+      <c r="C2" s="763"/>
+      <c r="D2" s="763"/>
       <c r="E2" s="207"/>
       <c r="F2" s="207"/>
       <c r="G2" s="207"/>
@@ -40049,32 +40049,32 @@
     </row>
     <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="206"/>
-      <c r="B7" s="757" t="s">
+      <c r="B7" s="764" t="s">
         <v>464</v>
       </c>
-      <c r="C7" s="757"/>
-      <c r="D7" s="757"/>
+      <c r="C7" s="764"/>
+      <c r="D7" s="764"/>
       <c r="E7" s="207"/>
       <c r="F7" s="207"/>
       <c r="G7" s="207"/>
       <c r="H7" s="207"/>
       <c r="I7" s="207"/>
-      <c r="J7" s="757" t="s">
+      <c r="J7" s="764" t="s">
         <v>217</v>
       </c>
-      <c r="K7" s="757"/>
-      <c r="L7" s="757"/>
+      <c r="K7" s="764"/>
+      <c r="L7" s="764"/>
       <c r="M7" s="207"/>
       <c r="N7" s="207"/>
       <c r="O7" s="207"/>
       <c r="P7" s="208" t="s">
         <v>218</v>
       </c>
-      <c r="Q7" s="757" t="s">
+      <c r="Q7" s="764" t="s">
         <v>217</v>
       </c>
-      <c r="R7" s="757"/>
-      <c r="S7" s="757"/>
+      <c r="R7" s="764"/>
+      <c r="S7" s="764"/>
       <c r="T7" s="207"/>
       <c r="U7" s="221" t="s">
         <v>219</v>
@@ -40108,41 +40108,41 @@
       <c r="B9" s="222" t="s">
         <v>461</v>
       </c>
-      <c r="C9" s="758" t="s">
+      <c r="C9" s="759" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="759"/>
-      <c r="E9" s="758" t="s">
+      <c r="D9" s="760"/>
+      <c r="E9" s="759" t="s">
         <v>222</v>
       </c>
-      <c r="F9" s="759"/>
+      <c r="F9" s="760"/>
       <c r="G9" s="207"/>
       <c r="H9" s="207"/>
       <c r="I9" s="207"/>
       <c r="J9" s="222" t="s">
         <v>461</v>
       </c>
-      <c r="K9" s="758" t="s">
+      <c r="K9" s="759" t="s">
         <v>221</v>
       </c>
-      <c r="L9" s="759"/>
-      <c r="M9" s="758" t="s">
+      <c r="L9" s="760"/>
+      <c r="M9" s="759" t="s">
         <v>222</v>
       </c>
-      <c r="N9" s="759"/>
+      <c r="N9" s="760"/>
       <c r="O9" s="207"/>
       <c r="P9" s="207"/>
       <c r="Q9" s="222" t="s">
         <v>220</v>
       </c>
-      <c r="R9" s="758" t="s">
+      <c r="R9" s="759" t="s">
         <v>221</v>
       </c>
-      <c r="S9" s="759"/>
-      <c r="T9" s="758" t="s">
+      <c r="S9" s="760"/>
+      <c r="T9" s="759" t="s">
         <v>222</v>
       </c>
-      <c r="U9" s="759"/>
+      <c r="U9" s="760"/>
     </row>
     <row r="10" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="206"/>
@@ -40204,10 +40204,10 @@
       </c>
       <c r="C11" s="227"/>
       <c r="D11" s="227"/>
-      <c r="E11" s="760" t="s">
+      <c r="E11" s="756" t="s">
         <v>227</v>
       </c>
-      <c r="F11" s="761"/>
+      <c r="F11" s="757"/>
       <c r="G11" s="228"/>
       <c r="H11" s="228"/>
       <c r="I11" s="228"/>
@@ -40216,10 +40216,10 @@
       </c>
       <c r="K11" s="207"/>
       <c r="L11" s="207"/>
-      <c r="M11" s="763" t="s">
+      <c r="M11" s="761" t="s">
         <v>227</v>
       </c>
-      <c r="N11" s="764"/>
+      <c r="N11" s="762"/>
       <c r="O11" s="228"/>
       <c r="P11" s="228"/>
       <c r="Q11" s="226" t="s">
@@ -40227,10 +40227,10 @@
       </c>
       <c r="R11" s="227"/>
       <c r="S11" s="227"/>
-      <c r="T11" s="760" t="s">
+      <c r="T11" s="756" t="s">
         <v>227</v>
       </c>
-      <c r="U11" s="761"/>
+      <c r="U11" s="757"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="206"/>
@@ -40465,10 +40465,10 @@
       </c>
       <c r="C20" s="559"/>
       <c r="D20" s="255"/>
-      <c r="E20" s="760" t="s">
+      <c r="E20" s="756" t="s">
         <v>234</v>
       </c>
-      <c r="F20" s="761"/>
+      <c r="F20" s="757"/>
       <c r="G20" s="236"/>
       <c r="H20" s="236"/>
       <c r="I20" s="207"/>
@@ -40477,10 +40477,10 @@
       </c>
       <c r="K20" s="559"/>
       <c r="L20" s="255"/>
-      <c r="M20" s="760" t="s">
+      <c r="M20" s="756" t="s">
         <v>234</v>
       </c>
-      <c r="N20" s="761"/>
+      <c r="N20" s="757"/>
       <c r="O20" s="246"/>
       <c r="P20" s="246"/>
       <c r="Q20" s="226" t="s">
@@ -40488,10 +40488,10 @@
       </c>
       <c r="R20" s="559"/>
       <c r="S20" s="255"/>
-      <c r="T20" s="760" t="s">
+      <c r="T20" s="756" t="s">
         <v>234</v>
       </c>
-      <c r="U20" s="761"/>
+      <c r="U20" s="757"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="206"/>
@@ -40755,10 +40755,10 @@
       </c>
       <c r="C30" s="559"/>
       <c r="D30" s="255"/>
-      <c r="E30" s="760" t="s">
+      <c r="E30" s="756" t="s">
         <v>234</v>
       </c>
-      <c r="F30" s="761"/>
+      <c r="F30" s="757"/>
       <c r="G30" s="236"/>
       <c r="H30" s="236"/>
       <c r="I30" s="207"/>
@@ -40767,10 +40767,10 @@
       </c>
       <c r="K30" s="559"/>
       <c r="L30" s="255"/>
-      <c r="M30" s="760" t="s">
+      <c r="M30" s="756" t="s">
         <v>234</v>
       </c>
-      <c r="N30" s="761"/>
+      <c r="N30" s="757"/>
       <c r="O30" s="246"/>
       <c r="P30" s="246"/>
       <c r="Q30" s="226" t="s">
@@ -40778,10 +40778,10 @@
       </c>
       <c r="R30" s="559"/>
       <c r="S30" s="255"/>
-      <c r="T30" s="760" t="s">
+      <c r="T30" s="756" t="s">
         <v>234</v>
       </c>
-      <c r="U30" s="761"/>
+      <c r="U30" s="757"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="269"/>
@@ -41104,11 +41104,11 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="206"/>
-      <c r="B42" s="762"/>
-      <c r="C42" s="762"/>
-      <c r="D42" s="762"/>
-      <c r="E42" s="762"/>
-      <c r="F42" s="762"/>
+      <c r="B42" s="758"/>
+      <c r="C42" s="758"/>
+      <c r="D42" s="758"/>
+      <c r="E42" s="758"/>
+      <c r="F42" s="758"/>
       <c r="G42" s="246"/>
       <c r="H42" s="207"/>
       <c r="I42" s="246"/>
@@ -41252,6 +41252,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R9:S9"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="T30:U30"/>
@@ -41263,15 +41272,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="T20:U20"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41814,8 +41814,8 @@
       </c>
       <c r="C2" s="209"/>
       <c r="D2" s="209"/>
-      <c r="E2" s="756"/>
-      <c r="F2" s="756"/>
+      <c r="E2" s="763"/>
+      <c r="F2" s="763"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="208"/>
@@ -41847,13 +41847,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="206"/>
-      <c r="B6" s="757" t="s">
+      <c r="B6" s="764" t="s">
         <v>460</v>
       </c>
-      <c r="C6" s="757"/>
-      <c r="D6" s="757"/>
-      <c r="E6" s="757"/>
-      <c r="F6" s="757"/>
+      <c r="C6" s="764"/>
+      <c r="D6" s="764"/>
+      <c r="E6" s="764"/>
+      <c r="F6" s="764"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="206"/>
@@ -42011,11 +42011,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="206"/>
-      <c r="B22" s="762"/>
-      <c r="C22" s="762"/>
-      <c r="D22" s="762"/>
-      <c r="E22" s="762"/>
-      <c r="F22" s="762"/>
+      <c r="B22" s="758"/>
+      <c r="C22" s="758"/>
+      <c r="D22" s="758"/>
+      <c r="E22" s="758"/>
+      <c r="F22" s="758"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="206"/>
@@ -42379,12 +42379,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="681" t="s">
+      <c r="A1" s="710" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="682"/>
-      <c r="C1" s="682"/>
-      <c r="D1" s="682"/>
+      <c r="B1" s="711"/>
+      <c r="C1" s="711"/>
+      <c r="D1" s="711"/>
       <c r="E1" s="361"/>
       <c r="F1" s="794" t="s">
         <v>143</v>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2015_register_model_20161018_1.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2015_register_model_20161018_1.xlsx
@@ -47,32 +47,6 @@
   </si>
   <si>
     <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="14"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Synthesis Report (UWWTDQ2012)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>7</t>
     </r>
     <r>
@@ -1852,6 +1826,32 @@
   </si>
   <si>
     <t>Article 5 [#previous_year#]</t>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color indexed="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Synthesis Report (UWWTDQ2014)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5248,6 +5248,48 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -5282,9 +5324,6 @@
     <xf numFmtId="3" fontId="11" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5333,44 +5372,92 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="19" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5378,97 +5465,22 @@
     <xf numFmtId="3" fontId="32" fillId="12" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="32" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="19" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5480,23 +5492,11 @@
     <xf numFmtId="0" fontId="62" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="64" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5593,9 +5593,51 @@
     <xf numFmtId="3" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5621,48 +5663,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Hyperlink 2" xfId="10"/>
@@ -5963,7 +5963,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8263355B-0ACD-460F-97BB-35A5196A991D}" type="CELLRANGE">
+                    <a:fld id="{D16BC9AA-E05C-4FC0-828D-ED6CF79E0757}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -5994,7 +5994,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4CF9640-FAE5-4246-B591-E80D65D21D6F}" type="CELLRANGE">
+                    <a:fld id="{FE927A07-CAEF-4D3C-8657-3941828014EF}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6198,7 +6198,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B02CF3F3-D3E8-4EE0-953F-0E09C3BEF8CC}" type="CELLRANGE">
+                    <a:fld id="{BC2A5B21-B8F1-47E7-B6A5-9C74C9B5DE1E}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6229,7 +6229,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7EB4CA1-37CB-4C29-9F35-6A5909A58960}" type="CELLRANGE">
+                    <a:fld id="{A5F3953D-AE8C-450D-896B-0532FCE29211}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6379,11 +6379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171808624"/>
-        <c:axId val="171809184"/>
+        <c:axId val="174424000"/>
+        <c:axId val="130259536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171808624"/>
+        <c:axId val="174424000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6426,7 +6426,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171809184"/>
+        <c:crossAx val="130259536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6434,7 +6434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171809184"/>
+        <c:axId val="130259536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6526,7 +6526,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171808624"/>
+        <c:crossAx val="174424000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6912,11 +6912,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173730064"/>
-        <c:axId val="173730624"/>
+        <c:axId val="275966720"/>
+        <c:axId val="275967280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173730064"/>
+        <c:axId val="275966720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7014,7 +7014,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173730624"/>
+        <c:crossAx val="275967280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7022,7 +7022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173730624"/>
+        <c:axId val="275967280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7142,7 +7142,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173730064"/>
+        <c:crossAx val="275966720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8026,11 +8026,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173735664"/>
-        <c:axId val="173736224"/>
+        <c:axId val="275722240"/>
+        <c:axId val="275722800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173735664"/>
+        <c:axId val="275722240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8133,7 +8133,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173736224"/>
+        <c:crossAx val="275722800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8141,7 +8141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173736224"/>
+        <c:axId val="275722800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8192,7 +8192,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173735664"/>
+        <c:crossAx val="275722240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8557,11 +8557,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173832224"/>
-        <c:axId val="173832784"/>
+        <c:axId val="275726160"/>
+        <c:axId val="275726720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173832224"/>
+        <c:axId val="275726160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8672,7 +8672,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173832784"/>
+        <c:crossAx val="275726720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8680,7 +8680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173832784"/>
+        <c:axId val="275726720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8786,7 +8786,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173832224"/>
+        <c:crossAx val="275726160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9156,11 +9156,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173836144"/>
-        <c:axId val="173836704"/>
+        <c:axId val="273258112"/>
+        <c:axId val="273258672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173836144"/>
+        <c:axId val="273258112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9271,7 +9271,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173836704"/>
+        <c:crossAx val="273258672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9279,7 +9279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173836704"/>
+        <c:axId val="273258672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9393,7 +9393,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173836144"/>
+        <c:crossAx val="273258112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9874,11 +9874,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173361712"/>
-        <c:axId val="173362272"/>
+        <c:axId val="273263712"/>
+        <c:axId val="273264272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173361712"/>
+        <c:axId val="273263712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9984,7 +9984,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173362272"/>
+        <c:crossAx val="273264272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9992,7 +9992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173362272"/>
+        <c:axId val="273264272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10114,7 +10114,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173361712"/>
+        <c:crossAx val="273263712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10450,11 +10450,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173365632"/>
-        <c:axId val="174103392"/>
+        <c:axId val="276050256"/>
+        <c:axId val="276050816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173365632"/>
+        <c:axId val="276050256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10565,7 +10565,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174103392"/>
+        <c:crossAx val="276050816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10573,7 +10573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174103392"/>
+        <c:axId val="276050816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10687,7 +10687,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173365632"/>
+        <c:crossAx val="276050256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11023,11 +11023,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="174106752"/>
-        <c:axId val="174107312"/>
+        <c:axId val="276054176"/>
+        <c:axId val="276054736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174106752"/>
+        <c:axId val="276054176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11138,7 +11138,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174107312"/>
+        <c:crossAx val="276054736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11146,7 +11146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174107312"/>
+        <c:axId val="276054736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11260,7 +11260,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174106752"/>
+        <c:crossAx val="276054176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11641,11 +11641,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="174110672"/>
-        <c:axId val="174338960"/>
+        <c:axId val="276058096"/>
+        <c:axId val="276058656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174110672"/>
+        <c:axId val="276058096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11743,7 +11743,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174338960"/>
+        <c:crossAx val="276058656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11751,7 +11751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174338960"/>
+        <c:axId val="276058656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11870,7 +11870,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174110672"/>
+        <c:crossAx val="276058096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12375,11 +12375,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="174344560"/>
-        <c:axId val="174345120"/>
+        <c:axId val="276372640"/>
+        <c:axId val="276373200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174344560"/>
+        <c:axId val="276372640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12422,7 +12422,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174345120"/>
+        <c:crossAx val="276373200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12430,7 +12430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174345120"/>
+        <c:axId val="276373200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12536,7 +12536,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174344560"/>
+        <c:crossAx val="276372640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12772,7 +12772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BD50273-EA47-490D-9B5A-622EB22234BE}" type="CELLRANGE">
+                    <a:fld id="{265906B2-B2CB-464A-844F-160E7AC4BEEE}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -12803,7 +12803,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A392ACD2-BB7C-4F55-92B9-807048C0E301}" type="CELLRANGE">
+                    <a:fld id="{DAA94D4F-1569-4D2F-96E5-13EF571C9953}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13007,7 +13007,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E4F3C6A-E537-43C9-BB1C-8883028DEA69}" type="CELLRANGE">
+                    <a:fld id="{A6D14225-A408-4CB4-9C11-85D7DCC2607E}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13038,7 +13038,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C1A3EB1E-0D5D-4C29-BE25-0AD65AF41F73}" type="CELLRANGE">
+                    <a:fld id="{C64F9180-4F92-4DBD-80C5-40F1A6D73978}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13188,11 +13188,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171812544"/>
-        <c:axId val="171813104"/>
+        <c:axId val="130256736"/>
+        <c:axId val="42096096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171812544"/>
+        <c:axId val="130256736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13290,7 +13290,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171813104"/>
+        <c:crossAx val="42096096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13298,7 +13298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171813104"/>
+        <c:axId val="42096096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13398,7 +13398,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171812544"/>
+        <c:crossAx val="130256736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14316,11 +14316,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="172306064"/>
-        <c:axId val="172306624"/>
+        <c:axId val="178775536"/>
+        <c:axId val="178776096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172306064"/>
+        <c:axId val="178775536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14418,7 +14418,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172306624"/>
+        <c:crossAx val="178776096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14426,7 +14426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172306624"/>
+        <c:axId val="178776096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14532,7 +14532,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172306064"/>
+        <c:crossAx val="178775536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14990,11 +14990,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="172821120"/>
-        <c:axId val="172821680"/>
+        <c:axId val="178780016"/>
+        <c:axId val="178780576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172821120"/>
+        <c:axId val="178780016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15092,7 +15092,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172821680"/>
+        <c:crossAx val="178780576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15100,7 +15100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172821680"/>
+        <c:axId val="178780576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15200,7 +15200,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172821120"/>
+        <c:crossAx val="178780016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15658,11 +15658,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="173223296"/>
-        <c:axId val="173223856"/>
+        <c:axId val="275037904"/>
+        <c:axId val="275038464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173223296"/>
+        <c:axId val="275037904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15760,7 +15760,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173223856"/>
+        <c:crossAx val="275038464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15768,7 +15768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173223856"/>
+        <c:axId val="275038464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15868,7 +15868,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173223296"/>
+        <c:crossAx val="275037904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16399,11 +16399,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173227216"/>
-        <c:axId val="173227776"/>
+        <c:axId val="275041824"/>
+        <c:axId val="275042384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173227216"/>
+        <c:axId val="275041824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16446,7 +16446,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173227776"/>
+        <c:crossAx val="275042384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16454,7 +16454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173227776"/>
+        <c:axId val="275042384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16565,7 +16565,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173227216"/>
+        <c:crossAx val="275041824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17095,11 +17095,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173109296"/>
-        <c:axId val="173109856"/>
+        <c:axId val="275507936"/>
+        <c:axId val="275508496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173109296"/>
+        <c:axId val="275507936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17142,7 +17142,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173109856"/>
+        <c:crossAx val="275508496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17150,7 +17150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173109856"/>
+        <c:axId val="275508496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17269,7 +17269,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173109296"/>
+        <c:crossAx val="275507936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17609,11 +17609,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173113216"/>
-        <c:axId val="173113776"/>
+        <c:axId val="275511856"/>
+        <c:axId val="275512416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173113216"/>
+        <c:axId val="275511856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17708,7 +17708,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173113776"/>
+        <c:crossAx val="275512416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17716,7 +17716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173113776"/>
+        <c:axId val="275512416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -17836,7 +17836,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173113216"/>
+        <c:crossAx val="275511856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29209,8 +29209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R19" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:AP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29313,7 +29313,7 @@
     </row>
     <row r="4" spans="1:44" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="677" t="s">
-        <v>2</v>
+        <v>475</v>
       </c>
       <c r="B4" s="678"/>
       <c r="C4" s="678"/>
@@ -29357,152 +29357,152 @@
       <c r="AO4" s="679"/>
       <c r="AP4" s="679"/>
       <c r="AQ4" s="680" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR4" s="680"/>
     </row>
     <row r="5" spans="1:44" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="414" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="414" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="414" t="s">
+      <c r="C5" s="414" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="414" t="s">
+      <c r="D5" s="415" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="415" t="s">
+      <c r="E5" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="414" t="s">
+      <c r="F5" s="414" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="414" t="s">
+      <c r="G5" s="414" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="414" t="s">
+      <c r="H5" s="414" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="414" t="s">
+      <c r="I5" s="414" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="414" t="s">
+      <c r="J5" s="414" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="414" t="s">
+      <c r="K5" s="414" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="414" t="s">
+      <c r="L5" s="414" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="414" t="s">
+      <c r="M5" s="414" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="414" t="s">
+      <c r="N5" s="414" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="414" t="s">
+      <c r="O5" s="414" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="414" t="s">
+      <c r="P5" s="414" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="414" t="s">
+      <c r="Q5" s="414" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="414" t="s">
+      <c r="R5" s="414" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="414" t="s">
+      <c r="S5" s="414" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="414" t="s">
+      <c r="T5" s="414" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="414" t="s">
+      <c r="U5" s="414" t="s">
         <v>23</v>
       </c>
-      <c r="U5" s="414" t="s">
+      <c r="V5" s="414" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="414" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="414" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="414" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="414" t="s">
-        <v>23</v>
-      </c>
-      <c r="X5" s="414" t="s">
+      <c r="Y5" s="414" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="414" t="s">
+      <c r="Z5" s="414" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="414" t="s">
+      <c r="AA5" s="414" t="s">
         <v>27</v>
       </c>
-      <c r="AA5" s="414" t="s">
+      <c r="AB5" s="414" t="s">
         <v>28</v>
       </c>
-      <c r="AB5" s="414" t="s">
+      <c r="AC5" s="414" t="s">
         <v>29</v>
       </c>
-      <c r="AC5" s="414" t="s">
+      <c r="AD5" s="414" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="414" t="s">
+      <c r="AE5" s="414" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="414" t="s">
+      <c r="AF5" s="414" t="s">
         <v>32</v>
       </c>
-      <c r="AF5" s="414" t="s">
+      <c r="AG5" s="414" t="s">
         <v>33</v>
       </c>
-      <c r="AG5" s="414" t="s">
+      <c r="AH5" s="414" t="s">
         <v>34</v>
       </c>
-      <c r="AH5" s="414" t="s">
+      <c r="AI5" s="414" t="s">
         <v>35</v>
       </c>
-      <c r="AI5" s="414" t="s">
+      <c r="AJ5" s="414" t="s">
         <v>36</v>
       </c>
-      <c r="AJ5" s="414" t="s">
+      <c r="AK5" s="414" t="s">
         <v>37</v>
       </c>
-      <c r="AK5" s="414" t="s">
+      <c r="AL5" s="414" t="s">
         <v>38</v>
       </c>
-      <c r="AL5" s="414" t="s">
+      <c r="AM5" s="414" t="s">
         <v>39</v>
       </c>
-      <c r="AM5" s="414" t="s">
+      <c r="AN5" s="415" t="s">
         <v>40</v>
       </c>
-      <c r="AN5" s="415" t="s">
+      <c r="AO5" s="415" t="s">
         <v>41</v>
       </c>
-      <c r="AO5" s="415" t="s">
+      <c r="AP5" s="415" t="s">
         <v>42</v>
       </c>
-      <c r="AP5" s="415" t="s">
+      <c r="AQ5" s="416" t="s">
         <v>43</v>
       </c>
-      <c r="AQ5" s="416" t="s">
+      <c r="AR5" s="416" t="s">
         <v>44</v>
-      </c>
-      <c r="AR5" s="416" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:44" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -29530,172 +29530,172 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="377" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="378" t="s">
         <v>309</v>
       </c>
-      <c r="B3" s="378" t="s">
+      <c r="C3" s="379" t="s">
         <v>310</v>
-      </c>
-      <c r="C3" s="379" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="380" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="381" t="s">
         <v>312</v>
-      </c>
-      <c r="B4" s="381" t="s">
-        <v>313</v>
       </c>
       <c r="C4" s="382"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="383" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B5" s="384" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C5" s="385"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="383" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" s="384" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C6" s="385"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="383" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B7" s="384" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C7" s="385"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="383" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B8" s="384" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C8" s="386"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="383" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B9" s="384" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" s="386"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="383" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B10" s="384" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C10" s="386"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="383" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B11" s="384" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="387"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="383" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B12" s="384" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C12" s="387"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="388" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B13" s="389"/>
       <c r="C13" s="390"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="391" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20" s="392" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="392" t="s">
+      <c r="C20" s="393" t="s">
         <v>310</v>
-      </c>
-      <c r="C20" s="393" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="394" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="395" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C21" s="620"/>
     </row>
     <row r="22" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A22" s="394" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" s="395" t="s">
         <v>325</v>
-      </c>
-      <c r="B22" s="395" t="s">
-        <v>326</v>
       </c>
       <c r="C22" s="619"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="383" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" s="396" t="s">
         <v>327</v>
-      </c>
-      <c r="B23" s="396" t="s">
-        <v>328</v>
       </c>
       <c r="C23" s="397"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="383" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B24" s="396" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C24" s="397"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="383" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B25" s="396" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C25" s="397"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="388" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B26" s="398"/>
       <c r="C26" s="399"/>
@@ -29735,49 +29735,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="808" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" s="809"/>
-      <c r="C1" s="809"/>
+      <c r="A1" s="798" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="799"/>
+      <c r="C1" s="799"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="816" t="s">
-        <v>345</v>
-      </c>
-      <c r="B3" s="818" t="s">
-        <v>439</v>
-      </c>
-      <c r="C3" s="819"/>
-      <c r="D3" s="814" t="s">
-        <v>466</v>
-      </c>
-      <c r="E3" s="815"/>
-      <c r="AA3" s="748" t="s">
-        <v>359</v>
-      </c>
-      <c r="AB3" s="748"/>
-      <c r="AC3" s="748" t="s">
-        <v>444</v>
-      </c>
-      <c r="AD3" s="748"/>
+      <c r="A3" s="807" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="809" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="810"/>
+      <c r="D3" s="805" t="s">
+        <v>465</v>
+      </c>
+      <c r="E3" s="806"/>
+      <c r="AA3" s="751" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB3" s="751"/>
+      <c r="AC3" s="751" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD3" s="751"/>
     </row>
     <row r="4" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="817"/>
+      <c r="A4" s="808"/>
       <c r="B4" s="427" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C4" s="427" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D4" s="427" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E4" s="427" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AA4" s="672" t="str">
         <f>D3</f>
@@ -29798,7 +29798,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="498" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B5" s="499"/>
       <c r="C5" s="499"/>
@@ -29827,7 +29827,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="502" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B6" s="503"/>
       <c r="C6" s="503"/>
@@ -29856,7 +29856,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="502" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B7" s="503"/>
       <c r="C7" s="503"/>
@@ -29885,7 +29885,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AA8">
         <f>SUM(AA5:AA7)</f>
@@ -29906,21 +29906,21 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z10" s="479"/>
-      <c r="AA10" s="748" t="s">
+      <c r="AA10" s="751" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB10" s="751"/>
+      <c r="AC10" s="751" t="s">
         <v>445</v>
       </c>
-      <c r="AB10" s="748"/>
-      <c r="AC10" s="748" t="s">
-        <v>446</v>
-      </c>
-      <c r="AD10" s="748"/>
+      <c r="AD10" s="751"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z11" s="479" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AA11" s="672" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AB11" s="672" t="str">
         <f>B3</f>
@@ -29958,15 +29958,15 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="816" t="s">
-        <v>346</v>
+      <c r="A13" s="807" t="s">
+        <v>345</v>
       </c>
       <c r="B13" s="426" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="C13" s="647" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Z13" t="str">
         <f>A6</f>
@@ -29990,12 +29990,12 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="817"/>
+      <c r="A14" s="808"/>
       <c r="B14" s="429" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C14" s="440" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z14" t="str">
         <f>A7</f>
@@ -30020,12 +30020,12 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="428" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" s="435"/>
       <c r="C15" s="435"/>
       <c r="Z15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AA15">
         <f>SUM(AA12:AA14)</f>
@@ -30046,88 +30046,88 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="428" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B16" s="435"/>
       <c r="C16" s="435"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="428" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B17" s="435"/>
       <c r="C17" s="435"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="430" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B18" s="435"/>
       <c r="C18" s="435"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="430" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B19" s="435"/>
       <c r="C19" s="435"/>
     </row>
     <row r="21" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>450</v>
-      </c>
-      <c r="B21" s="798" t="s">
-        <v>459</v>
-      </c>
-      <c r="C21" s="798"/>
-      <c r="D21" s="798"/>
-      <c r="E21" s="798"/>
+        <v>449</v>
+      </c>
+      <c r="B21" s="800" t="s">
+        <v>458</v>
+      </c>
+      <c r="C21" s="800"/>
+      <c r="D21" s="800"/>
+      <c r="E21" s="800"/>
     </row>
     <row r="22" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="431" t="s">
-        <v>309</v>
-      </c>
-      <c r="B22" s="820" t="str">
+        <v>308</v>
+      </c>
+      <c r="B22" s="811" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="821"/>
-      <c r="D22" s="820" t="str">
+      <c r="C22" s="812"/>
+      <c r="D22" s="811" t="str">
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
-      <c r="E22" s="821"/>
+      <c r="E22" s="812"/>
     </row>
     <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="432"/>
       <c r="B23" s="652" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C23" s="433" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D23" s="433" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E23" s="433" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z23" s="481" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AA23" s="481" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AC23" s="481" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AD23" s="481" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="496" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B24" s="641"/>
       <c r="C24" s="641"/>
@@ -30152,7 +30152,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="505" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B25" s="642"/>
       <c r="C25" s="642"/>
@@ -30177,7 +30177,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="497" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B26" s="643"/>
       <c r="C26" s="643"/>
@@ -30202,7 +30202,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="497" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B27" s="643"/>
       <c r="C27" s="643"/>
@@ -30227,7 +30227,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="497" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B28" s="643"/>
       <c r="C28" s="643"/>
@@ -30252,7 +30252,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="497" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B29" s="643"/>
       <c r="C29" s="643"/>
@@ -30277,7 +30277,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="513" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B30" s="643"/>
       <c r="C30" s="643"/>
@@ -30286,10 +30286,10 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="Z31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AA31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
@@ -30320,7 +30320,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="Z33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AA33" s="480">
         <f>D25</f>
@@ -30379,10 +30379,10 @@
     </row>
     <row r="35" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="436" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="436" t="s">
         <v>309</v>
-      </c>
-      <c r="B35" s="436" t="s">
-        <v>310</v>
       </c>
       <c r="C35" s="437" t="str">
         <f>B3</f>
@@ -30422,10 +30422,10 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="438" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="439" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C36" s="621"/>
       <c r="D36" s="621"/>
@@ -30459,63 +30459,63 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="438" t="s">
+        <v>324</v>
+      </c>
+      <c r="B37" s="439" t="s">
         <v>325</v>
-      </c>
-      <c r="B37" s="439" t="s">
-        <v>326</v>
       </c>
       <c r="C37" s="640"/>
       <c r="D37" s="640"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="434" t="s">
-        <v>357</v>
-      </c>
-      <c r="B41" s="810" t="str">
+        <v>356</v>
+      </c>
+      <c r="B41" s="801" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="811"/>
-      <c r="D41" s="812" t="str">
+      <c r="C41" s="802"/>
+      <c r="D41" s="803" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="813"/>
+      <c r="E41" s="804"/>
       <c r="AA41" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC41" t="s">
         <v>440</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AD41" t="s">
         <v>447</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AE41" t="s">
         <v>441</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AF41" t="s">
         <v>448</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>442</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="434"/>
       <c r="B42" s="434" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42" s="434" t="s">
         <v>358</v>
       </c>
-      <c r="C42" s="434" t="s">
-        <v>359</v>
-      </c>
       <c r="D42" s="434" t="s">
+        <v>357</v>
+      </c>
+      <c r="E42" s="434" t="s">
         <v>358</v>
       </c>
-      <c r="E42" s="434" t="s">
-        <v>359</v>
-      </c>
       <c r="Z42" s="482" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AA42" s="480">
         <f>C43</f>
@@ -30544,14 +30544,14 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="428" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B43" s="435"/>
       <c r="C43" s="435"/>
       <c r="D43" s="435"/>
       <c r="E43" s="435"/>
       <c r="Z43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AA43" s="480">
         <f>B44</f>
@@ -30580,7 +30580,7 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="500" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B44" s="506"/>
       <c r="C44" s="506"/>
@@ -30590,7 +30590,7 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="500" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B45" s="506"/>
       <c r="C45" s="506"/>
@@ -30600,7 +30600,7 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="500" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B46" s="506"/>
       <c r="C46" s="506"/>
@@ -30610,7 +30610,7 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="500" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B47" s="506"/>
       <c r="C47" s="506"/>
@@ -30620,7 +30620,7 @@
     </row>
     <row r="48" spans="1:32" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="500" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B48" s="506"/>
       <c r="C48" s="506"/>
@@ -30628,17 +30628,17 @@
       <c r="E48" s="506"/>
       <c r="F48" s="507"/>
       <c r="AA48" t="s">
-        <v>450</v>
-      </c>
-      <c r="AB48" s="798" t="s">
-        <v>471</v>
-      </c>
-      <c r="AC48" s="798"/>
-      <c r="AD48" s="798"/>
+        <v>449</v>
+      </c>
+      <c r="AB48" s="800" t="s">
+        <v>470</v>
+      </c>
+      <c r="AC48" s="800"/>
+      <c r="AD48" s="800"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="500" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B49" s="506"/>
       <c r="C49" s="506"/>
@@ -30646,18 +30646,18 @@
       <c r="E49" s="506"/>
       <c r="F49" s="507"/>
       <c r="AB49" s="446" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC49" s="446" t="s">
         <v>366</v>
       </c>
-      <c r="AC49" s="446" t="s">
-        <v>367</v>
-      </c>
       <c r="AD49" s="446" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="500" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B50" s="506"/>
       <c r="C50" s="506"/>
@@ -30674,7 +30674,7 @@
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="500" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B51" s="506"/>
       <c r="C51" s="506"/>
@@ -30719,22 +30719,22 @@
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="441"/>
       <c r="B53" s="442" t="s">
+        <v>365</v>
+      </c>
+      <c r="C53" s="442" t="s">
         <v>366</v>
       </c>
-      <c r="C53" s="442" t="s">
-        <v>367</v>
-      </c>
       <c r="D53" s="509" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E53" s="442" t="s">
+        <v>365</v>
+      </c>
+      <c r="F53" s="442" t="s">
         <v>366</v>
       </c>
-      <c r="F53" s="442" t="s">
-        <v>367</v>
-      </c>
       <c r="G53" s="509" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA53" s="428" t="str">
         <f t="shared" si="12"/>
@@ -30746,7 +30746,7 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="508" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B54" s="506"/>
       <c r="C54" s="506"/>
@@ -30773,7 +30773,7 @@
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="508" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B55" s="506"/>
       <c r="C55" s="506"/>
@@ -30816,7 +30816,7 @@
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="508" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B57" s="506"/>
       <c r="C57" s="506"/>
@@ -30843,7 +30843,7 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="508" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B58" s="506"/>
       <c r="C58" s="506"/>
@@ -30879,7 +30879,7 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="508" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B60" s="506"/>
       <c r="C60" s="506"/>
@@ -30890,7 +30890,7 @@
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="508" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B61" s="506"/>
       <c r="C61" s="506"/>
@@ -30906,47 +30906,47 @@
       <c r="D62" s="495"/>
       <c r="G62" s="495"/>
       <c r="AA62" t="s">
-        <v>450</v>
-      </c>
-      <c r="AB62" s="798" t="s">
-        <v>472</v>
-      </c>
-      <c r="AC62" s="798"/>
-      <c r="AD62" s="798"/>
+        <v>449</v>
+      </c>
+      <c r="AB62" s="800" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC62" s="800"/>
+      <c r="AD62" s="800"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="428"/>
       <c r="B63" s="446" t="s">
+        <v>365</v>
+      </c>
+      <c r="C63" s="446" t="s">
         <v>366</v>
       </c>
-      <c r="C63" s="446" t="s">
-        <v>367</v>
-      </c>
       <c r="D63" s="509" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E63" s="510" t="s">
+        <v>365</v>
+      </c>
+      <c r="F63" s="510" t="s">
         <v>366</v>
       </c>
-      <c r="F63" s="510" t="s">
-        <v>367</v>
-      </c>
       <c r="G63" s="509" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AB63" s="446" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC63" s="446" t="s">
         <v>366</v>
       </c>
-      <c r="AC63" s="446" t="s">
-        <v>367</v>
-      </c>
       <c r="AD63" s="446" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="443" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B64" s="511"/>
       <c r="C64" s="511"/>
@@ -30955,7 +30955,7 @@
       <c r="F64" s="511"/>
       <c r="G64" s="506"/>
       <c r="AA64" s="428" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AB64" s="428"/>
       <c r="AC64" s="428"/>
@@ -30963,7 +30963,7 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="443" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B65" s="512"/>
       <c r="C65" s="512"/>
@@ -30972,7 +30972,7 @@
       <c r="F65" s="511"/>
       <c r="G65" s="506"/>
       <c r="AA65" s="428" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AB65" s="435">
         <f>B64</f>
@@ -30996,7 +30996,7 @@
       <c r="F66" s="511"/>
       <c r="G66" s="506"/>
       <c r="AA66" s="428" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AB66" s="435">
         <f>B43</f>
@@ -31013,7 +31013,7 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="443" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B67" s="512"/>
       <c r="C67" s="512"/>
@@ -31022,7 +31022,7 @@
       <c r="F67" s="511"/>
       <c r="G67" s="506"/>
       <c r="AA67" s="428" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AB67" s="428"/>
       <c r="AC67" s="428"/>
@@ -31030,7 +31030,7 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="443" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B68" s="512"/>
       <c r="C68" s="512"/>
@@ -31039,7 +31039,7 @@
       <c r="F68" s="511"/>
       <c r="G68" s="506"/>
       <c r="AA68" s="428" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AB68" s="435">
         <f>B67</f>
@@ -31063,7 +31063,7 @@
       <c r="F69" s="511"/>
       <c r="G69" s="506"/>
       <c r="AA69" s="428" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AB69" s="435">
         <f>B46</f>
@@ -31080,7 +31080,7 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="443" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B70" s="512"/>
       <c r="C70" s="512"/>
@@ -31089,7 +31089,7 @@
       <c r="F70" s="511"/>
       <c r="G70" s="506"/>
       <c r="AA70" s="428" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AB70" s="428"/>
       <c r="AC70" s="428"/>
@@ -31097,7 +31097,7 @@
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="443" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B71" s="512"/>
       <c r="C71" s="512"/>
@@ -31106,7 +31106,7 @@
       <c r="F71" s="511"/>
       <c r="G71" s="506"/>
       <c r="AA71" s="428" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AB71" s="435">
         <f>B70</f>
@@ -31123,7 +31123,7 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AA72" s="428" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AB72" s="435">
         <f>B49</f>
@@ -31140,75 +31140,75 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="1:31" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="666" t="s">
+        <v>453</v>
+      </c>
+      <c r="B74" s="800" t="s">
         <v>454</v>
       </c>
-      <c r="B74" s="798" t="s">
-        <v>455</v>
-      </c>
-      <c r="C74" s="798"/>
-      <c r="D74" s="798"/>
-      <c r="E74" s="798"/>
+      <c r="C74" s="800"/>
+      <c r="D74" s="800"/>
+      <c r="E74" s="800"/>
     </row>
     <row r="75" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="449" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B75" s="646" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C75" s="450"/>
       <c r="D75" s="646" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E75" s="451"/>
       <c r="F75" s="452" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G75" s="453"/>
       <c r="H75" s="452" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I75" s="448"/>
     </row>
     <row r="76" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="316" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B76" s="317" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="C76" s="317" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="317" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="E76" s="318" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F76" s="454" t="str">
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
       <c r="G76" s="593" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H76" s="664" t="str">
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
       <c r="I76" s="665" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z76" s="317" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AA76" s="317" t="str">
         <f>D3</f>
@@ -31219,10 +31219,10 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="AC76" s="304" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AD76" s="673" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AE76" s="304" t="str">
         <f>B3</f>
@@ -31231,7 +31231,7 @@
     </row>
     <row r="77" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="660" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B77" s="663"/>
       <c r="C77" s="629"/>
@@ -31242,7 +31242,7 @@
       <c r="H77" s="484"/>
       <c r="I77" s="636"/>
       <c r="Z77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AA77" s="480">
         <f t="shared" ref="AA77:AA82" si="16">H77</f>
@@ -31253,7 +31253,7 @@
         <v>0</v>
       </c>
       <c r="AC77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD77" s="480">
         <f t="shared" ref="AD77:AD82" si="17">F77</f>
@@ -31266,7 +31266,7 @@
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="661" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B78" s="654"/>
       <c r="C78" s="630"/>
@@ -31277,7 +31277,7 @@
       <c r="H78" s="486"/>
       <c r="I78" s="637"/>
       <c r="Z78" s="238" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AA78" s="480">
         <f t="shared" si="16"/>
@@ -31288,7 +31288,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="238" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD78" s="480">
         <f t="shared" si="17"/>
@@ -31301,7 +31301,7 @@
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="661" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B79" s="654"/>
       <c r="C79" s="630"/>
@@ -31312,7 +31312,7 @@
       <c r="H79" s="486"/>
       <c r="I79" s="637"/>
       <c r="Z79" s="238" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA79" s="480">
         <f t="shared" si="16"/>
@@ -31323,7 +31323,7 @@
         <v>0</v>
       </c>
       <c r="AC79" s="238" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AD79" s="480">
         <f t="shared" si="17"/>
@@ -31336,7 +31336,7 @@
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="661" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B80" s="654"/>
       <c r="C80" s="630"/>
@@ -31347,7 +31347,7 @@
       <c r="H80" s="486"/>
       <c r="I80" s="637"/>
       <c r="Z80" s="238" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AA80" s="480">
         <f t="shared" si="16"/>
@@ -31358,7 +31358,7 @@
         <v>0</v>
       </c>
       <c r="AC80" s="238" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AD80" s="480">
         <f t="shared" si="17"/>
@@ -31371,7 +31371,7 @@
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="661" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B81" s="656"/>
       <c r="C81" s="630"/>
@@ -31382,7 +31382,7 @@
       <c r="H81" s="488"/>
       <c r="I81" s="638"/>
       <c r="Z81" s="238" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA81" s="480">
         <f t="shared" si="16"/>
@@ -31393,7 +31393,7 @@
         <v>0</v>
       </c>
       <c r="AC81" s="238" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AD81" s="480">
         <f t="shared" si="17"/>
@@ -31406,7 +31406,7 @@
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="662" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B82" s="658"/>
       <c r="C82" s="631"/>
@@ -31417,7 +31417,7 @@
       <c r="H82" s="490"/>
       <c r="I82" s="639"/>
       <c r="Z82" s="455" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA82" s="480">
         <f t="shared" si="16"/>
@@ -31428,7 +31428,7 @@
         <v>0</v>
       </c>
       <c r="AC82" s="455" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AD82" s="480">
         <f t="shared" si="17"/>
@@ -31441,25 +31441,25 @@
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="456" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B85" s="801" t="str">
+      <c r="B85" s="815" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="802"/>
-      <c r="D85" s="801" t="str">
+      <c r="C85" s="816"/>
+      <c r="D85" s="815" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="802"/>
+      <c r="E85" s="816"/>
       <c r="Z85" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AA85" s="673" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AB85" s="673" t="str">
         <f>B3</f>
@@ -31468,16 +31468,16 @@
     </row>
     <row r="86" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="299"/>
-      <c r="B86" s="803" t="s">
-        <v>255</v>
+      <c r="B86" s="817" t="s">
+        <v>254</v>
       </c>
       <c r="C86" s="767"/>
-      <c r="D86" s="803" t="s">
-        <v>255</v>
+      <c r="D86" s="817" t="s">
+        <v>254</v>
       </c>
       <c r="E86" s="767"/>
       <c r="Z86" s="457" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AA86" s="493">
         <f t="shared" ref="AA86:AA93" si="20">D88</f>
@@ -31490,22 +31490,22 @@
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="302" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B87" s="305" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C87" s="306" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D87" s="305" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E87" s="306" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z87" s="458" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AA87" s="493">
         <f t="shared" si="20"/>
@@ -31518,7 +31518,7 @@
     </row>
     <row r="88" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="457" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B88" s="626">
         <v>100</v>
@@ -31529,7 +31529,7 @@
       </c>
       <c r="E88" s="491"/>
       <c r="Z88" s="457" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA88" s="493">
         <f t="shared" si="20"/>
@@ -31542,14 +31542,14 @@
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="458" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B89" s="626"/>
       <c r="C89" s="435"/>
       <c r="D89" s="626"/>
       <c r="E89" s="435"/>
       <c r="Z89" s="458" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA89" s="493">
         <f t="shared" si="20"/>
@@ -31562,7 +31562,7 @@
     </row>
     <row r="90" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="457" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B90" s="626">
         <v>100</v>
@@ -31573,7 +31573,7 @@
       </c>
       <c r="E90" s="491"/>
       <c r="Z90" s="458" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AA90" s="493">
         <f t="shared" si="20"/>
@@ -31586,14 +31586,14 @@
     </row>
     <row r="91" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="458" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B91" s="627"/>
       <c r="C91" s="435"/>
       <c r="D91" s="627"/>
       <c r="E91" s="435"/>
       <c r="Z91" s="459" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA91" s="493">
         <f t="shared" si="20"/>
@@ -31606,14 +31606,14 @@
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="458" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B92" s="627"/>
       <c r="C92" s="435"/>
       <c r="D92" s="627"/>
       <c r="E92" s="435"/>
       <c r="Z92" s="458" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA92" s="493">
         <f t="shared" si="20"/>
@@ -31626,7 +31626,7 @@
     </row>
     <row r="93" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="459" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B93" s="628">
         <v>100</v>
@@ -31639,7 +31639,7 @@
         <v>3869294</v>
       </c>
       <c r="Z93" s="458" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AA93" s="493">
         <f t="shared" si="20"/>
@@ -31652,7 +31652,7 @@
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="458" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B94" s="627"/>
       <c r="C94" s="435"/>
@@ -31661,7 +31661,7 @@
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="458" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B95" s="627"/>
       <c r="C95" s="435"/>
@@ -31677,36 +31677,36 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="456" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B101" s="801" t="str">
+      <c r="B101" s="815" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="802"/>
-      <c r="D101" s="801" t="str">
+      <c r="C101" s="816"/>
+      <c r="D101" s="815" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="802"/>
+      <c r="E101" s="816"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="299"/>
-      <c r="B102" s="803" t="s">
-        <v>255</v>
+      <c r="B102" s="817" t="s">
+        <v>254</v>
       </c>
       <c r="C102" s="767"/>
-      <c r="D102" s="803" t="s">
-        <v>255</v>
+      <c r="D102" s="817" t="s">
+        <v>254</v>
       </c>
       <c r="E102" s="767"/>
       <c r="Z102" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AA102" s="673" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AB102" s="673" t="str">
         <f>B3</f>
@@ -31715,22 +31715,22 @@
     </row>
     <row r="103" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="302" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B103" s="305" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C103" s="306" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D103" s="305" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E103" s="306" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z103" s="457" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AA103" s="493">
         <f t="shared" ref="AA103:AA110" si="22">D104</f>
@@ -31743,7 +31743,7 @@
     </row>
     <row r="104" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="457" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B104" s="626">
         <v>100</v>
@@ -31754,7 +31754,7 @@
       </c>
       <c r="E104" s="491"/>
       <c r="Z104" s="458" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AA104" s="493">
         <f t="shared" si="22"/>
@@ -31767,14 +31767,14 @@
     </row>
     <row r="105" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="458" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B105" s="626"/>
       <c r="C105" s="435"/>
       <c r="D105" s="626"/>
       <c r="E105" s="435"/>
       <c r="Z105" s="457" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA105" s="493">
         <f t="shared" si="22"/>
@@ -31787,7 +31787,7 @@
     </row>
     <row r="106" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="457" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B106" s="626">
         <v>100</v>
@@ -31798,7 +31798,7 @@
       </c>
       <c r="E106" s="491"/>
       <c r="Z106" s="458" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA106" s="493">
         <f t="shared" si="22"/>
@@ -31811,14 +31811,14 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="458" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B107" s="627"/>
       <c r="C107" s="435"/>
       <c r="D107" s="627"/>
       <c r="E107" s="435"/>
       <c r="Z107" s="458" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AA107" s="493">
         <f t="shared" si="22"/>
@@ -31831,14 +31831,14 @@
     </row>
     <row r="108" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="458" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B108" s="627"/>
       <c r="C108" s="435"/>
       <c r="D108" s="627"/>
       <c r="E108" s="435"/>
       <c r="Z108" s="459" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA108" s="493">
         <f t="shared" si="22"/>
@@ -31851,7 +31851,7 @@
     </row>
     <row r="109" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="459" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B109" s="628">
         <v>100</v>
@@ -31862,7 +31862,7 @@
       </c>
       <c r="E109" s="491"/>
       <c r="Z109" s="458" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA109" s="493">
         <f t="shared" si="22"/>
@@ -31875,14 +31875,14 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="458" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B110" s="627"/>
       <c r="C110" s="435"/>
       <c r="D110" s="627"/>
       <c r="E110" s="435"/>
       <c r="Z110" s="458" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AA110" s="493">
         <f t="shared" si="22"/>
@@ -31895,7 +31895,7 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="458" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B111" s="627"/>
       <c r="C111" s="435"/>
@@ -31911,36 +31911,36 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="456" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B116" s="804" t="str">
+      <c r="B116" s="818" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="805"/>
-      <c r="D116" s="804" t="str">
+      <c r="C116" s="819"/>
+      <c r="D116" s="818" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="805"/>
+      <c r="E116" s="819"/>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="462"/>
-      <c r="B117" s="806" t="s">
-        <v>255</v>
-      </c>
-      <c r="C117" s="807"/>
-      <c r="D117" s="806" t="s">
-        <v>255</v>
-      </c>
-      <c r="E117" s="807"/>
+      <c r="B117" s="820" t="s">
+        <v>254</v>
+      </c>
+      <c r="C117" s="821"/>
+      <c r="D117" s="820" t="s">
+        <v>254</v>
+      </c>
+      <c r="E117" s="821"/>
       <c r="Z117" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AA117" s="673" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AB117" s="673" t="str">
         <f>B3</f>
@@ -31949,23 +31949,23 @@
     </row>
     <row r="118" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="463" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B118" s="464" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C118" s="465" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D118" s="464" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E118" s="465" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I118" s="492"/>
       <c r="Z118" s="457" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AA118" s="493">
         <f t="shared" ref="AA118:AA125" si="24">E119</f>
@@ -31978,7 +31978,7 @@
     </row>
     <row r="119" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="457" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B119" s="626">
         <v>100</v>
@@ -31990,7 +31990,7 @@
       <c r="E119" s="491"/>
       <c r="I119" s="492"/>
       <c r="Z119" s="458" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AA119" s="493">
         <f t="shared" si="24"/>
@@ -32003,7 +32003,7 @@
     </row>
     <row r="120" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="458" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B120" s="626"/>
       <c r="C120" s="435"/>
@@ -32011,7 +32011,7 @@
       <c r="E120" s="435"/>
       <c r="I120" s="492"/>
       <c r="Z120" s="457" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA120" s="493">
         <f t="shared" si="24"/>
@@ -32024,7 +32024,7 @@
     </row>
     <row r="121" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="457" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B121" s="626">
         <v>100</v>
@@ -32036,7 +32036,7 @@
       <c r="E121" s="491"/>
       <c r="I121" s="492"/>
       <c r="Z121" s="458" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA121" s="493">
         <f t="shared" si="24"/>
@@ -32049,7 +32049,7 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="458" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B122" s="627"/>
       <c r="C122" s="435"/>
@@ -32057,7 +32057,7 @@
       <c r="E122" s="435"/>
       <c r="I122" s="492"/>
       <c r="Z122" s="458" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AA122" s="480">
         <f t="shared" si="24"/>
@@ -32070,7 +32070,7 @@
     </row>
     <row r="123" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="458" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B123" s="627"/>
       <c r="C123" s="435"/>
@@ -32078,7 +32078,7 @@
       <c r="E123" s="435"/>
       <c r="I123" s="492"/>
       <c r="Z123" s="459" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA123" s="480">
         <f t="shared" si="24"/>
@@ -32091,7 +32091,7 @@
     </row>
     <row r="124" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="459" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B124" s="628">
         <v>100</v>
@@ -32103,7 +32103,7 @@
       <c r="E124" s="491"/>
       <c r="I124" s="492"/>
       <c r="Z124" s="458" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA124" s="480">
         <f t="shared" si="24"/>
@@ -32116,7 +32116,7 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="458" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B125" s="627"/>
       <c r="C125" s="435"/>
@@ -32124,7 +32124,7 @@
       <c r="E125" s="435"/>
       <c r="I125" s="492"/>
       <c r="Z125" s="458" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AA125" s="480">
         <f t="shared" si="24"/>
@@ -32137,7 +32137,7 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" s="458" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B126" s="627"/>
       <c r="C126" s="435"/>
@@ -32153,30 +32153,30 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="466" t="s">
-        <v>346</v>
-      </c>
-      <c r="B129" s="799" t="str">
+        <v>345</v>
+      </c>
+      <c r="B129" s="813" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="800"/>
-      <c r="D129" s="800"/>
+      <c r="C129" s="814"/>
+      <c r="D129" s="814"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="467"/>
       <c r="B130" s="468" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C130" s="469" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D130" s="469" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="470" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B131" s="624">
         <v>100</v>
@@ -32186,7 +32186,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="428" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B132" s="624"/>
       <c r="C132" s="435"/>
@@ -32194,7 +32194,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="428" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B133" s="624"/>
       <c r="C133" s="435"/>
@@ -32202,7 +32202,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="428" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B134" s="624"/>
       <c r="C134" s="435"/>
@@ -32210,7 +32210,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="428" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B135" s="624"/>
       <c r="C135" s="435"/>
@@ -32218,7 +32218,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="428" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B136" s="624"/>
       <c r="C136" s="435"/>
@@ -32226,7 +32226,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="428" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B137" s="624"/>
       <c r="C137" s="435"/>
@@ -32234,7 +32234,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="428" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B138" s="624"/>
       <c r="C138" s="435"/>
@@ -32242,7 +32242,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="428" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B139" s="624"/>
       <c r="C139" s="435"/>
@@ -32253,7 +32253,7 @@
     </row>
     <row r="147" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A147" s="472" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B147" s="473"/>
       <c r="C147" s="474" t="str">
@@ -32265,7 +32265,7 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="Z147" s="472" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA147" s="473"/>
       <c r="AB147" s="475" t="str">
@@ -32279,97 +32279,97 @@
     </row>
     <row r="148" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A148" s="476" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B148" s="476" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C148" s="435"/>
       <c r="D148" s="623"/>
       <c r="Z148" s="476" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA148" s="476" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB148" s="477"/>
       <c r="AC148" s="428"/>
     </row>
     <row r="149" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A149" s="476" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B149" s="476" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C149" s="435"/>
       <c r="D149" s="623"/>
       <c r="Z149" s="476" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AA149" s="476" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB149" s="477"/>
       <c r="AC149" s="428"/>
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150" s="476" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B150" s="476" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C150" s="435"/>
       <c r="D150" s="623"/>
       <c r="Z150" s="476" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AA150" s="476" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB150" s="477"/>
       <c r="AC150" s="428"/>
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151" s="476" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B151" s="476" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C151" s="435"/>
       <c r="D151" s="623"/>
       <c r="Z151" s="476" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AA151" s="476" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB151" s="477"/>
       <c r="AC151" s="428"/>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" s="476" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B152" s="476" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C152" s="435"/>
       <c r="D152" s="623"/>
     </row>
     <row r="153" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A153" s="476" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B153" s="476" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C153" s="435"/>
       <c r="D153" s="623"/>
       <c r="Z153" s="472" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA153" s="473"/>
       <c r="AB153" s="475" t="str">
@@ -32383,36 +32383,36 @@
     </row>
     <row r="154" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A154" s="476" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B154" s="476" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C154" s="435"/>
       <c r="D154" s="623"/>
       <c r="Z154" s="476" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA154" s="476" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB154" s="477"/>
       <c r="AC154" s="428"/>
     </row>
     <row r="155" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A155" s="476" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B155" s="476" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C155" s="435"/>
       <c r="D155" s="623"/>
       <c r="Z155" s="476" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AA155" s="476" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB155" s="477"/>
       <c r="AC155" s="428"/>
@@ -32420,10 +32420,10 @@
     <row r="156" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="D156" s="447"/>
       <c r="Z156" s="476" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AA156" s="476" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB156" s="477"/>
       <c r="AC156" s="428"/>
@@ -32431,17 +32431,17 @@
     <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D157" s="447"/>
       <c r="Z157" s="476" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA157" s="476" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB157" s="477"/>
       <c r="AC157" s="428"/>
     </row>
     <row r="158" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="472" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B158" s="472"/>
       <c r="C158" s="475" t="str">
@@ -32455,15 +32455,15 @@
     </row>
     <row r="159" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A159" s="476" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B159" s="476" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C159" s="624"/>
       <c r="D159" s="625"/>
       <c r="Z159" s="472" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA159" s="472"/>
       <c r="AB159" s="475" t="str">
@@ -32477,18 +32477,18 @@
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160" s="476" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B160" s="476" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C160" s="624"/>
       <c r="D160" s="625"/>
       <c r="Z160" s="476" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA160" s="476" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB160" s="461">
         <f>D159</f>
@@ -32501,18 +32501,18 @@
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" s="476" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B161" s="476" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C161" s="624"/>
       <c r="D161" s="625"/>
       <c r="Z161" s="476" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA161" s="476" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB161" s="461">
         <f>D160</f>
@@ -32525,18 +32525,18 @@
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" s="476" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B162" s="476" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C162" s="624"/>
       <c r="D162" s="625"/>
       <c r="Z162" s="476" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA162" s="476" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB162" s="461">
         <f>D161</f>
@@ -32550,10 +32550,10 @@
     <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D163" s="447"/>
       <c r="Z163" s="476" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA163" s="476" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB163" s="461">
         <f>D162</f>
@@ -32569,7 +32569,7 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="472" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B165" s="478"/>
       <c r="C165" s="474" t="str">
@@ -32583,17 +32583,17 @@
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" s="476" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B166" s="476" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C166" s="435"/>
       <c r="D166" s="623"/>
     </row>
     <row r="168" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A168" s="472" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B168" s="473"/>
       <c r="C168" s="474" t="str">
@@ -32605,7 +32605,7 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="Z168" s="472" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA168" s="473"/>
       <c r="AB168" s="475" t="str">
@@ -32619,18 +32619,18 @@
     </row>
     <row r="169" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A169" s="476" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B169" s="476" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C169" s="624"/>
       <c r="D169" s="625"/>
       <c r="Z169" s="476" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AA169" s="476" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB169" s="477">
         <f>D169</f>
@@ -32643,18 +32643,18 @@
     </row>
     <row r="170" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A170" s="476" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B170" s="476" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C170" s="624"/>
       <c r="D170" s="625"/>
       <c r="Z170" s="476" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AA170" s="476" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB170" s="477">
         <f>D171</f>
@@ -32667,18 +32667,18 @@
     </row>
     <row r="171" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A171" s="476" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B171" s="476" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C171" s="624"/>
       <c r="D171" s="625"/>
       <c r="Z171" s="476" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AA171" s="476" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB171" s="477">
         <f>D173</f>
@@ -32691,18 +32691,18 @@
     </row>
     <row r="172" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A172" s="476" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B172" s="476" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C172" s="624"/>
       <c r="D172" s="625"/>
       <c r="Z172" s="476" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AA172" s="476" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB172" s="477">
         <f>D175</f>
@@ -32715,25 +32715,25 @@
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="476" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B173" s="476" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C173" s="624"/>
       <c r="D173" s="625"/>
     </row>
     <row r="174" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A174" s="476" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B174" s="476" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C174" s="624"/>
       <c r="D174" s="625"/>
       <c r="Z174" s="472" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA174" s="473"/>
       <c r="AB174" s="475" t="str">
@@ -32747,18 +32747,18 @@
     </row>
     <row r="175" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A175" s="476" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B175" s="476" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C175" s="624"/>
       <c r="D175" s="625"/>
       <c r="Z175" s="476" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AA175" s="476" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB175" s="477">
         <f>D170</f>
@@ -32771,18 +32771,18 @@
     </row>
     <row r="176" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A176" s="476" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B176" s="476" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C176" s="624"/>
       <c r="D176" s="625"/>
       <c r="Z176" s="476" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AA176" s="476" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB176" s="477">
         <f>D172</f>
@@ -32795,10 +32795,10 @@
     </row>
     <row r="177" spans="26:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="Z177" s="476" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AA177" s="476" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB177" s="477">
         <f>D174</f>
@@ -32811,10 +32811,10 @@
     </row>
     <row r="178" spans="26:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="Z178" s="476" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AA178" s="476" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB178" s="477">
         <f>D176</f>
@@ -32827,17 +32827,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="AB62:AD62"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AB48:AD48"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
@@ -32851,12 +32846,17 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="AB62:AD62"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
@@ -32882,7 +32882,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="400" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -32892,16 +32892,16 @@
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="404" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="404" t="s">
         <v>332</v>
       </c>
-      <c r="B5" s="404" t="s">
+      <c r="C5" s="404" t="s">
         <v>333</v>
       </c>
-      <c r="C5" s="404" t="s">
+      <c r="D5" s="404" t="s">
         <v>334</v>
-      </c>
-      <c r="D5" s="404" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -32940,7 +32940,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -32948,16 +32948,16 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="404" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="404" t="s">
         <v>332</v>
       </c>
-      <c r="B5" s="404" t="s">
-        <v>333</v>
-      </c>
       <c r="C5" s="404" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D5" s="404" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -32994,27 +32994,27 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="400" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="404" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="404" t="s">
         <v>339</v>
       </c>
-      <c r="B4" s="404" t="s">
+      <c r="C4" s="404" t="s">
         <v>340</v>
       </c>
-      <c r="C4" s="404" t="s">
+      <c r="D4" s="404" t="s">
         <v>341</v>
       </c>
-      <c r="D4" s="404" t="s">
+      <c r="E4" s="404" t="s">
         <v>342</v>
       </c>
-      <c r="E4" s="404" t="s">
-        <v>343</v>
-      </c>
       <c r="F4" s="404" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -33053,7 +33053,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -33064,22 +33064,22 @@
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="404" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="404" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="404" t="s">
+      <c r="C5" s="404" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="404" t="s">
+      <c r="D5" s="404" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="404" t="s">
+      <c r="E5" s="404" t="s">
         <v>342</v>
       </c>
-      <c r="E5" s="404" t="s">
-        <v>343</v>
-      </c>
       <c r="F5" s="404" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -33112,379 +33112,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="681" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="682"/>
+      <c r="C1" s="682"/>
+      <c r="D1" s="682"/>
+      <c r="E1" s="682"/>
+      <c r="F1" s="682"/>
+      <c r="G1" s="682"/>
+      <c r="H1" s="683" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="711"/>
-      <c r="C1" s="711"/>
-      <c r="D1" s="711"/>
-      <c r="E1" s="711"/>
-      <c r="F1" s="711"/>
-      <c r="G1" s="711"/>
-      <c r="H1" s="712" t="s">
+      <c r="I1" s="684"/>
+      <c r="J1" s="684"/>
+      <c r="K1" s="684"/>
+      <c r="L1" s="684"/>
+      <c r="M1" s="685"/>
+      <c r="N1" s="686" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="713"/>
-      <c r="J1" s="713"/>
-      <c r="K1" s="713"/>
-      <c r="L1" s="713"/>
-      <c r="M1" s="714"/>
-      <c r="N1" s="715" t="s">
+      <c r="O1" s="687"/>
+      <c r="P1" s="687"/>
+      <c r="Q1" s="688"/>
+      <c r="R1" s="688"/>
+      <c r="S1" s="687"/>
+      <c r="T1" s="687"/>
+      <c r="U1" s="687"/>
+      <c r="V1" s="689" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="693"/>
-      <c r="P1" s="693"/>
-      <c r="Q1" s="716"/>
-      <c r="R1" s="716"/>
-      <c r="S1" s="693"/>
-      <c r="T1" s="693"/>
-      <c r="U1" s="693"/>
-      <c r="V1" s="717" t="s">
+      <c r="W1" s="690"/>
+      <c r="X1" s="691"/>
+      <c r="Y1" s="691"/>
+      <c r="Z1" s="692"/>
+      <c r="AA1" s="693" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="718"/>
-      <c r="X1" s="719"/>
-      <c r="Y1" s="719"/>
-      <c r="Z1" s="720"/>
-      <c r="AA1" s="721" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB1" s="722"/>
-      <c r="AC1" s="722"/>
-      <c r="AD1" s="722"/>
-      <c r="AE1" s="722"/>
-      <c r="AF1" s="722"/>
-      <c r="AG1" s="722"/>
-      <c r="AH1" s="722"/>
-      <c r="AI1" s="722"/>
-      <c r="AJ1" s="722"/>
-      <c r="AK1" s="722"/>
-      <c r="AL1" s="722"/>
-      <c r="AM1" s="722"/>
+      <c r="AB1" s="694"/>
+      <c r="AC1" s="694"/>
+      <c r="AD1" s="694"/>
+      <c r="AE1" s="694"/>
+      <c r="AF1" s="694"/>
+      <c r="AG1" s="694"/>
+      <c r="AH1" s="694"/>
+      <c r="AI1" s="694"/>
+      <c r="AJ1" s="694"/>
+      <c r="AK1" s="694"/>
+      <c r="AL1" s="694"/>
+      <c r="AM1" s="694"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="8"/>
-      <c r="AP1" s="692" t="s">
+      <c r="AP1" s="706" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ1" s="687"/>
+      <c r="AR1" s="687"/>
+      <c r="AS1" s="687"/>
+      <c r="AT1" s="687"/>
+      <c r="AU1" s="687"/>
+      <c r="AV1" s="687"/>
+      <c r="AW1" s="707"/>
+      <c r="AX1" s="714" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="693"/>
-      <c r="AR1" s="693"/>
-      <c r="AS1" s="693"/>
-      <c r="AT1" s="693"/>
-      <c r="AU1" s="693"/>
-      <c r="AV1" s="693"/>
-      <c r="AW1" s="694"/>
-      <c r="AX1" s="701" t="s">
+      <c r="AY1" s="715"/>
+      <c r="AZ1" s="715"/>
+      <c r="BA1" s="715"/>
+      <c r="BB1" s="715"/>
+      <c r="BC1" s="716"/>
+      <c r="BD1" s="717" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="702"/>
-      <c r="AZ1" s="702"/>
-      <c r="BA1" s="702"/>
-      <c r="BB1" s="702"/>
-      <c r="BC1" s="703"/>
-      <c r="BD1" s="704" t="s">
+      <c r="BE1" s="718"/>
+      <c r="BF1" s="718"/>
+      <c r="BG1" s="718"/>
+      <c r="BH1" s="718"/>
+      <c r="BI1" s="719"/>
+      <c r="BJ1" s="720" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="705"/>
-      <c r="BF1" s="705"/>
-      <c r="BG1" s="705"/>
-      <c r="BH1" s="705"/>
-      <c r="BI1" s="706"/>
-      <c r="BJ1" s="707" t="s">
+      <c r="BK1" s="721"/>
+      <c r="BL1" s="721"/>
+      <c r="BM1" s="721"/>
+      <c r="BN1" s="721"/>
+      <c r="BO1" s="721"/>
+      <c r="BP1" s="722"/>
+      <c r="BQ1" s="695" t="s">
         <v>56</v>
       </c>
-      <c r="BK1" s="708"/>
-      <c r="BL1" s="708"/>
-      <c r="BM1" s="708"/>
-      <c r="BN1" s="708"/>
-      <c r="BO1" s="708"/>
-      <c r="BP1" s="709"/>
-      <c r="BQ1" s="681" t="s">
-        <v>57</v>
-      </c>
-      <c r="BR1" s="682"/>
-      <c r="BS1" s="682"/>
-      <c r="BT1" s="682"/>
-      <c r="BU1" s="682"/>
-      <c r="BV1" s="682"/>
+      <c r="BR1" s="696"/>
+      <c r="BS1" s="696"/>
+      <c r="BT1" s="696"/>
+      <c r="BU1" s="696"/>
+      <c r="BV1" s="696"/>
       <c r="BW1" s="8"/>
       <c r="BX1" s="9"/>
-      <c r="BY1" s="683" t="s">
-        <v>58</v>
-      </c>
-      <c r="BZ1" s="684"/>
-      <c r="CA1" s="684"/>
-      <c r="CB1" s="684"/>
-      <c r="CC1" s="684"/>
-      <c r="CD1" s="684"/>
-      <c r="CE1" s="684"/>
-      <c r="CF1" s="685"/>
-      <c r="CG1" s="685"/>
-      <c r="CH1" s="685"/>
-      <c r="CI1" s="685"/>
-      <c r="CJ1" s="685"/>
-      <c r="CK1" s="685"/>
-      <c r="CL1" s="685"/>
-      <c r="CM1" s="685"/>
-      <c r="CN1" s="685"/>
-      <c r="CO1" s="685"/>
-      <c r="CP1" s="685"/>
-      <c r="CQ1" s="685"/>
+      <c r="BY1" s="697" t="s">
+        <v>57</v>
+      </c>
+      <c r="BZ1" s="698"/>
+      <c r="CA1" s="698"/>
+      <c r="CB1" s="698"/>
+      <c r="CC1" s="698"/>
+      <c r="CD1" s="698"/>
+      <c r="CE1" s="698"/>
+      <c r="CF1" s="699"/>
+      <c r="CG1" s="699"/>
+      <c r="CH1" s="699"/>
+      <c r="CI1" s="699"/>
+      <c r="CJ1" s="699"/>
+      <c r="CK1" s="699"/>
+      <c r="CL1" s="699"/>
+      <c r="CM1" s="699"/>
+      <c r="CN1" s="699"/>
+      <c r="CO1" s="699"/>
+      <c r="CP1" s="699"/>
+      <c r="CQ1" s="699"/>
     </row>
     <row r="2" spans="1:95" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="700" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="686" t="s">
+      <c r="I2" s="701"/>
+      <c r="J2" s="701" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="687"/>
-      <c r="J2" s="687" t="s">
+      <c r="K2" s="701"/>
+      <c r="L2" s="701" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="687"/>
-      <c r="L2" s="687" t="s">
+      <c r="M2" s="702"/>
+      <c r="N2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="S2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="688"/>
-      <c r="N2" s="12" t="s">
+      <c r="T2" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA2" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF2" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" s="18" t="s">
+      <c r="AI2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV2" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="AA2" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG2" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH2" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI2" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ2" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM2" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN2" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP2" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="AQ2" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT2" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU2" s="13" t="s">
+      <c r="AW2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AV2" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="AW2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX2" s="689" t="s">
+      <c r="AX2" s="703" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY2" s="704"/>
+      <c r="AZ2" s="704"/>
+      <c r="BA2" s="704" t="s">
         <v>93</v>
       </c>
-      <c r="AY2" s="690"/>
-      <c r="AZ2" s="690"/>
-      <c r="BA2" s="690" t="s">
+      <c r="BB2" s="704"/>
+      <c r="BC2" s="705"/>
+      <c r="BD2" s="708" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE2" s="709"/>
+      <c r="BF2" s="709"/>
+      <c r="BG2" s="709" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH2" s="709"/>
+      <c r="BI2" s="710"/>
+      <c r="BJ2" s="711" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK2" s="712"/>
+      <c r="BL2" s="712"/>
+      <c r="BM2" s="712" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN2" s="713"/>
+      <c r="BO2" s="713"/>
+      <c r="BP2" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="BB2" s="690"/>
-      <c r="BC2" s="691"/>
-      <c r="BD2" s="695" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE2" s="696"/>
-      <c r="BF2" s="696"/>
-      <c r="BG2" s="696" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH2" s="696"/>
-      <c r="BI2" s="697"/>
-      <c r="BJ2" s="698" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK2" s="699"/>
-      <c r="BL2" s="699"/>
-      <c r="BM2" s="699" t="s">
-        <v>94</v>
-      </c>
-      <c r="BN2" s="700"/>
-      <c r="BO2" s="700"/>
-      <c r="BP2" s="24" t="s">
+      <c r="BQ2" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="BQ2" s="25" t="s">
+      <c r="BR2" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="BR2" s="26" t="s">
+      <c r="BS2" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BS2" s="26" t="s">
+      <c r="BT2" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="BT2" s="26" t="s">
+      <c r="BU2" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BU2" s="26" t="s">
+      <c r="BV2" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="BV2" s="26" t="s">
+      <c r="BW2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="BW2" s="12" t="s">
+      <c r="BX2" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="BX2" s="13" t="s">
+      <c r="BY2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="BY2" s="13" t="s">
+      <c r="BZ2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="BZ2" s="13" t="s">
+      <c r="CA2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="CA2" s="13" t="s">
+      <c r="CB2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="CB2" s="13" t="s">
+      <c r="CC2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="CC2" s="13" t="s">
+      <c r="CD2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="CD2" s="13" t="s">
+      <c r="CE2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="CE2" s="13" t="s">
+      <c r="CF2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="CF2" s="13" t="s">
+      <c r="CG2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="CG2" s="13" t="s">
+      <c r="CH2" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="CH2" s="13" t="s">
+      <c r="CI2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="CI2" s="13" t="s">
+      <c r="CJ2" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="CJ2" s="13" t="s">
+      <c r="CK2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="CK2" s="13" t="s">
+      <c r="CL2" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="CL2" s="13" t="s">
+      <c r="CM2" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="CM2" s="13" t="s">
+      <c r="CN2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="CN2" s="13" t="s">
+      <c r="CO2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="CO2" s="13" t="s">
+      <c r="CP2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="CP2" s="13" t="s">
+      <c r="CQ2" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="CQ2" s="13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:95" ht="24.75" x14ac:dyDescent="0.25">
@@ -33492,59 +33492,59 @@
       <c r="B3" s="27"/>
       <c r="C3" s="28"/>
       <c r="D3" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>125</v>
-      </c>
       <c r="K3" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N3" s="33"/>
       <c r="O3" s="34"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U3" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V3" s="35"/>
       <c r="W3" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="X3" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y3" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="X3" s="35" t="s">
+      <c r="Z3" s="37" t="s">
         <v>126</v>
-      </c>
-      <c r="Y3" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z3" s="37" t="s">
-        <v>127</v>
       </c>
       <c r="AA3" s="38"/>
       <c r="AB3" s="39"/>
@@ -33570,58 +33570,58 @@
       <c r="AV3" s="44"/>
       <c r="AW3" s="45"/>
       <c r="AX3" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY3" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="AY3" s="47" t="s">
+      <c r="AZ3" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="AZ3" s="48" t="s">
-        <v>130</v>
-      </c>
       <c r="BA3" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB3" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="BB3" s="47" t="s">
+      <c r="BC3" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="BC3" s="49" t="s">
-        <v>130</v>
-      </c>
       <c r="BD3" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE3" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="BE3" s="51" t="s">
+      <c r="BF3" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="BF3" s="52" t="s">
-        <v>130</v>
-      </c>
       <c r="BG3" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH3" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="BH3" s="51" t="s">
+      <c r="BI3" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="BI3" s="53" t="s">
-        <v>130</v>
-      </c>
       <c r="BJ3" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK3" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="BK3" s="55" t="s">
+      <c r="BL3" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="BL3" s="56" t="s">
-        <v>130</v>
-      </c>
       <c r="BM3" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN3" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="BN3" s="55" t="s">
+      <c r="BO3" s="57" t="s">
         <v>129</v>
-      </c>
-      <c r="BO3" s="57" t="s">
-        <v>130</v>
       </c>
       <c r="BP3" s="58"/>
       <c r="BQ3" s="59"/>
@@ -33631,67 +33631,67 @@
       <c r="BU3" s="60"/>
       <c r="BV3" s="60"/>
       <c r="BW3" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="BX3" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="BX3" s="62" t="s">
+      <c r="BY3" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ3" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="CA3" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="BY3" s="62" t="s">
+      <c r="CB3" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="BZ3" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="CA3" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="CB3" s="62" t="s">
-        <v>133</v>
-      </c>
       <c r="CC3" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="CD3" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="CE3" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="CF3" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="CD3" s="62" t="s">
+      <c r="CG3" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="CE3" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="CF3" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="CG3" s="62" t="s">
-        <v>133</v>
-      </c>
       <c r="CH3" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI3" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="CJ3" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="CK3" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="CI3" s="62" t="s">
+      <c r="CL3" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="CJ3" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="CK3" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="CL3" s="62" t="s">
-        <v>133</v>
-      </c>
       <c r="CM3" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="CN3" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="CO3" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="CP3" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="CN3" s="62" t="s">
+      <c r="CQ3" s="62" t="s">
         <v>132</v>
-      </c>
-      <c r="CO3" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="CP3" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="CQ3" s="62" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:95" x14ac:dyDescent="0.25">
@@ -33843,7 +33843,7 @@
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="80"/>
       <c r="C6" s="80"/>
@@ -33863,26 +33863,26 @@
       <c r="Q6" s="80"/>
       <c r="R6" s="519"/>
       <c r="S6" s="527" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T6" s="519" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U6" s="519" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V6" s="80"/>
       <c r="W6" s="519" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X6" s="524" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y6" s="527" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z6" s="527" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA6" s="81"/>
       <c r="AB6" s="81"/>
@@ -33956,7 +33956,7 @@
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
@@ -33976,26 +33976,26 @@
       <c r="Q7" s="80"/>
       <c r="R7" s="519"/>
       <c r="S7" s="527" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T7" s="519" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U7" s="519" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V7" s="80"/>
       <c r="W7" s="519" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X7" s="524" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y7" s="527" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z7" s="527" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA7" s="81"/>
       <c r="AB7" s="81"/>
@@ -34069,7 +34069,7 @@
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
@@ -34089,26 +34089,26 @@
       <c r="Q8" s="80"/>
       <c r="R8" s="519"/>
       <c r="S8" s="527" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T8" s="519" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U8" s="519" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V8" s="80"/>
       <c r="W8" s="519" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X8" s="524" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y8" s="527" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z8" s="527" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA8" s="81"/>
       <c r="AB8" s="81"/>
@@ -34234,7 +34234,7 @@
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X12" s="78"/>
       <c r="AA12" s="74"/>
@@ -34308,11 +34308,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="BQ1:BV1"/>
     <mergeCell ref="BY1:CQ1"/>
     <mergeCell ref="H2:I2"/>
@@ -34328,6 +34323,11 @@
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <conditionalFormatting sqref="A13:A14 A4:B4">
     <cfRule type="duplicateValues" dxfId="8" priority="1"/>
@@ -34351,7 +34351,7 @@
   <sheetData>
     <row r="1" spans="1:100" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="84"/>
       <c r="C1" s="85"/>
@@ -34363,579 +34363,579 @@
       <c r="I1" s="85"/>
       <c r="J1" s="85"/>
       <c r="K1" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="87"/>
+      <c r="M1" s="727" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="87"/>
-      <c r="M1" s="749" t="s">
+      <c r="N1" s="728" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="750" t="s">
+      <c r="O1" s="729"/>
+      <c r="P1" s="729"/>
+      <c r="Q1" s="729"/>
+      <c r="R1" s="730" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="751"/>
-      <c r="P1" s="751"/>
-      <c r="Q1" s="751"/>
-      <c r="R1" s="752" t="s">
+      <c r="S1" s="731"/>
+      <c r="T1" s="731"/>
+      <c r="U1" s="731"/>
+      <c r="V1" s="731"/>
+      <c r="W1" s="731"/>
+      <c r="X1" s="732"/>
+      <c r="Y1" s="733" t="s">
         <v>141</v>
       </c>
-      <c r="S1" s="744"/>
-      <c r="T1" s="744"/>
-      <c r="U1" s="744"/>
-      <c r="V1" s="744"/>
-      <c r="W1" s="744"/>
-      <c r="X1" s="753"/>
-      <c r="Y1" s="733" t="s">
+      <c r="Z1" s="718"/>
+      <c r="AA1" s="736" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="705"/>
-      <c r="AA1" s="754" t="s">
+      <c r="AB1" s="738" t="s">
         <v>143</v>
       </c>
-      <c r="AB1" s="745" t="s">
+      <c r="AC1" s="746" t="s">
         <v>144</v>
       </c>
-      <c r="AC1" s="740" t="s">
+      <c r="AD1" s="747"/>
+      <c r="AE1" s="747"/>
+      <c r="AF1" s="748"/>
+      <c r="AG1" s="749" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="741"/>
-      <c r="AE1" s="741"/>
-      <c r="AF1" s="742"/>
-      <c r="AG1" s="743" t="s">
+      <c r="AH1" s="731"/>
+      <c r="AI1" s="731"/>
+      <c r="AJ1" s="731"/>
+      <c r="AK1" s="731"/>
+      <c r="AL1" s="731"/>
+      <c r="AM1" s="731"/>
+      <c r="AN1" s="731"/>
+      <c r="AO1" s="738" t="s">
         <v>146</v>
       </c>
-      <c r="AH1" s="744"/>
-      <c r="AI1" s="744"/>
-      <c r="AJ1" s="744"/>
-      <c r="AK1" s="744"/>
-      <c r="AL1" s="744"/>
-      <c r="AM1" s="744"/>
-      <c r="AN1" s="744"/>
-      <c r="AO1" s="745" t="s">
+      <c r="AP1" s="733" t="s">
         <v>147</v>
       </c>
-      <c r="AP1" s="733" t="s">
+      <c r="AQ1" s="718"/>
+      <c r="AR1" s="718"/>
+      <c r="AS1" s="719"/>
+      <c r="AT1" s="750" t="s">
         <v>148</v>
       </c>
-      <c r="AQ1" s="705"/>
-      <c r="AR1" s="705"/>
-      <c r="AS1" s="706"/>
-      <c r="AT1" s="747" t="s">
+      <c r="AU1" s="751"/>
+      <c r="AV1" s="751"/>
+      <c r="AW1" s="751"/>
+      <c r="AX1" s="751"/>
+      <c r="AY1" s="751"/>
+      <c r="AZ1" s="751"/>
+      <c r="BA1" s="751"/>
+      <c r="BB1" s="751"/>
+      <c r="BC1" s="751"/>
+      <c r="BD1" s="751"/>
+      <c r="BE1" s="751"/>
+      <c r="BF1" s="751"/>
+      <c r="BG1" s="751"/>
+      <c r="BH1" s="751"/>
+      <c r="BI1" s="751"/>
+      <c r="BJ1" s="751"/>
+      <c r="BK1" s="751"/>
+      <c r="BL1" s="751"/>
+      <c r="BM1" s="751"/>
+      <c r="BN1" s="751"/>
+      <c r="BO1" s="751"/>
+      <c r="BP1" s="751"/>
+      <c r="BQ1" s="751"/>
+      <c r="BR1" s="751"/>
+      <c r="BS1" s="751"/>
+      <c r="BT1" s="751"/>
+      <c r="BU1" s="751"/>
+      <c r="BV1" s="751"/>
+      <c r="BW1" s="738" t="s">
         <v>149</v>
       </c>
-      <c r="AU1" s="748"/>
-      <c r="AV1" s="748"/>
-      <c r="AW1" s="748"/>
-      <c r="AX1" s="748"/>
-      <c r="AY1" s="748"/>
-      <c r="AZ1" s="748"/>
-      <c r="BA1" s="748"/>
-      <c r="BB1" s="748"/>
-      <c r="BC1" s="748"/>
-      <c r="BD1" s="748"/>
-      <c r="BE1" s="748"/>
-      <c r="BF1" s="748"/>
-      <c r="BG1" s="748"/>
-      <c r="BH1" s="748"/>
-      <c r="BI1" s="748"/>
-      <c r="BJ1" s="748"/>
-      <c r="BK1" s="748"/>
-      <c r="BL1" s="748"/>
-      <c r="BM1" s="748"/>
-      <c r="BN1" s="748"/>
-      <c r="BO1" s="748"/>
-      <c r="BP1" s="748"/>
-      <c r="BQ1" s="748"/>
-      <c r="BR1" s="748"/>
-      <c r="BS1" s="748"/>
-      <c r="BT1" s="748"/>
-      <c r="BU1" s="748"/>
-      <c r="BV1" s="748"/>
-      <c r="BW1" s="745" t="s">
+      <c r="BX1" s="733" t="s">
         <v>150</v>
       </c>
-      <c r="BX1" s="733" t="s">
-        <v>151</v>
-      </c>
-      <c r="BY1" s="705"/>
-      <c r="BZ1" s="705"/>
-      <c r="CA1" s="706"/>
-      <c r="CB1" s="734" t="s">
-        <v>52</v>
-      </c>
-      <c r="CC1" s="734"/>
-      <c r="CD1" s="734"/>
-      <c r="CE1" s="734"/>
-      <c r="CF1" s="734"/>
-      <c r="CG1" s="734"/>
-      <c r="CH1" s="734"/>
-      <c r="CI1" s="734"/>
-      <c r="CJ1" s="734"/>
-      <c r="CK1" s="734"/>
-      <c r="CL1" s="734"/>
-      <c r="CM1" s="734"/>
+      <c r="BY1" s="718"/>
+      <c r="BZ1" s="718"/>
+      <c r="CA1" s="719"/>
+      <c r="CB1" s="740" t="s">
+        <v>51</v>
+      </c>
+      <c r="CC1" s="740"/>
+      <c r="CD1" s="740"/>
+      <c r="CE1" s="740"/>
+      <c r="CF1" s="740"/>
+      <c r="CG1" s="740"/>
+      <c r="CH1" s="740"/>
+      <c r="CI1" s="740"/>
+      <c r="CJ1" s="740"/>
+      <c r="CK1" s="740"/>
+      <c r="CL1" s="740"/>
+      <c r="CM1" s="740"/>
       <c r="CN1" s="88"/>
-      <c r="CO1" s="735" t="s">
-        <v>57</v>
-      </c>
-      <c r="CP1" s="693"/>
-      <c r="CQ1" s="693"/>
-      <c r="CR1" s="693"/>
-      <c r="CS1" s="693"/>
-      <c r="CT1" s="693"/>
-      <c r="CU1" s="693"/>
-      <c r="CV1" s="694"/>
+      <c r="CO1" s="741" t="s">
+        <v>56</v>
+      </c>
+      <c r="CP1" s="687"/>
+      <c r="CQ1" s="687"/>
+      <c r="CR1" s="687"/>
+      <c r="CS1" s="687"/>
+      <c r="CT1" s="687"/>
+      <c r="CU1" s="687"/>
+      <c r="CV1" s="707"/>
     </row>
     <row r="2" spans="1:100" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="90" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="91" t="s">
-        <v>65</v>
-      </c>
       <c r="G2" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="727"/>
+      <c r="N2" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="749"/>
-      <c r="N2" s="94" t="s">
+      <c r="O2" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="O2" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" s="94" t="s">
+      <c r="Q2" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="Q2" s="94" t="s">
+      <c r="R2" s="95" t="s">
+        <v>423</v>
+      </c>
+      <c r="S2" s="742" t="s">
         <v>158</v>
       </c>
-      <c r="R2" s="95" t="s">
-        <v>424</v>
-      </c>
-      <c r="S2" s="736" t="s">
+      <c r="T2" s="713"/>
+      <c r="U2" s="743" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="743"/>
+      <c r="W2" s="743" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="744"/>
+      <c r="Y2" s="734"/>
+      <c r="Z2" s="735"/>
+      <c r="AA2" s="737"/>
+      <c r="AB2" s="739"/>
+      <c r="AC2" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="T2" s="700"/>
-      <c r="U2" s="737" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="737"/>
-      <c r="W2" s="737" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="738"/>
-      <c r="Y2" s="727"/>
-      <c r="Z2" s="728"/>
-      <c r="AA2" s="755"/>
-      <c r="AB2" s="746"/>
-      <c r="AC2" s="96" t="s">
+      <c r="AD2" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="AD2" s="96" t="s">
+      <c r="AE2" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="AE2" s="96" t="s">
+      <c r="AF2" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="AF2" s="96" t="s">
+      <c r="AG2" s="745" t="s">
         <v>163</v>
-      </c>
-      <c r="AG2" s="739" t="s">
-        <v>164</v>
       </c>
       <c r="AH2" s="725"/>
       <c r="AI2" s="725" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AJ2" s="725"/>
       <c r="AK2" s="725" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AL2" s="725"/>
       <c r="AM2" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN2" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="AN2" s="97" t="s">
+      <c r="AO2" s="739"/>
+      <c r="AP2" s="734" t="s">
         <v>168</v>
       </c>
-      <c r="AO2" s="746"/>
-      <c r="AP2" s="727" t="s">
+      <c r="AQ2" s="735"/>
+      <c r="AR2" s="723" t="s">
         <v>169</v>
       </c>
-      <c r="AQ2" s="728"/>
-      <c r="AR2" s="729" t="s">
+      <c r="AS2" s="724"/>
+      <c r="AT2" s="725" t="s">
         <v>170</v>
-      </c>
-      <c r="AS2" s="730"/>
-      <c r="AT2" s="725" t="s">
-        <v>171</v>
       </c>
       <c r="AU2" s="725"/>
       <c r="AV2" s="726" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AW2" s="726"/>
       <c r="AX2" s="726" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AY2" s="726"/>
       <c r="AZ2" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="BA2" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="BA2" s="97" t="s">
+      <c r="BB2" s="725" t="s">
         <v>175</v>
-      </c>
-      <c r="BB2" s="725" t="s">
-        <v>176</v>
       </c>
       <c r="BC2" s="725"/>
       <c r="BD2" s="726" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BE2" s="726"/>
       <c r="BF2" s="726" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BG2" s="726"/>
       <c r="BH2" s="97" t="s">
+        <v>178</v>
+      </c>
+      <c r="BI2" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="BI2" s="97" t="s">
+      <c r="BJ2" s="725" t="s">
         <v>180</v>
-      </c>
-      <c r="BJ2" s="725" t="s">
-        <v>181</v>
       </c>
       <c r="BK2" s="725"/>
       <c r="BL2" s="726" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BM2" s="726"/>
       <c r="BN2" s="726" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BO2" s="726"/>
       <c r="BP2" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="BQ2" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="BQ2" s="97" t="s">
+      <c r="BR2" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="BR2" s="98" t="s">
+      <c r="BS2" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="BS2" s="98" t="s">
+      <c r="BT2" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="BT2" s="98" t="s">
+      <c r="BU2" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="BU2" s="97" t="s">
+      <c r="BV2" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="BV2" s="97" t="s">
+      <c r="BW2" s="739"/>
+      <c r="BX2" s="734" t="s">
+        <v>168</v>
+      </c>
+      <c r="BY2" s="735"/>
+      <c r="BZ2" s="723" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA2" s="724"/>
+      <c r="CB2" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="CC2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="CD2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="CE2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="CF2" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="CG2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="CH2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="CK2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="CL2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="CM2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="CN2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="CO2" s="754" t="s">
         <v>190</v>
       </c>
-      <c r="BW2" s="746"/>
-      <c r="BX2" s="727" t="s">
-        <v>169</v>
-      </c>
-      <c r="BY2" s="728"/>
-      <c r="BZ2" s="729" t="s">
-        <v>170</v>
-      </c>
-      <c r="CA2" s="730"/>
-      <c r="CB2" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="CC2" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="CD2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="CE2" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="CF2" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG2" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="CH2" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="CI2" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="CJ2" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="CK2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="CL2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="CM2" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="CN2" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="CO2" s="731" t="s">
+      <c r="CP2" s="755"/>
+      <c r="CQ2" s="752" t="s">
         <v>191</v>
       </c>
-      <c r="CP2" s="732"/>
-      <c r="CQ2" s="723" t="s">
+      <c r="CR2" s="752"/>
+      <c r="CS2" s="755" t="s">
         <v>192</v>
       </c>
-      <c r="CR2" s="723"/>
-      <c r="CS2" s="732" t="s">
+      <c r="CT2" s="755"/>
+      <c r="CU2" s="752" t="s">
         <v>193</v>
       </c>
-      <c r="CT2" s="732"/>
-      <c r="CU2" s="723" t="s">
-        <v>194</v>
-      </c>
-      <c r="CV2" s="724"/>
+      <c r="CV2" s="753"/>
     </row>
     <row r="3" spans="1:100" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="100" t="s">
-        <v>60</v>
-      </c>
       <c r="C3" s="101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="101"/>
       <c r="E3" s="101"/>
       <c r="F3" s="101"/>
       <c r="G3" s="101" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q3" s="105" t="s">
         <v>195</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" s="102" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="103" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="104" t="s">
-        <v>139</v>
-      </c>
-      <c r="N3" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="O3" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q3" s="105" t="s">
-        <v>196</v>
       </c>
       <c r="R3" s="107"/>
       <c r="S3" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="T3" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="U3" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="V3" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="W3" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="X3" s="109" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y3" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="T3" s="108" t="s">
+      <c r="Z3" s="111" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA3" s="112" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB3" s="113" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC3" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD3" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE3" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF3" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG3" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="U3" s="108" t="s">
-        <v>124</v>
-      </c>
-      <c r="V3" s="108" t="s">
+      <c r="AH3" s="115" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI3" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="W3" s="108" t="s">
-        <v>124</v>
-      </c>
-      <c r="X3" s="109" t="s">
+      <c r="AJ3" s="115" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK3" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="Y3" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z3" s="111" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA3" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB3" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC3" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD3" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE3" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF3" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG3" s="114" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH3" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI3" s="115" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ3" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK3" s="115" t="s">
-        <v>124</v>
-      </c>
       <c r="AL3" s="115" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AM3" s="116"/>
       <c r="AN3" s="116"/>
       <c r="AO3" s="113" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP3" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="AP3" s="117" t="s">
-        <v>199</v>
-      </c>
       <c r="AQ3" s="111" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AR3" s="118" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AS3" s="119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AT3" s="120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AU3" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV3" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="AV3" s="120" t="s">
-        <v>124</v>
-      </c>
       <c r="AW3" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX3" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="AX3" s="120" t="s">
-        <v>124</v>
-      </c>
       <c r="AY3" s="120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AZ3" s="121"/>
       <c r="BA3" s="121"/>
       <c r="BB3" s="120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BC3" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD3" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="BD3" s="120" t="s">
-        <v>124</v>
-      </c>
       <c r="BE3" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF3" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="BF3" s="120" t="s">
-        <v>124</v>
-      </c>
       <c r="BG3" s="120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BH3" s="121"/>
       <c r="BI3" s="121"/>
       <c r="BJ3" s="120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BK3" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL3" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="BL3" s="120" t="s">
-        <v>124</v>
-      </c>
       <c r="BM3" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN3" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="BN3" s="120" t="s">
-        <v>124</v>
-      </c>
       <c r="BO3" s="120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BP3" s="121"/>
       <c r="BQ3" s="121"/>
       <c r="BR3" s="120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BS3" s="120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BT3" s="120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU3" s="121"/>
       <c r="BV3" s="121"/>
       <c r="BW3" s="113" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BX3" s="110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BY3" s="111" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BZ3" s="111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CA3" s="119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="CB3" s="122"/>
       <c r="CC3" s="123"/>
@@ -34951,28 +34951,28 @@
       <c r="CM3" s="125"/>
       <c r="CN3" s="125"/>
       <c r="CO3" s="126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CP3" s="127" t="s">
+        <v>122</v>
+      </c>
+      <c r="CQ3" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="CQ3" s="127" t="s">
-        <v>124</v>
-      </c>
       <c r="CR3" s="127" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS3" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="CS3" s="127" t="s">
-        <v>124</v>
-      </c>
       <c r="CT3" s="127" t="s">
+        <v>122</v>
+      </c>
+      <c r="CU3" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="CU3" s="127" t="s">
-        <v>124</v>
-      </c>
       <c r="CV3" s="128" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:100" x14ac:dyDescent="0.25">
@@ -35181,7 +35181,7 @@
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="74"/>
       <c r="C6" s="148"/>
@@ -35285,7 +35285,7 @@
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="74"/>
       <c r="C7" s="148"/>
@@ -35389,7 +35389,7 @@
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A8" s="150" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B8" s="74"/>
       <c r="C8" s="148"/>
@@ -35595,7 +35595,7 @@
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A10" s="153" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" s="154"/>
       <c r="C10" s="154"/>
@@ -35699,7 +35699,7 @@
     </row>
     <row r="11" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A11" s="158" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="158"/>
       <c r="C11" s="159"/>
@@ -35803,7 +35803,7 @@
     </row>
     <row r="12" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A12" s="158" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B12" s="158"/>
       <c r="C12" s="159"/>
@@ -35907,7 +35907,7 @@
     </row>
     <row r="13" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A13" s="158" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B13" s="158"/>
       <c r="C13" s="159"/>
@@ -36011,7 +36011,7 @@
     </row>
     <row r="14" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A14" s="168" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" s="168"/>
       <c r="C14" s="162"/>
@@ -36115,7 +36115,7 @@
     </row>
     <row r="15" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A15" s="168" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B15" s="168"/>
       <c r="C15" s="166"/>
@@ -36219,7 +36219,7 @@
     </row>
     <row r="16" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A16" s="168" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B16" s="168"/>
       <c r="C16" s="166"/>
@@ -36323,7 +36323,7 @@
     </row>
     <row r="17" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A17" s="171" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B17" s="172"/>
       <c r="C17" s="166"/>
@@ -36427,7 +36427,7 @@
     </row>
     <row r="18" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A18" s="171" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B18" s="172"/>
       <c r="C18" s="166"/>
@@ -36633,7 +36633,7 @@
     </row>
     <row r="20" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A20" s="153" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="154"/>
       <c r="C20" s="154"/>
@@ -36737,7 +36737,7 @@
     </row>
     <row r="21" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A21" s="177" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21" s="177"/>
       <c r="C21" s="178"/>
@@ -36841,7 +36841,7 @@
     </row>
     <row r="22" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A22" s="177" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22" s="177"/>
       <c r="C22" s="178"/>
@@ -36945,7 +36945,7 @@
     </row>
     <row r="23" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A23" s="187" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B23" s="187"/>
       <c r="C23" s="181"/>
@@ -37049,7 +37049,7 @@
     </row>
     <row r="24" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A24" s="187" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="187"/>
       <c r="C24" s="181"/>
@@ -37153,7 +37153,7 @@
     </row>
     <row r="25" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A25" s="171" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B25" s="187"/>
       <c r="C25" s="181"/>
@@ -37257,7 +37257,7 @@
     </row>
     <row r="26" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A26" s="171" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" s="187"/>
       <c r="C26" s="181"/>
@@ -37361,7 +37361,7 @@
     </row>
     <row r="27" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A27" s="178" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" s="180"/>
       <c r="C27" s="180"/>
@@ -37465,7 +37465,7 @@
     </row>
     <row r="28" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A28" s="178" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B28" s="180"/>
       <c r="C28" s="180"/>
@@ -37671,7 +37671,7 @@
     </row>
     <row r="30" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A30" s="74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B30" s="74"/>
       <c r="C30" s="173"/>
@@ -37775,7 +37775,7 @@
     </row>
     <row r="31" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A31" s="190" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B31" s="190"/>
       <c r="C31" s="191"/>
@@ -37879,7 +37879,7 @@
     </row>
     <row r="32" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A32" s="190" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B32" s="190"/>
       <c r="C32" s="191"/>
@@ -37983,7 +37983,7 @@
     </row>
     <row r="33" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A33" s="200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B33" s="200"/>
       <c r="C33" s="194"/>
@@ -38087,7 +38087,7 @@
     </row>
     <row r="34" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A34" s="200" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B34" s="200"/>
       <c r="C34" s="194"/>
@@ -38191,7 +38191,7 @@
     </row>
     <row r="35" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A35" s="171" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B35" s="200"/>
       <c r="C35" s="194"/>
@@ -38295,7 +38295,7 @@
     </row>
     <row r="36" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A36" s="171" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B36" s="200"/>
       <c r="C36" s="194"/>
@@ -38399,7 +38399,7 @@
     </row>
     <row r="37" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A37" s="191" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B37" s="193"/>
       <c r="C37" s="193"/>
@@ -38503,7 +38503,7 @@
     </row>
     <row r="38" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A38" s="191" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B38" s="193"/>
       <c r="C38" s="193"/>
@@ -38709,7 +38709,7 @@
     </row>
     <row r="40" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A40" s="74" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B40" s="74"/>
       <c r="C40" s="173"/>
@@ -39833,16 +39833,18 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BX2:BY2"/>
+    <mergeCell ref="BZ2:CA2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="CS2:CT2"/>
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CO1:CV1"/>
@@ -39859,18 +39861,16 @@
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BV1"/>
     <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="BD2:BE2"/>
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BL2:BM2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BX2:BY2"/>
-    <mergeCell ref="BZ2:CA2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39896,7 +39896,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="206"/>
       <c r="B1" s="207" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="208"/>
       <c r="D1" s="207"/>
@@ -39921,10 +39921,10 @@
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="206"/>
       <c r="B2" s="209" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="763"/>
-      <c r="D2" s="763"/>
+        <v>212</v>
+      </c>
+      <c r="C2" s="756"/>
+      <c r="D2" s="756"/>
       <c r="E2" s="207"/>
       <c r="F2" s="207"/>
       <c r="G2" s="207"/>
@@ -40015,69 +40015,69 @@
     <row r="6" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="206"/>
       <c r="B6" s="219" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="207"/>
       <c r="D6" s="207"/>
       <c r="E6" s="207"/>
       <c r="F6" s="220" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G6" s="207"/>
       <c r="H6" s="207"/>
       <c r="I6" s="207"/>
       <c r="J6" s="219" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K6" s="207"/>
       <c r="L6" s="207"/>
       <c r="M6" s="207"/>
       <c r="N6" s="220" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O6" s="207"/>
       <c r="P6" s="207"/>
       <c r="Q6" s="219" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R6" s="207"/>
       <c r="S6" s="207"/>
       <c r="T6" s="207"/>
       <c r="U6" s="220" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="206"/>
-      <c r="B7" s="764" t="s">
-        <v>464</v>
-      </c>
-      <c r="C7" s="764"/>
-      <c r="D7" s="764"/>
+      <c r="B7" s="757" t="s">
+        <v>463</v>
+      </c>
+      <c r="C7" s="757"/>
+      <c r="D7" s="757"/>
       <c r="E7" s="207"/>
       <c r="F7" s="207"/>
       <c r="G7" s="207"/>
       <c r="H7" s="207"/>
       <c r="I7" s="207"/>
-      <c r="J7" s="764" t="s">
-        <v>217</v>
-      </c>
-      <c r="K7" s="764"/>
-      <c r="L7" s="764"/>
+      <c r="J7" s="757" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="757"/>
+      <c r="L7" s="757"/>
       <c r="M7" s="207"/>
       <c r="N7" s="207"/>
       <c r="O7" s="207"/>
       <c r="P7" s="208" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q7" s="764" t="s">
         <v>217</v>
       </c>
-      <c r="R7" s="764"/>
-      <c r="S7" s="764"/>
+      <c r="Q7" s="757" t="s">
+        <v>216</v>
+      </c>
+      <c r="R7" s="757"/>
+      <c r="S7" s="757"/>
       <c r="T7" s="207"/>
       <c r="U7" s="221" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -40106,136 +40106,136 @@
     <row r="9" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="206"/>
       <c r="B9" s="222" t="s">
-        <v>461</v>
-      </c>
-      <c r="C9" s="759" t="s">
+        <v>460</v>
+      </c>
+      <c r="C9" s="758" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="759"/>
+      <c r="E9" s="758" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="760"/>
-      <c r="E9" s="759" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="760"/>
+      <c r="F9" s="759"/>
       <c r="G9" s="207"/>
       <c r="H9" s="207"/>
       <c r="I9" s="207"/>
       <c r="J9" s="222" t="s">
-        <v>461</v>
-      </c>
-      <c r="K9" s="759" t="s">
+        <v>460</v>
+      </c>
+      <c r="K9" s="758" t="s">
+        <v>220</v>
+      </c>
+      <c r="L9" s="759"/>
+      <c r="M9" s="758" t="s">
         <v>221</v>
       </c>
-      <c r="L9" s="760"/>
-      <c r="M9" s="759" t="s">
-        <v>222</v>
-      </c>
-      <c r="N9" s="760"/>
+      <c r="N9" s="759"/>
       <c r="O9" s="207"/>
       <c r="P9" s="207"/>
       <c r="Q9" s="222" t="s">
+        <v>219</v>
+      </c>
+      <c r="R9" s="758" t="s">
         <v>220</v>
       </c>
-      <c r="R9" s="759" t="s">
+      <c r="S9" s="759"/>
+      <c r="T9" s="758" t="s">
         <v>221</v>
       </c>
-      <c r="S9" s="760"/>
-      <c r="T9" s="759" t="s">
-        <v>222</v>
-      </c>
-      <c r="U9" s="760"/>
+      <c r="U9" s="759"/>
     </row>
     <row r="10" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="206"/>
       <c r="B10" s="223" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="225" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="225" t="s">
+      <c r="E10" s="224" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="225" t="s">
         <v>224</v>
-      </c>
-      <c r="E10" s="224" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="225" t="s">
-        <v>225</v>
       </c>
       <c r="G10" s="207"/>
       <c r="H10" s="207"/>
       <c r="I10" s="207"/>
       <c r="J10" s="223" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K10" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="L10" s="225" t="s">
         <v>223</v>
       </c>
-      <c r="L10" s="225" t="s">
+      <c r="M10" s="224" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="225" t="s">
         <v>224</v>
-      </c>
-      <c r="M10" s="224" t="s">
-        <v>123</v>
-      </c>
-      <c r="N10" s="225" t="s">
-        <v>225</v>
       </c>
       <c r="O10" s="207"/>
       <c r="P10" s="207"/>
       <c r="Q10" s="223" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R10" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="S10" s="225" t="s">
         <v>223</v>
       </c>
-      <c r="S10" s="225" t="s">
+      <c r="T10" s="224" t="s">
+        <v>122</v>
+      </c>
+      <c r="U10" s="225" t="s">
         <v>224</v>
-      </c>
-      <c r="T10" s="224" t="s">
-        <v>123</v>
-      </c>
-      <c r="U10" s="225" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="206"/>
       <c r="B11" s="226" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" s="227"/>
       <c r="D11" s="227"/>
-      <c r="E11" s="756" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="757"/>
+      <c r="E11" s="760" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" s="761"/>
       <c r="G11" s="228"/>
       <c r="H11" s="228"/>
       <c r="I11" s="228"/>
       <c r="J11" s="229" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K11" s="207"/>
       <c r="L11" s="207"/>
-      <c r="M11" s="761" t="s">
-        <v>227</v>
-      </c>
-      <c r="N11" s="762"/>
+      <c r="M11" s="763" t="s">
+        <v>226</v>
+      </c>
+      <c r="N11" s="764"/>
       <c r="O11" s="228"/>
       <c r="P11" s="228"/>
       <c r="Q11" s="226" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R11" s="227"/>
       <c r="S11" s="227"/>
-      <c r="T11" s="756" t="s">
-        <v>227</v>
-      </c>
-      <c r="U11" s="757"/>
+      <c r="T11" s="760" t="s">
+        <v>226</v>
+      </c>
+      <c r="U11" s="761"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="206"/>
       <c r="B12" s="230" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C12" s="557"/>
       <c r="D12" s="514"/>
@@ -40245,7 +40245,7 @@
       <c r="H12" s="228"/>
       <c r="I12" s="228"/>
       <c r="J12" s="230" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K12" s="557"/>
       <c r="L12" s="514"/>
@@ -40254,7 +40254,7 @@
       <c r="O12" s="228"/>
       <c r="P12" s="228"/>
       <c r="Q12" s="230" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R12" s="557"/>
       <c r="S12" s="514"/>
@@ -40264,7 +40264,7 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="206"/>
       <c r="B13" s="231" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C13" s="558"/>
       <c r="D13" s="515"/>
@@ -40274,7 +40274,7 @@
       <c r="H13" s="228"/>
       <c r="I13" s="228"/>
       <c r="J13" s="231" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K13" s="558"/>
       <c r="L13" s="515"/>
@@ -40283,7 +40283,7 @@
       <c r="O13" s="228"/>
       <c r="P13" s="228"/>
       <c r="Q13" s="231" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="R13" s="558"/>
       <c r="S13" s="515"/>
@@ -40293,7 +40293,7 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="206"/>
       <c r="B14" s="231" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C14" s="558"/>
       <c r="D14" s="516"/>
@@ -40303,7 +40303,7 @@
       <c r="H14" s="228"/>
       <c r="I14" s="228"/>
       <c r="J14" s="231" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K14" s="558"/>
       <c r="L14" s="516"/>
@@ -40312,7 +40312,7 @@
       <c r="O14" s="228"/>
       <c r="P14" s="228"/>
       <c r="Q14" s="231" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R14" s="558"/>
       <c r="S14" s="516"/>
@@ -40322,7 +40322,7 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="206"/>
       <c r="B15" s="232" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="233"/>
       <c r="D15" s="234"/>
@@ -40332,7 +40332,7 @@
       <c r="H15" s="236"/>
       <c r="I15" s="207"/>
       <c r="J15" s="232" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K15" s="233"/>
       <c r="L15" s="234"/>
@@ -40341,7 +40341,7 @@
       <c r="O15" s="207"/>
       <c r="P15" s="207"/>
       <c r="Q15" s="232" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R15" s="233"/>
       <c r="S15" s="234"/>
@@ -40351,7 +40351,7 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="237"/>
       <c r="B16" s="238" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C16" s="239"/>
       <c r="D16" s="240"/>
@@ -40361,7 +40361,7 @@
       <c r="H16" s="236"/>
       <c r="I16" s="236"/>
       <c r="J16" s="238" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K16" s="239"/>
       <c r="L16" s="240"/>
@@ -40370,7 +40370,7 @@
       <c r="O16" s="207"/>
       <c r="P16" s="207"/>
       <c r="Q16" s="238" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R16" s="239"/>
       <c r="S16" s="240"/>
@@ -40380,7 +40380,7 @@
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="206"/>
       <c r="B17" s="242" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="243"/>
       <c r="D17" s="245"/>
@@ -40390,7 +40390,7 @@
       <c r="H17" s="236"/>
       <c r="I17" s="207"/>
       <c r="J17" s="242" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K17" s="243"/>
       <c r="L17" s="244"/>
@@ -40399,7 +40399,7 @@
       <c r="O17" s="246"/>
       <c r="P17" s="246"/>
       <c r="Q17" s="242" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R17" s="243"/>
       <c r="S17" s="244"/>
@@ -40409,7 +40409,7 @@
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="206"/>
       <c r="B18" s="242" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C18" s="243"/>
       <c r="D18" s="244"/>
@@ -40419,7 +40419,7 @@
       <c r="H18" s="236"/>
       <c r="I18" s="207"/>
       <c r="J18" s="247" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K18" s="248"/>
       <c r="L18" s="249"/>
@@ -40428,7 +40428,7 @@
       <c r="O18" s="207"/>
       <c r="P18" s="207"/>
       <c r="Q18" s="242" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R18" s="243"/>
       <c r="S18" s="244"/>
@@ -40461,42 +40461,42 @@
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="206"/>
       <c r="B20" s="226" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C20" s="559"/>
       <c r="D20" s="255"/>
-      <c r="E20" s="756" t="s">
-        <v>234</v>
-      </c>
-      <c r="F20" s="757"/>
+      <c r="E20" s="760" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="761"/>
       <c r="G20" s="236"/>
       <c r="H20" s="236"/>
       <c r="I20" s="207"/>
       <c r="J20" s="226" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K20" s="559"/>
       <c r="L20" s="255"/>
-      <c r="M20" s="756" t="s">
-        <v>234</v>
-      </c>
-      <c r="N20" s="757"/>
+      <c r="M20" s="760" t="s">
+        <v>233</v>
+      </c>
+      <c r="N20" s="761"/>
       <c r="O20" s="246"/>
       <c r="P20" s="246"/>
       <c r="Q20" s="226" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R20" s="559"/>
       <c r="S20" s="255"/>
-      <c r="T20" s="756" t="s">
-        <v>234</v>
-      </c>
-      <c r="U20" s="757"/>
+      <c r="T20" s="760" t="s">
+        <v>233</v>
+      </c>
+      <c r="U20" s="761"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="206"/>
       <c r="B21" s="256" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C21" s="257"/>
       <c r="D21" s="258"/>
@@ -40506,7 +40506,7 @@
       <c r="H21" s="236"/>
       <c r="I21" s="207"/>
       <c r="J21" s="256" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K21" s="257"/>
       <c r="L21" s="258"/>
@@ -40515,7 +40515,7 @@
       <c r="O21" s="246"/>
       <c r="P21" s="246"/>
       <c r="Q21" s="232" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R21" s="233"/>
       <c r="S21" s="234"/>
@@ -40525,7 +40525,7 @@
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="237"/>
       <c r="B22" s="238" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="239"/>
       <c r="D22" s="240"/>
@@ -40535,7 +40535,7 @@
       <c r="H22" s="236"/>
       <c r="I22" s="246"/>
       <c r="J22" s="238" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K22" s="239"/>
       <c r="L22" s="240"/>
@@ -40544,7 +40544,7 @@
       <c r="O22" s="246"/>
       <c r="P22" s="246"/>
       <c r="Q22" s="238" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R22" s="239"/>
       <c r="S22" s="240"/>
@@ -40554,7 +40554,7 @@
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="206"/>
       <c r="B23" s="242" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" s="243"/>
       <c r="D23" s="244"/>
@@ -40564,7 +40564,7 @@
       <c r="H23" s="236"/>
       <c r="I23" s="207"/>
       <c r="J23" s="242" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K23" s="243"/>
       <c r="L23" s="244"/>
@@ -40573,7 +40573,7 @@
       <c r="O23" s="246"/>
       <c r="P23" s="246"/>
       <c r="Q23" s="242" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R23" s="243"/>
       <c r="S23" s="244"/>
@@ -40583,7 +40583,7 @@
     <row r="24" spans="1:21" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="206"/>
       <c r="B24" s="260" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C24" s="243"/>
       <c r="D24" s="245"/>
@@ -40593,7 +40593,7 @@
       <c r="H24" s="236"/>
       <c r="I24" s="207"/>
       <c r="J24" s="260" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K24" s="261"/>
       <c r="L24" s="244"/>
@@ -40602,7 +40602,7 @@
       <c r="O24" s="246"/>
       <c r="P24" s="246"/>
       <c r="Q24" s="260" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R24" s="261"/>
       <c r="S24" s="244"/>
@@ -40612,7 +40612,7 @@
     <row r="25" spans="1:21" ht="24" x14ac:dyDescent="0.25">
       <c r="A25" s="206"/>
       <c r="B25" s="260" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="243"/>
       <c r="D25" s="245"/>
@@ -40622,7 +40622,7 @@
       <c r="H25" s="236"/>
       <c r="I25" s="207"/>
       <c r="J25" s="260" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K25" s="261"/>
       <c r="L25" s="244"/>
@@ -40631,7 +40631,7 @@
       <c r="O25" s="246"/>
       <c r="P25" s="246"/>
       <c r="Q25" s="260" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R25" s="261"/>
       <c r="S25" s="244"/>
@@ -40641,7 +40641,7 @@
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="206"/>
       <c r="B26" s="260" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C26" s="243"/>
       <c r="D26" s="245"/>
@@ -40651,7 +40651,7 @@
       <c r="H26" s="236"/>
       <c r="I26" s="207"/>
       <c r="J26" s="260" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K26" s="261"/>
       <c r="L26" s="252"/>
@@ -40660,7 +40660,7 @@
       <c r="O26" s="246"/>
       <c r="P26" s="246"/>
       <c r="Q26" s="260" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R26" s="261"/>
       <c r="S26" s="244"/>
@@ -40670,7 +40670,7 @@
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="206"/>
       <c r="B27" s="262" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C27" s="243"/>
       <c r="D27" s="245"/>
@@ -40680,7 +40680,7 @@
       <c r="H27" s="236"/>
       <c r="I27" s="207"/>
       <c r="J27" s="262" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K27" s="261"/>
       <c r="L27" s="245"/>
@@ -40689,7 +40689,7 @@
       <c r="O27" s="246"/>
       <c r="P27" s="246"/>
       <c r="Q27" s="260" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R27" s="261"/>
       <c r="S27" s="244"/>
@@ -40699,7 +40699,7 @@
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="206"/>
       <c r="B28" s="263" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C28" s="243"/>
       <c r="D28" s="245"/>
@@ -40709,7 +40709,7 @@
       <c r="H28" s="236"/>
       <c r="I28" s="207"/>
       <c r="J28" s="674" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K28" s="248"/>
       <c r="L28" s="250"/>
@@ -40718,7 +40718,7 @@
       <c r="O28" s="246"/>
       <c r="P28" s="246"/>
       <c r="Q28" s="242" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R28" s="243"/>
       <c r="S28" s="244"/>
@@ -40751,42 +40751,42 @@
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="206"/>
       <c r="B30" s="226" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C30" s="559"/>
       <c r="D30" s="255"/>
-      <c r="E30" s="756" t="s">
-        <v>234</v>
-      </c>
-      <c r="F30" s="757"/>
+      <c r="E30" s="760" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" s="761"/>
       <c r="G30" s="236"/>
       <c r="H30" s="236"/>
       <c r="I30" s="207"/>
       <c r="J30" s="226" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K30" s="559"/>
       <c r="L30" s="255"/>
-      <c r="M30" s="756" t="s">
-        <v>234</v>
-      </c>
-      <c r="N30" s="757"/>
+      <c r="M30" s="760" t="s">
+        <v>233</v>
+      </c>
+      <c r="N30" s="761"/>
       <c r="O30" s="246"/>
       <c r="P30" s="246"/>
       <c r="Q30" s="226" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R30" s="559"/>
       <c r="S30" s="255"/>
-      <c r="T30" s="756" t="s">
-        <v>234</v>
-      </c>
-      <c r="U30" s="757"/>
+      <c r="T30" s="760" t="s">
+        <v>233</v>
+      </c>
+      <c r="U30" s="761"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="269"/>
       <c r="B31" s="256" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C31" s="270"/>
       <c r="D31" s="271"/>
@@ -40796,7 +40796,7 @@
       <c r="H31" s="273"/>
       <c r="I31" s="274"/>
       <c r="J31" s="256" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K31" s="270"/>
       <c r="L31" s="275"/>
@@ -40805,7 +40805,7 @@
       <c r="O31" s="276"/>
       <c r="P31" s="276"/>
       <c r="Q31" s="232" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R31" s="277"/>
       <c r="S31" s="278"/>
@@ -40815,7 +40815,7 @@
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="280"/>
       <c r="B32" s="238" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C32" s="281"/>
       <c r="D32" s="282"/>
@@ -40825,7 +40825,7 @@
       <c r="H32" s="284"/>
       <c r="I32" s="285"/>
       <c r="J32" s="238" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K32" s="281"/>
       <c r="L32" s="286"/>
@@ -40834,7 +40834,7 @@
       <c r="O32" s="285"/>
       <c r="P32" s="285"/>
       <c r="Q32" s="238" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R32" s="281"/>
       <c r="S32" s="286"/>
@@ -40844,7 +40844,7 @@
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="206"/>
       <c r="B33" s="242" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C33" s="243"/>
       <c r="D33" s="244"/>
@@ -40854,7 +40854,7 @@
       <c r="H33" s="236"/>
       <c r="I33" s="207"/>
       <c r="J33" s="242" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K33" s="243"/>
       <c r="L33" s="244"/>
@@ -40863,7 +40863,7 @@
       <c r="O33" s="246"/>
       <c r="P33" s="246"/>
       <c r="Q33" s="242" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R33" s="243"/>
       <c r="S33" s="244"/>
@@ -40873,7 +40873,7 @@
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="287"/>
       <c r="B34" s="260" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C34" s="243"/>
       <c r="D34" s="245"/>
@@ -40883,7 +40883,7 @@
       <c r="H34" s="236"/>
       <c r="I34" s="236"/>
       <c r="J34" s="260" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K34" s="261"/>
       <c r="L34" s="244"/>
@@ -40892,7 +40892,7 @@
       <c r="O34" s="288"/>
       <c r="P34" s="288"/>
       <c r="Q34" s="260" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R34" s="261"/>
       <c r="S34" s="244"/>
@@ -40902,7 +40902,7 @@
     <row r="35" spans="1:21" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" s="287"/>
       <c r="B35" s="260" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C35" s="243"/>
       <c r="D35" s="245"/>
@@ -40912,7 +40912,7 @@
       <c r="H35" s="236"/>
       <c r="I35" s="236"/>
       <c r="J35" s="260" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K35" s="261"/>
       <c r="L35" s="244"/>
@@ -40921,7 +40921,7 @@
       <c r="O35" s="288"/>
       <c r="P35" s="288"/>
       <c r="Q35" s="260" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R35" s="261"/>
       <c r="S35" s="244"/>
@@ -40931,7 +40931,7 @@
     <row r="36" spans="1:21" ht="24" x14ac:dyDescent="0.25">
       <c r="A36" s="287"/>
       <c r="B36" s="260" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C36" s="243"/>
       <c r="D36" s="245"/>
@@ -40941,7 +40941,7 @@
       <c r="H36" s="236"/>
       <c r="I36" s="236"/>
       <c r="J36" s="260" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K36" s="261"/>
       <c r="L36" s="244"/>
@@ -40950,7 +40950,7 @@
       <c r="O36" s="288"/>
       <c r="P36" s="288"/>
       <c r="Q36" s="260" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R36" s="261"/>
       <c r="S36" s="244"/>
@@ -40960,7 +40960,7 @@
     <row r="37" spans="1:21" ht="24" x14ac:dyDescent="0.25">
       <c r="A37" s="287"/>
       <c r="B37" s="260" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C37" s="243"/>
       <c r="D37" s="245"/>
@@ -40970,7 +40970,7 @@
       <c r="H37" s="236"/>
       <c r="I37" s="236"/>
       <c r="J37" s="260" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K37" s="261"/>
       <c r="L37" s="244"/>
@@ -40979,7 +40979,7 @@
       <c r="O37" s="288"/>
       <c r="P37" s="288"/>
       <c r="Q37" s="260" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R37" s="261"/>
       <c r="S37" s="244"/>
@@ -40989,7 +40989,7 @@
     <row r="38" spans="1:21" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="287"/>
       <c r="B38" s="260" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C38" s="243"/>
       <c r="D38" s="245"/>
@@ -40999,7 +40999,7 @@
       <c r="H38" s="236"/>
       <c r="I38" s="236"/>
       <c r="J38" s="260" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K38" s="261"/>
       <c r="L38" s="244"/>
@@ -41008,7 +41008,7 @@
       <c r="O38" s="288"/>
       <c r="P38" s="288"/>
       <c r="Q38" s="260" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R38" s="261"/>
       <c r="S38" s="244"/>
@@ -41018,7 +41018,7 @@
     <row r="39" spans="1:21" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="287"/>
       <c r="B39" s="260" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="243"/>
       <c r="D39" s="245"/>
@@ -41028,7 +41028,7 @@
       <c r="H39" s="236"/>
       <c r="I39" s="236"/>
       <c r="J39" s="260" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K39" s="261"/>
       <c r="L39" s="244"/>
@@ -41037,7 +41037,7 @@
       <c r="O39" s="288"/>
       <c r="P39" s="288"/>
       <c r="Q39" s="260" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R39" s="261"/>
       <c r="S39" s="244"/>
@@ -41047,7 +41047,7 @@
     <row r="40" spans="1:21" ht="36" x14ac:dyDescent="0.25">
       <c r="A40" s="287"/>
       <c r="B40" s="260" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C40" s="243"/>
       <c r="D40" s="245"/>
@@ -41057,7 +41057,7 @@
       <c r="H40" s="236"/>
       <c r="I40" s="236"/>
       <c r="J40" s="260" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K40" s="261"/>
       <c r="L40" s="244"/>
@@ -41066,7 +41066,7 @@
       <c r="O40" s="288"/>
       <c r="P40" s="288"/>
       <c r="Q40" s="260" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R40" s="261"/>
       <c r="S40" s="244"/>
@@ -41076,7 +41076,7 @@
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="206"/>
       <c r="B41" s="247" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C41" s="248"/>
       <c r="D41" s="249"/>
@@ -41086,7 +41086,7 @@
       <c r="H41" s="236"/>
       <c r="I41" s="207"/>
       <c r="J41" s="247" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K41" s="248"/>
       <c r="L41" s="249"/>
@@ -41095,7 +41095,7 @@
       <c r="O41" s="246"/>
       <c r="P41" s="246"/>
       <c r="Q41" s="247" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R41" s="248"/>
       <c r="S41" s="249"/>
@@ -41104,11 +41104,11 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="206"/>
-      <c r="B42" s="758"/>
-      <c r="C42" s="758"/>
-      <c r="D42" s="758"/>
-      <c r="E42" s="758"/>
-      <c r="F42" s="758"/>
+      <c r="B42" s="762"/>
+      <c r="C42" s="762"/>
+      <c r="D42" s="762"/>
+      <c r="E42" s="762"/>
+      <c r="F42" s="762"/>
       <c r="G42" s="246"/>
       <c r="H42" s="207"/>
       <c r="I42" s="246"/>
@@ -41128,7 +41128,7 @@
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="206"/>
       <c r="B43" s="289" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C43" s="236"/>
       <c r="D43" s="236"/>
@@ -41153,7 +41153,7 @@
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="206"/>
       <c r="B44" s="208" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C44" s="236"/>
       <c r="D44" s="236"/>
@@ -41178,7 +41178,7 @@
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="206"/>
       <c r="B45" s="208" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C45" s="207"/>
       <c r="D45" s="207"/>
@@ -41203,7 +41203,7 @@
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="206"/>
       <c r="B46" s="208" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C46" s="207"/>
       <c r="D46" s="207"/>
@@ -41228,7 +41228,7 @@
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="206"/>
       <c r="B47" s="208" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="207"/>
       <c r="D47" s="207"/>
@@ -41252,15 +41252,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R9:S9"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="T30:U30"/>
@@ -41272,6 +41263,15 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="T20:U20"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41296,13 +41296,13 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="290" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C2" s="291"/>
     </row>
     <row r="3" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="292" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C3" s="765"/>
       <c r="D3" s="765"/>
@@ -41315,14 +41315,14 @@
     </row>
     <row r="7" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="295" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B8" s="296"/>
       <c r="C8" s="296"/>
       <c r="D8" s="297" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -41330,39 +41330,39 @@
     </row>
     <row r="10" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="299" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="300" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="301" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="300" t="s">
-        <v>222</v>
-      </c>
-      <c r="D10" s="301" t="s">
+      <c r="E10" s="766" t="s">
         <v>254</v>
-      </c>
-      <c r="E10" s="766" t="s">
-        <v>255</v>
       </c>
       <c r="F10" s="767"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="302" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" s="303" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="314" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E11" s="314" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F11" s="306" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="307" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="560"/>
       <c r="D12" s="568">
@@ -41373,7 +41373,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="308" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C13" s="561"/>
       <c r="D13" s="569"/>
@@ -41382,7 +41382,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="576" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C14" s="577"/>
       <c r="D14" s="578"/>
@@ -41398,7 +41398,7 @@
     </row>
     <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="310" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C16" s="563"/>
       <c r="D16" s="572"/>
@@ -41407,7 +41407,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="308" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C17" s="561"/>
       <c r="D17" s="569"/>
@@ -41416,7 +41416,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="576" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C18" s="579"/>
       <c r="D18" s="578"/>
@@ -41432,7 +41432,7 @@
     </row>
     <row r="20" spans="2:6" ht="63" x14ac:dyDescent="0.25">
       <c r="B20" s="312" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20" s="563"/>
       <c r="D20" s="574"/>
@@ -41441,7 +41441,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="308" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C21" s="561"/>
       <c r="D21" s="569"/>
@@ -41450,7 +41450,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="308" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C22" s="561"/>
       <c r="D22" s="569"/>
@@ -41469,14 +41469,14 @@
     </row>
     <row r="27" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B27" s="295" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B28" s="296"/>
       <c r="C28" s="296"/>
       <c r="D28" s="297" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -41484,39 +41484,39 @@
     </row>
     <row r="30" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="299" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="300" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30" s="313" t="s">
         <v>253</v>
       </c>
-      <c r="C30" s="300" t="s">
-        <v>222</v>
-      </c>
-      <c r="D30" s="313" t="s">
+      <c r="E30" s="766" t="s">
         <v>254</v>
-      </c>
-      <c r="E30" s="766" t="s">
-        <v>255</v>
       </c>
       <c r="F30" s="767"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="302" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" s="303" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" s="314" t="s">
+        <v>461</v>
+      </c>
+      <c r="E31" s="305" t="s">
         <v>462</v>
       </c>
-      <c r="E31" s="305" t="s">
-        <v>463</v>
-      </c>
       <c r="F31" s="306" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="307" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C32" s="560"/>
       <c r="D32" s="568">
@@ -41527,7 +41527,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="308" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C33" s="561"/>
       <c r="D33" s="569"/>
@@ -41536,7 +41536,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="576" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C34" s="577"/>
       <c r="D34" s="578"/>
@@ -41552,7 +41552,7 @@
     </row>
     <row r="36" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="310" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C36" s="563"/>
       <c r="D36" s="572"/>
@@ -41561,7 +41561,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="308" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C37" s="561"/>
       <c r="D37" s="569"/>
@@ -41570,7 +41570,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="580" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" s="581"/>
       <c r="D38" s="578"/>
@@ -41586,7 +41586,7 @@
     </row>
     <row r="40" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="312" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C40" s="563"/>
       <c r="D40" s="574"/>
@@ -41595,7 +41595,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="308" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C41" s="561"/>
       <c r="D41" s="569"/>
@@ -41604,7 +41604,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="308" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C42" s="561"/>
       <c r="D42" s="569"/>
@@ -41620,14 +41620,14 @@
     </row>
     <row r="46" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B46" s="295" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B47" s="296"/>
       <c r="C47" s="296"/>
       <c r="D47" s="297" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -41635,39 +41635,39 @@
     </row>
     <row r="49" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="299" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="300" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="313" t="s">
         <v>253</v>
       </c>
-      <c r="C49" s="300" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49" s="313" t="s">
+      <c r="E49" s="766" t="s">
         <v>254</v>
-      </c>
-      <c r="E49" s="766" t="s">
-        <v>255</v>
       </c>
       <c r="F49" s="767"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="302" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C50" s="303" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D50" s="314" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E50" s="314" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F50" s="306" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="307" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C51" s="560"/>
       <c r="D51" s="568">
@@ -41678,7 +41678,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="308" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C52" s="561"/>
       <c r="D52" s="569"/>
@@ -41687,7 +41687,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="576" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C53" s="577"/>
       <c r="D53" s="578"/>
@@ -41703,7 +41703,7 @@
     </row>
     <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="310" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C55" s="563"/>
       <c r="D55" s="572"/>
@@ -41712,7 +41712,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="308" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C56" s="561"/>
       <c r="D56" s="569"/>
@@ -41721,7 +41721,7 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="576" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C57" s="579"/>
       <c r="D57" s="578"/>
@@ -41737,7 +41737,7 @@
     </row>
     <row r="59" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="310" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C59" s="563"/>
       <c r="D59" s="574"/>
@@ -41746,7 +41746,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="308" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C60" s="561"/>
       <c r="D60" s="569"/>
@@ -41755,7 +41755,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="308" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C61" s="561"/>
       <c r="D61" s="569"/>
@@ -41800,7 +41800,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="206"/>
       <c r="B1" s="207" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="207"/>
       <c r="D1" s="207"/>
@@ -41810,12 +41810,12 @@
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="206"/>
       <c r="B2" s="209" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" s="209"/>
       <c r="D2" s="209"/>
-      <c r="E2" s="763"/>
-      <c r="F2" s="763"/>
+      <c r="E2" s="756"/>
+      <c r="F2" s="756"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="208"/>
@@ -41836,24 +41836,24 @@
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="206"/>
       <c r="B5" s="219" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="219"/>
       <c r="D5" s="219"/>
       <c r="E5" s="207"/>
       <c r="F5" s="220" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="206"/>
-      <c r="B6" s="764" t="s">
-        <v>460</v>
-      </c>
-      <c r="C6" s="764"/>
-      <c r="D6" s="764"/>
-      <c r="E6" s="764"/>
-      <c r="F6" s="764"/>
+      <c r="B6" s="757" t="s">
+        <v>459</v>
+      </c>
+      <c r="C6" s="757"/>
+      <c r="D6" s="757"/>
+      <c r="E6" s="757"/>
+      <c r="F6" s="757"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="206"/>
@@ -41866,39 +41866,39 @@
     <row r="8" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="206"/>
       <c r="B8" s="595" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="768" t="s">
         <v>220</v>
-      </c>
-      <c r="C8" s="768" t="s">
-        <v>221</v>
       </c>
       <c r="D8" s="769"/>
       <c r="E8" s="770" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F8" s="769"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="206"/>
       <c r="B9" s="596" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="593" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" s="594" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E9" s="317" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="318" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="319"/>
       <c r="B10" s="600" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C10" s="320"/>
       <c r="D10" s="606"/>
@@ -41908,7 +41908,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="319"/>
       <c r="B11" s="601" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C11" s="324"/>
       <c r="D11" s="607"/>
@@ -41918,7 +41918,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="322"/>
       <c r="B12" s="597" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="592"/>
       <c r="D12" s="591"/>
@@ -41936,7 +41936,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="319"/>
       <c r="B14" s="326" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C14" s="603"/>
       <c r="D14" s="609"/>
@@ -41946,7 +41946,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="322"/>
       <c r="B15" s="598" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" s="321"/>
       <c r="D15" s="323"/>
@@ -41956,7 +41956,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="322"/>
       <c r="B16" s="597" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C16" s="592"/>
       <c r="D16" s="591"/>
@@ -41974,7 +41974,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="319"/>
       <c r="B18" s="326" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C18" s="603"/>
       <c r="D18" s="609"/>
@@ -41984,7 +41984,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="322"/>
       <c r="B19" s="598" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C19" s="321"/>
       <c r="D19" s="323"/>
@@ -41994,7 +41994,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="322"/>
       <c r="B20" s="599" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="327"/>
       <c r="D20" s="325"/>
@@ -42011,11 +42011,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="206"/>
-      <c r="B22" s="758"/>
-      <c r="C22" s="758"/>
-      <c r="D22" s="758"/>
-      <c r="E22" s="758"/>
-      <c r="F22" s="758"/>
+      <c r="B22" s="762"/>
+      <c r="C22" s="762"/>
+      <c r="D22" s="762"/>
+      <c r="E22" s="762"/>
+      <c r="F22" s="762"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="206"/>
@@ -42028,7 +42028,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="206"/>
       <c r="B24" s="289" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C24" s="207"/>
       <c r="D24" s="207"/>
@@ -42038,7 +42038,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="206"/>
       <c r="B25" s="208" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C25" s="207"/>
       <c r="D25" s="207"/>
@@ -42048,7 +42048,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="206"/>
       <c r="B26" s="207" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C26" s="207"/>
       <c r="D26" s="207"/>
@@ -42079,43 +42079,43 @@
   <sheetData>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="B2" s="771" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="772" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="772" t="s">
+      <c r="D2" s="772" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="330" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="772" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="330" t="s">
+      <c r="F2" s="330" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="330" t="s">
+      <c r="G2" s="330" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="330" t="s">
+      <c r="H2" s="330" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="330" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="330" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="330" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="330" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="330" t="s">
+      <c r="K2" s="331" t="s">
         <v>278</v>
       </c>
-      <c r="K2" s="331" t="s">
+      <c r="L2" s="331" t="s">
         <v>279</v>
       </c>
-      <c r="L2" s="331" t="s">
+      <c r="M2" s="331" t="s">
         <v>280</v>
       </c>
-      <c r="M2" s="331" t="s">
+      <c r="N2" s="331" t="s">
         <v>281</v>
-      </c>
-      <c r="N2" s="331" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -42123,42 +42123,42 @@
       <c r="C3" s="773"/>
       <c r="D3" s="773"/>
       <c r="E3" s="332" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="332" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="332" t="s">
+        <v>282</v>
+      </c>
+      <c r="H3" s="332" t="s">
+        <v>282</v>
+      </c>
+      <c r="I3" s="332" t="s">
+        <v>282</v>
+      </c>
+      <c r="J3" s="332" t="s">
+        <v>282</v>
+      </c>
+      <c r="K3" s="333" t="s">
         <v>283</v>
       </c>
-      <c r="F3" s="332" t="s">
+      <c r="L3" s="333" t="s">
         <v>283</v>
       </c>
-      <c r="G3" s="332" t="s">
+      <c r="M3" s="333" t="s">
         <v>283</v>
       </c>
-      <c r="H3" s="332" t="s">
-        <v>283</v>
-      </c>
-      <c r="I3" s="332" t="s">
-        <v>283</v>
-      </c>
-      <c r="J3" s="332" t="s">
-        <v>283</v>
-      </c>
-      <c r="K3" s="333" t="s">
+      <c r="N3" s="333" t="s">
         <v>284</v>
-      </c>
-      <c r="L3" s="333" t="s">
-        <v>284</v>
-      </c>
-      <c r="M3" s="333" t="s">
-        <v>284</v>
-      </c>
-      <c r="N3" s="333" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="774" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="334" t="s">
         <v>286</v>
-      </c>
-      <c r="C4" s="334" t="s">
-        <v>287</v>
       </c>
       <c r="D4" s="334"/>
       <c r="E4" s="335"/>
@@ -42175,7 +42175,7 @@
     <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="774"/>
       <c r="C5" s="334" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="334"/>
       <c r="E5" s="335"/>
@@ -42192,7 +42192,7 @@
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="775"/>
       <c r="C6" s="337" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D6" s="337"/>
       <c r="E6" s="338"/>
@@ -42252,44 +42252,44 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="776" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="777"/>
       <c r="C1" s="778"/>
       <c r="D1" s="779" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E1" s="779"/>
       <c r="F1" s="780"/>
       <c r="G1" s="347" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1" s="417"/>
       <c r="I1" s="417"/>
       <c r="J1" s="417"/>
       <c r="K1" s="348"/>
       <c r="L1" s="781" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="349" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="350" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="351" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="352" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="353" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="354" t="s">
         <v>291</v>
-      </c>
-      <c r="E2" s="353" t="s">
-        <v>258</v>
-      </c>
-      <c r="F2" s="354" t="s">
-        <v>292</v>
       </c>
       <c r="G2" s="355">
         <v>0</v>
@@ -42301,10 +42301,10 @@
         <v>2</v>
       </c>
       <c r="J2" s="356" t="s">
+        <v>292</v>
+      </c>
+      <c r="K2" s="357" t="s">
         <v>293</v>
-      </c>
-      <c r="K2" s="357" t="s">
-        <v>294</v>
       </c>
       <c r="L2" s="782"/>
     </row>
@@ -42312,15 +42312,15 @@
       <c r="A3" s="358"/>
       <c r="B3" s="359"/>
       <c r="C3" s="360" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="783" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E3" s="784"/>
       <c r="F3" s="785"/>
       <c r="G3" s="786" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H3" s="787"/>
       <c r="I3" s="787"/>
@@ -42379,15 +42379,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="710" t="s">
-        <v>296</v>
-      </c>
-      <c r="B1" s="711"/>
-      <c r="C1" s="711"/>
-      <c r="D1" s="711"/>
+      <c r="A1" s="681" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="682"/>
+      <c r="C1" s="682"/>
+      <c r="D1" s="682"/>
       <c r="E1" s="361"/>
       <c r="F1" s="794" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G1" s="795"/>
       <c r="H1" s="795"/>
@@ -42396,11 +42396,11 @@
       <c r="K1" s="362"/>
       <c r="L1" s="364"/>
       <c r="M1" s="789" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N1" s="365"/>
       <c r="O1" s="362" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P1" s="363"/>
       <c r="Q1" s="362"/>
@@ -42408,11 +42408,11 @@
       <c r="S1" s="362"/>
       <c r="T1" s="364"/>
       <c r="U1" s="789" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V1" s="365"/>
       <c r="W1" s="796" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X1" s="796"/>
       <c r="Y1" s="796"/>
@@ -42420,153 +42420,153 @@
       <c r="AA1" s="796"/>
       <c r="AB1" s="797"/>
       <c r="AC1" s="789" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="366" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="367" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="367" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="367" t="s">
+      <c r="D2" s="791" t="s">
         <v>303</v>
-      </c>
-      <c r="D2" s="791" t="s">
-        <v>304</v>
       </c>
       <c r="E2" s="791"/>
       <c r="F2" s="368"/>
       <c r="G2" s="792" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H2" s="792"/>
       <c r="I2" s="792" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J2" s="792"/>
       <c r="K2" s="792" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L2" s="793"/>
       <c r="M2" s="790"/>
       <c r="N2" s="369"/>
       <c r="O2" s="792" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P2" s="792"/>
       <c r="Q2" s="792" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R2" s="792"/>
       <c r="S2" s="792" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T2" s="793"/>
       <c r="U2" s="790"/>
       <c r="V2" s="369"/>
       <c r="W2" s="792" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X2" s="792"/>
       <c r="Y2" s="792" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z2" s="792"/>
       <c r="AA2" s="792" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB2" s="793"/>
       <c r="AC2" s="790"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="370" t="s">
         <v>305</v>
       </c>
-      <c r="C3" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="370" t="s">
+      <c r="G3" s="371" t="s">
+        <v>304</v>
+      </c>
+      <c r="H3" s="372" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="373" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" s="372" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="373" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="374" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="375" t="s">
         <v>306</v>
       </c>
-      <c r="G3" s="371" t="s">
+      <c r="N3" s="370" t="s">
         <v>305</v>
       </c>
-      <c r="H3" s="372" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="373" t="s">
+      <c r="O3" s="371" t="s">
+        <v>304</v>
+      </c>
+      <c r="P3" s="372" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="373" t="s">
+        <v>304</v>
+      </c>
+      <c r="R3" s="372" t="s">
+        <v>125</v>
+      </c>
+      <c r="S3" s="373" t="s">
+        <v>304</v>
+      </c>
+      <c r="T3" s="374" t="s">
+        <v>125</v>
+      </c>
+      <c r="U3" s="375" t="s">
+        <v>306</v>
+      </c>
+      <c r="V3" s="370" t="s">
         <v>305</v>
       </c>
-      <c r="J3" s="372" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="373" t="s">
-        <v>305</v>
-      </c>
-      <c r="L3" s="374" t="s">
-        <v>126</v>
-      </c>
-      <c r="M3" s="375" t="s">
-        <v>307</v>
-      </c>
-      <c r="N3" s="370" t="s">
+      <c r="W3" s="373" t="s">
+        <v>304</v>
+      </c>
+      <c r="X3" s="372" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y3" s="373" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z3" s="372" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA3" s="373" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB3" s="374" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC3" s="375" t="s">
         <v>306</v>
-      </c>
-      <c r="O3" s="371" t="s">
-        <v>305</v>
-      </c>
-      <c r="P3" s="372" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q3" s="373" t="s">
-        <v>305</v>
-      </c>
-      <c r="R3" s="372" t="s">
-        <v>126</v>
-      </c>
-      <c r="S3" s="373" t="s">
-        <v>305</v>
-      </c>
-      <c r="T3" s="374" t="s">
-        <v>126</v>
-      </c>
-      <c r="U3" s="375" t="s">
-        <v>307</v>
-      </c>
-      <c r="V3" s="370" t="s">
-        <v>306</v>
-      </c>
-      <c r="W3" s="373" t="s">
-        <v>305</v>
-      </c>
-      <c r="X3" s="372" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y3" s="373" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z3" s="372" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA3" s="373" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB3" s="374" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC3" s="375" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
